--- a/MTV-QC-FM-013A_Rev.00 - MTC.xlsx
+++ b/MTV-QC-FM-013A_Rev.00 - MTC.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kirangowda/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kirangowda/Desktop/excel-generator/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B81DF65-227D-D542-B4E5-BB6F1C8F58CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59BCAB29-DCF5-7C43-8CC5-3F67125E6A6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19580" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="9" r:id="rId1"/>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="185">
   <si>
     <t>-</t>
   </si>
@@ -431,9 +431,6 @@
   </si>
   <si>
     <t>MATERIAL TEST CERTIFICATE ACCORDING TO EN 10204 TYPE 3.1  / 3.2 Annexture</t>
-  </si>
-  <si>
-    <t>MTV2400001</t>
   </si>
   <si>
     <t>MATERIAL TEST CERTIFICATE ACCORDING TO EN 10204 TYPE 3.1 / 3.2</t>
@@ -1821,6 +1818,387 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="63" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="60" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="58" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="59" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="60" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="62" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="61" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="59" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="63" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1851,479 +2229,224 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="61" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="59" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="63" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="63" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="60" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="62" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="58" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="59" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="60" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="49" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="43" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="48" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="39" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="39" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="40" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -2349,9 +2472,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2381,159 +2501,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="49" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="43" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="48" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="39" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="39" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="40" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -2546,6 +2513,36 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3638,12 +3635,12 @@
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B1" s="53" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C1" s="53"/>
       <c r="D1" s="53"/>
       <c r="F1" s="54" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G1" s="54"/>
       <c r="H1" s="54"/>
@@ -3653,13 +3650,13 @@
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B2" s="49" t="s">
         <v>133</v>
       </c>
-      <c r="B2" s="49" t="s">
-        <v>134</v>
-      </c>
       <c r="C2" s="49" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D2" s="48"/>
       <c r="F2" s="50"/>
@@ -3671,15 +3668,15 @@
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B3" s="48"/>
       <c r="C3" s="48"/>
       <c r="D3" s="49" t="s">
+        <v>135</v>
+      </c>
+      <c r="F3" s="50" t="s">
         <v>136</v>
-      </c>
-      <c r="F3" s="50" t="s">
-        <v>137</v>
       </c>
       <c r="G3" s="50"/>
       <c r="H3" s="50"/>
@@ -3691,13 +3688,13 @@
       <c r="B4" s="48"/>
       <c r="C4" s="48"/>
       <c r="D4" s="48" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E4">
         <v>1</v>
       </c>
       <c r="F4" s="50" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G4" s="50"/>
       <c r="H4" s="50"/>
@@ -3705,21 +3702,21 @@
       <c r="J4" s="50"/>
       <c r="K4" s="50"/>
       <c r="M4" t="s">
+        <v>139</v>
+      </c>
+      <c r="N4" t="s">
         <v>140</v>
-      </c>
-      <c r="N4" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B5" s="48"/>
       <c r="C5" s="48"/>
       <c r="D5" s="48" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F5" s="50"/>
       <c r="G5" s="50" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H5" s="50"/>
       <c r="I5" s="50"/>
@@ -3730,7 +3727,7 @@
       <c r="B6" s="48"/>
       <c r="C6" s="48"/>
       <c r="D6" s="48" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F6" s="50"/>
       <c r="G6" s="50"/>
@@ -3747,7 +3744,7 @@
         <v>2</v>
       </c>
       <c r="F7" s="50" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="G7" s="50"/>
       <c r="H7" s="50"/>
@@ -3768,18 +3765,18 @@
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B9" s="48"/>
       <c r="C9" s="48"/>
       <c r="D9" s="48" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E9">
         <v>3</v>
       </c>
       <c r="F9" s="50" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G9" s="50"/>
       <c r="H9" s="50"/>
@@ -3789,29 +3786,29 @@
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B10" s="48"/>
       <c r="C10" s="48"/>
       <c r="D10" s="48" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F10" s="50"/>
       <c r="G10" s="50" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="H10" s="50"/>
       <c r="I10" s="50"/>
       <c r="J10" s="50"/>
       <c r="K10" s="50"/>
       <c r="M10" t="s">
+        <v>150</v>
+      </c>
+      <c r="N10" t="s">
         <v>151</v>
       </c>
-      <c r="N10" t="s">
+      <c r="O10" t="s">
         <v>152</v>
-      </c>
-      <c r="O10" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.2">
@@ -3822,7 +3819,7 @@
         <v>4</v>
       </c>
       <c r="F11" s="50" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G11" s="50"/>
       <c r="H11" s="50"/>
@@ -3832,14 +3829,14 @@
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B12" s="48"/>
       <c r="C12" s="48" t="s">
+        <v>155</v>
+      </c>
+      <c r="D12" s="48" t="s">
         <v>156</v>
-      </c>
-      <c r="D12" s="48" t="s">
-        <v>157</v>
       </c>
       <c r="F12" s="50"/>
       <c r="G12" s="50"/>
@@ -3861,15 +3858,15 @@
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B14" s="48"/>
       <c r="C14" s="48"/>
       <c r="D14" s="48" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F14" s="50" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G14" s="50"/>
       <c r="H14" s="50"/>
@@ -3901,15 +3898,15 @@
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A17" s="55" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B17" s="48"/>
       <c r="C17" s="48" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D17" s="48"/>
       <c r="F17" s="50" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G17" s="50"/>
       <c r="H17" s="50"/>
@@ -3917,10 +3914,10 @@
       <c r="J17" s="50"/>
       <c r="K17" s="50"/>
       <c r="M17" s="56" t="s">
+        <v>162</v>
+      </c>
+      <c r="O17" t="s">
         <v>163</v>
-      </c>
-      <c r="O17" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.2">
@@ -3940,11 +3937,11 @@
       <c r="A19" s="55"/>
       <c r="B19" s="48"/>
       <c r="C19" s="48" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D19" s="48"/>
       <c r="F19" s="50" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G19" s="50"/>
       <c r="H19" s="50"/>
@@ -3970,11 +3967,11 @@
       <c r="A21" s="55"/>
       <c r="B21" s="48"/>
       <c r="C21" s="48" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D21" s="48"/>
       <c r="F21" s="50" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G21" s="50"/>
       <c r="H21" s="50"/>
@@ -4000,11 +3997,11 @@
       <c r="A23" s="55"/>
       <c r="B23" s="48"/>
       <c r="C23" s="48" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D23" s="48"/>
       <c r="F23" s="50" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="G23" s="50"/>
       <c r="H23" s="50"/>
@@ -4015,7 +4012,7 @@
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
   </sheetData>
@@ -4045,83 +4042,83 @@
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="2" spans="1:15" ht="71.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="51"/>
       <c r="B2" s="57" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C2" s="57"/>
       <c r="D2" s="57" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E2" s="57"/>
       <c r="F2" s="58" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G2" s="58"/>
       <c r="H2" s="58" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="I2" s="58"/>
       <c r="J2" s="58" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="K2" s="58"/>
       <c r="L2" s="58" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="M2" s="58"/>
       <c r="N2" s="57" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="O2" s="57"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" s="51"/>
       <c r="B3" s="51" t="s">
+        <v>179</v>
+      </c>
+      <c r="C3" s="51" t="s">
         <v>180</v>
       </c>
-      <c r="C3" s="51" t="s">
-        <v>181</v>
-      </c>
       <c r="D3" s="51" t="s">
+        <v>179</v>
+      </c>
+      <c r="E3" s="51" t="s">
         <v>180</v>
       </c>
-      <c r="E3" s="51" t="s">
-        <v>181</v>
-      </c>
       <c r="F3" s="51" t="s">
+        <v>179</v>
+      </c>
+      <c r="G3" s="51" t="s">
         <v>180</v>
       </c>
-      <c r="G3" s="51" t="s">
-        <v>181</v>
-      </c>
       <c r="H3" s="51" t="s">
+        <v>179</v>
+      </c>
+      <c r="I3" s="51" t="s">
         <v>180</v>
       </c>
-      <c r="I3" s="51" t="s">
-        <v>181</v>
-      </c>
       <c r="J3" s="51" t="s">
+        <v>179</v>
+      </c>
+      <c r="K3" s="51" t="s">
         <v>180</v>
       </c>
-      <c r="K3" s="51" t="s">
-        <v>181</v>
-      </c>
       <c r="L3" s="51" t="s">
+        <v>179</v>
+      </c>
+      <c r="M3" s="51" t="s">
         <v>180</v>
       </c>
-      <c r="M3" s="51" t="s">
-        <v>181</v>
-      </c>
       <c r="N3" s="51" t="s">
+        <v>179</v>
+      </c>
+      <c r="O3" s="51" t="s">
         <v>180</v>
-      </c>
-      <c r="O3" s="51" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.2">
@@ -4428,7 +4425,7 @@
   <dimension ref="A1:DO59"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16:F16"/>
+      <selection activeCell="F13" sqref="F13:N13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4449,318 +4446,314 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="144"/>
-      <c r="B1" s="145"/>
-      <c r="C1" s="59" t="s">
+      <c r="A1" s="74"/>
+      <c r="B1" s="75"/>
+      <c r="C1" s="186" t="s">
         <v>86</v>
       </c>
-      <c r="D1" s="60"/>
-      <c r="E1" s="60"/>
-      <c r="F1" s="60"/>
-      <c r="G1" s="60"/>
-      <c r="H1" s="60"/>
-      <c r="I1" s="60"/>
-      <c r="J1" s="60"/>
-      <c r="K1" s="60"/>
-      <c r="L1" s="60"/>
-      <c r="M1" s="65" t="s">
-        <v>131</v>
-      </c>
-      <c r="N1" s="66"/>
+      <c r="D1" s="187"/>
+      <c r="E1" s="187"/>
+      <c r="F1" s="187"/>
+      <c r="G1" s="187"/>
+      <c r="H1" s="187"/>
+      <c r="I1" s="187"/>
+      <c r="J1" s="187"/>
+      <c r="K1" s="187"/>
+      <c r="L1" s="187"/>
+      <c r="M1" s="192" t="s">
+        <v>130</v>
+      </c>
+      <c r="N1" s="193"/>
     </row>
     <row r="2" spans="1:14" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="146"/>
-      <c r="B2" s="147"/>
-      <c r="C2" s="61"/>
-      <c r="D2" s="62"/>
-      <c r="E2" s="62"/>
-      <c r="F2" s="62"/>
-      <c r="G2" s="62"/>
-      <c r="H2" s="62"/>
-      <c r="I2" s="62"/>
-      <c r="J2" s="62"/>
-      <c r="K2" s="62"/>
-      <c r="L2" s="62"/>
-      <c r="M2" s="67"/>
-      <c r="N2" s="68"/>
+      <c r="A2" s="76"/>
+      <c r="B2" s="77"/>
+      <c r="C2" s="188"/>
+      <c r="D2" s="189"/>
+      <c r="E2" s="189"/>
+      <c r="F2" s="189"/>
+      <c r="G2" s="189"/>
+      <c r="H2" s="189"/>
+      <c r="I2" s="189"/>
+      <c r="J2" s="189"/>
+      <c r="K2" s="189"/>
+      <c r="L2" s="189"/>
+      <c r="M2" s="194"/>
+      <c r="N2" s="195"/>
     </row>
     <row r="3" spans="1:14" s="1" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="146"/>
-      <c r="B3" s="147"/>
-      <c r="C3" s="63" t="s">
+      <c r="A3" s="76"/>
+      <c r="B3" s="77"/>
+      <c r="C3" s="190" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="64"/>
-      <c r="E3" s="64"/>
-      <c r="F3" s="64"/>
-      <c r="G3" s="64"/>
-      <c r="H3" s="64"/>
-      <c r="I3" s="64"/>
-      <c r="J3" s="64"/>
-      <c r="K3" s="64"/>
-      <c r="L3" s="64"/>
+      <c r="D3" s="191"/>
+      <c r="E3" s="191"/>
+      <c r="F3" s="191"/>
+      <c r="G3" s="191"/>
+      <c r="H3" s="191"/>
+      <c r="I3" s="191"/>
+      <c r="J3" s="191"/>
+      <c r="K3" s="191"/>
+      <c r="L3" s="191"/>
       <c r="M3" s="43"/>
       <c r="N3" s="44"/>
     </row>
     <row r="4" spans="1:14" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="148"/>
-      <c r="B4" s="149"/>
-      <c r="C4" s="138" t="s">
+      <c r="A4" s="78"/>
+      <c r="B4" s="79"/>
+      <c r="C4" s="68" t="s">
+        <v>116</v>
+      </c>
+      <c r="D4" s="69"/>
+      <c r="E4" s="69"/>
+      <c r="F4" s="69"/>
+      <c r="G4" s="69"/>
+      <c r="H4" s="69"/>
+      <c r="I4" s="69"/>
+      <c r="J4" s="69"/>
+      <c r="K4" s="69"/>
+      <c r="L4" s="70"/>
+      <c r="M4" s="80" t="s">
+        <v>104</v>
+      </c>
+      <c r="N4" s="81"/>
+    </row>
+    <row r="5" spans="1:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="71" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" s="72"/>
+      <c r="C5" s="72"/>
+      <c r="D5" s="72"/>
+      <c r="E5" s="72"/>
+      <c r="F5" s="72"/>
+      <c r="G5" s="72"/>
+      <c r="H5" s="72"/>
+      <c r="I5" s="73"/>
+      <c r="J5" s="71" t="s">
+        <v>97</v>
+      </c>
+      <c r="K5" s="72"/>
+      <c r="L5" s="72"/>
+      <c r="M5" s="72"/>
+      <c r="N5" s="73"/>
+    </row>
+    <row r="6" spans="1:14" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="111" t="s">
+        <v>87</v>
+      </c>
+      <c r="B6" s="112"/>
+      <c r="C6" s="112"/>
+      <c r="D6" s="112"/>
+      <c r="E6" s="112"/>
+      <c r="F6" s="112"/>
+      <c r="G6" s="112"/>
+      <c r="H6" s="112"/>
+      <c r="I6" s="113"/>
+      <c r="J6" s="105" t="s">
+        <v>88</v>
+      </c>
+      <c r="K6" s="106"/>
+      <c r="L6" s="106"/>
+      <c r="M6" s="106"/>
+      <c r="N6" s="107"/>
+    </row>
+    <row r="7" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="114"/>
+      <c r="B7" s="115"/>
+      <c r="C7" s="115"/>
+      <c r="D7" s="115"/>
+      <c r="E7" s="115"/>
+      <c r="F7" s="115"/>
+      <c r="G7" s="115"/>
+      <c r="H7" s="115"/>
+      <c r="I7" s="116"/>
+      <c r="J7" s="108" t="s">
+        <v>18</v>
+      </c>
+      <c r="K7" s="109"/>
+      <c r="L7" s="109"/>
+      <c r="M7" s="109" t="s">
+        <v>19</v>
+      </c>
+      <c r="N7" s="110"/>
+    </row>
+    <row r="8" spans="1:14" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="117"/>
+      <c r="B8" s="118"/>
+      <c r="C8" s="118"/>
+      <c r="D8" s="118"/>
+      <c r="E8" s="118"/>
+      <c r="F8" s="118"/>
+      <c r="G8" s="118"/>
+      <c r="H8" s="118"/>
+      <c r="I8" s="119"/>
+      <c r="J8" s="103" t="s">
         <v>117</v>
       </c>
-      <c r="D4" s="139"/>
-      <c r="E4" s="139"/>
-      <c r="F4" s="139"/>
-      <c r="G4" s="139"/>
-      <c r="H4" s="139"/>
-      <c r="I4" s="139"/>
-      <c r="J4" s="139"/>
-      <c r="K4" s="139"/>
-      <c r="L4" s="140"/>
-      <c r="M4" s="150" t="s">
-        <v>104</v>
-      </c>
-      <c r="N4" s="151"/>
-    </row>
-    <row r="5" spans="1:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="141" t="s">
-        <v>22</v>
-      </c>
-      <c r="B5" s="142"/>
-      <c r="C5" s="142"/>
-      <c r="D5" s="142"/>
-      <c r="E5" s="142"/>
-      <c r="F5" s="142"/>
-      <c r="G5" s="142"/>
-      <c r="H5" s="142"/>
-      <c r="I5" s="143"/>
-      <c r="J5" s="141" t="s">
-        <v>97</v>
-      </c>
-      <c r="K5" s="142"/>
-      <c r="L5" s="142"/>
-      <c r="M5" s="142"/>
-      <c r="N5" s="143"/>
-    </row>
-    <row r="6" spans="1:14" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="173" t="s">
-        <v>87</v>
-      </c>
-      <c r="B6" s="174"/>
-      <c r="C6" s="174"/>
-      <c r="D6" s="174"/>
-      <c r="E6" s="174"/>
-      <c r="F6" s="174"/>
-      <c r="G6" s="174"/>
-      <c r="H6" s="174"/>
-      <c r="I6" s="175"/>
-      <c r="J6" s="167" t="s">
-        <v>88</v>
-      </c>
-      <c r="K6" s="168"/>
-      <c r="L6" s="168"/>
-      <c r="M6" s="168"/>
-      <c r="N6" s="169"/>
-    </row>
-    <row r="7" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="176"/>
-      <c r="B7" s="177"/>
-      <c r="C7" s="177"/>
-      <c r="D7" s="177"/>
-      <c r="E7" s="177"/>
-      <c r="F7" s="177"/>
-      <c r="G7" s="177"/>
-      <c r="H7" s="177"/>
-      <c r="I7" s="178"/>
-      <c r="J7" s="170" t="s">
-        <v>18</v>
-      </c>
-      <c r="K7" s="171"/>
-      <c r="L7" s="171"/>
-      <c r="M7" s="171" t="s">
-        <v>19</v>
-      </c>
-      <c r="N7" s="172"/>
-    </row>
-    <row r="8" spans="1:14" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="179"/>
-      <c r="B8" s="180"/>
-      <c r="C8" s="180"/>
-      <c r="D8" s="180"/>
-      <c r="E8" s="180"/>
-      <c r="F8" s="180"/>
-      <c r="G8" s="180"/>
-      <c r="H8" s="180"/>
-      <c r="I8" s="181"/>
-      <c r="J8" s="165" t="s">
-        <v>118</v>
-      </c>
-      <c r="K8" s="166"/>
-      <c r="L8" s="166"/>
-      <c r="M8" s="163"/>
-      <c r="N8" s="164"/>
+      <c r="K8" s="104"/>
+      <c r="L8" s="104"/>
+      <c r="M8" s="101"/>
+      <c r="N8" s="102"/>
     </row>
     <row r="9" spans="1:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="161" t="s">
+      <c r="A9" s="99" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="162"/>
-      <c r="C9" s="162"/>
-      <c r="D9" s="162"/>
-      <c r="E9" s="162"/>
-      <c r="F9" s="158"/>
-      <c r="G9" s="159"/>
-      <c r="H9" s="159"/>
-      <c r="I9" s="159"/>
-      <c r="J9" s="159"/>
-      <c r="K9" s="159"/>
-      <c r="L9" s="159"/>
-      <c r="M9" s="159"/>
-      <c r="N9" s="160"/>
+      <c r="B9" s="100"/>
+      <c r="C9" s="100"/>
+      <c r="D9" s="100"/>
+      <c r="E9" s="100"/>
+      <c r="F9" s="96"/>
+      <c r="G9" s="97"/>
+      <c r="H9" s="97"/>
+      <c r="I9" s="97"/>
+      <c r="J9" s="97"/>
+      <c r="K9" s="97"/>
+      <c r="L9" s="97"/>
+      <c r="M9" s="97"/>
+      <c r="N9" s="98"/>
     </row>
     <row r="10" spans="1:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="125" t="s">
+      <c r="A10" s="120" t="s">
         <v>4</v>
       </c>
-      <c r="B10" s="126"/>
-      <c r="C10" s="126"/>
-      <c r="D10" s="126"/>
-      <c r="E10" s="126"/>
-      <c r="F10" s="129"/>
-      <c r="G10" s="130"/>
-      <c r="H10" s="130"/>
-      <c r="I10" s="130"/>
-      <c r="J10" s="130"/>
-      <c r="K10" s="130"/>
-      <c r="L10" s="130"/>
-      <c r="M10" s="130"/>
-      <c r="N10" s="131"/>
+      <c r="B10" s="121"/>
+      <c r="C10" s="121"/>
+      <c r="D10" s="121"/>
+      <c r="E10" s="121"/>
+      <c r="F10" s="124"/>
+      <c r="G10" s="125"/>
+      <c r="H10" s="125"/>
+      <c r="I10" s="125"/>
+      <c r="J10" s="125"/>
+      <c r="K10" s="125"/>
+      <c r="L10" s="125"/>
+      <c r="M10" s="125"/>
+      <c r="N10" s="126"/>
     </row>
     <row r="11" spans="1:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="125" t="s">
+      <c r="A11" s="120" t="s">
         <v>23</v>
       </c>
-      <c r="B11" s="126"/>
-      <c r="C11" s="126"/>
-      <c r="D11" s="126"/>
-      <c r="E11" s="126"/>
-      <c r="F11" s="129"/>
-      <c r="G11" s="130"/>
-      <c r="H11" s="130"/>
-      <c r="I11" s="130"/>
-      <c r="J11" s="130"/>
-      <c r="K11" s="130"/>
-      <c r="L11" s="130"/>
-      <c r="M11" s="130"/>
-      <c r="N11" s="131"/>
+      <c r="B11" s="121"/>
+      <c r="C11" s="121"/>
+      <c r="D11" s="121"/>
+      <c r="E11" s="121"/>
+      <c r="F11" s="124"/>
+      <c r="G11" s="125"/>
+      <c r="H11" s="125"/>
+      <c r="I11" s="125"/>
+      <c r="J11" s="125"/>
+      <c r="K11" s="125"/>
+      <c r="L11" s="125"/>
+      <c r="M11" s="125"/>
+      <c r="N11" s="126"/>
     </row>
     <row r="12" spans="1:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="125" t="s">
+      <c r="A12" s="120" t="s">
         <v>89</v>
       </c>
-      <c r="B12" s="126"/>
-      <c r="C12" s="126"/>
-      <c r="D12" s="126"/>
-      <c r="E12" s="126"/>
-      <c r="F12" s="130" t="s">
-        <v>116</v>
-      </c>
-      <c r="G12" s="130"/>
-      <c r="H12" s="130"/>
-      <c r="I12" s="130"/>
-      <c r="J12" s="130"/>
-      <c r="K12" s="130"/>
-      <c r="L12" s="130"/>
-      <c r="M12" s="130"/>
-      <c r="N12" s="131"/>
+      <c r="B12" s="121"/>
+      <c r="C12" s="121"/>
+      <c r="D12" s="121"/>
+      <c r="E12" s="121"/>
+      <c r="F12" s="125"/>
+      <c r="G12" s="125"/>
+      <c r="H12" s="125"/>
+      <c r="I12" s="125"/>
+      <c r="J12" s="125"/>
+      <c r="K12" s="125"/>
+      <c r="L12" s="125"/>
+      <c r="M12" s="125"/>
+      <c r="N12" s="126"/>
     </row>
     <row r="13" spans="1:14" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="127" t="s">
+      <c r="A13" s="122" t="s">
         <v>90</v>
       </c>
-      <c r="B13" s="128"/>
-      <c r="C13" s="128"/>
-      <c r="D13" s="128"/>
-      <c r="E13" s="128"/>
-      <c r="F13" s="152">
-        <v>1</v>
-      </c>
-      <c r="G13" s="152"/>
-      <c r="H13" s="152"/>
-      <c r="I13" s="152"/>
-      <c r="J13" s="152"/>
-      <c r="K13" s="152"/>
-      <c r="L13" s="152"/>
-      <c r="M13" s="152"/>
-      <c r="N13" s="153"/>
+      <c r="B13" s="123"/>
+      <c r="C13" s="123"/>
+      <c r="D13" s="123"/>
+      <c r="E13" s="123"/>
+      <c r="F13" s="82"/>
+      <c r="G13" s="82"/>
+      <c r="H13" s="82"/>
+      <c r="I13" s="82"/>
+      <c r="J13" s="82"/>
+      <c r="K13" s="82"/>
+      <c r="L13" s="82"/>
+      <c r="M13" s="82"/>
+      <c r="N13" s="83"/>
     </row>
     <row r="14" spans="1:14" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="69" t="s">
+      <c r="A14" s="87" t="s">
         <v>5</v>
       </c>
-      <c r="B14" s="73"/>
-      <c r="C14" s="73"/>
-      <c r="D14" s="73"/>
-      <c r="E14" s="73"/>
-      <c r="F14" s="73"/>
-      <c r="G14" s="73"/>
-      <c r="H14" s="73"/>
-      <c r="I14" s="73"/>
-      <c r="J14" s="73"/>
-      <c r="K14" s="73"/>
-      <c r="L14" s="73"/>
-      <c r="M14" s="73"/>
-      <c r="N14" s="71"/>
+      <c r="B14" s="88"/>
+      <c r="C14" s="88"/>
+      <c r="D14" s="88"/>
+      <c r="E14" s="88"/>
+      <c r="F14" s="88"/>
+      <c r="G14" s="88"/>
+      <c r="H14" s="88"/>
+      <c r="I14" s="88"/>
+      <c r="J14" s="88"/>
+      <c r="K14" s="88"/>
+      <c r="L14" s="88"/>
+      <c r="M14" s="88"/>
+      <c r="N14" s="89"/>
     </row>
     <row r="15" spans="1:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="134" t="s">
+      <c r="A15" s="130" t="s">
         <v>6</v>
       </c>
-      <c r="B15" s="135"/>
-      <c r="C15" s="157"/>
-      <c r="D15" s="157"/>
-      <c r="E15" s="157"/>
-      <c r="F15" s="157"/>
-      <c r="G15" s="136" t="s">
+      <c r="B15" s="131"/>
+      <c r="C15" s="95"/>
+      <c r="D15" s="95"/>
+      <c r="E15" s="95"/>
+      <c r="F15" s="95"/>
+      <c r="G15" s="132" t="s">
         <v>99</v>
       </c>
-      <c r="H15" s="137"/>
-      <c r="I15" s="137"/>
-      <c r="J15" s="137"/>
-      <c r="K15" s="137"/>
-      <c r="L15" s="154"/>
-      <c r="M15" s="155"/>
-      <c r="N15" s="156"/>
+      <c r="H15" s="133"/>
+      <c r="I15" s="133"/>
+      <c r="J15" s="133"/>
+      <c r="K15" s="133"/>
+      <c r="L15" s="92"/>
+      <c r="M15" s="93"/>
+      <c r="N15" s="94"/>
     </row>
     <row r="16" spans="1:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="117" t="s">
+      <c r="A16" s="90" t="s">
         <v>7</v>
       </c>
-      <c r="B16" s="76"/>
-      <c r="C16" s="77"/>
-      <c r="D16" s="77"/>
-      <c r="E16" s="77"/>
-      <c r="F16" s="77"/>
-      <c r="G16" s="132" t="s">
+      <c r="B16" s="91"/>
+      <c r="C16" s="127"/>
+      <c r="D16" s="127"/>
+      <c r="E16" s="127"/>
+      <c r="F16" s="127"/>
+      <c r="G16" s="128" t="s">
         <v>73</v>
       </c>
-      <c r="H16" s="133"/>
-      <c r="I16" s="133"/>
-      <c r="J16" s="133"/>
-      <c r="K16" s="133"/>
-      <c r="L16" s="110"/>
-      <c r="M16" s="111"/>
-      <c r="N16" s="112"/>
+      <c r="H16" s="129"/>
+      <c r="I16" s="129"/>
+      <c r="J16" s="129"/>
+      <c r="K16" s="129"/>
+      <c r="L16" s="84"/>
+      <c r="M16" s="85"/>
+      <c r="N16" s="86"/>
     </row>
     <row r="17" spans="1:17" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="117" t="s">
+      <c r="A17" s="90" t="s">
         <v>11</v>
       </c>
-      <c r="B17" s="76"/>
-      <c r="C17" s="77"/>
-      <c r="D17" s="77"/>
-      <c r="E17" s="77"/>
-      <c r="F17" s="77"/>
+      <c r="B17" s="91"/>
+      <c r="C17" s="127"/>
+      <c r="D17" s="127"/>
+      <c r="E17" s="127"/>
+      <c r="F17" s="127"/>
       <c r="G17" s="37" t="s">
         <v>67</v>
       </c>
@@ -4768,19 +4761,19 @@
       <c r="I17" s="38"/>
       <c r="J17" s="38"/>
       <c r="K17" s="38"/>
-      <c r="L17" s="110"/>
-      <c r="M17" s="111"/>
-      <c r="N17" s="112"/>
+      <c r="L17" s="84"/>
+      <c r="M17" s="85"/>
+      <c r="N17" s="86"/>
     </row>
     <row r="18" spans="1:17" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="117" t="s">
+      <c r="A18" s="90" t="s">
         <v>10</v>
       </c>
-      <c r="B18" s="76"/>
-      <c r="C18" s="77"/>
-      <c r="D18" s="77"/>
-      <c r="E18" s="77"/>
-      <c r="F18" s="77"/>
+      <c r="B18" s="91"/>
+      <c r="C18" s="127"/>
+      <c r="D18" s="127"/>
+      <c r="E18" s="127"/>
+      <c r="F18" s="127"/>
       <c r="G18" s="37" t="s">
         <v>27</v>
       </c>
@@ -4788,19 +4781,19 @@
       <c r="I18" s="38"/>
       <c r="J18" s="38"/>
       <c r="K18" s="38"/>
-      <c r="L18" s="110"/>
-      <c r="M18" s="111"/>
-      <c r="N18" s="112"/>
+      <c r="L18" s="84"/>
+      <c r="M18" s="85"/>
+      <c r="N18" s="86"/>
     </row>
     <row r="19" spans="1:17" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="117" t="s">
+      <c r="A19" s="90" t="s">
         <v>8</v>
       </c>
-      <c r="B19" s="76"/>
-      <c r="C19" s="77"/>
-      <c r="D19" s="77"/>
-      <c r="E19" s="77"/>
-      <c r="F19" s="77"/>
+      <c r="B19" s="91"/>
+      <c r="C19" s="127"/>
+      <c r="D19" s="127"/>
+      <c r="E19" s="127"/>
+      <c r="F19" s="127"/>
       <c r="G19" s="37" t="s">
         <v>68</v>
       </c>
@@ -4808,19 +4801,19 @@
       <c r="I19" s="38"/>
       <c r="J19" s="38"/>
       <c r="K19" s="38"/>
-      <c r="L19" s="110"/>
-      <c r="M19" s="111"/>
-      <c r="N19" s="112"/>
+      <c r="L19" s="84"/>
+      <c r="M19" s="85"/>
+      <c r="N19" s="86"/>
     </row>
     <row r="20" spans="1:17" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="117" t="s">
+      <c r="A20" s="90" t="s">
         <v>12</v>
       </c>
-      <c r="B20" s="76"/>
-      <c r="C20" s="77"/>
-      <c r="D20" s="77"/>
-      <c r="E20" s="77"/>
-      <c r="F20" s="77"/>
+      <c r="B20" s="91"/>
+      <c r="C20" s="127"/>
+      <c r="D20" s="127"/>
+      <c r="E20" s="127"/>
+      <c r="F20" s="127"/>
       <c r="G20" s="37" t="s">
         <v>69</v>
       </c>
@@ -4828,19 +4821,19 @@
       <c r="I20" s="38"/>
       <c r="J20" s="38"/>
       <c r="K20" s="38"/>
-      <c r="L20" s="110"/>
-      <c r="M20" s="111"/>
-      <c r="N20" s="112"/>
+      <c r="L20" s="84"/>
+      <c r="M20" s="85"/>
+      <c r="N20" s="86"/>
     </row>
     <row r="21" spans="1:17" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="117" t="s">
+      <c r="A21" s="90" t="s">
         <v>9</v>
       </c>
-      <c r="B21" s="76"/>
-      <c r="C21" s="77"/>
-      <c r="D21" s="77"/>
-      <c r="E21" s="77"/>
-      <c r="F21" s="77"/>
+      <c r="B21" s="91"/>
+      <c r="C21" s="127"/>
+      <c r="D21" s="127"/>
+      <c r="E21" s="127"/>
+      <c r="F21" s="127"/>
       <c r="G21" s="37" t="s">
         <v>70</v>
       </c>
@@ -4848,21 +4841,21 @@
       <c r="I21" s="38"/>
       <c r="J21" s="38"/>
       <c r="K21" s="38"/>
-      <c r="L21" s="111"/>
-      <c r="M21" s="111"/>
-      <c r="N21" s="112"/>
+      <c r="L21" s="85"/>
+      <c r="M21" s="85"/>
+      <c r="N21" s="86"/>
     </row>
     <row r="22" spans="1:17" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="117" t="s">
-        <v>185</v>
-      </c>
-      <c r="B22" s="76"/>
-      <c r="C22" s="194" t="s">
+      <c r="A22" s="90" t="s">
+        <v>184</v>
+      </c>
+      <c r="B22" s="91"/>
+      <c r="C22" s="152" t="s">
         <v>103</v>
       </c>
-      <c r="D22" s="77"/>
-      <c r="E22" s="77"/>
-      <c r="F22" s="77"/>
+      <c r="D22" s="127"/>
+      <c r="E22" s="127"/>
+      <c r="F22" s="127"/>
       <c r="G22" s="37" t="s">
         <v>71</v>
       </c>
@@ -4870,19 +4863,19 @@
       <c r="I22" s="38"/>
       <c r="J22" s="38"/>
       <c r="K22" s="38"/>
-      <c r="L22" s="111"/>
-      <c r="M22" s="111"/>
-      <c r="N22" s="112"/>
+      <c r="L22" s="85"/>
+      <c r="M22" s="85"/>
+      <c r="N22" s="86"/>
     </row>
     <row r="23" spans="1:17" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="117" t="s">
-        <v>128</v>
-      </c>
-      <c r="B23" s="76"/>
-      <c r="C23" s="77"/>
-      <c r="D23" s="77"/>
-      <c r="E23" s="77"/>
-      <c r="F23" s="77"/>
+      <c r="A23" s="90" t="s">
+        <v>127</v>
+      </c>
+      <c r="B23" s="91"/>
+      <c r="C23" s="127"/>
+      <c r="D23" s="127"/>
+      <c r="E23" s="127"/>
+      <c r="F23" s="127"/>
       <c r="G23" s="37" t="s">
         <v>64</v>
       </c>
@@ -4890,19 +4883,19 @@
       <c r="I23" s="38"/>
       <c r="J23" s="38"/>
       <c r="K23" s="38"/>
-      <c r="L23" s="111"/>
-      <c r="M23" s="111"/>
-      <c r="N23" s="112"/>
+      <c r="L23" s="85"/>
+      <c r="M23" s="85"/>
+      <c r="N23" s="86"/>
     </row>
     <row r="24" spans="1:17" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="117" t="s">
-        <v>129</v>
-      </c>
-      <c r="B24" s="76"/>
-      <c r="C24" s="116"/>
-      <c r="D24" s="116"/>
-      <c r="E24" s="116"/>
-      <c r="F24" s="116"/>
+      <c r="A24" s="90" t="s">
+        <v>128</v>
+      </c>
+      <c r="B24" s="91"/>
+      <c r="C24" s="163"/>
+      <c r="D24" s="163"/>
+      <c r="E24" s="163"/>
+      <c r="F24" s="163"/>
       <c r="G24" s="37" t="s">
         <v>75</v>
       </c>
@@ -4910,52 +4903,52 @@
       <c r="I24" s="38"/>
       <c r="J24" s="38"/>
       <c r="K24" s="38"/>
-      <c r="L24" s="195"/>
-      <c r="M24" s="195"/>
-      <c r="N24" s="196"/>
-      <c r="O24" s="195"/>
-      <c r="P24" s="195"/>
-      <c r="Q24" s="196"/>
+      <c r="L24" s="59"/>
+      <c r="M24" s="59"/>
+      <c r="N24" s="60"/>
+      <c r="O24" s="59"/>
+      <c r="P24" s="59"/>
+      <c r="Q24" s="60"/>
     </row>
     <row r="25" spans="1:17" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="118" t="s">
+      <c r="A25" s="164" t="s">
         <v>24</v>
       </c>
-      <c r="B25" s="119"/>
-      <c r="C25" s="119"/>
-      <c r="D25" s="119"/>
-      <c r="E25" s="119"/>
-      <c r="F25" s="119"/>
-      <c r="G25" s="119"/>
-      <c r="H25" s="119"/>
-      <c r="I25" s="119"/>
-      <c r="J25" s="119"/>
-      <c r="K25" s="119"/>
-      <c r="L25" s="119"/>
-      <c r="M25" s="119"/>
-      <c r="N25" s="120"/>
+      <c r="B25" s="165"/>
+      <c r="C25" s="165"/>
+      <c r="D25" s="165"/>
+      <c r="E25" s="165"/>
+      <c r="F25" s="165"/>
+      <c r="G25" s="165"/>
+      <c r="H25" s="165"/>
+      <c r="I25" s="165"/>
+      <c r="J25" s="165"/>
+      <c r="K25" s="165"/>
+      <c r="L25" s="165"/>
+      <c r="M25" s="165"/>
+      <c r="N25" s="166"/>
     </row>
     <row r="26" spans="1:17" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="121" t="s">
+      <c r="A26" s="167" t="s">
         <v>25</v>
       </c>
-      <c r="B26" s="122"/>
-      <c r="C26" s="123" t="s">
+      <c r="B26" s="168"/>
+      <c r="C26" s="169" t="s">
         <v>65</v>
       </c>
-      <c r="D26" s="122"/>
-      <c r="E26" s="198" t="s">
+      <c r="D26" s="168"/>
+      <c r="E26" s="62" t="s">
         <v>29</v>
       </c>
-      <c r="F26" s="199"/>
-      <c r="G26" s="198" t="s">
+      <c r="F26" s="63"/>
+      <c r="G26" s="62" t="s">
         <v>100</v>
       </c>
-      <c r="H26" s="197"/>
-      <c r="I26" s="197" t="s">
+      <c r="H26" s="61"/>
+      <c r="I26" s="61" t="s">
         <v>61</v>
       </c>
-      <c r="J26" s="197"/>
+      <c r="J26" s="61"/>
       <c r="K26" s="45" t="s">
         <v>102</v>
       </c>
@@ -4970,158 +4963,158 @@
       </c>
     </row>
     <row r="27" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="94"/>
-      <c r="B27" s="94"/>
-      <c r="C27" s="94"/>
-      <c r="D27" s="94"/>
-      <c r="E27" s="95"/>
-      <c r="F27" s="95"/>
-      <c r="G27" s="95"/>
-      <c r="H27" s="95"/>
-      <c r="I27" s="95"/>
-      <c r="J27" s="95"/>
+      <c r="A27" s="139"/>
+      <c r="B27" s="139"/>
+      <c r="C27" s="139"/>
+      <c r="D27" s="139"/>
+      <c r="E27" s="64"/>
+      <c r="F27" s="64"/>
+      <c r="G27" s="64"/>
+      <c r="H27" s="64"/>
+      <c r="I27" s="64"/>
+      <c r="J27" s="64"/>
       <c r="K27" s="32"/>
       <c r="L27" s="32"/>
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
     </row>
     <row r="28" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="94"/>
-      <c r="B28" s="94"/>
-      <c r="C28" s="94"/>
-      <c r="D28" s="94"/>
-      <c r="E28" s="95"/>
-      <c r="F28" s="95"/>
-      <c r="G28" s="95"/>
-      <c r="H28" s="95"/>
-      <c r="I28" s="95"/>
-      <c r="J28" s="95"/>
+      <c r="A28" s="139"/>
+      <c r="B28" s="139"/>
+      <c r="C28" s="139"/>
+      <c r="D28" s="139"/>
+      <c r="E28" s="64"/>
+      <c r="F28" s="64"/>
+      <c r="G28" s="64"/>
+      <c r="H28" s="64"/>
+      <c r="I28" s="64"/>
+      <c r="J28" s="64"/>
       <c r="K28" s="32"/>
       <c r="L28" s="32"/>
       <c r="M28" s="2"/>
       <c r="N28" s="2"/>
     </row>
     <row r="29" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="94"/>
-      <c r="B29" s="94"/>
-      <c r="C29" s="94"/>
-      <c r="D29" s="94"/>
-      <c r="E29" s="95"/>
-      <c r="F29" s="95"/>
-      <c r="G29" s="95"/>
-      <c r="H29" s="95"/>
-      <c r="I29" s="95"/>
-      <c r="J29" s="95"/>
+      <c r="A29" s="139"/>
+      <c r="B29" s="139"/>
+      <c r="C29" s="139"/>
+      <c r="D29" s="139"/>
+      <c r="E29" s="64"/>
+      <c r="F29" s="64"/>
+      <c r="G29" s="64"/>
+      <c r="H29" s="64"/>
+      <c r="I29" s="64"/>
+      <c r="J29" s="64"/>
       <c r="K29" s="32"/>
       <c r="L29" s="32"/>
       <c r="M29" s="2"/>
       <c r="N29" s="2"/>
     </row>
     <row r="30" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="94"/>
-      <c r="B30" s="94"/>
-      <c r="C30" s="94"/>
-      <c r="D30" s="94"/>
-      <c r="E30" s="95"/>
-      <c r="F30" s="95"/>
-      <c r="G30" s="95"/>
-      <c r="H30" s="95"/>
-      <c r="I30" s="95"/>
-      <c r="J30" s="95"/>
+      <c r="A30" s="139"/>
+      <c r="B30" s="139"/>
+      <c r="C30" s="139"/>
+      <c r="D30" s="139"/>
+      <c r="E30" s="64"/>
+      <c r="F30" s="64"/>
+      <c r="G30" s="64"/>
+      <c r="H30" s="64"/>
+      <c r="I30" s="64"/>
+      <c r="J30" s="64"/>
       <c r="K30" s="32"/>
       <c r="L30" s="32"/>
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
     </row>
     <row r="31" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="94"/>
-      <c r="B31" s="94"/>
-      <c r="C31" s="94"/>
-      <c r="D31" s="94"/>
-      <c r="E31" s="95"/>
-      <c r="F31" s="95"/>
-      <c r="G31" s="95"/>
-      <c r="H31" s="95"/>
-      <c r="I31" s="95"/>
-      <c r="J31" s="95"/>
+      <c r="A31" s="139"/>
+      <c r="B31" s="139"/>
+      <c r="C31" s="139"/>
+      <c r="D31" s="139"/>
+      <c r="E31" s="64"/>
+      <c r="F31" s="64"/>
+      <c r="G31" s="64"/>
+      <c r="H31" s="64"/>
+      <c r="I31" s="64"/>
+      <c r="J31" s="64"/>
       <c r="K31" s="32"/>
       <c r="L31" s="32"/>
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
     </row>
     <row r="32" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="94"/>
-      <c r="B32" s="94"/>
-      <c r="C32" s="94"/>
-      <c r="D32" s="94"/>
-      <c r="E32" s="95"/>
-      <c r="F32" s="95"/>
-      <c r="G32" s="95"/>
-      <c r="H32" s="95"/>
-      <c r="I32" s="95"/>
-      <c r="J32" s="95"/>
+      <c r="A32" s="139"/>
+      <c r="B32" s="139"/>
+      <c r="C32" s="139"/>
+      <c r="D32" s="139"/>
+      <c r="E32" s="64"/>
+      <c r="F32" s="64"/>
+      <c r="G32" s="64"/>
+      <c r="H32" s="64"/>
+      <c r="I32" s="64"/>
+      <c r="J32" s="64"/>
       <c r="K32" s="32"/>
       <c r="L32" s="32"/>
       <c r="M32" s="2"/>
       <c r="N32" s="2"/>
     </row>
     <row r="33" spans="1:119" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="94"/>
-      <c r="B33" s="94"/>
-      <c r="C33" s="94" t="s">
+      <c r="A33" s="139"/>
+      <c r="B33" s="139"/>
+      <c r="C33" s="139" t="s">
         <v>114</v>
       </c>
-      <c r="D33" s="94"/>
-      <c r="E33" s="95"/>
-      <c r="F33" s="95"/>
-      <c r="G33" s="95"/>
-      <c r="H33" s="95"/>
-      <c r="I33" s="95"/>
-      <c r="J33" s="95"/>
+      <c r="D33" s="139"/>
+      <c r="E33" s="64"/>
+      <c r="F33" s="64"/>
+      <c r="G33" s="64"/>
+      <c r="H33" s="64"/>
+      <c r="I33" s="64"/>
+      <c r="J33" s="64"/>
       <c r="K33" s="32"/>
       <c r="L33" s="32"/>
       <c r="M33" s="2"/>
       <c r="N33" s="2"/>
     </row>
     <row r="34" spans="1:119" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="94"/>
-      <c r="B34" s="94"/>
-      <c r="C34" s="94"/>
-      <c r="D34" s="94"/>
-      <c r="E34" s="95"/>
-      <c r="F34" s="95"/>
-      <c r="G34" s="95"/>
-      <c r="H34" s="95"/>
-      <c r="I34" s="95"/>
-      <c r="J34" s="95"/>
+      <c r="A34" s="139"/>
+      <c r="B34" s="139"/>
+      <c r="C34" s="139"/>
+      <c r="D34" s="139"/>
+      <c r="E34" s="64"/>
+      <c r="F34" s="64"/>
+      <c r="G34" s="64"/>
+      <c r="H34" s="64"/>
+      <c r="I34" s="64"/>
+      <c r="J34" s="64"/>
       <c r="K34" s="32"/>
       <c r="L34" s="32"/>
       <c r="M34" s="2"/>
       <c r="N34" s="2"/>
     </row>
     <row r="35" spans="1:119" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="94"/>
-      <c r="B35" s="94"/>
-      <c r="C35" s="94"/>
-      <c r="D35" s="94"/>
-      <c r="E35" s="95"/>
-      <c r="F35" s="95"/>
-      <c r="G35" s="95"/>
-      <c r="H35" s="95"/>
-      <c r="I35" s="95"/>
-      <c r="J35" s="95"/>
+      <c r="A35" s="139"/>
+      <c r="B35" s="139"/>
+      <c r="C35" s="139"/>
+      <c r="D35" s="139"/>
+      <c r="E35" s="64"/>
+      <c r="F35" s="64"/>
+      <c r="G35" s="64"/>
+      <c r="H35" s="64"/>
+      <c r="I35" s="64"/>
+      <c r="J35" s="64"/>
       <c r="K35" s="32"/>
       <c r="L35" s="32"/>
       <c r="M35" s="2"/>
       <c r="N35" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="36" spans="1:119" s="4" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="89" t="s">
+      <c r="A36" s="180" t="s">
         <v>106</v>
       </c>
-      <c r="B36" s="90"/>
+      <c r="B36" s="181"/>
       <c r="C36" s="33" t="s">
         <v>20</v>
       </c>
@@ -5134,23 +5127,23 @@
         <v>32</v>
       </c>
       <c r="H36" s="34"/>
-      <c r="I36" s="74" t="s">
+      <c r="I36" s="198" t="s">
         <v>107</v>
       </c>
-      <c r="J36" s="75"/>
+      <c r="J36" s="199"/>
       <c r="K36" s="36" t="s">
         <v>66</v>
       </c>
-      <c r="L36" s="91" t="s">
+      <c r="L36" s="182" t="s">
         <v>108</v>
       </c>
-      <c r="M36" s="92"/>
+      <c r="M36" s="183"/>
       <c r="N36" s="35" t="s">
         <v>109</v>
       </c>
       <c r="O36" s="6"/>
       <c r="P36" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="Q36"/>
       <c r="R36"/>
@@ -5257,21 +5250,21 @@
       <c r="DO36"/>
     </row>
     <row r="37" spans="1:119" s="5" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="93" t="s">
+      <c r="A37" s="184" t="s">
         <v>110</v>
       </c>
-      <c r="B37" s="77"/>
-      <c r="C37" s="78"/>
-      <c r="D37" s="78"/>
-      <c r="E37" s="78"/>
-      <c r="F37" s="78"/>
-      <c r="G37" s="79"/>
-      <c r="H37" s="79"/>
-      <c r="I37" s="79"/>
-      <c r="J37" s="79"/>
+      <c r="B37" s="127"/>
+      <c r="C37" s="185"/>
+      <c r="D37" s="185"/>
+      <c r="E37" s="185"/>
+      <c r="F37" s="185"/>
+      <c r="G37" s="170"/>
+      <c r="H37" s="170"/>
+      <c r="I37" s="170"/>
+      <c r="J37" s="170"/>
       <c r="K37" s="7"/>
-      <c r="L37" s="77"/>
-      <c r="M37" s="77"/>
+      <c r="L37" s="127"/>
+      <c r="M37" s="127"/>
       <c r="N37" s="29"/>
       <c r="O37" s="6"/>
       <c r="P37"/>
@@ -5380,338 +5373,338 @@
       <c r="DO37"/>
     </row>
     <row r="38" spans="1:119" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="93" t="s">
+      <c r="A38" s="184" t="s">
         <v>111</v>
       </c>
-      <c r="B38" s="77"/>
-      <c r="C38" s="78"/>
-      <c r="D38" s="78"/>
-      <c r="E38" s="78"/>
-      <c r="F38" s="78"/>
-      <c r="G38" s="79"/>
-      <c r="H38" s="79"/>
-      <c r="I38" s="76"/>
-      <c r="J38" s="76"/>
+      <c r="B38" s="127"/>
+      <c r="C38" s="185"/>
+      <c r="D38" s="185"/>
+      <c r="E38" s="185"/>
+      <c r="F38" s="185"/>
+      <c r="G38" s="170"/>
+      <c r="H38" s="170"/>
+      <c r="I38" s="91"/>
+      <c r="J38" s="91"/>
       <c r="K38" s="7"/>
-      <c r="L38" s="77"/>
-      <c r="M38" s="77"/>
+      <c r="L38" s="127"/>
+      <c r="M38" s="127"/>
       <c r="N38" s="29"/>
     </row>
     <row r="39" spans="1:119" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="77" t="s">
+      <c r="A39" s="127" t="s">
         <v>112</v>
       </c>
-      <c r="B39" s="77"/>
-      <c r="C39" s="78"/>
-      <c r="D39" s="78"/>
-      <c r="E39" s="78"/>
-      <c r="F39" s="78"/>
-      <c r="G39" s="79"/>
-      <c r="H39" s="79"/>
-      <c r="I39" s="76"/>
-      <c r="J39" s="76"/>
+      <c r="B39" s="127"/>
+      <c r="C39" s="185"/>
+      <c r="D39" s="185"/>
+      <c r="E39" s="185"/>
+      <c r="F39" s="185"/>
+      <c r="G39" s="170"/>
+      <c r="H39" s="170"/>
+      <c r="I39" s="91"/>
+      <c r="J39" s="91"/>
       <c r="K39" s="7"/>
-      <c r="L39" s="77"/>
-      <c r="M39" s="77"/>
+      <c r="L39" s="127"/>
+      <c r="M39" s="127"/>
       <c r="N39" s="29"/>
     </row>
     <row r="40" spans="1:119" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="77" t="s">
+      <c r="A40" s="127" t="s">
         <v>113</v>
       </c>
-      <c r="B40" s="77"/>
-      <c r="C40" s="78"/>
-      <c r="D40" s="78"/>
-      <c r="E40" s="78"/>
-      <c r="F40" s="78"/>
-      <c r="G40" s="79"/>
-      <c r="H40" s="79"/>
-      <c r="I40" s="76"/>
-      <c r="J40" s="76"/>
+      <c r="B40" s="127"/>
+      <c r="C40" s="185"/>
+      <c r="D40" s="185"/>
+      <c r="E40" s="185"/>
+      <c r="F40" s="185"/>
+      <c r="G40" s="170"/>
+      <c r="H40" s="170"/>
+      <c r="I40" s="91"/>
+      <c r="J40" s="91"/>
       <c r="K40" s="7"/>
-      <c r="L40" s="77"/>
-      <c r="M40" s="77"/>
+      <c r="L40" s="127"/>
+      <c r="M40" s="127"/>
       <c r="N40" s="29"/>
     </row>
     <row r="41" spans="1:119" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="191"/>
-      <c r="B41" s="192"/>
-      <c r="C41" s="192"/>
-      <c r="D41" s="192"/>
-      <c r="E41" s="192"/>
-      <c r="F41" s="192"/>
-      <c r="G41" s="192"/>
-      <c r="H41" s="192"/>
-      <c r="I41" s="192"/>
-      <c r="J41" s="192"/>
-      <c r="K41" s="192"/>
-      <c r="L41" s="192"/>
-      <c r="M41" s="192"/>
-      <c r="N41" s="193"/>
+      <c r="A41" s="149"/>
+      <c r="B41" s="150"/>
+      <c r="C41" s="150"/>
+      <c r="D41" s="150"/>
+      <c r="E41" s="150"/>
+      <c r="F41" s="150"/>
+      <c r="G41" s="150"/>
+      <c r="H41" s="150"/>
+      <c r="I41" s="150"/>
+      <c r="J41" s="150"/>
+      <c r="K41" s="150"/>
+      <c r="L41" s="150"/>
+      <c r="M41" s="150"/>
+      <c r="N41" s="151"/>
     </row>
     <row r="42" spans="1:119" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="69" t="s">
+      <c r="A42" s="87" t="s">
         <v>13</v>
       </c>
-      <c r="B42" s="70"/>
-      <c r="C42" s="72"/>
-      <c r="D42" s="73"/>
+      <c r="B42" s="196"/>
+      <c r="C42" s="197"/>
+      <c r="D42" s="88"/>
       <c r="E42" s="40"/>
       <c r="F42" s="41"/>
-      <c r="G42" s="80" t="s">
+      <c r="G42" s="171" t="s">
         <v>105</v>
       </c>
-      <c r="H42" s="81"/>
-      <c r="I42" s="81"/>
-      <c r="J42" s="81"/>
-      <c r="K42" s="81"/>
-      <c r="L42" s="81"/>
-      <c r="M42" s="81"/>
-      <c r="N42" s="82"/>
+      <c r="H42" s="172"/>
+      <c r="I42" s="172"/>
+      <c r="J42" s="172"/>
+      <c r="K42" s="172"/>
+      <c r="L42" s="172"/>
+      <c r="M42" s="172"/>
+      <c r="N42" s="173"/>
     </row>
     <row r="43" spans="1:119" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="69" t="s">
+      <c r="A43" s="87" t="s">
         <v>26</v>
       </c>
-      <c r="B43" s="71"/>
-      <c r="C43" s="72"/>
-      <c r="D43" s="73"/>
-      <c r="E43" s="72"/>
-      <c r="F43" s="73"/>
-      <c r="G43" s="83"/>
-      <c r="H43" s="84"/>
-      <c r="I43" s="84"/>
-      <c r="J43" s="84"/>
-      <c r="K43" s="84"/>
-      <c r="L43" s="84"/>
-      <c r="M43" s="84"/>
-      <c r="N43" s="85"/>
+      <c r="B43" s="89"/>
+      <c r="C43" s="197"/>
+      <c r="D43" s="88"/>
+      <c r="E43" s="197"/>
+      <c r="F43" s="88"/>
+      <c r="G43" s="174"/>
+      <c r="H43" s="175"/>
+      <c r="I43" s="175"/>
+      <c r="J43" s="175"/>
+      <c r="K43" s="175"/>
+      <c r="L43" s="175"/>
+      <c r="M43" s="175"/>
+      <c r="N43" s="176"/>
     </row>
     <row r="44" spans="1:119" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="69" t="s">
+      <c r="A44" s="87" t="s">
         <v>14</v>
       </c>
-      <c r="B44" s="71"/>
-      <c r="C44" s="72"/>
-      <c r="D44" s="73"/>
-      <c r="E44" s="72"/>
-      <c r="F44" s="73"/>
-      <c r="G44" s="83"/>
-      <c r="H44" s="84"/>
-      <c r="I44" s="84"/>
-      <c r="J44" s="84"/>
-      <c r="K44" s="84"/>
-      <c r="L44" s="84"/>
-      <c r="M44" s="84"/>
-      <c r="N44" s="85"/>
+      <c r="B44" s="89"/>
+      <c r="C44" s="197"/>
+      <c r="D44" s="88"/>
+      <c r="E44" s="197"/>
+      <c r="F44" s="88"/>
+      <c r="G44" s="174"/>
+      <c r="H44" s="175"/>
+      <c r="I44" s="175"/>
+      <c r="J44" s="175"/>
+      <c r="K44" s="175"/>
+      <c r="L44" s="175"/>
+      <c r="M44" s="175"/>
+      <c r="N44" s="176"/>
     </row>
     <row r="45" spans="1:119" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="69" t="s">
+      <c r="A45" s="87" t="s">
         <v>83</v>
       </c>
-      <c r="B45" s="71"/>
-      <c r="C45" s="72"/>
-      <c r="D45" s="73"/>
-      <c r="E45" s="72"/>
-      <c r="F45" s="73"/>
-      <c r="G45" s="86"/>
-      <c r="H45" s="87"/>
-      <c r="I45" s="87"/>
-      <c r="J45" s="87"/>
-      <c r="K45" s="87"/>
-      <c r="L45" s="87"/>
-      <c r="M45" s="87"/>
-      <c r="N45" s="88"/>
+      <c r="B45" s="89"/>
+      <c r="C45" s="197"/>
+      <c r="D45" s="88"/>
+      <c r="E45" s="197"/>
+      <c r="F45" s="88"/>
+      <c r="G45" s="177"/>
+      <c r="H45" s="178"/>
+      <c r="I45" s="178"/>
+      <c r="J45" s="178"/>
+      <c r="K45" s="178"/>
+      <c r="L45" s="178"/>
+      <c r="M45" s="178"/>
+      <c r="N45" s="179"/>
     </row>
     <row r="46" spans="1:119" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="188"/>
-      <c r="B46" s="189"/>
-      <c r="C46" s="189"/>
-      <c r="D46" s="189"/>
-      <c r="E46" s="189"/>
-      <c r="F46" s="189"/>
-      <c r="G46" s="189"/>
-      <c r="H46" s="189"/>
-      <c r="I46" s="189"/>
-      <c r="J46" s="189"/>
-      <c r="K46" s="189"/>
-      <c r="L46" s="189"/>
-      <c r="M46" s="189"/>
-      <c r="N46" s="190"/>
+      <c r="A46" s="146"/>
+      <c r="B46" s="147"/>
+      <c r="C46" s="147"/>
+      <c r="D46" s="147"/>
+      <c r="E46" s="147"/>
+      <c r="F46" s="147"/>
+      <c r="G46" s="147"/>
+      <c r="H46" s="147"/>
+      <c r="I46" s="147"/>
+      <c r="J46" s="147"/>
+      <c r="K46" s="147"/>
+      <c r="L46" s="147"/>
+      <c r="M46" s="147"/>
+      <c r="N46" s="148"/>
     </row>
     <row r="47" spans="1:119" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="141" t="s">
+      <c r="A47" s="71" t="s">
         <v>2</v>
       </c>
-      <c r="B47" s="142"/>
-      <c r="C47" s="142"/>
-      <c r="D47" s="142"/>
-      <c r="E47" s="142"/>
-      <c r="F47" s="142"/>
-      <c r="G47" s="142"/>
-      <c r="H47" s="142"/>
-      <c r="I47" s="142"/>
-      <c r="J47" s="142"/>
-      <c r="K47" s="142"/>
-      <c r="L47" s="142"/>
-      <c r="M47" s="142"/>
-      <c r="N47" s="143"/>
+      <c r="B47" s="72"/>
+      <c r="C47" s="72"/>
+      <c r="D47" s="72"/>
+      <c r="E47" s="72"/>
+      <c r="F47" s="72"/>
+      <c r="G47" s="72"/>
+      <c r="H47" s="72"/>
+      <c r="I47" s="72"/>
+      <c r="J47" s="72"/>
+      <c r="K47" s="72"/>
+      <c r="L47" s="72"/>
+      <c r="M47" s="72"/>
+      <c r="N47" s="73"/>
     </row>
     <row r="48" spans="1:119" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="182" t="s">
+      <c r="A48" s="140" t="s">
         <v>91</v>
       </c>
-      <c r="B48" s="183"/>
-      <c r="C48" s="183"/>
-      <c r="D48" s="183"/>
-      <c r="E48" s="183"/>
-      <c r="F48" s="183"/>
-      <c r="G48" s="183"/>
-      <c r="H48" s="183"/>
-      <c r="I48" s="183"/>
-      <c r="J48" s="183"/>
-      <c r="K48" s="183"/>
-      <c r="L48" s="183"/>
-      <c r="M48" s="183"/>
-      <c r="N48" s="184"/>
+      <c r="B48" s="141"/>
+      <c r="C48" s="141"/>
+      <c r="D48" s="141"/>
+      <c r="E48" s="141"/>
+      <c r="F48" s="141"/>
+      <c r="G48" s="141"/>
+      <c r="H48" s="141"/>
+      <c r="I48" s="141"/>
+      <c r="J48" s="141"/>
+      <c r="K48" s="141"/>
+      <c r="L48" s="141"/>
+      <c r="M48" s="141"/>
+      <c r="N48" s="142"/>
     </row>
     <row r="49" spans="1:14" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="185"/>
-      <c r="B49" s="186"/>
-      <c r="C49" s="186"/>
-      <c r="D49" s="186"/>
-      <c r="E49" s="186"/>
-      <c r="F49" s="186"/>
-      <c r="G49" s="186"/>
-      <c r="H49" s="186"/>
-      <c r="I49" s="186"/>
-      <c r="J49" s="186"/>
-      <c r="K49" s="186"/>
-      <c r="L49" s="186"/>
-      <c r="M49" s="186"/>
-      <c r="N49" s="187"/>
+      <c r="A49" s="143"/>
+      <c r="B49" s="144"/>
+      <c r="C49" s="144"/>
+      <c r="D49" s="144"/>
+      <c r="E49" s="144"/>
+      <c r="F49" s="144"/>
+      <c r="G49" s="144"/>
+      <c r="H49" s="144"/>
+      <c r="I49" s="144"/>
+      <c r="J49" s="144"/>
+      <c r="K49" s="144"/>
+      <c r="L49" s="144"/>
+      <c r="M49" s="144"/>
+      <c r="N49" s="145"/>
     </row>
     <row r="50" spans="1:14" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="113" t="s">
+      <c r="A50" s="160" t="s">
         <v>15</v>
       </c>
-      <c r="B50" s="114"/>
-      <c r="C50" s="114"/>
-      <c r="D50" s="114"/>
-      <c r="E50" s="114" t="s">
+      <c r="B50" s="161"/>
+      <c r="C50" s="161"/>
+      <c r="D50" s="161"/>
+      <c r="E50" s="161" t="s">
         <v>16</v>
       </c>
-      <c r="F50" s="114"/>
-      <c r="G50" s="114"/>
-      <c r="H50" s="114"/>
-      <c r="I50" s="114"/>
-      <c r="J50" s="114"/>
-      <c r="K50" s="114" t="s">
+      <c r="F50" s="161"/>
+      <c r="G50" s="161"/>
+      <c r="H50" s="161"/>
+      <c r="I50" s="161"/>
+      <c r="J50" s="161"/>
+      <c r="K50" s="161" t="s">
         <v>17</v>
       </c>
-      <c r="L50" s="114"/>
-      <c r="M50" s="114"/>
-      <c r="N50" s="115"/>
+      <c r="L50" s="161"/>
+      <c r="M50" s="161"/>
+      <c r="N50" s="162"/>
     </row>
     <row r="51" spans="1:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="106"/>
-      <c r="B51" s="107"/>
-      <c r="C51" s="107"/>
-      <c r="D51" s="108"/>
-      <c r="E51" s="109"/>
-      <c r="F51" s="107"/>
-      <c r="G51" s="107"/>
-      <c r="H51" s="107"/>
-      <c r="I51" s="107"/>
-      <c r="J51" s="108"/>
-      <c r="K51" s="109"/>
-      <c r="L51" s="107"/>
-      <c r="M51" s="107"/>
-      <c r="N51" s="124"/>
+      <c r="A51" s="158"/>
+      <c r="B51" s="135"/>
+      <c r="C51" s="135"/>
+      <c r="D51" s="159"/>
+      <c r="E51" s="134"/>
+      <c r="F51" s="135"/>
+      <c r="G51" s="135"/>
+      <c r="H51" s="135"/>
+      <c r="I51" s="135"/>
+      <c r="J51" s="159"/>
+      <c r="K51" s="134"/>
+      <c r="L51" s="135"/>
+      <c r="M51" s="135"/>
+      <c r="N51" s="136"/>
     </row>
     <row r="52" spans="1:14" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="96"/>
+      <c r="A52" s="153"/>
       <c r="B52" s="55"/>
       <c r="C52" s="55"/>
-      <c r="D52" s="97"/>
-      <c r="E52" s="98"/>
+      <c r="D52" s="154"/>
+      <c r="E52" s="137"/>
       <c r="F52" s="55"/>
       <c r="G52" s="55"/>
       <c r="H52" s="55"/>
       <c r="I52" s="55"/>
-      <c r="J52" s="97"/>
-      <c r="K52" s="98"/>
+      <c r="J52" s="154"/>
+      <c r="K52" s="137"/>
       <c r="L52" s="55"/>
       <c r="M52" s="55"/>
-      <c r="N52" s="99"/>
+      <c r="N52" s="138"/>
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A53" s="96"/>
+      <c r="A53" s="153"/>
       <c r="B53" s="55"/>
       <c r="C53" s="55"/>
-      <c r="D53" s="97"/>
-      <c r="E53" s="98"/>
+      <c r="D53" s="154"/>
+      <c r="E53" s="137"/>
       <c r="F53" s="55"/>
       <c r="G53" s="55"/>
       <c r="H53" s="55"/>
       <c r="I53" s="55"/>
-      <c r="J53" s="97"/>
-      <c r="K53" s="98"/>
+      <c r="J53" s="154"/>
+      <c r="K53" s="137"/>
       <c r="L53" s="55"/>
       <c r="M53" s="55"/>
-      <c r="N53" s="99"/>
+      <c r="N53" s="138"/>
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A54" s="96"/>
+      <c r="A54" s="153"/>
       <c r="B54" s="55"/>
       <c r="C54" s="55"/>
-      <c r="D54" s="97"/>
-      <c r="E54" s="98"/>
+      <c r="D54" s="154"/>
+      <c r="E54" s="137"/>
       <c r="F54" s="55"/>
       <c r="G54" s="55"/>
       <c r="H54" s="55"/>
       <c r="I54" s="55"/>
-      <c r="J54" s="97"/>
-      <c r="K54" s="98"/>
+      <c r="J54" s="154"/>
+      <c r="K54" s="137"/>
       <c r="L54" s="55"/>
       <c r="M54" s="55"/>
-      <c r="N54" s="99"/>
+      <c r="N54" s="138"/>
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A55" s="96"/>
+      <c r="A55" s="153"/>
       <c r="B55" s="55"/>
       <c r="C55" s="55"/>
-      <c r="D55" s="97"/>
-      <c r="E55" s="98"/>
+      <c r="D55" s="154"/>
+      <c r="E55" s="137"/>
       <c r="F55" s="55"/>
       <c r="G55" s="55"/>
       <c r="H55" s="55"/>
       <c r="I55" s="55"/>
-      <c r="J55" s="97"/>
-      <c r="K55" s="98"/>
+      <c r="J55" s="154"/>
+      <c r="K55" s="137"/>
       <c r="L55" s="55"/>
       <c r="M55" s="55"/>
-      <c r="N55" s="99"/>
+      <c r="N55" s="138"/>
     </row>
     <row r="56" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="100"/>
-      <c r="B56" s="101"/>
-      <c r="C56" s="101"/>
-      <c r="D56" s="102"/>
-      <c r="E56" s="103"/>
-      <c r="F56" s="101"/>
-      <c r="G56" s="101"/>
-      <c r="H56" s="101"/>
-      <c r="I56" s="101"/>
-      <c r="J56" s="102"/>
-      <c r="K56" s="104"/>
-      <c r="L56" s="101"/>
-      <c r="M56" s="101"/>
-      <c r="N56" s="105"/>
+      <c r="A56" s="155"/>
+      <c r="B56" s="66"/>
+      <c r="C56" s="66"/>
+      <c r="D56" s="156"/>
+      <c r="E56" s="157"/>
+      <c r="F56" s="66"/>
+      <c r="G56" s="66"/>
+      <c r="H56" s="66"/>
+      <c r="I56" s="66"/>
+      <c r="J56" s="156"/>
+      <c r="K56" s="65"/>
+      <c r="L56" s="66"/>
+      <c r="M56" s="66"/>
+      <c r="N56" s="67"/>
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A57" s="28" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B57" s="8"/>
       <c r="C57" s="8"/>
@@ -5732,22 +5725,140 @@
       </c>
     </row>
     <row r="59" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="K59" s="104"/>
-      <c r="L59" s="101"/>
-      <c r="M59" s="101"/>
-      <c r="N59" s="105"/>
+      <c r="K59" s="65"/>
+      <c r="L59" s="66"/>
+      <c r="M59" s="66"/>
+      <c r="N59" s="67"/>
     </row>
   </sheetData>
   <mergeCells count="165">
-    <mergeCell ref="L24:N24"/>
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="O24:Q24"/>
-    <mergeCell ref="K56:N56"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="C1:L2"/>
+    <mergeCell ref="C3:L3"/>
+    <mergeCell ref="M1:N2"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="E43:F43"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="E44:F44"/>
+    <mergeCell ref="C45:D45"/>
+    <mergeCell ref="E45:F45"/>
+    <mergeCell ref="I36:J36"/>
+    <mergeCell ref="I39:J39"/>
+    <mergeCell ref="L39:M39"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="E40:F40"/>
+    <mergeCell ref="G40:H40"/>
+    <mergeCell ref="I40:J40"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="L36:M36"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="I37:J37"/>
+    <mergeCell ref="L37:M37"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="E38:F38"/>
+    <mergeCell ref="G38:H38"/>
+    <mergeCell ref="I38:J38"/>
+    <mergeCell ref="L38:M38"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="I35:J35"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="I33:J33"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="G34:H34"/>
+    <mergeCell ref="I34:J34"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="I31:J31"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="I32:J32"/>
+    <mergeCell ref="A55:D55"/>
+    <mergeCell ref="E55:J55"/>
+    <mergeCell ref="K55:N55"/>
+    <mergeCell ref="A56:D56"/>
+    <mergeCell ref="E56:J56"/>
+    <mergeCell ref="K59:N59"/>
+    <mergeCell ref="A51:D54"/>
+    <mergeCell ref="E51:J54"/>
+    <mergeCell ref="L19:N19"/>
+    <mergeCell ref="L20:N20"/>
+    <mergeCell ref="A50:D50"/>
+    <mergeCell ref="E50:J50"/>
+    <mergeCell ref="K50:N50"/>
+    <mergeCell ref="C24:F24"/>
+    <mergeCell ref="C23:F23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A25:N25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="K51:N54"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="A48:N49"/>
+    <mergeCell ref="A46:N46"/>
+    <mergeCell ref="A47:N47"/>
+    <mergeCell ref="A41:N41"/>
+    <mergeCell ref="C22:F22"/>
+    <mergeCell ref="L22:N22"/>
+    <mergeCell ref="L23:N23"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="F10:N10"/>
+    <mergeCell ref="F11:N11"/>
+    <mergeCell ref="F12:N12"/>
+    <mergeCell ref="L17:N17"/>
+    <mergeCell ref="C16:F16"/>
+    <mergeCell ref="C17:F17"/>
+    <mergeCell ref="C18:F18"/>
+    <mergeCell ref="C19:F19"/>
+    <mergeCell ref="C20:F20"/>
+    <mergeCell ref="G16:K16"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="G15:K15"/>
+    <mergeCell ref="C21:F21"/>
+    <mergeCell ref="L21:N21"/>
     <mergeCell ref="C4:L4"/>
     <mergeCell ref="J5:N5"/>
     <mergeCell ref="A1:B4"/>
@@ -5772,136 +5883,18 @@
     <mergeCell ref="A11:E11"/>
     <mergeCell ref="A12:E12"/>
     <mergeCell ref="A13:E13"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="F10:N10"/>
-    <mergeCell ref="F11:N11"/>
-    <mergeCell ref="F12:N12"/>
-    <mergeCell ref="L17:N17"/>
-    <mergeCell ref="C16:F16"/>
-    <mergeCell ref="C17:F17"/>
-    <mergeCell ref="C18:F18"/>
-    <mergeCell ref="C19:F19"/>
-    <mergeCell ref="C20:F20"/>
-    <mergeCell ref="G16:K16"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="G15:K15"/>
-    <mergeCell ref="C21:F21"/>
-    <mergeCell ref="L21:N21"/>
+    <mergeCell ref="L24:N24"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="O24:Q24"/>
+    <mergeCell ref="K56:N56"/>
     <mergeCell ref="I30:J30"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="K51:N54"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="I29:J29"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="A48:N49"/>
-    <mergeCell ref="A46:N46"/>
-    <mergeCell ref="A47:N47"/>
-    <mergeCell ref="A41:N41"/>
-    <mergeCell ref="C22:F22"/>
-    <mergeCell ref="L22:N22"/>
-    <mergeCell ref="L23:N23"/>
-    <mergeCell ref="A55:D55"/>
-    <mergeCell ref="E55:J55"/>
-    <mergeCell ref="K55:N55"/>
-    <mergeCell ref="A56:D56"/>
-    <mergeCell ref="E56:J56"/>
-    <mergeCell ref="K59:N59"/>
-    <mergeCell ref="A51:D54"/>
-    <mergeCell ref="E51:J54"/>
-    <mergeCell ref="L19:N19"/>
-    <mergeCell ref="L20:N20"/>
-    <mergeCell ref="A50:D50"/>
-    <mergeCell ref="E50:J50"/>
-    <mergeCell ref="K50:N50"/>
-    <mergeCell ref="C24:F24"/>
-    <mergeCell ref="C23:F23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A25:N25"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="I31:J31"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="G32:H32"/>
-    <mergeCell ref="I32:J32"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="G35:H35"/>
-    <mergeCell ref="I35:J35"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="G33:H33"/>
-    <mergeCell ref="I33:J33"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="G34:H34"/>
-    <mergeCell ref="I34:J34"/>
     <mergeCell ref="G39:H39"/>
     <mergeCell ref="G42:N45"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="L36:M36"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="E37:F37"/>
-    <mergeCell ref="G37:H37"/>
-    <mergeCell ref="I37:J37"/>
-    <mergeCell ref="L37:M37"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="E38:F38"/>
-    <mergeCell ref="G38:H38"/>
-    <mergeCell ref="I38:J38"/>
-    <mergeCell ref="L38:M38"/>
-    <mergeCell ref="A39:B39"/>
-    <mergeCell ref="C39:D39"/>
-    <mergeCell ref="C1:L2"/>
-    <mergeCell ref="C3:L3"/>
-    <mergeCell ref="M1:N2"/>
-    <mergeCell ref="A42:B42"/>
-    <mergeCell ref="A43:B43"/>
-    <mergeCell ref="A44:B44"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="C42:D42"/>
-    <mergeCell ref="C43:D43"/>
-    <mergeCell ref="E43:F43"/>
-    <mergeCell ref="C44:D44"/>
-    <mergeCell ref="E44:F44"/>
-    <mergeCell ref="C45:D45"/>
-    <mergeCell ref="E45:F45"/>
-    <mergeCell ref="I36:J36"/>
-    <mergeCell ref="I39:J39"/>
-    <mergeCell ref="L39:M39"/>
-    <mergeCell ref="A40:B40"/>
-    <mergeCell ref="C40:D40"/>
-    <mergeCell ref="E40:F40"/>
-    <mergeCell ref="G40:H40"/>
-    <mergeCell ref="I40:J40"/>
     <mergeCell ref="L40:M40"/>
     <mergeCell ref="E39:F39"/>
   </mergeCells>
@@ -5949,134 +5942,134 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="144"/>
-      <c r="B1" s="145"/>
-      <c r="C1" s="59" t="s">
+      <c r="A1" s="74"/>
+      <c r="B1" s="75"/>
+      <c r="C1" s="186" t="s">
         <v>86</v>
       </c>
-      <c r="D1" s="60"/>
-      <c r="E1" s="60"/>
-      <c r="F1" s="60"/>
-      <c r="G1" s="60"/>
-      <c r="H1" s="60"/>
-      <c r="I1" s="60"/>
-      <c r="J1" s="60"/>
-      <c r="K1" s="60"/>
-      <c r="L1" s="60"/>
-      <c r="M1" s="60"/>
-      <c r="N1" s="60"/>
-      <c r="O1" s="211"/>
+      <c r="D1" s="187"/>
+      <c r="E1" s="187"/>
+      <c r="F1" s="187"/>
+      <c r="G1" s="187"/>
+      <c r="H1" s="187"/>
+      <c r="I1" s="187"/>
+      <c r="J1" s="187"/>
+      <c r="K1" s="187"/>
+      <c r="L1" s="187"/>
+      <c r="M1" s="187"/>
+      <c r="N1" s="187"/>
+      <c r="O1" s="200"/>
     </row>
     <row r="2" spans="1:15" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="146"/>
-      <c r="B2" s="147"/>
-      <c r="C2" s="61"/>
-      <c r="D2" s="62"/>
-      <c r="E2" s="62"/>
-      <c r="F2" s="62"/>
-      <c r="G2" s="62"/>
-      <c r="H2" s="62"/>
-      <c r="I2" s="62"/>
-      <c r="J2" s="62"/>
-      <c r="K2" s="62"/>
-      <c r="L2" s="62"/>
-      <c r="M2" s="62"/>
-      <c r="N2" s="62"/>
-      <c r="O2" s="212"/>
+      <c r="A2" s="76"/>
+      <c r="B2" s="77"/>
+      <c r="C2" s="188"/>
+      <c r="D2" s="189"/>
+      <c r="E2" s="189"/>
+      <c r="F2" s="189"/>
+      <c r="G2" s="189"/>
+      <c r="H2" s="189"/>
+      <c r="I2" s="189"/>
+      <c r="J2" s="189"/>
+      <c r="K2" s="189"/>
+      <c r="L2" s="189"/>
+      <c r="M2" s="189"/>
+      <c r="N2" s="189"/>
+      <c r="O2" s="201"/>
     </row>
     <row r="3" spans="1:15" s="1" customFormat="1" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="146"/>
-      <c r="B3" s="147"/>
-      <c r="C3" s="63" t="s">
+      <c r="A3" s="76"/>
+      <c r="B3" s="77"/>
+      <c r="C3" s="190" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="64"/>
-      <c r="E3" s="64"/>
-      <c r="F3" s="64"/>
-      <c r="G3" s="64"/>
-      <c r="H3" s="64"/>
-      <c r="I3" s="64"/>
-      <c r="J3" s="64"/>
-      <c r="K3" s="64"/>
-      <c r="L3" s="64"/>
-      <c r="M3" s="64"/>
-      <c r="N3" s="64"/>
-      <c r="O3" s="213"/>
+      <c r="D3" s="191"/>
+      <c r="E3" s="191"/>
+      <c r="F3" s="191"/>
+      <c r="G3" s="191"/>
+      <c r="H3" s="191"/>
+      <c r="I3" s="191"/>
+      <c r="J3" s="191"/>
+      <c r="K3" s="191"/>
+      <c r="L3" s="191"/>
+      <c r="M3" s="191"/>
+      <c r="N3" s="191"/>
+      <c r="O3" s="202"/>
     </row>
     <row r="4" spans="1:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="200" t="s">
-        <v>119</v>
-      </c>
-      <c r="B4" s="177"/>
-      <c r="C4" s="177"/>
-      <c r="D4" s="177"/>
-      <c r="E4" s="177"/>
-      <c r="F4" s="177"/>
-      <c r="G4" s="177"/>
-      <c r="H4" s="177"/>
-      <c r="I4" s="178"/>
-      <c r="J4" s="170" t="s">
+      <c r="A4" s="221" t="s">
+        <v>118</v>
+      </c>
+      <c r="B4" s="115"/>
+      <c r="C4" s="115"/>
+      <c r="D4" s="115"/>
+      <c r="E4" s="115"/>
+      <c r="F4" s="115"/>
+      <c r="G4" s="115"/>
+      <c r="H4" s="115"/>
+      <c r="I4" s="116"/>
+      <c r="J4" s="108" t="s">
         <v>18</v>
       </c>
-      <c r="K4" s="171"/>
-      <c r="L4" s="171"/>
-      <c r="M4" s="171"/>
-      <c r="N4" s="171" t="s">
+      <c r="K4" s="109"/>
+      <c r="L4" s="109"/>
+      <c r="M4" s="109"/>
+      <c r="N4" s="109" t="s">
         <v>19</v>
       </c>
-      <c r="O4" s="172"/>
+      <c r="O4" s="110"/>
     </row>
     <row r="5" spans="1:15" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="179"/>
-      <c r="B5" s="180"/>
-      <c r="C5" s="180"/>
-      <c r="D5" s="180"/>
-      <c r="E5" s="180"/>
-      <c r="F5" s="180"/>
-      <c r="G5" s="180"/>
-      <c r="H5" s="180"/>
-      <c r="I5" s="181"/>
-      <c r="J5" s="165" t="str">
+      <c r="A5" s="117"/>
+      <c r="B5" s="118"/>
+      <c r="C5" s="118"/>
+      <c r="D5" s="118"/>
+      <c r="E5" s="118"/>
+      <c r="F5" s="118"/>
+      <c r="G5" s="118"/>
+      <c r="H5" s="118"/>
+      <c r="I5" s="119"/>
+      <c r="J5" s="103" t="str">
         <f>'Page 01 of 02'!J8</f>
         <v>MTV2400001-1-1</v>
       </c>
-      <c r="K5" s="166"/>
-      <c r="L5" s="166"/>
-      <c r="M5" s="166"/>
-      <c r="N5" s="163">
+      <c r="K5" s="104"/>
+      <c r="L5" s="104"/>
+      <c r="M5" s="104"/>
+      <c r="N5" s="101">
         <f>'Page 01 of 02'!M8</f>
         <v>0</v>
       </c>
-      <c r="O5" s="164"/>
+      <c r="O5" s="102"/>
     </row>
     <row r="6" spans="1:15" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="118" t="s">
-        <v>120</v>
-      </c>
-      <c r="B6" s="119"/>
-      <c r="C6" s="119"/>
-      <c r="D6" s="119"/>
-      <c r="E6" s="119"/>
-      <c r="F6" s="119"/>
-      <c r="G6" s="119"/>
-      <c r="H6" s="119"/>
-      <c r="I6" s="119"/>
-      <c r="J6" s="119"/>
-      <c r="K6" s="119"/>
-      <c r="L6" s="119"/>
-      <c r="M6" s="119"/>
-      <c r="N6" s="119"/>
-      <c r="O6" s="120"/>
+      <c r="A6" s="164" t="s">
+        <v>119</v>
+      </c>
+      <c r="B6" s="165"/>
+      <c r="C6" s="165"/>
+      <c r="D6" s="165"/>
+      <c r="E6" s="165"/>
+      <c r="F6" s="165"/>
+      <c r="G6" s="165"/>
+      <c r="H6" s="165"/>
+      <c r="I6" s="165"/>
+      <c r="J6" s="165"/>
+      <c r="K6" s="165"/>
+      <c r="L6" s="165"/>
+      <c r="M6" s="165"/>
+      <c r="N6" s="165"/>
+      <c r="O6" s="166"/>
     </row>
     <row r="7" spans="1:15" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="118" t="s">
+      <c r="A7" s="164" t="s">
         <v>25</v>
       </c>
-      <c r="B7" s="119"/>
-      <c r="C7" s="215" t="s">
+      <c r="B7" s="165"/>
+      <c r="C7" s="208" t="s">
         <v>65</v>
       </c>
-      <c r="D7" s="119"/>
+      <c r="D7" s="165"/>
       <c r="E7" s="24" t="s">
         <v>29</v>
       </c>
@@ -6095,342 +6088,342 @@
       <c r="J7" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="K7" s="220" t="s">
+      <c r="K7" s="213" t="s">
         <v>31</v>
       </c>
-      <c r="L7" s="221"/>
+      <c r="L7" s="214"/>
       <c r="M7" s="25"/>
       <c r="N7" s="25"/>
       <c r="O7" s="26"/>
     </row>
     <row r="8" spans="1:15" s="8" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="214"/>
-      <c r="B8" s="210"/>
-      <c r="C8" s="218"/>
-      <c r="D8" s="219"/>
+      <c r="A8" s="203"/>
+      <c r="B8" s="204"/>
+      <c r="C8" s="211"/>
+      <c r="D8" s="212"/>
       <c r="E8" s="22"/>
       <c r="F8" s="22"/>
       <c r="G8" s="22"/>
       <c r="H8" s="22"/>
       <c r="I8" s="22"/>
       <c r="J8" s="22"/>
-      <c r="K8" s="209"/>
-      <c r="L8" s="210"/>
+      <c r="K8" s="216"/>
+      <c r="L8" s="204"/>
       <c r="M8" s="22"/>
       <c r="N8" s="22"/>
       <c r="O8" s="23"/>
     </row>
     <row r="9" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="208"/>
-      <c r="B9" s="202"/>
-      <c r="C9" s="216"/>
-      <c r="D9" s="217"/>
+      <c r="A9" s="205"/>
+      <c r="B9" s="206"/>
+      <c r="C9" s="209"/>
+      <c r="D9" s="210"/>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
-      <c r="K9" s="201"/>
-      <c r="L9" s="202"/>
+      <c r="K9" s="215"/>
+      <c r="L9" s="206"/>
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
       <c r="O9" s="3"/>
     </row>
     <row r="10" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="205"/>
-      <c r="B10" s="93"/>
-      <c r="C10" s="216"/>
-      <c r="D10" s="217"/>
+      <c r="A10" s="207"/>
+      <c r="B10" s="184"/>
+      <c r="C10" s="209"/>
+      <c r="D10" s="210"/>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
-      <c r="K10" s="201"/>
-      <c r="L10" s="202"/>
+      <c r="K10" s="215"/>
+      <c r="L10" s="206"/>
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
       <c r="O10" s="3"/>
     </row>
     <row r="11" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="208"/>
-      <c r="B11" s="202"/>
-      <c r="C11" s="216"/>
-      <c r="D11" s="217"/>
+      <c r="A11" s="205"/>
+      <c r="B11" s="206"/>
+      <c r="C11" s="209"/>
+      <c r="D11" s="210"/>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
-      <c r="K11" s="201"/>
-      <c r="L11" s="202"/>
+      <c r="K11" s="215"/>
+      <c r="L11" s="206"/>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
       <c r="O11" s="3"/>
     </row>
     <row r="12" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="205"/>
-      <c r="B12" s="93"/>
-      <c r="C12" s="216"/>
-      <c r="D12" s="217"/>
+      <c r="A12" s="207"/>
+      <c r="B12" s="184"/>
+      <c r="C12" s="209"/>
+      <c r="D12" s="210"/>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
-      <c r="K12" s="201"/>
-      <c r="L12" s="202"/>
+      <c r="K12" s="215"/>
+      <c r="L12" s="206"/>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
       <c r="O12" s="3"/>
     </row>
     <row r="13" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="208"/>
-      <c r="B13" s="202"/>
-      <c r="C13" s="206"/>
-      <c r="D13" s="206"/>
+      <c r="A13" s="205"/>
+      <c r="B13" s="206"/>
+      <c r="C13" s="217"/>
+      <c r="D13" s="217"/>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
-      <c r="K13" s="201"/>
-      <c r="L13" s="202"/>
+      <c r="K13" s="215"/>
+      <c r="L13" s="206"/>
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
       <c r="O13" s="3"/>
     </row>
     <row r="14" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="205"/>
-      <c r="B14" s="93"/>
-      <c r="C14" s="206"/>
-      <c r="D14" s="206"/>
+      <c r="A14" s="207"/>
+      <c r="B14" s="184"/>
+      <c r="C14" s="217"/>
+      <c r="D14" s="217"/>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
       <c r="J14" s="2"/>
-      <c r="K14" s="201"/>
-      <c r="L14" s="202"/>
+      <c r="K14" s="215"/>
+      <c r="L14" s="206"/>
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
       <c r="O14" s="3"/>
     </row>
     <row r="15" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="208"/>
-      <c r="B15" s="202"/>
-      <c r="C15" s="206"/>
-      <c r="D15" s="206"/>
+      <c r="A15" s="205"/>
+      <c r="B15" s="206"/>
+      <c r="C15" s="217"/>
+      <c r="D15" s="217"/>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
       <c r="J15" s="2"/>
-      <c r="K15" s="201"/>
-      <c r="L15" s="202"/>
+      <c r="K15" s="215"/>
+      <c r="L15" s="206"/>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
       <c r="O15" s="3"/>
     </row>
     <row r="16" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="205"/>
-      <c r="B16" s="93"/>
-      <c r="C16" s="206"/>
-      <c r="D16" s="206"/>
+      <c r="A16" s="207"/>
+      <c r="B16" s="184"/>
+      <c r="C16" s="217"/>
+      <c r="D16" s="217"/>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
       <c r="J16" s="2"/>
-      <c r="K16" s="201"/>
-      <c r="L16" s="202"/>
+      <c r="K16" s="215"/>
+      <c r="L16" s="206"/>
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
       <c r="O16" s="3"/>
     </row>
     <row r="17" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="208"/>
-      <c r="B17" s="202"/>
-      <c r="C17" s="206"/>
-      <c r="D17" s="206"/>
+      <c r="A17" s="205"/>
+      <c r="B17" s="206"/>
+      <c r="C17" s="217"/>
+      <c r="D17" s="217"/>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
       <c r="J17" s="2"/>
-      <c r="K17" s="201"/>
-      <c r="L17" s="202"/>
+      <c r="K17" s="215"/>
+      <c r="L17" s="206"/>
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
       <c r="O17" s="3"/>
     </row>
     <row r="18" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="205"/>
-      <c r="B18" s="93"/>
-      <c r="C18" s="206"/>
-      <c r="D18" s="206"/>
+      <c r="A18" s="207"/>
+      <c r="B18" s="184"/>
+      <c r="C18" s="217"/>
+      <c r="D18" s="217"/>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
       <c r="I18" s="2"/>
       <c r="J18" s="2"/>
-      <c r="K18" s="201"/>
-      <c r="L18" s="202"/>
+      <c r="K18" s="215"/>
+      <c r="L18" s="206"/>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
       <c r="O18" s="3"/>
     </row>
     <row r="19" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="208"/>
-      <c r="B19" s="202"/>
-      <c r="C19" s="206"/>
-      <c r="D19" s="206"/>
+      <c r="A19" s="205"/>
+      <c r="B19" s="206"/>
+      <c r="C19" s="217"/>
+      <c r="D19" s="217"/>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
       <c r="H19" s="2"/>
       <c r="I19" s="2"/>
       <c r="J19" s="2"/>
-      <c r="K19" s="201"/>
-      <c r="L19" s="202"/>
+      <c r="K19" s="215"/>
+      <c r="L19" s="206"/>
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
       <c r="O19" s="3"/>
     </row>
     <row r="20" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="205"/>
-      <c r="B20" s="93"/>
-      <c r="C20" s="206"/>
-      <c r="D20" s="206"/>
+      <c r="A20" s="207"/>
+      <c r="B20" s="184"/>
+      <c r="C20" s="217"/>
+      <c r="D20" s="217"/>
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
       <c r="H20" s="2"/>
       <c r="I20" s="2"/>
       <c r="J20" s="2"/>
-      <c r="K20" s="201"/>
-      <c r="L20" s="202"/>
+      <c r="K20" s="215"/>
+      <c r="L20" s="206"/>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
       <c r="O20" s="3"/>
     </row>
     <row r="21" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="208"/>
-      <c r="B21" s="202"/>
-      <c r="C21" s="206"/>
-      <c r="D21" s="206"/>
+      <c r="A21" s="205"/>
+      <c r="B21" s="206"/>
+      <c r="C21" s="217"/>
+      <c r="D21" s="217"/>
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
       <c r="H21" s="2"/>
       <c r="I21" s="2"/>
       <c r="J21" s="2"/>
-      <c r="K21" s="201"/>
-      <c r="L21" s="202"/>
+      <c r="K21" s="215"/>
+      <c r="L21" s="206"/>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
       <c r="O21" s="3"/>
     </row>
     <row r="22" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="205"/>
-      <c r="B22" s="93"/>
-      <c r="C22" s="206"/>
-      <c r="D22" s="206"/>
+      <c r="A22" s="207"/>
+      <c r="B22" s="184"/>
+      <c r="C22" s="217"/>
+      <c r="D22" s="217"/>
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
       <c r="H22" s="2"/>
       <c r="I22" s="2"/>
       <c r="J22" s="2"/>
-      <c r="K22" s="201"/>
-      <c r="L22" s="202"/>
+      <c r="K22" s="215"/>
+      <c r="L22" s="206"/>
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
       <c r="O22" s="3"/>
     </row>
     <row r="23" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="208"/>
-      <c r="B23" s="202"/>
-      <c r="C23" s="206"/>
-      <c r="D23" s="206"/>
+      <c r="A23" s="205"/>
+      <c r="B23" s="206"/>
+      <c r="C23" s="217"/>
+      <c r="D23" s="217"/>
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
       <c r="H23" s="2"/>
       <c r="I23" s="2"/>
       <c r="J23" s="2"/>
-      <c r="K23" s="201"/>
-      <c r="L23" s="202"/>
+      <c r="K23" s="215"/>
+      <c r="L23" s="206"/>
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
       <c r="O23" s="3"/>
     </row>
     <row r="24" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="205"/>
-      <c r="B24" s="93"/>
-      <c r="C24" s="206"/>
-      <c r="D24" s="206"/>
+      <c r="A24" s="207"/>
+      <c r="B24" s="184"/>
+      <c r="C24" s="217"/>
+      <c r="D24" s="217"/>
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
       <c r="H24" s="2"/>
       <c r="I24" s="2"/>
       <c r="J24" s="2"/>
-      <c r="K24" s="201"/>
-      <c r="L24" s="202"/>
+      <c r="K24" s="215"/>
+      <c r="L24" s="206"/>
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
       <c r="O24" s="3"/>
     </row>
     <row r="25" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="205"/>
-      <c r="B25" s="93"/>
-      <c r="C25" s="206"/>
-      <c r="D25" s="206"/>
+      <c r="A25" s="207"/>
+      <c r="B25" s="184"/>
+      <c r="C25" s="217"/>
+      <c r="D25" s="217"/>
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
       <c r="H25" s="2"/>
       <c r="I25" s="2"/>
       <c r="J25" s="2"/>
-      <c r="K25" s="201"/>
-      <c r="L25" s="202"/>
+      <c r="K25" s="215"/>
+      <c r="L25" s="206"/>
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
       <c r="O25" s="3"/>
     </row>
     <row r="26" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="205"/>
-      <c r="B26" s="93"/>
-      <c r="C26" s="206"/>
-      <c r="D26" s="206"/>
+      <c r="A26" s="207"/>
+      <c r="B26" s="184"/>
+      <c r="C26" s="217"/>
+      <c r="D26" s="217"/>
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
       <c r="G26" s="2"/>
       <c r="H26" s="2"/>
       <c r="I26" s="2"/>
       <c r="J26" s="2"/>
-      <c r="K26" s="201"/>
-      <c r="L26" s="202"/>
+      <c r="K26" s="215"/>
+      <c r="L26" s="206"/>
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
       <c r="O26" s="3"/>
     </row>
     <row r="27" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="205"/>
-      <c r="B27" s="93"/>
-      <c r="C27" s="206"/>
-      <c r="D27" s="206"/>
+      <c r="A27" s="207"/>
+      <c r="B27" s="184"/>
+      <c r="C27" s="217"/>
+      <c r="D27" s="217"/>
       <c r="E27" s="2"/>
       <c r="F27" s="2"/>
       <c r="G27" s="2"/>
@@ -6444,10 +6437,10 @@
       <c r="O27" s="3"/>
     </row>
     <row r="28" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="205"/>
-      <c r="B28" s="93"/>
-      <c r="C28" s="206"/>
-      <c r="D28" s="206"/>
+      <c r="A28" s="207"/>
+      <c r="B28" s="184"/>
+      <c r="C28" s="217"/>
+      <c r="D28" s="217"/>
       <c r="E28" s="2"/>
       <c r="F28" s="2"/>
       <c r="G28" s="2"/>
@@ -6461,10 +6454,10 @@
       <c r="O28" s="3"/>
     </row>
     <row r="29" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="205"/>
-      <c r="B29" s="93"/>
-      <c r="C29" s="206"/>
-      <c r="D29" s="206"/>
+      <c r="A29" s="207"/>
+      <c r="B29" s="184"/>
+      <c r="C29" s="217"/>
+      <c r="D29" s="217"/>
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
       <c r="G29" s="2"/>
@@ -6478,10 +6471,10 @@
       <c r="O29" s="3"/>
     </row>
     <row r="30" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="205"/>
-      <c r="B30" s="93"/>
-      <c r="C30" s="206"/>
-      <c r="D30" s="206"/>
+      <c r="A30" s="207"/>
+      <c r="B30" s="184"/>
+      <c r="C30" s="217"/>
+      <c r="D30" s="217"/>
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
       <c r="G30" s="2"/>
@@ -6495,10 +6488,10 @@
       <c r="O30" s="3"/>
     </row>
     <row r="31" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="205"/>
-      <c r="B31" s="93"/>
-      <c r="C31" s="206"/>
-      <c r="D31" s="206"/>
+      <c r="A31" s="207"/>
+      <c r="B31" s="184"/>
+      <c r="C31" s="217"/>
+      <c r="D31" s="217"/>
       <c r="E31" s="2"/>
       <c r="F31" s="2"/>
       <c r="G31" s="2"/>
@@ -6512,10 +6505,10 @@
       <c r="O31" s="3"/>
     </row>
     <row r="32" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="205"/>
-      <c r="B32" s="93"/>
-      <c r="C32" s="206"/>
-      <c r="D32" s="206"/>
+      <c r="A32" s="207"/>
+      <c r="B32" s="184"/>
+      <c r="C32" s="217"/>
+      <c r="D32" s="217"/>
       <c r="E32" s="2"/>
       <c r="F32" s="2"/>
       <c r="G32" s="2"/>
@@ -6529,262 +6522,262 @@
       <c r="O32" s="3"/>
     </row>
     <row r="33" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="205"/>
-      <c r="B33" s="93"/>
-      <c r="C33" s="206"/>
-      <c r="D33" s="206"/>
+      <c r="A33" s="207"/>
+      <c r="B33" s="184"/>
+      <c r="C33" s="217"/>
+      <c r="D33" s="217"/>
       <c r="E33" s="2"/>
       <c r="F33" s="2"/>
       <c r="G33" s="2"/>
       <c r="H33" s="2"/>
       <c r="I33" s="2"/>
       <c r="J33" s="2"/>
-      <c r="K33" s="201"/>
-      <c r="L33" s="202"/>
+      <c r="K33" s="215"/>
+      <c r="L33" s="206"/>
       <c r="M33" s="2"/>
       <c r="N33" s="2"/>
       <c r="O33" s="3"/>
     </row>
     <row r="34" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="205"/>
-      <c r="B34" s="93"/>
-      <c r="C34" s="206"/>
-      <c r="D34" s="206"/>
+      <c r="A34" s="207"/>
+      <c r="B34" s="184"/>
+      <c r="C34" s="217"/>
+      <c r="D34" s="217"/>
       <c r="E34" s="2"/>
       <c r="F34" s="2"/>
       <c r="G34" s="2"/>
       <c r="H34" s="2"/>
       <c r="I34" s="2"/>
       <c r="J34" s="2"/>
-      <c r="K34" s="201"/>
-      <c r="L34" s="202"/>
+      <c r="K34" s="215"/>
+      <c r="L34" s="206"/>
       <c r="M34" s="2"/>
       <c r="N34" s="2"/>
       <c r="O34" s="3"/>
     </row>
     <row r="35" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="205"/>
-      <c r="B35" s="93"/>
-      <c r="C35" s="206"/>
-      <c r="D35" s="206"/>
+      <c r="A35" s="207"/>
+      <c r="B35" s="184"/>
+      <c r="C35" s="217"/>
+      <c r="D35" s="217"/>
       <c r="E35" s="2"/>
       <c r="F35" s="2"/>
       <c r="G35" s="2"/>
       <c r="H35" s="2"/>
       <c r="I35" s="2"/>
       <c r="J35" s="2"/>
-      <c r="K35" s="201"/>
-      <c r="L35" s="202"/>
+      <c r="K35" s="215"/>
+      <c r="L35" s="206"/>
       <c r="M35" s="2"/>
       <c r="N35" s="2"/>
       <c r="O35" s="3"/>
     </row>
     <row r="36" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="205"/>
-      <c r="B36" s="93"/>
-      <c r="C36" s="206"/>
-      <c r="D36" s="206"/>
+      <c r="A36" s="207"/>
+      <c r="B36" s="184"/>
+      <c r="C36" s="217"/>
+      <c r="D36" s="217"/>
       <c r="E36" s="2"/>
       <c r="F36" s="2"/>
       <c r="G36" s="2"/>
       <c r="H36" s="2"/>
       <c r="I36" s="2"/>
       <c r="J36" s="2"/>
-      <c r="K36" s="201"/>
-      <c r="L36" s="202"/>
+      <c r="K36" s="215"/>
+      <c r="L36" s="206"/>
       <c r="M36" s="2"/>
       <c r="N36" s="2"/>
       <c r="O36" s="3"/>
     </row>
     <row r="37" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="205"/>
-      <c r="B37" s="93"/>
-      <c r="C37" s="206"/>
-      <c r="D37" s="206"/>
+      <c r="A37" s="207"/>
+      <c r="B37" s="184"/>
+      <c r="C37" s="217"/>
+      <c r="D37" s="217"/>
       <c r="E37" s="2"/>
       <c r="F37" s="2"/>
       <c r="G37" s="2"/>
       <c r="H37" s="2"/>
       <c r="I37" s="2"/>
       <c r="J37" s="2"/>
-      <c r="K37" s="201"/>
-      <c r="L37" s="202"/>
+      <c r="K37" s="215"/>
+      <c r="L37" s="206"/>
       <c r="M37" s="2"/>
       <c r="N37" s="2"/>
       <c r="O37" s="3"/>
     </row>
     <row r="38" spans="1:15" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="205"/>
-      <c r="B38" s="93"/>
-      <c r="C38" s="203"/>
-      <c r="D38" s="204"/>
+      <c r="A38" s="207"/>
+      <c r="B38" s="184"/>
+      <c r="C38" s="219"/>
+      <c r="D38" s="220"/>
       <c r="E38" s="2"/>
       <c r="F38" s="2"/>
       <c r="G38" s="2"/>
       <c r="H38" s="2"/>
       <c r="I38" s="2"/>
       <c r="J38" s="2"/>
-      <c r="K38" s="203"/>
-      <c r="L38" s="204"/>
+      <c r="K38" s="219"/>
+      <c r="L38" s="220"/>
       <c r="M38" s="2"/>
       <c r="N38" s="2"/>
       <c r="O38" s="3"/>
     </row>
     <row r="39" spans="1:15" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="141" t="s">
+      <c r="A39" s="71" t="s">
         <v>2</v>
       </c>
-      <c r="B39" s="142"/>
-      <c r="C39" s="142"/>
-      <c r="D39" s="142"/>
-      <c r="E39" s="142"/>
-      <c r="F39" s="142"/>
-      <c r="G39" s="142"/>
-      <c r="H39" s="142"/>
-      <c r="I39" s="142"/>
-      <c r="J39" s="142"/>
-      <c r="K39" s="142"/>
-      <c r="L39" s="142"/>
-      <c r="M39" s="142"/>
-      <c r="N39" s="142"/>
-      <c r="O39" s="143"/>
+      <c r="B39" s="72"/>
+      <c r="C39" s="72"/>
+      <c r="D39" s="72"/>
+      <c r="E39" s="72"/>
+      <c r="F39" s="72"/>
+      <c r="G39" s="72"/>
+      <c r="H39" s="72"/>
+      <c r="I39" s="72"/>
+      <c r="J39" s="72"/>
+      <c r="K39" s="72"/>
+      <c r="L39" s="72"/>
+      <c r="M39" s="72"/>
+      <c r="N39" s="72"/>
+      <c r="O39" s="73"/>
     </row>
     <row r="40" spans="1:15" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="182" t="s">
+      <c r="A40" s="140" t="s">
         <v>98</v>
       </c>
-      <c r="B40" s="183"/>
-      <c r="C40" s="183"/>
-      <c r="D40" s="183"/>
-      <c r="E40" s="183"/>
-      <c r="F40" s="183"/>
-      <c r="G40" s="183"/>
-      <c r="H40" s="183"/>
-      <c r="I40" s="183"/>
-      <c r="J40" s="183"/>
-      <c r="K40" s="183"/>
-      <c r="L40" s="183"/>
-      <c r="M40" s="183"/>
-      <c r="N40" s="183"/>
-      <c r="O40" s="184"/>
+      <c r="B40" s="141"/>
+      <c r="C40" s="141"/>
+      <c r="D40" s="141"/>
+      <c r="E40" s="141"/>
+      <c r="F40" s="141"/>
+      <c r="G40" s="141"/>
+      <c r="H40" s="141"/>
+      <c r="I40" s="141"/>
+      <c r="J40" s="141"/>
+      <c r="K40" s="141"/>
+      <c r="L40" s="141"/>
+      <c r="M40" s="141"/>
+      <c r="N40" s="141"/>
+      <c r="O40" s="142"/>
     </row>
     <row r="41" spans="1:15" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="185"/>
-      <c r="B41" s="186"/>
-      <c r="C41" s="186"/>
-      <c r="D41" s="186"/>
-      <c r="E41" s="186"/>
-      <c r="F41" s="186"/>
-      <c r="G41" s="186"/>
-      <c r="H41" s="186"/>
-      <c r="I41" s="186"/>
-      <c r="J41" s="186"/>
-      <c r="K41" s="186"/>
-      <c r="L41" s="186"/>
-      <c r="M41" s="186"/>
-      <c r="N41" s="186"/>
-      <c r="O41" s="187"/>
+      <c r="A41" s="143"/>
+      <c r="B41" s="144"/>
+      <c r="C41" s="144"/>
+      <c r="D41" s="144"/>
+      <c r="E41" s="144"/>
+      <c r="F41" s="144"/>
+      <c r="G41" s="144"/>
+      <c r="H41" s="144"/>
+      <c r="I41" s="144"/>
+      <c r="J41" s="144"/>
+      <c r="K41" s="144"/>
+      <c r="L41" s="144"/>
+      <c r="M41" s="144"/>
+      <c r="N41" s="144"/>
+      <c r="O41" s="145"/>
     </row>
     <row r="42" spans="1:15" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="113" t="s">
+      <c r="A42" s="160" t="s">
         <v>15</v>
       </c>
-      <c r="B42" s="114"/>
-      <c r="C42" s="114"/>
-      <c r="D42" s="114"/>
-      <c r="E42" s="114" t="s">
+      <c r="B42" s="161"/>
+      <c r="C42" s="161"/>
+      <c r="D42" s="161"/>
+      <c r="E42" s="161" t="s">
         <v>16</v>
       </c>
-      <c r="F42" s="114"/>
-      <c r="G42" s="114"/>
-      <c r="H42" s="114"/>
-      <c r="I42" s="114"/>
-      <c r="J42" s="114"/>
-      <c r="K42" s="114" t="s">
+      <c r="F42" s="161"/>
+      <c r="G42" s="161"/>
+      <c r="H42" s="161"/>
+      <c r="I42" s="161"/>
+      <c r="J42" s="161"/>
+      <c r="K42" s="161" t="s">
         <v>17</v>
       </c>
-      <c r="L42" s="114"/>
-      <c r="M42" s="114"/>
-      <c r="N42" s="114"/>
-      <c r="O42" s="115"/>
+      <c r="L42" s="161"/>
+      <c r="M42" s="161"/>
+      <c r="N42" s="161"/>
+      <c r="O42" s="162"/>
     </row>
     <row r="43" spans="1:15" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="106"/>
-      <c r="B43" s="107"/>
-      <c r="C43" s="107"/>
-      <c r="D43" s="108"/>
-      <c r="E43" s="109"/>
-      <c r="F43" s="107"/>
-      <c r="G43" s="107"/>
-      <c r="H43" s="107"/>
-      <c r="I43" s="107"/>
-      <c r="J43" s="108"/>
-      <c r="K43" s="109"/>
-      <c r="L43" s="107"/>
-      <c r="M43" s="107"/>
-      <c r="N43" s="107"/>
-      <c r="O43" s="124"/>
+      <c r="A43" s="158"/>
+      <c r="B43" s="135"/>
+      <c r="C43" s="135"/>
+      <c r="D43" s="159"/>
+      <c r="E43" s="134"/>
+      <c r="F43" s="135"/>
+      <c r="G43" s="135"/>
+      <c r="H43" s="135"/>
+      <c r="I43" s="135"/>
+      <c r="J43" s="159"/>
+      <c r="K43" s="134"/>
+      <c r="L43" s="135"/>
+      <c r="M43" s="135"/>
+      <c r="N43" s="135"/>
+      <c r="O43" s="136"/>
     </row>
     <row r="44" spans="1:15" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="96"/>
+      <c r="A44" s="153"/>
       <c r="B44" s="55"/>
       <c r="C44" s="55"/>
-      <c r="D44" s="97"/>
-      <c r="E44" s="98"/>
+      <c r="D44" s="154"/>
+      <c r="E44" s="137"/>
       <c r="F44" s="55"/>
       <c r="G44" s="55"/>
       <c r="H44" s="55"/>
       <c r="I44" s="55"/>
-      <c r="J44" s="97"/>
-      <c r="K44" s="98"/>
+      <c r="J44" s="154"/>
+      <c r="K44" s="137"/>
       <c r="L44" s="55"/>
       <c r="M44" s="55"/>
       <c r="N44" s="55"/>
-      <c r="O44" s="99"/>
+      <c r="O44" s="138"/>
     </row>
     <row r="45" spans="1:15" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="96"/>
+      <c r="A45" s="153"/>
       <c r="B45" s="55"/>
       <c r="C45" s="55"/>
-      <c r="D45" s="97"/>
-      <c r="E45" s="98"/>
+      <c r="D45" s="154"/>
+      <c r="E45" s="137"/>
       <c r="F45" s="55"/>
       <c r="G45" s="55"/>
       <c r="H45" s="55"/>
       <c r="I45" s="55"/>
-      <c r="J45" s="97"/>
-      <c r="K45" s="98"/>
+      <c r="J45" s="154"/>
+      <c r="K45" s="137"/>
       <c r="L45" s="55"/>
       <c r="M45" s="55"/>
       <c r="N45" s="55"/>
-      <c r="O45" s="99"/>
+      <c r="O45" s="138"/>
     </row>
     <row r="46" spans="1:15" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="96"/>
+      <c r="A46" s="153"/>
       <c r="B46" s="55"/>
       <c r="C46" s="55"/>
-      <c r="D46" s="97"/>
-      <c r="E46" s="98"/>
+      <c r="D46" s="154"/>
+      <c r="E46" s="137"/>
       <c r="F46" s="55"/>
       <c r="G46" s="55"/>
       <c r="H46" s="55"/>
       <c r="I46" s="55"/>
-      <c r="J46" s="97"/>
-      <c r="K46" s="98"/>
+      <c r="J46" s="154"/>
+      <c r="K46" s="137"/>
       <c r="L46" s="55"/>
       <c r="M46" s="55"/>
       <c r="N46" s="55"/>
-      <c r="O46" s="99"/>
+      <c r="O46" s="138"/>
     </row>
     <row r="47" spans="1:15" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="96">
+      <c r="A47" s="153">
         <f>'Page 01 of 02'!A55</f>
         <v>0</v>
       </c>
       <c r="B47" s="55"/>
       <c r="C47" s="55"/>
-      <c r="D47" s="97"/>
-      <c r="E47" s="98">
+      <c r="D47" s="154"/>
+      <c r="E47" s="137">
         <f>'Page 01 of 02'!E55</f>
         <v>0</v>
       </c>
@@ -6792,35 +6785,35 @@
       <c r="G47" s="55"/>
       <c r="H47" s="55"/>
       <c r="I47" s="55"/>
-      <c r="J47" s="97"/>
-      <c r="K47" s="98"/>
+      <c r="J47" s="154"/>
+      <c r="K47" s="137"/>
       <c r="L47" s="55"/>
       <c r="M47" s="55"/>
       <c r="N47" s="55"/>
-      <c r="O47" s="99"/>
+      <c r="O47" s="138"/>
     </row>
     <row r="48" spans="1:15" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="207">
+      <c r="A48" s="218">
         <f>'Page 01 of 02'!A56</f>
         <v>0</v>
       </c>
-      <c r="B48" s="101"/>
-      <c r="C48" s="101"/>
-      <c r="D48" s="102"/>
-      <c r="E48" s="104">
+      <c r="B48" s="66"/>
+      <c r="C48" s="66"/>
+      <c r="D48" s="156"/>
+      <c r="E48" s="65">
         <f>'Page 01 of 02'!E56</f>
         <v>0</v>
       </c>
-      <c r="F48" s="101"/>
-      <c r="G48" s="101"/>
-      <c r="H48" s="101"/>
-      <c r="I48" s="101"/>
-      <c r="J48" s="102"/>
-      <c r="K48" s="104"/>
-      <c r="L48" s="101"/>
-      <c r="M48" s="101"/>
-      <c r="N48" s="101"/>
-      <c r="O48" s="105"/>
+      <c r="F48" s="66"/>
+      <c r="G48" s="66"/>
+      <c r="H48" s="66"/>
+      <c r="I48" s="66"/>
+      <c r="J48" s="156"/>
+      <c r="K48" s="65"/>
+      <c r="L48" s="66"/>
+      <c r="M48" s="66"/>
+      <c r="N48" s="66"/>
+      <c r="O48" s="67"/>
     </row>
     <row r="49" spans="1:15" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A49" s="28" t="s">
@@ -6835,26 +6828,74 @@
     </row>
   </sheetData>
   <mergeCells count="113">
-    <mergeCell ref="C1:O2"/>
-    <mergeCell ref="C3:O3"/>
-    <mergeCell ref="A1:B3"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="J5:M5"/>
-    <mergeCell ref="N5:O5"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="K9:L9"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="K11:L11"/>
-    <mergeCell ref="K12:L12"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="K13:L13"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="K26:L26"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="K17:L17"/>
+    <mergeCell ref="J4:M4"/>
+    <mergeCell ref="A4:I5"/>
+    <mergeCell ref="K36:L36"/>
+    <mergeCell ref="K37:L37"/>
+    <mergeCell ref="K38:L38"/>
+    <mergeCell ref="K18:L18"/>
+    <mergeCell ref="K19:L19"/>
+    <mergeCell ref="K20:L20"/>
+    <mergeCell ref="K21:L21"/>
+    <mergeCell ref="K22:L22"/>
+    <mergeCell ref="K23:L23"/>
+    <mergeCell ref="K24:L24"/>
+    <mergeCell ref="K25:L25"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="A47:D47"/>
+    <mergeCell ref="A48:D48"/>
+    <mergeCell ref="E47:J47"/>
+    <mergeCell ref="E48:J48"/>
+    <mergeCell ref="K47:O47"/>
+    <mergeCell ref="K48:O48"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="A43:D46"/>
+    <mergeCell ref="E43:J46"/>
+    <mergeCell ref="K43:O46"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="K34:L34"/>
+    <mergeCell ref="K35:L35"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="A39:O39"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="K14:L14"/>
+    <mergeCell ref="K15:L15"/>
+    <mergeCell ref="K16:L16"/>
     <mergeCell ref="A40:O41"/>
     <mergeCell ref="A42:D42"/>
     <mergeCell ref="E42:J42"/>
@@ -6879,75 +6920,27 @@
     <mergeCell ref="A23:B23"/>
     <mergeCell ref="A25:B25"/>
     <mergeCell ref="K33:L33"/>
-    <mergeCell ref="K34:L34"/>
-    <mergeCell ref="K35:L35"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="A39:O39"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="K14:L14"/>
-    <mergeCell ref="K15:L15"/>
-    <mergeCell ref="K16:L16"/>
-    <mergeCell ref="A47:D47"/>
-    <mergeCell ref="A48:D48"/>
-    <mergeCell ref="E47:J47"/>
-    <mergeCell ref="E48:J48"/>
-    <mergeCell ref="K47:O47"/>
-    <mergeCell ref="K48:O48"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="K26:L26"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="K17:L17"/>
-    <mergeCell ref="J4:M4"/>
+    <mergeCell ref="C1:O2"/>
+    <mergeCell ref="C3:O3"/>
+    <mergeCell ref="A1:B3"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="J5:M5"/>
+    <mergeCell ref="N5:O5"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="K9:L9"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="K12:L12"/>
     <mergeCell ref="N4:O4"/>
-    <mergeCell ref="A4:I5"/>
-    <mergeCell ref="A43:D46"/>
-    <mergeCell ref="E43:J46"/>
-    <mergeCell ref="K43:O46"/>
-    <mergeCell ref="K36:L36"/>
-    <mergeCell ref="K37:L37"/>
-    <mergeCell ref="K38:L38"/>
-    <mergeCell ref="K18:L18"/>
-    <mergeCell ref="K19:L19"/>
-    <mergeCell ref="K20:L20"/>
-    <mergeCell ref="K21:L21"/>
-    <mergeCell ref="K22:L22"/>
-    <mergeCell ref="K23:L23"/>
-    <mergeCell ref="K24:L24"/>
-    <mergeCell ref="K25:L25"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="K13:L13"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -6985,299 +6978,299 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="144"/>
-      <c r="B1" s="284"/>
-      <c r="C1" s="145"/>
-      <c r="D1" s="59" t="s">
+      <c r="A1" s="74"/>
+      <c r="B1" s="236"/>
+      <c r="C1" s="75"/>
+      <c r="D1" s="186" t="s">
         <v>86</v>
       </c>
-      <c r="E1" s="60"/>
-      <c r="F1" s="60"/>
-      <c r="G1" s="60"/>
-      <c r="H1" s="60"/>
-      <c r="I1" s="60"/>
-      <c r="J1" s="60"/>
-      <c r="K1" s="60"/>
-      <c r="L1" s="60"/>
-      <c r="M1" s="60"/>
-      <c r="N1" s="60"/>
-      <c r="O1" s="60"/>
-      <c r="P1" s="60"/>
-      <c r="Q1" s="60"/>
-      <c r="R1" s="60"/>
-      <c r="S1" s="60"/>
-      <c r="T1" s="60"/>
-      <c r="U1" s="60"/>
-      <c r="V1" s="60"/>
-      <c r="W1" s="211"/>
+      <c r="E1" s="187"/>
+      <c r="F1" s="187"/>
+      <c r="G1" s="187"/>
+      <c r="H1" s="187"/>
+      <c r="I1" s="187"/>
+      <c r="J1" s="187"/>
+      <c r="K1" s="187"/>
+      <c r="L1" s="187"/>
+      <c r="M1" s="187"/>
+      <c r="N1" s="187"/>
+      <c r="O1" s="187"/>
+      <c r="P1" s="187"/>
+      <c r="Q1" s="187"/>
+      <c r="R1" s="187"/>
+      <c r="S1" s="187"/>
+      <c r="T1" s="187"/>
+      <c r="U1" s="187"/>
+      <c r="V1" s="187"/>
+      <c r="W1" s="200"/>
     </row>
     <row r="2" spans="1:23" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="146"/>
+      <c r="A2" s="76"/>
       <c r="B2" s="56"/>
-      <c r="C2" s="147"/>
-      <c r="D2" s="61"/>
-      <c r="E2" s="62"/>
-      <c r="F2" s="62"/>
-      <c r="G2" s="62"/>
-      <c r="H2" s="62"/>
-      <c r="I2" s="62"/>
-      <c r="J2" s="62"/>
-      <c r="K2" s="62"/>
-      <c r="L2" s="62"/>
-      <c r="M2" s="62"/>
-      <c r="N2" s="62"/>
-      <c r="O2" s="62"/>
-      <c r="P2" s="62"/>
-      <c r="Q2" s="62"/>
-      <c r="R2" s="62"/>
-      <c r="S2" s="62"/>
-      <c r="T2" s="62"/>
-      <c r="U2" s="62"/>
-      <c r="V2" s="62"/>
-      <c r="W2" s="212"/>
+      <c r="C2" s="77"/>
+      <c r="D2" s="188"/>
+      <c r="E2" s="189"/>
+      <c r="F2" s="189"/>
+      <c r="G2" s="189"/>
+      <c r="H2" s="189"/>
+      <c r="I2" s="189"/>
+      <c r="J2" s="189"/>
+      <c r="K2" s="189"/>
+      <c r="L2" s="189"/>
+      <c r="M2" s="189"/>
+      <c r="N2" s="189"/>
+      <c r="O2" s="189"/>
+      <c r="P2" s="189"/>
+      <c r="Q2" s="189"/>
+      <c r="R2" s="189"/>
+      <c r="S2" s="189"/>
+      <c r="T2" s="189"/>
+      <c r="U2" s="189"/>
+      <c r="V2" s="189"/>
+      <c r="W2" s="201"/>
     </row>
     <row r="3" spans="1:23" s="1" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="146"/>
+      <c r="A3" s="76"/>
       <c r="B3" s="56"/>
-      <c r="C3" s="147"/>
-      <c r="D3" s="63" t="s">
+      <c r="C3" s="77"/>
+      <c r="D3" s="190" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="64"/>
-      <c r="F3" s="64"/>
-      <c r="G3" s="64"/>
-      <c r="H3" s="64"/>
-      <c r="I3" s="64"/>
-      <c r="J3" s="64"/>
-      <c r="K3" s="64"/>
-      <c r="L3" s="64"/>
-      <c r="M3" s="64"/>
-      <c r="N3" s="64"/>
-      <c r="O3" s="64"/>
-      <c r="P3" s="64"/>
-      <c r="Q3" s="64"/>
-      <c r="R3" s="64"/>
-      <c r="S3" s="64"/>
-      <c r="T3" s="64"/>
-      <c r="U3" s="64"/>
-      <c r="V3" s="64"/>
-      <c r="W3" s="213"/>
+      <c r="E3" s="191"/>
+      <c r="F3" s="191"/>
+      <c r="G3" s="191"/>
+      <c r="H3" s="191"/>
+      <c r="I3" s="191"/>
+      <c r="J3" s="191"/>
+      <c r="K3" s="191"/>
+      <c r="L3" s="191"/>
+      <c r="M3" s="191"/>
+      <c r="N3" s="191"/>
+      <c r="O3" s="191"/>
+      <c r="P3" s="191"/>
+      <c r="Q3" s="191"/>
+      <c r="R3" s="191"/>
+      <c r="S3" s="191"/>
+      <c r="T3" s="191"/>
+      <c r="U3" s="191"/>
+      <c r="V3" s="191"/>
+      <c r="W3" s="202"/>
     </row>
     <row r="4" spans="1:23" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="148"/>
-      <c r="B4" s="285"/>
-      <c r="C4" s="149"/>
-      <c r="D4" s="138" t="s">
+      <c r="A4" s="78"/>
+      <c r="B4" s="237"/>
+      <c r="C4" s="79"/>
+      <c r="D4" s="68" t="s">
         <v>72</v>
       </c>
-      <c r="E4" s="139"/>
-      <c r="F4" s="139"/>
-      <c r="G4" s="139"/>
-      <c r="H4" s="139"/>
-      <c r="I4" s="139"/>
-      <c r="J4" s="139"/>
-      <c r="K4" s="139"/>
-      <c r="L4" s="139"/>
-      <c r="M4" s="139"/>
-      <c r="N4" s="139"/>
-      <c r="O4" s="139"/>
-      <c r="P4" s="139"/>
-      <c r="Q4" s="139"/>
-      <c r="R4" s="139"/>
-      <c r="S4" s="139"/>
-      <c r="T4" s="140"/>
-      <c r="U4" s="277" t="s">
+      <c r="E4" s="69"/>
+      <c r="F4" s="69"/>
+      <c r="G4" s="69"/>
+      <c r="H4" s="69"/>
+      <c r="I4" s="69"/>
+      <c r="J4" s="69"/>
+      <c r="K4" s="69"/>
+      <c r="L4" s="69"/>
+      <c r="M4" s="69"/>
+      <c r="N4" s="69"/>
+      <c r="O4" s="69"/>
+      <c r="P4" s="69"/>
+      <c r="Q4" s="69"/>
+      <c r="R4" s="69"/>
+      <c r="S4" s="69"/>
+      <c r="T4" s="70"/>
+      <c r="U4" s="227" t="s">
         <v>54</v>
       </c>
-      <c r="V4" s="235"/>
-      <c r="W4" s="278"/>
+      <c r="V4" s="228"/>
+      <c r="W4" s="229"/>
     </row>
     <row r="5" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="247" t="s">
+      <c r="A5" s="233" t="s">
         <v>22</v>
       </c>
-      <c r="B5" s="247"/>
-      <c r="C5" s="247"/>
-      <c r="D5" s="247"/>
-      <c r="E5" s="247"/>
-      <c r="F5" s="247"/>
-      <c r="G5" s="247"/>
-      <c r="H5" s="247"/>
-      <c r="I5" s="247"/>
-      <c r="J5" s="247"/>
-      <c r="K5" s="247"/>
-      <c r="L5" s="247"/>
-      <c r="M5" s="247"/>
-      <c r="N5" s="247"/>
-      <c r="O5" s="247" t="s">
+      <c r="B5" s="233"/>
+      <c r="C5" s="233"/>
+      <c r="D5" s="233"/>
+      <c r="E5" s="233"/>
+      <c r="F5" s="233"/>
+      <c r="G5" s="233"/>
+      <c r="H5" s="233"/>
+      <c r="I5" s="233"/>
+      <c r="J5" s="233"/>
+      <c r="K5" s="233"/>
+      <c r="L5" s="233"/>
+      <c r="M5" s="233"/>
+      <c r="N5" s="233"/>
+      <c r="O5" s="233" t="s">
         <v>97</v>
       </c>
-      <c r="P5" s="247"/>
-      <c r="Q5" s="247"/>
-      <c r="R5" s="247"/>
-      <c r="S5" s="247"/>
-      <c r="T5" s="247"/>
-      <c r="U5" s="247"/>
-      <c r="V5" s="247"/>
-      <c r="W5" s="247"/>
+      <c r="P5" s="233"/>
+      <c r="Q5" s="233"/>
+      <c r="R5" s="233"/>
+      <c r="S5" s="233"/>
+      <c r="T5" s="233"/>
+      <c r="U5" s="233"/>
+      <c r="V5" s="233"/>
+      <c r="W5" s="233"/>
     </row>
     <row r="6" spans="1:23" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="282" t="str">
+      <c r="A6" s="234" t="str">
         <f>'Page 01 of 02'!A6</f>
         <v>Address: Plot# 3009-lT01/ Building C09-16 &amp; 41-48, PO Box # 149162, Al Markaz Phase 1, Abu Dhabi – UAE.
 Web: www.mtfluid.com</v>
       </c>
-      <c r="B6" s="282"/>
-      <c r="C6" s="282"/>
-      <c r="D6" s="282"/>
-      <c r="E6" s="282"/>
-      <c r="F6" s="282"/>
-      <c r="G6" s="282"/>
-      <c r="H6" s="282"/>
-      <c r="I6" s="282"/>
-      <c r="J6" s="282"/>
-      <c r="K6" s="282"/>
-      <c r="L6" s="282"/>
-      <c r="M6" s="282"/>
-      <c r="N6" s="282"/>
-      <c r="O6" s="248" t="str">
+      <c r="B6" s="234"/>
+      <c r="C6" s="234"/>
+      <c r="D6" s="234"/>
+      <c r="E6" s="234"/>
+      <c r="F6" s="234"/>
+      <c r="G6" s="234"/>
+      <c r="H6" s="234"/>
+      <c r="I6" s="234"/>
+      <c r="J6" s="234"/>
+      <c r="K6" s="234"/>
+      <c r="L6" s="234"/>
+      <c r="M6" s="234"/>
+      <c r="N6" s="234"/>
+      <c r="O6" s="262" t="str">
         <f>'Page 01 of 02'!J6</f>
         <v>ISO 9001:2015</v>
       </c>
-      <c r="P6" s="249"/>
-      <c r="Q6" s="249"/>
-      <c r="R6" s="249"/>
-      <c r="S6" s="250"/>
-      <c r="T6" s="250"/>
-      <c r="U6" s="250"/>
-      <c r="V6" s="250"/>
-      <c r="W6" s="251"/>
+      <c r="P6" s="263"/>
+      <c r="Q6" s="263"/>
+      <c r="R6" s="263"/>
+      <c r="S6" s="264"/>
+      <c r="T6" s="264"/>
+      <c r="U6" s="264"/>
+      <c r="V6" s="264"/>
+      <c r="W6" s="265"/>
     </row>
     <row r="7" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="282"/>
-      <c r="B7" s="282"/>
-      <c r="C7" s="282"/>
-      <c r="D7" s="282"/>
-      <c r="E7" s="282"/>
-      <c r="F7" s="282"/>
-      <c r="G7" s="282"/>
-      <c r="H7" s="282"/>
-      <c r="I7" s="282"/>
-      <c r="J7" s="282"/>
-      <c r="K7" s="282"/>
-      <c r="L7" s="282"/>
-      <c r="M7" s="282"/>
-      <c r="N7" s="282"/>
-      <c r="O7" s="170" t="s">
+      <c r="A7" s="234"/>
+      <c r="B7" s="234"/>
+      <c r="C7" s="234"/>
+      <c r="D7" s="234"/>
+      <c r="E7" s="234"/>
+      <c r="F7" s="234"/>
+      <c r="G7" s="234"/>
+      <c r="H7" s="234"/>
+      <c r="I7" s="234"/>
+      <c r="J7" s="234"/>
+      <c r="K7" s="234"/>
+      <c r="L7" s="234"/>
+      <c r="M7" s="234"/>
+      <c r="N7" s="234"/>
+      <c r="O7" s="108" t="s">
         <v>18</v>
       </c>
-      <c r="P7" s="252"/>
-      <c r="Q7" s="252"/>
-      <c r="R7" s="252"/>
-      <c r="S7" s="171"/>
-      <c r="T7" s="171"/>
-      <c r="U7" s="171" t="s">
+      <c r="P7" s="266"/>
+      <c r="Q7" s="266"/>
+      <c r="R7" s="266"/>
+      <c r="S7" s="109"/>
+      <c r="T7" s="109"/>
+      <c r="U7" s="109" t="s">
         <v>19</v>
       </c>
-      <c r="V7" s="171"/>
-      <c r="W7" s="172"/>
+      <c r="V7" s="109"/>
+      <c r="W7" s="110"/>
     </row>
     <row r="8" spans="1:23" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="283"/>
-      <c r="B8" s="283"/>
-      <c r="C8" s="283"/>
-      <c r="D8" s="283"/>
-      <c r="E8" s="283"/>
-      <c r="F8" s="283"/>
-      <c r="G8" s="283"/>
-      <c r="H8" s="283"/>
-      <c r="I8" s="283"/>
-      <c r="J8" s="283"/>
-      <c r="K8" s="283"/>
-      <c r="L8" s="283"/>
-      <c r="M8" s="283"/>
-      <c r="N8" s="283"/>
-      <c r="O8" s="253" t="str">
+      <c r="A8" s="235"/>
+      <c r="B8" s="235"/>
+      <c r="C8" s="235"/>
+      <c r="D8" s="235"/>
+      <c r="E8" s="235"/>
+      <c r="F8" s="235"/>
+      <c r="G8" s="235"/>
+      <c r="H8" s="235"/>
+      <c r="I8" s="235"/>
+      <c r="J8" s="235"/>
+      <c r="K8" s="235"/>
+      <c r="L8" s="235"/>
+      <c r="M8" s="235"/>
+      <c r="N8" s="235"/>
+      <c r="O8" s="267" t="str">
         <f>'Page 01 of 02'!J8</f>
         <v>MTV2400001-1-1</v>
       </c>
-      <c r="P8" s="204"/>
-      <c r="Q8" s="204"/>
-      <c r="R8" s="204"/>
-      <c r="S8" s="254"/>
-      <c r="T8" s="254"/>
-      <c r="U8" s="163">
+      <c r="P8" s="220"/>
+      <c r="Q8" s="220"/>
+      <c r="R8" s="220"/>
+      <c r="S8" s="268"/>
+      <c r="T8" s="268"/>
+      <c r="U8" s="101">
         <f>'Page 01 of 02'!M8</f>
         <v>0</v>
       </c>
-      <c r="V8" s="163"/>
-      <c r="W8" s="164"/>
+      <c r="V8" s="101"/>
+      <c r="W8" s="102"/>
     </row>
     <row r="9" spans="1:23" ht="10" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="279"/>
-      <c r="B9" s="280"/>
-      <c r="C9" s="280"/>
-      <c r="D9" s="280"/>
-      <c r="E9" s="280"/>
-      <c r="F9" s="280"/>
-      <c r="G9" s="280"/>
-      <c r="H9" s="280"/>
-      <c r="I9" s="280"/>
-      <c r="J9" s="280"/>
-      <c r="K9" s="280"/>
-      <c r="L9" s="280"/>
-      <c r="M9" s="280"/>
-      <c r="N9" s="280"/>
-      <c r="O9" s="280"/>
-      <c r="P9" s="280"/>
-      <c r="Q9" s="280"/>
-      <c r="R9" s="280"/>
-      <c r="S9" s="280"/>
-      <c r="T9" s="280"/>
-      <c r="U9" s="280"/>
-      <c r="V9" s="280"/>
-      <c r="W9" s="281"/>
+      <c r="A9" s="230"/>
+      <c r="B9" s="231"/>
+      <c r="C9" s="231"/>
+      <c r="D9" s="231"/>
+      <c r="E9" s="231"/>
+      <c r="F9" s="231"/>
+      <c r="G9" s="231"/>
+      <c r="H9" s="231"/>
+      <c r="I9" s="231"/>
+      <c r="J9" s="231"/>
+      <c r="K9" s="231"/>
+      <c r="L9" s="231"/>
+      <c r="M9" s="231"/>
+      <c r="N9" s="231"/>
+      <c r="O9" s="231"/>
+      <c r="P9" s="231"/>
+      <c r="Q9" s="231"/>
+      <c r="R9" s="231"/>
+      <c r="S9" s="231"/>
+      <c r="T9" s="231"/>
+      <c r="U9" s="231"/>
+      <c r="V9" s="231"/>
+      <c r="W9" s="232"/>
     </row>
     <row r="10" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="265" t="s">
+      <c r="A10" s="238" t="s">
         <v>35</v>
       </c>
-      <c r="B10" s="261" t="s">
+      <c r="B10" s="240" t="s">
         <v>34</v>
       </c>
-      <c r="C10" s="261" t="s">
+      <c r="C10" s="240" t="s">
         <v>84</v>
       </c>
-      <c r="D10" s="92"/>
-      <c r="E10" s="255" t="s">
+      <c r="D10" s="183"/>
+      <c r="E10" s="242" t="s">
         <v>36</v>
       </c>
-      <c r="F10" s="255"/>
-      <c r="G10" s="255"/>
-      <c r="H10" s="255"/>
-      <c r="I10" s="255"/>
-      <c r="J10" s="255"/>
-      <c r="K10" s="255"/>
-      <c r="L10" s="255"/>
-      <c r="M10" s="255"/>
-      <c r="N10" s="255"/>
-      <c r="O10" s="255"/>
-      <c r="P10" s="255"/>
-      <c r="Q10" s="255"/>
-      <c r="R10" s="255"/>
-      <c r="S10" s="255" t="s">
+      <c r="F10" s="242"/>
+      <c r="G10" s="242"/>
+      <c r="H10" s="242"/>
+      <c r="I10" s="242"/>
+      <c r="J10" s="242"/>
+      <c r="K10" s="242"/>
+      <c r="L10" s="242"/>
+      <c r="M10" s="242"/>
+      <c r="N10" s="242"/>
+      <c r="O10" s="242"/>
+      <c r="P10" s="242"/>
+      <c r="Q10" s="242"/>
+      <c r="R10" s="242"/>
+      <c r="S10" s="242" t="s">
         <v>37</v>
       </c>
-      <c r="T10" s="255"/>
-      <c r="U10" s="255"/>
-      <c r="V10" s="255"/>
-      <c r="W10" s="256"/>
+      <c r="T10" s="242"/>
+      <c r="U10" s="242"/>
+      <c r="V10" s="242"/>
+      <c r="W10" s="243"/>
     </row>
     <row r="11" spans="1:23" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="286"/>
-      <c r="B11" s="262"/>
-      <c r="C11" s="262"/>
-      <c r="D11" s="263"/>
+      <c r="A11" s="239"/>
+      <c r="B11" s="241"/>
+      <c r="C11" s="241"/>
+      <c r="D11" s="248"/>
       <c r="E11" s="7" t="s">
         <v>38</v>
       </c>
@@ -7339,7 +7332,7 @@
     <row r="12" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="18"/>
       <c r="B12" s="16"/>
-      <c r="C12" s="264"/>
+      <c r="C12" s="249"/>
       <c r="D12" s="223"/>
       <c r="E12" s="13"/>
       <c r="F12" s="11"/>
@@ -7389,7 +7382,7 @@
     <row r="14" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="18"/>
       <c r="B14" s="16"/>
-      <c r="C14" s="264"/>
+      <c r="C14" s="249"/>
       <c r="D14" s="223"/>
       <c r="E14" s="13"/>
       <c r="F14" s="16"/>
@@ -7439,8 +7432,8 @@
     <row r="16" spans="1:23" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="18"/>
       <c r="B16" s="17"/>
-      <c r="C16" s="166"/>
-      <c r="D16" s="166"/>
+      <c r="C16" s="104"/>
+      <c r="D16" s="104"/>
       <c r="E16" s="19"/>
       <c r="F16" s="11"/>
       <c r="G16" s="19"/>
@@ -7462,80 +7455,80 @@
       <c r="W16" s="21"/>
     </row>
     <row r="17" spans="1:23" ht="10" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="188"/>
-      <c r="B17" s="189"/>
-      <c r="C17" s="189"/>
-      <c r="D17" s="189"/>
-      <c r="E17" s="189"/>
-      <c r="F17" s="189"/>
-      <c r="G17" s="189"/>
-      <c r="H17" s="189"/>
-      <c r="I17" s="189"/>
-      <c r="J17" s="189"/>
-      <c r="K17" s="189"/>
-      <c r="L17" s="189"/>
-      <c r="M17" s="189"/>
-      <c r="N17" s="189"/>
-      <c r="O17" s="189"/>
-      <c r="P17" s="189"/>
-      <c r="Q17" s="189"/>
-      <c r="R17" s="189"/>
-      <c r="S17" s="189"/>
-      <c r="T17" s="189"/>
-      <c r="U17" s="189"/>
-      <c r="V17" s="189"/>
-      <c r="W17" s="190"/>
+      <c r="A17" s="146"/>
+      <c r="B17" s="147"/>
+      <c r="C17" s="147"/>
+      <c r="D17" s="147"/>
+      <c r="E17" s="147"/>
+      <c r="F17" s="147"/>
+      <c r="G17" s="147"/>
+      <c r="H17" s="147"/>
+      <c r="I17" s="147"/>
+      <c r="J17" s="147"/>
+      <c r="K17" s="147"/>
+      <c r="L17" s="147"/>
+      <c r="M17" s="147"/>
+      <c r="N17" s="147"/>
+      <c r="O17" s="147"/>
+      <c r="P17" s="147"/>
+      <c r="Q17" s="147"/>
+      <c r="R17" s="147"/>
+      <c r="S17" s="147"/>
+      <c r="T17" s="147"/>
+      <c r="U17" s="147"/>
+      <c r="V17" s="147"/>
+      <c r="W17" s="148"/>
     </row>
     <row r="18" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="257" t="s">
+      <c r="A18" s="244" t="s">
         <v>85</v>
       </c>
-      <c r="B18" s="258"/>
-      <c r="C18" s="275" t="s">
+      <c r="B18" s="245"/>
+      <c r="C18" s="260" t="s">
         <v>56</v>
       </c>
-      <c r="D18" s="276"/>
-      <c r="E18" s="276"/>
-      <c r="F18" s="276"/>
-      <c r="G18" s="276"/>
-      <c r="H18" s="276"/>
-      <c r="I18" s="276"/>
-      <c r="J18" s="276"/>
-      <c r="K18" s="276"/>
-      <c r="L18" s="258"/>
-      <c r="M18" s="272" t="s">
+      <c r="D18" s="261"/>
+      <c r="E18" s="261"/>
+      <c r="F18" s="261"/>
+      <c r="G18" s="261"/>
+      <c r="H18" s="261"/>
+      <c r="I18" s="261"/>
+      <c r="J18" s="261"/>
+      <c r="K18" s="261"/>
+      <c r="L18" s="245"/>
+      <c r="M18" s="256" t="s">
         <v>0</v>
       </c>
-      <c r="N18" s="273"/>
-      <c r="O18" s="273"/>
-      <c r="P18" s="273"/>
-      <c r="Q18" s="273"/>
-      <c r="R18" s="273"/>
-      <c r="S18" s="274"/>
-      <c r="T18" s="265" t="s">
+      <c r="N18" s="257"/>
+      <c r="O18" s="257"/>
+      <c r="P18" s="257"/>
+      <c r="Q18" s="257"/>
+      <c r="R18" s="257"/>
+      <c r="S18" s="258"/>
+      <c r="T18" s="238" t="s">
         <v>49</v>
       </c>
-      <c r="U18" s="255"/>
-      <c r="V18" s="255"/>
-      <c r="W18" s="256"/>
+      <c r="U18" s="242"/>
+      <c r="V18" s="242"/>
+      <c r="W18" s="243"/>
     </row>
     <row r="19" spans="1:23" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="259"/>
-      <c r="B19" s="260"/>
-      <c r="C19" s="246" t="s">
+      <c r="A19" s="246"/>
+      <c r="B19" s="247"/>
+      <c r="C19" s="226" t="s">
         <v>57</v>
       </c>
       <c r="D19" s="57"/>
-      <c r="E19" s="246" t="s">
+      <c r="E19" s="226" t="s">
         <v>59</v>
       </c>
       <c r="F19" s="57"/>
       <c r="G19" s="57"/>
-      <c r="H19" s="246" t="s">
+      <c r="H19" s="226" t="s">
         <v>60</v>
       </c>
       <c r="I19" s="57"/>
-      <c r="J19" s="246" t="s">
+      <c r="J19" s="226" t="s">
         <v>58</v>
       </c>
       <c r="K19" s="57"/>
@@ -7562,12 +7555,12 @@
         <f>M19</f>
         <v>-</v>
       </c>
-      <c r="T19" s="266" t="s">
+      <c r="T19" s="250" t="s">
         <v>92</v>
       </c>
-      <c r="U19" s="267"/>
-      <c r="V19" s="267"/>
-      <c r="W19" s="268"/>
+      <c r="U19" s="251"/>
+      <c r="V19" s="251"/>
+      <c r="W19" s="252"/>
     </row>
     <row r="20" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="222"/>
@@ -7577,7 +7570,7 @@
       <c r="E20" s="225"/>
       <c r="F20" s="225"/>
       <c r="G20" s="225"/>
-      <c r="H20" s="226"/>
+      <c r="H20" s="259"/>
       <c r="I20" s="225"/>
       <c r="J20" s="225"/>
       <c r="K20" s="225"/>
@@ -7604,10 +7597,10 @@
         <f>M20</f>
         <v>-</v>
       </c>
-      <c r="T20" s="266"/>
-      <c r="U20" s="267"/>
-      <c r="V20" s="267"/>
-      <c r="W20" s="268"/>
+      <c r="T20" s="250"/>
+      <c r="U20" s="251"/>
+      <c r="V20" s="251"/>
+      <c r="W20" s="252"/>
     </row>
     <row r="21" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="222"/>
@@ -7617,7 +7610,7 @@
       <c r="E21" s="225"/>
       <c r="F21" s="225"/>
       <c r="G21" s="225"/>
-      <c r="H21" s="226"/>
+      <c r="H21" s="259"/>
       <c r="I21" s="225"/>
       <c r="J21" s="225"/>
       <c r="K21" s="225"/>
@@ -7644,10 +7637,10 @@
         <f t="shared" ref="S21:S23" si="0">M21</f>
         <v>-</v>
       </c>
-      <c r="T21" s="269"/>
-      <c r="U21" s="270"/>
-      <c r="V21" s="270"/>
-      <c r="W21" s="271"/>
+      <c r="T21" s="253"/>
+      <c r="U21" s="254"/>
+      <c r="V21" s="254"/>
+      <c r="W21" s="255"/>
     </row>
     <row r="22" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="222"/>
@@ -7657,7 +7650,7 @@
       <c r="E22" s="225"/>
       <c r="F22" s="225"/>
       <c r="G22" s="225"/>
-      <c r="H22" s="226"/>
+      <c r="H22" s="259"/>
       <c r="I22" s="225"/>
       <c r="J22" s="225"/>
       <c r="K22" s="225"/>
@@ -7684,10 +7677,10 @@
         <f t="shared" si="0"/>
         <v>-</v>
       </c>
-      <c r="T22" s="269"/>
-      <c r="U22" s="270"/>
-      <c r="V22" s="270"/>
-      <c r="W22" s="271"/>
+      <c r="T22" s="253"/>
+      <c r="U22" s="254"/>
+      <c r="V22" s="254"/>
+      <c r="W22" s="255"/>
     </row>
     <row r="23" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="222"/>
@@ -7697,7 +7690,7 @@
       <c r="E23" s="225"/>
       <c r="F23" s="225"/>
       <c r="G23" s="225"/>
-      <c r="H23" s="226"/>
+      <c r="H23" s="259"/>
       <c r="I23" s="225"/>
       <c r="J23" s="225"/>
       <c r="K23" s="225"/>
@@ -7724,10 +7717,10 @@
         <f t="shared" si="0"/>
         <v>-</v>
       </c>
-      <c r="T23" s="269"/>
-      <c r="U23" s="270"/>
-      <c r="V23" s="270"/>
-      <c r="W23" s="271"/>
+      <c r="T23" s="253"/>
+      <c r="U23" s="254"/>
+      <c r="V23" s="254"/>
+      <c r="W23" s="255"/>
     </row>
     <row r="24" spans="1:23" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="222"/>
@@ -7737,7 +7730,7 @@
       <c r="E24" s="225"/>
       <c r="F24" s="225"/>
       <c r="G24" s="225"/>
-      <c r="H24" s="226"/>
+      <c r="H24" s="259"/>
       <c r="I24" s="225"/>
       <c r="J24" s="225"/>
       <c r="K24" s="225"/>
@@ -7764,88 +7757,88 @@
         <f>M24</f>
         <v>-</v>
       </c>
-      <c r="T24" s="269"/>
-      <c r="U24" s="270"/>
-      <c r="V24" s="270"/>
-      <c r="W24" s="271"/>
+      <c r="T24" s="253"/>
+      <c r="U24" s="254"/>
+      <c r="V24" s="254"/>
+      <c r="W24" s="255"/>
     </row>
     <row r="25" spans="1:23" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="227" t="s">
+      <c r="A25" s="269" t="s">
         <v>50</v>
       </c>
-      <c r="B25" s="228"/>
-      <c r="C25" s="228"/>
-      <c r="D25" s="228"/>
-      <c r="E25" s="228"/>
-      <c r="F25" s="228"/>
-      <c r="G25" s="228"/>
-      <c r="H25" s="241" t="s">
+      <c r="B25" s="270"/>
+      <c r="C25" s="270"/>
+      <c r="D25" s="270"/>
+      <c r="E25" s="270"/>
+      <c r="F25" s="270"/>
+      <c r="G25" s="270"/>
+      <c r="H25" s="282" t="s">
         <v>51</v>
       </c>
-      <c r="I25" s="240"/>
-      <c r="J25" s="70" t="s">
+      <c r="I25" s="281"/>
+      <c r="J25" s="196" t="s">
         <v>15</v>
       </c>
-      <c r="K25" s="229"/>
-      <c r="L25" s="229"/>
-      <c r="M25" s="229"/>
-      <c r="N25" s="229" t="s">
+      <c r="K25" s="271"/>
+      <c r="L25" s="271"/>
+      <c r="M25" s="271"/>
+      <c r="N25" s="271" t="s">
         <v>16</v>
       </c>
-      <c r="O25" s="229"/>
-      <c r="P25" s="229"/>
-      <c r="Q25" s="229"/>
-      <c r="R25" s="229"/>
-      <c r="S25" s="229"/>
-      <c r="T25" s="229" t="s">
+      <c r="O25" s="271"/>
+      <c r="P25" s="271"/>
+      <c r="Q25" s="271"/>
+      <c r="R25" s="271"/>
+      <c r="S25" s="271"/>
+      <c r="T25" s="271" t="s">
         <v>17</v>
       </c>
-      <c r="U25" s="229"/>
-      <c r="V25" s="229"/>
-      <c r="W25" s="240"/>
+      <c r="U25" s="271"/>
+      <c r="V25" s="271"/>
+      <c r="W25" s="281"/>
     </row>
     <row r="26" spans="1:23" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="230" t="s">
+      <c r="A26" s="272" t="s">
         <v>93</v>
       </c>
-      <c r="B26" s="231"/>
-      <c r="C26" s="231"/>
-      <c r="D26" s="231"/>
-      <c r="E26" s="231"/>
-      <c r="F26" s="231"/>
-      <c r="G26" s="231"/>
-      <c r="H26" s="242" t="s">
+      <c r="B26" s="273"/>
+      <c r="C26" s="273"/>
+      <c r="D26" s="273"/>
+      <c r="E26" s="273"/>
+      <c r="F26" s="273"/>
+      <c r="G26" s="273"/>
+      <c r="H26" s="283" t="s">
         <v>28</v>
       </c>
-      <c r="I26" s="243"/>
-      <c r="J26" s="106"/>
-      <c r="K26" s="107"/>
-      <c r="L26" s="107"/>
-      <c r="M26" s="107"/>
-      <c r="N26" s="107"/>
-      <c r="O26" s="107"/>
-      <c r="P26" s="107"/>
-      <c r="Q26" s="107"/>
-      <c r="R26" s="107"/>
-      <c r="S26" s="107"/>
-      <c r="T26" s="107"/>
-      <c r="U26" s="107"/>
-      <c r="V26" s="107"/>
-      <c r="W26" s="124"/>
+      <c r="I26" s="284"/>
+      <c r="J26" s="158"/>
+      <c r="K26" s="135"/>
+      <c r="L26" s="135"/>
+      <c r="M26" s="135"/>
+      <c r="N26" s="135"/>
+      <c r="O26" s="135"/>
+      <c r="P26" s="135"/>
+      <c r="Q26" s="135"/>
+      <c r="R26" s="135"/>
+      <c r="S26" s="135"/>
+      <c r="T26" s="135"/>
+      <c r="U26" s="135"/>
+      <c r="V26" s="135"/>
+      <c r="W26" s="136"/>
     </row>
     <row r="27" spans="1:23" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="232"/>
-      <c r="B27" s="233"/>
-      <c r="C27" s="233"/>
-      <c r="D27" s="233"/>
-      <c r="E27" s="233"/>
-      <c r="F27" s="233"/>
-      <c r="G27" s="233"/>
-      <c r="H27" s="238" t="s">
+      <c r="A27" s="274"/>
+      <c r="B27" s="275"/>
+      <c r="C27" s="275"/>
+      <c r="D27" s="275"/>
+      <c r="E27" s="275"/>
+      <c r="F27" s="275"/>
+      <c r="G27" s="275"/>
+      <c r="H27" s="279" t="s">
         <v>52</v>
       </c>
-      <c r="I27" s="239"/>
-      <c r="J27" s="96"/>
+      <c r="I27" s="280"/>
+      <c r="J27" s="153"/>
       <c r="K27" s="55"/>
       <c r="L27" s="55"/>
       <c r="M27" s="55"/>
@@ -7858,21 +7851,21 @@
       <c r="T27" s="55"/>
       <c r="U27" s="55"/>
       <c r="V27" s="55"/>
-      <c r="W27" s="99"/>
+      <c r="W27" s="138"/>
     </row>
     <row r="28" spans="1:23" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="232"/>
-      <c r="B28" s="233"/>
-      <c r="C28" s="233"/>
-      <c r="D28" s="233"/>
-      <c r="E28" s="233"/>
-      <c r="F28" s="233"/>
-      <c r="G28" s="233"/>
-      <c r="H28" s="236" t="s">
+      <c r="A28" s="274"/>
+      <c r="B28" s="275"/>
+      <c r="C28" s="275"/>
+      <c r="D28" s="275"/>
+      <c r="E28" s="275"/>
+      <c r="F28" s="275"/>
+      <c r="G28" s="275"/>
+      <c r="H28" s="277" t="s">
         <v>28</v>
       </c>
-      <c r="I28" s="237"/>
-      <c r="J28" s="96"/>
+      <c r="I28" s="278"/>
+      <c r="J28" s="153"/>
       <c r="K28" s="55"/>
       <c r="L28" s="55"/>
       <c r="M28" s="55"/>
@@ -7885,21 +7878,21 @@
       <c r="T28" s="55"/>
       <c r="U28" s="55"/>
       <c r="V28" s="55"/>
-      <c r="W28" s="99"/>
+      <c r="W28" s="138"/>
     </row>
     <row r="29" spans="1:23" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="232"/>
-      <c r="B29" s="233"/>
-      <c r="C29" s="233"/>
-      <c r="D29" s="233"/>
-      <c r="E29" s="233"/>
-      <c r="F29" s="233"/>
-      <c r="G29" s="233"/>
-      <c r="H29" s="238" t="s">
+      <c r="A29" s="274"/>
+      <c r="B29" s="275"/>
+      <c r="C29" s="275"/>
+      <c r="D29" s="275"/>
+      <c r="E29" s="275"/>
+      <c r="F29" s="275"/>
+      <c r="G29" s="275"/>
+      <c r="H29" s="279" t="s">
         <v>53</v>
       </c>
-      <c r="I29" s="239"/>
-      <c r="J29" s="96">
+      <c r="I29" s="280"/>
+      <c r="J29" s="153">
         <f>'Page 01 of 02'!A55</f>
         <v>0</v>
       </c>
@@ -7918,55 +7911,119 @@
       <c r="T29" s="55"/>
       <c r="U29" s="55"/>
       <c r="V29" s="55"/>
-      <c r="W29" s="99"/>
+      <c r="W29" s="138"/>
     </row>
     <row r="30" spans="1:23" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="234"/>
-      <c r="B30" s="235"/>
-      <c r="C30" s="235"/>
-      <c r="D30" s="235"/>
-      <c r="E30" s="235"/>
-      <c r="F30" s="235"/>
-      <c r="G30" s="235"/>
-      <c r="H30" s="244" t="s">
+      <c r="A30" s="276"/>
+      <c r="B30" s="228"/>
+      <c r="C30" s="228"/>
+      <c r="D30" s="228"/>
+      <c r="E30" s="228"/>
+      <c r="F30" s="228"/>
+      <c r="G30" s="228"/>
+      <c r="H30" s="285" t="s">
         <v>28</v>
       </c>
-      <c r="I30" s="245"/>
-      <c r="J30" s="207">
+      <c r="I30" s="286"/>
+      <c r="J30" s="218">
         <f>'Page 01 of 02'!A56</f>
         <v>0</v>
       </c>
-      <c r="K30" s="101"/>
-      <c r="L30" s="101"/>
-      <c r="M30" s="101"/>
-      <c r="N30" s="101">
+      <c r="K30" s="66"/>
+      <c r="L30" s="66"/>
+      <c r="M30" s="66"/>
+      <c r="N30" s="66">
         <f>'Page 01 of 02'!E56</f>
         <v>0</v>
       </c>
-      <c r="O30" s="101"/>
-      <c r="P30" s="101"/>
-      <c r="Q30" s="101"/>
-      <c r="R30" s="101"/>
-      <c r="S30" s="101"/>
-      <c r="T30" s="101"/>
-      <c r="U30" s="101"/>
-      <c r="V30" s="101"/>
-      <c r="W30" s="105"/>
+      <c r="O30" s="66"/>
+      <c r="P30" s="66"/>
+      <c r="Q30" s="66"/>
+      <c r="R30" s="66"/>
+      <c r="S30" s="66"/>
+      <c r="T30" s="66"/>
+      <c r="U30" s="66"/>
+      <c r="V30" s="66"/>
+      <c r="W30" s="67"/>
     </row>
     <row r="31" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A31" s="28" t="s">
         <v>94</v>
       </c>
-      <c r="M31" s="107" t="s">
+      <c r="M31" s="135" t="s">
         <v>95</v>
       </c>
-      <c r="N31" s="107"/>
+      <c r="N31" s="135"/>
       <c r="W31" s="27" t="s">
         <v>96</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="80">
+    <mergeCell ref="J26:M28"/>
+    <mergeCell ref="N26:S28"/>
+    <mergeCell ref="T26:W28"/>
+    <mergeCell ref="J29:M29"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="E23:G23"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="J24:L24"/>
+    <mergeCell ref="J22:L22"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:G21"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="J21:L21"/>
+    <mergeCell ref="J30:M30"/>
+    <mergeCell ref="N29:S29"/>
+    <mergeCell ref="N30:S30"/>
+    <mergeCell ref="T29:W29"/>
+    <mergeCell ref="A25:G25"/>
+    <mergeCell ref="J25:M25"/>
+    <mergeCell ref="A26:G30"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="H29:I29"/>
+    <mergeCell ref="T30:W30"/>
+    <mergeCell ref="T25:W25"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="H30:I30"/>
+    <mergeCell ref="N25:S25"/>
+    <mergeCell ref="J19:L19"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="J20:L20"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E24:G24"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E22:G22"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="J23:L23"/>
+    <mergeCell ref="O5:W5"/>
+    <mergeCell ref="O6:W6"/>
+    <mergeCell ref="O7:T7"/>
+    <mergeCell ref="U7:W7"/>
+    <mergeCell ref="O8:T8"/>
+    <mergeCell ref="E10:R10"/>
+    <mergeCell ref="S10:W10"/>
+    <mergeCell ref="A18:B19"/>
+    <mergeCell ref="C10:D11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="A17:W17"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="T18:W18"/>
+    <mergeCell ref="T19:W24"/>
+    <mergeCell ref="M18:S18"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="C18:L18"/>
     <mergeCell ref="D1:W2"/>
     <mergeCell ref="D3:W3"/>
     <mergeCell ref="M31:N31"/>
@@ -7983,70 +8040,6 @@
     <mergeCell ref="D4:T4"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="B10:B11"/>
-    <mergeCell ref="E10:R10"/>
-    <mergeCell ref="S10:W10"/>
-    <mergeCell ref="A18:B19"/>
-    <mergeCell ref="C10:D11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="A17:W17"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="T18:W18"/>
-    <mergeCell ref="T19:W24"/>
-    <mergeCell ref="M18:S18"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="C18:L18"/>
-    <mergeCell ref="O5:W5"/>
-    <mergeCell ref="O6:W6"/>
-    <mergeCell ref="O7:T7"/>
-    <mergeCell ref="U7:W7"/>
-    <mergeCell ref="O8:T8"/>
-    <mergeCell ref="J19:L19"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="J20:L20"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E24:G24"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="E22:G22"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="J23:L23"/>
-    <mergeCell ref="J30:M30"/>
-    <mergeCell ref="N29:S29"/>
-    <mergeCell ref="N30:S30"/>
-    <mergeCell ref="T29:W29"/>
-    <mergeCell ref="A25:G25"/>
-    <mergeCell ref="J25:M25"/>
-    <mergeCell ref="A26:G30"/>
-    <mergeCell ref="H28:I28"/>
-    <mergeCell ref="H29:I29"/>
-    <mergeCell ref="T30:W30"/>
-    <mergeCell ref="T25:W25"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="H27:I27"/>
-    <mergeCell ref="H30:I30"/>
-    <mergeCell ref="N25:S25"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E21:G21"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="J21:L21"/>
-    <mergeCell ref="J26:M28"/>
-    <mergeCell ref="N26:S28"/>
-    <mergeCell ref="T26:W28"/>
-    <mergeCell ref="J29:M29"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="E23:G23"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="J24:L24"/>
-    <mergeCell ref="J22:L22"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.68" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.37"/>
@@ -8082,628 +8075,628 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="144"/>
-      <c r="B1" s="145"/>
-      <c r="C1" s="59" t="s">
+      <c r="A1" s="74"/>
+      <c r="B1" s="75"/>
+      <c r="C1" s="186" t="s">
         <v>86</v>
       </c>
-      <c r="D1" s="60"/>
-      <c r="E1" s="60"/>
-      <c r="F1" s="60"/>
-      <c r="G1" s="60"/>
-      <c r="H1" s="60"/>
-      <c r="I1" s="60"/>
-      <c r="J1" s="60"/>
-      <c r="K1" s="60"/>
-      <c r="L1" s="211"/>
+      <c r="D1" s="187"/>
+      <c r="E1" s="187"/>
+      <c r="F1" s="187"/>
+      <c r="G1" s="187"/>
+      <c r="H1" s="187"/>
+      <c r="I1" s="187"/>
+      <c r="J1" s="187"/>
+      <c r="K1" s="187"/>
+      <c r="L1" s="200"/>
     </row>
     <row r="2" spans="1:12" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="146"/>
-      <c r="B2" s="147"/>
-      <c r="C2" s="61"/>
-      <c r="D2" s="62"/>
-      <c r="E2" s="62"/>
-      <c r="F2" s="62"/>
-      <c r="G2" s="62"/>
-      <c r="H2" s="62"/>
-      <c r="I2" s="62"/>
-      <c r="J2" s="62"/>
-      <c r="K2" s="62"/>
-      <c r="L2" s="212"/>
+      <c r="A2" s="76"/>
+      <c r="B2" s="77"/>
+      <c r="C2" s="188"/>
+      <c r="D2" s="189"/>
+      <c r="E2" s="189"/>
+      <c r="F2" s="189"/>
+      <c r="G2" s="189"/>
+      <c r="H2" s="189"/>
+      <c r="I2" s="189"/>
+      <c r="J2" s="189"/>
+      <c r="K2" s="189"/>
+      <c r="L2" s="201"/>
     </row>
     <row r="3" spans="1:12" s="1" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="146"/>
-      <c r="B3" s="147"/>
-      <c r="C3" s="63" t="s">
+      <c r="A3" s="76"/>
+      <c r="B3" s="77"/>
+      <c r="C3" s="190" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="64"/>
-      <c r="E3" s="64"/>
-      <c r="F3" s="64"/>
-      <c r="G3" s="64"/>
-      <c r="H3" s="64"/>
-      <c r="I3" s="64"/>
-      <c r="J3" s="64"/>
-      <c r="K3" s="64"/>
-      <c r="L3" s="213"/>
+      <c r="D3" s="191"/>
+      <c r="E3" s="191"/>
+      <c r="F3" s="191"/>
+      <c r="G3" s="191"/>
+      <c r="H3" s="191"/>
+      <c r="I3" s="191"/>
+      <c r="J3" s="191"/>
+      <c r="K3" s="191"/>
+      <c r="L3" s="202"/>
     </row>
     <row r="4" spans="1:12" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="148"/>
-      <c r="B4" s="149"/>
-      <c r="C4" s="138" t="s">
+      <c r="A4" s="78"/>
+      <c r="B4" s="79"/>
+      <c r="C4" s="68" t="s">
         <v>115</v>
       </c>
-      <c r="D4" s="139"/>
-      <c r="E4" s="139"/>
-      <c r="F4" s="139"/>
-      <c r="G4" s="139"/>
-      <c r="H4" s="139"/>
-      <c r="I4" s="139"/>
-      <c r="J4" s="140"/>
-      <c r="K4" s="150" t="s">
+      <c r="D4" s="69"/>
+      <c r="E4" s="69"/>
+      <c r="F4" s="69"/>
+      <c r="G4" s="69"/>
+      <c r="H4" s="69"/>
+      <c r="I4" s="69"/>
+      <c r="J4" s="70"/>
+      <c r="K4" s="80" t="s">
         <v>55</v>
       </c>
-      <c r="L4" s="151"/>
+      <c r="L4" s="81"/>
     </row>
     <row r="5" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="297" t="s">
-        <v>126</v>
-      </c>
-      <c r="B5" s="298"/>
-      <c r="C5" s="298"/>
-      <c r="D5" s="298"/>
-      <c r="E5" s="298"/>
-      <c r="F5" s="298"/>
-      <c r="G5" s="298"/>
-      <c r="H5" s="170" t="s">
+      <c r="A5" s="287" t="s">
+        <v>125</v>
+      </c>
+      <c r="B5" s="288"/>
+      <c r="C5" s="288"/>
+      <c r="D5" s="288"/>
+      <c r="E5" s="288"/>
+      <c r="F5" s="288"/>
+      <c r="G5" s="288"/>
+      <c r="H5" s="108" t="s">
         <v>18</v>
       </c>
-      <c r="I5" s="171"/>
-      <c r="J5" s="171"/>
-      <c r="K5" s="171" t="s">
+      <c r="I5" s="109"/>
+      <c r="J5" s="109"/>
+      <c r="K5" s="109" t="s">
         <v>19</v>
       </c>
-      <c r="L5" s="172"/>
+      <c r="L5" s="110"/>
     </row>
     <row r="6" spans="1:12" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="299"/>
-      <c r="B6" s="300"/>
-      <c r="C6" s="300"/>
-      <c r="D6" s="300"/>
-      <c r="E6" s="300"/>
-      <c r="F6" s="300"/>
-      <c r="G6" s="300"/>
-      <c r="H6" s="165" t="str">
+      <c r="A6" s="289"/>
+      <c r="B6" s="290"/>
+      <c r="C6" s="290"/>
+      <c r="D6" s="290"/>
+      <c r="E6" s="290"/>
+      <c r="F6" s="290"/>
+      <c r="G6" s="290"/>
+      <c r="H6" s="103" t="str">
         <f>'Page 01 of 02'!J8</f>
         <v>MTV2400001-1-1</v>
       </c>
-      <c r="I6" s="166"/>
-      <c r="J6" s="166"/>
-      <c r="K6" s="163">
+      <c r="I6" s="104"/>
+      <c r="J6" s="104"/>
+      <c r="K6" s="101">
         <f>'Page 01 of 02'!M8</f>
         <v>0</v>
       </c>
-      <c r="L6" s="164"/>
+      <c r="L6" s="102"/>
     </row>
     <row r="7" spans="1:12" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="118" t="s">
-        <v>125</v>
-      </c>
-      <c r="B7" s="119"/>
-      <c r="C7" s="119"/>
-      <c r="D7" s="119"/>
-      <c r="E7" s="119"/>
-      <c r="F7" s="119"/>
-      <c r="G7" s="119"/>
-      <c r="H7" s="119"/>
-      <c r="I7" s="119"/>
-      <c r="J7" s="119"/>
-      <c r="K7" s="119"/>
-      <c r="L7" s="120"/>
+      <c r="A7" s="164" t="s">
+        <v>124</v>
+      </c>
+      <c r="B7" s="165"/>
+      <c r="C7" s="165"/>
+      <c r="D7" s="165"/>
+      <c r="E7" s="165"/>
+      <c r="F7" s="165"/>
+      <c r="G7" s="165"/>
+      <c r="H7" s="165"/>
+      <c r="I7" s="165"/>
+      <c r="J7" s="165"/>
+      <c r="K7" s="165"/>
+      <c r="L7" s="166"/>
     </row>
     <row r="8" spans="1:12" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="118" t="s">
+      <c r="A8" s="164" t="s">
         <v>25</v>
       </c>
-      <c r="B8" s="119"/>
-      <c r="C8" s="215" t="s">
+      <c r="B8" s="165"/>
+      <c r="C8" s="208" t="s">
+        <v>122</v>
+      </c>
+      <c r="D8" s="165"/>
+      <c r="E8" s="213" t="s">
+        <v>84</v>
+      </c>
+      <c r="F8" s="214"/>
+      <c r="G8" s="213" t="s">
         <v>123</v>
       </c>
-      <c r="D8" s="119"/>
-      <c r="E8" s="220" t="s">
-        <v>84</v>
-      </c>
-      <c r="F8" s="221"/>
-      <c r="G8" s="220" t="s">
-        <v>124</v>
-      </c>
-      <c r="H8" s="280"/>
-      <c r="I8" s="280"/>
-      <c r="J8" s="280"/>
-      <c r="K8" s="280"/>
-      <c r="L8" s="281"/>
+      <c r="H8" s="231"/>
+      <c r="I8" s="231"/>
+      <c r="J8" s="231"/>
+      <c r="K8" s="231"/>
+      <c r="L8" s="232"/>
     </row>
     <row r="9" spans="1:12" s="8" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="293"/>
       <c r="B9" s="294"/>
-      <c r="C9" s="220" t="s">
+      <c r="C9" s="213" t="s">
         <v>29</v>
       </c>
-      <c r="D9" s="221"/>
-      <c r="E9" s="287"/>
-      <c r="F9" s="288"/>
-      <c r="G9" s="287"/>
-      <c r="H9" s="291"/>
-      <c r="I9" s="291"/>
-      <c r="J9" s="291"/>
-      <c r="K9" s="291"/>
-      <c r="L9" s="292"/>
+      <c r="D9" s="214"/>
+      <c r="E9" s="291"/>
+      <c r="F9" s="292"/>
+      <c r="G9" s="291"/>
+      <c r="H9" s="297"/>
+      <c r="I9" s="297"/>
+      <c r="J9" s="297"/>
+      <c r="K9" s="297"/>
+      <c r="L9" s="298"/>
     </row>
     <row r="10" spans="1:12" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="214"/>
-      <c r="B10" s="210"/>
-      <c r="C10" s="220" t="s">
+      <c r="A10" s="203"/>
+      <c r="B10" s="204"/>
+      <c r="C10" s="213" t="s">
         <v>62</v>
       </c>
-      <c r="D10" s="221"/>
-      <c r="E10" s="287"/>
-      <c r="F10" s="288"/>
-      <c r="G10" s="201"/>
-      <c r="H10" s="289"/>
-      <c r="I10" s="289"/>
-      <c r="J10" s="289"/>
-      <c r="K10" s="289"/>
-      <c r="L10" s="290"/>
+      <c r="D10" s="214"/>
+      <c r="E10" s="291"/>
+      <c r="F10" s="292"/>
+      <c r="G10" s="215"/>
+      <c r="H10" s="299"/>
+      <c r="I10" s="299"/>
+      <c r="J10" s="299"/>
+      <c r="K10" s="299"/>
+      <c r="L10" s="300"/>
     </row>
     <row r="11" spans="1:12" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="214"/>
-      <c r="B11" s="210"/>
-      <c r="C11" s="220" t="s">
+      <c r="A11" s="203"/>
+      <c r="B11" s="204"/>
+      <c r="C11" s="213" t="s">
         <v>61</v>
       </c>
-      <c r="D11" s="221"/>
-      <c r="E11" s="287"/>
-      <c r="F11" s="288"/>
-      <c r="G11" s="201"/>
-      <c r="H11" s="289"/>
-      <c r="I11" s="289"/>
-      <c r="J11" s="289"/>
-      <c r="K11" s="289"/>
-      <c r="L11" s="290"/>
+      <c r="D11" s="214"/>
+      <c r="E11" s="291"/>
+      <c r="F11" s="292"/>
+      <c r="G11" s="215"/>
+      <c r="H11" s="299"/>
+      <c r="I11" s="299"/>
+      <c r="J11" s="299"/>
+      <c r="K11" s="299"/>
+      <c r="L11" s="300"/>
     </row>
     <row r="12" spans="1:12" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="214"/>
-      <c r="B12" s="210"/>
-      <c r="C12" s="220" t="s">
+      <c r="A12" s="203"/>
+      <c r="B12" s="204"/>
+      <c r="C12" s="213" t="s">
         <v>76</v>
       </c>
-      <c r="D12" s="221"/>
-      <c r="E12" s="287"/>
-      <c r="F12" s="288"/>
-      <c r="G12" s="287"/>
-      <c r="H12" s="291"/>
-      <c r="I12" s="291"/>
-      <c r="J12" s="291"/>
-      <c r="K12" s="291"/>
-      <c r="L12" s="292"/>
+      <c r="D12" s="214"/>
+      <c r="E12" s="291"/>
+      <c r="F12" s="292"/>
+      <c r="G12" s="291"/>
+      <c r="H12" s="297"/>
+      <c r="I12" s="297"/>
+      <c r="J12" s="297"/>
+      <c r="K12" s="297"/>
+      <c r="L12" s="298"/>
     </row>
     <row r="13" spans="1:12" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="295"/>
       <c r="B13" s="296"/>
-      <c r="C13" s="220" t="s">
+      <c r="C13" s="213" t="s">
         <v>33</v>
       </c>
-      <c r="D13" s="221"/>
-      <c r="E13" s="287"/>
-      <c r="F13" s="288"/>
-      <c r="G13" s="201"/>
-      <c r="H13" s="289"/>
-      <c r="I13" s="289"/>
-      <c r="J13" s="289"/>
-      <c r="K13" s="289"/>
-      <c r="L13" s="290"/>
+      <c r="D13" s="214"/>
+      <c r="E13" s="291"/>
+      <c r="F13" s="292"/>
+      <c r="G13" s="215"/>
+      <c r="H13" s="299"/>
+      <c r="I13" s="299"/>
+      <c r="J13" s="299"/>
+      <c r="K13" s="299"/>
+      <c r="L13" s="300"/>
     </row>
     <row r="14" spans="1:12" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="293"/>
       <c r="B14" s="294"/>
-      <c r="C14" s="220" t="s">
+      <c r="C14" s="213" t="s">
         <v>29</v>
       </c>
-      <c r="D14" s="221"/>
-      <c r="E14" s="287"/>
-      <c r="F14" s="288"/>
-      <c r="G14" s="201"/>
-      <c r="H14" s="289"/>
-      <c r="I14" s="289"/>
-      <c r="J14" s="289"/>
-      <c r="K14" s="289"/>
-      <c r="L14" s="290"/>
+      <c r="D14" s="214"/>
+      <c r="E14" s="291"/>
+      <c r="F14" s="292"/>
+      <c r="G14" s="215"/>
+      <c r="H14" s="299"/>
+      <c r="I14" s="299"/>
+      <c r="J14" s="299"/>
+      <c r="K14" s="299"/>
+      <c r="L14" s="300"/>
     </row>
     <row r="15" spans="1:12" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="214"/>
-      <c r="B15" s="210"/>
-      <c r="C15" s="220" t="s">
+      <c r="A15" s="203"/>
+      <c r="B15" s="204"/>
+      <c r="C15" s="213" t="s">
         <v>62</v>
       </c>
-      <c r="D15" s="221"/>
-      <c r="E15" s="287"/>
-      <c r="F15" s="288"/>
-      <c r="G15" s="201"/>
-      <c r="H15" s="289"/>
-      <c r="I15" s="289"/>
-      <c r="J15" s="289"/>
-      <c r="K15" s="289"/>
-      <c r="L15" s="290"/>
+      <c r="D15" s="214"/>
+      <c r="E15" s="291"/>
+      <c r="F15" s="292"/>
+      <c r="G15" s="215"/>
+      <c r="H15" s="299"/>
+      <c r="I15" s="299"/>
+      <c r="J15" s="299"/>
+      <c r="K15" s="299"/>
+      <c r="L15" s="300"/>
     </row>
     <row r="16" spans="1:12" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="214"/>
-      <c r="B16" s="210"/>
-      <c r="C16" s="220" t="s">
+      <c r="A16" s="203"/>
+      <c r="B16" s="204"/>
+      <c r="C16" s="213" t="s">
         <v>61</v>
       </c>
-      <c r="D16" s="221"/>
-      <c r="E16" s="287"/>
-      <c r="F16" s="288"/>
-      <c r="G16" s="201"/>
-      <c r="H16" s="289"/>
-      <c r="I16" s="289"/>
-      <c r="J16" s="289"/>
-      <c r="K16" s="289"/>
-      <c r="L16" s="290"/>
+      <c r="D16" s="214"/>
+      <c r="E16" s="291"/>
+      <c r="F16" s="292"/>
+      <c r="G16" s="215"/>
+      <c r="H16" s="299"/>
+      <c r="I16" s="299"/>
+      <c r="J16" s="299"/>
+      <c r="K16" s="299"/>
+      <c r="L16" s="300"/>
     </row>
     <row r="17" spans="1:12" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="214"/>
-      <c r="B17" s="210"/>
-      <c r="C17" s="220" t="s">
+      <c r="A17" s="203"/>
+      <c r="B17" s="204"/>
+      <c r="C17" s="213" t="s">
         <v>76</v>
       </c>
-      <c r="D17" s="221"/>
-      <c r="E17" s="287"/>
-      <c r="F17" s="288"/>
-      <c r="G17" s="201"/>
-      <c r="H17" s="289"/>
-      <c r="I17" s="289"/>
-      <c r="J17" s="289"/>
-      <c r="K17" s="289"/>
-      <c r="L17" s="290"/>
+      <c r="D17" s="214"/>
+      <c r="E17" s="291"/>
+      <c r="F17" s="292"/>
+      <c r="G17" s="215"/>
+      <c r="H17" s="299"/>
+      <c r="I17" s="299"/>
+      <c r="J17" s="299"/>
+      <c r="K17" s="299"/>
+      <c r="L17" s="300"/>
     </row>
     <row r="18" spans="1:12" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="295"/>
       <c r="B18" s="296"/>
-      <c r="C18" s="220" t="s">
+      <c r="C18" s="213" t="s">
         <v>33</v>
       </c>
-      <c r="D18" s="221"/>
-      <c r="E18" s="287"/>
-      <c r="F18" s="288"/>
-      <c r="G18" s="201"/>
-      <c r="H18" s="289"/>
-      <c r="I18" s="289"/>
-      <c r="J18" s="289"/>
-      <c r="K18" s="289"/>
-      <c r="L18" s="290"/>
+      <c r="D18" s="214"/>
+      <c r="E18" s="291"/>
+      <c r="F18" s="292"/>
+      <c r="G18" s="215"/>
+      <c r="H18" s="299"/>
+      <c r="I18" s="299"/>
+      <c r="J18" s="299"/>
+      <c r="K18" s="299"/>
+      <c r="L18" s="300"/>
     </row>
     <row r="19" spans="1:12" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="293"/>
       <c r="B19" s="294"/>
-      <c r="C19" s="220" t="s">
+      <c r="C19" s="213" t="s">
         <v>29</v>
       </c>
-      <c r="D19" s="221"/>
-      <c r="E19" s="287"/>
-      <c r="F19" s="288"/>
-      <c r="G19" s="201"/>
-      <c r="H19" s="289"/>
-      <c r="I19" s="289"/>
-      <c r="J19" s="289"/>
-      <c r="K19" s="289"/>
-      <c r="L19" s="290"/>
+      <c r="D19" s="214"/>
+      <c r="E19" s="291"/>
+      <c r="F19" s="292"/>
+      <c r="G19" s="215"/>
+      <c r="H19" s="299"/>
+      <c r="I19" s="299"/>
+      <c r="J19" s="299"/>
+      <c r="K19" s="299"/>
+      <c r="L19" s="300"/>
     </row>
     <row r="20" spans="1:12" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="214"/>
-      <c r="B20" s="210"/>
-      <c r="C20" s="220" t="s">
+      <c r="A20" s="203"/>
+      <c r="B20" s="204"/>
+      <c r="C20" s="213" t="s">
         <v>62</v>
       </c>
-      <c r="D20" s="221"/>
-      <c r="E20" s="287"/>
-      <c r="F20" s="288"/>
-      <c r="G20" s="287"/>
-      <c r="H20" s="291"/>
-      <c r="I20" s="291"/>
-      <c r="J20" s="291"/>
-      <c r="K20" s="291"/>
-      <c r="L20" s="292"/>
+      <c r="D20" s="214"/>
+      <c r="E20" s="291"/>
+      <c r="F20" s="292"/>
+      <c r="G20" s="291"/>
+      <c r="H20" s="297"/>
+      <c r="I20" s="297"/>
+      <c r="J20" s="297"/>
+      <c r="K20" s="297"/>
+      <c r="L20" s="298"/>
     </row>
     <row r="21" spans="1:12" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="214"/>
-      <c r="B21" s="210"/>
-      <c r="C21" s="220" t="s">
+      <c r="A21" s="203"/>
+      <c r="B21" s="204"/>
+      <c r="C21" s="213" t="s">
         <v>61</v>
       </c>
-      <c r="D21" s="221"/>
-      <c r="E21" s="287"/>
-      <c r="F21" s="288"/>
-      <c r="G21" s="201"/>
-      <c r="H21" s="289"/>
-      <c r="I21" s="289"/>
-      <c r="J21" s="289"/>
-      <c r="K21" s="289"/>
-      <c r="L21" s="290"/>
+      <c r="D21" s="214"/>
+      <c r="E21" s="291"/>
+      <c r="F21" s="292"/>
+      <c r="G21" s="215"/>
+      <c r="H21" s="299"/>
+      <c r="I21" s="299"/>
+      <c r="J21" s="299"/>
+      <c r="K21" s="299"/>
+      <c r="L21" s="300"/>
     </row>
     <row r="22" spans="1:12" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="214"/>
-      <c r="B22" s="210"/>
-      <c r="C22" s="220" t="s">
+      <c r="A22" s="203"/>
+      <c r="B22" s="204"/>
+      <c r="C22" s="213" t="s">
         <v>76</v>
       </c>
-      <c r="D22" s="221"/>
-      <c r="E22" s="287"/>
-      <c r="F22" s="288"/>
-      <c r="G22" s="201"/>
-      <c r="H22" s="289"/>
-      <c r="I22" s="289"/>
-      <c r="J22" s="289"/>
-      <c r="K22" s="289"/>
-      <c r="L22" s="290"/>
+      <c r="D22" s="214"/>
+      <c r="E22" s="291"/>
+      <c r="F22" s="292"/>
+      <c r="G22" s="215"/>
+      <c r="H22" s="299"/>
+      <c r="I22" s="299"/>
+      <c r="J22" s="299"/>
+      <c r="K22" s="299"/>
+      <c r="L22" s="300"/>
     </row>
     <row r="23" spans="1:12" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="295"/>
       <c r="B23" s="296"/>
-      <c r="C23" s="220" t="s">
+      <c r="C23" s="213" t="s">
         <v>33</v>
       </c>
-      <c r="D23" s="221"/>
-      <c r="E23" s="287"/>
-      <c r="F23" s="288"/>
-      <c r="G23" s="201"/>
-      <c r="H23" s="289"/>
-      <c r="I23" s="289"/>
-      <c r="J23" s="289"/>
-      <c r="K23" s="289"/>
-      <c r="L23" s="290"/>
+      <c r="D23" s="214"/>
+      <c r="E23" s="291"/>
+      <c r="F23" s="292"/>
+      <c r="G23" s="215"/>
+      <c r="H23" s="299"/>
+      <c r="I23" s="299"/>
+      <c r="J23" s="299"/>
+      <c r="K23" s="299"/>
+      <c r="L23" s="300"/>
     </row>
     <row r="24" spans="1:12" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="293"/>
       <c r="B24" s="294"/>
-      <c r="C24" s="220" t="s">
+      <c r="C24" s="213" t="s">
         <v>29</v>
       </c>
-      <c r="D24" s="221"/>
-      <c r="E24" s="287"/>
-      <c r="F24" s="288"/>
-      <c r="G24" s="201"/>
-      <c r="H24" s="289"/>
-      <c r="I24" s="289"/>
-      <c r="J24" s="289"/>
-      <c r="K24" s="289"/>
-      <c r="L24" s="290"/>
+      <c r="D24" s="214"/>
+      <c r="E24" s="291"/>
+      <c r="F24" s="292"/>
+      <c r="G24" s="215"/>
+      <c r="H24" s="299"/>
+      <c r="I24" s="299"/>
+      <c r="J24" s="299"/>
+      <c r="K24" s="299"/>
+      <c r="L24" s="300"/>
     </row>
     <row r="25" spans="1:12" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="214"/>
-      <c r="B25" s="210"/>
-      <c r="C25" s="220" t="s">
+      <c r="A25" s="203"/>
+      <c r="B25" s="204"/>
+      <c r="C25" s="213" t="s">
         <v>62</v>
       </c>
-      <c r="D25" s="221"/>
-      <c r="E25" s="287"/>
-      <c r="F25" s="288"/>
-      <c r="G25" s="287"/>
-      <c r="H25" s="291"/>
-      <c r="I25" s="291"/>
-      <c r="J25" s="291"/>
-      <c r="K25" s="291"/>
-      <c r="L25" s="292"/>
+      <c r="D25" s="214"/>
+      <c r="E25" s="291"/>
+      <c r="F25" s="292"/>
+      <c r="G25" s="291"/>
+      <c r="H25" s="297"/>
+      <c r="I25" s="297"/>
+      <c r="J25" s="297"/>
+      <c r="K25" s="297"/>
+      <c r="L25" s="298"/>
     </row>
     <row r="26" spans="1:12" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="214"/>
-      <c r="B26" s="210"/>
-      <c r="C26" s="220" t="s">
+      <c r="A26" s="203"/>
+      <c r="B26" s="204"/>
+      <c r="C26" s="213" t="s">
         <v>61</v>
       </c>
-      <c r="D26" s="221"/>
-      <c r="E26" s="287"/>
-      <c r="F26" s="288"/>
-      <c r="G26" s="201"/>
-      <c r="H26" s="289"/>
-      <c r="I26" s="289"/>
-      <c r="J26" s="289"/>
-      <c r="K26" s="289"/>
-      <c r="L26" s="290"/>
+      <c r="D26" s="214"/>
+      <c r="E26" s="291"/>
+      <c r="F26" s="292"/>
+      <c r="G26" s="215"/>
+      <c r="H26" s="299"/>
+      <c r="I26" s="299"/>
+      <c r="J26" s="299"/>
+      <c r="K26" s="299"/>
+      <c r="L26" s="300"/>
     </row>
     <row r="27" spans="1:12" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="214"/>
-      <c r="B27" s="210"/>
-      <c r="C27" s="220" t="s">
+      <c r="A27" s="203"/>
+      <c r="B27" s="204"/>
+      <c r="C27" s="213" t="s">
         <v>76</v>
       </c>
-      <c r="D27" s="221"/>
-      <c r="E27" s="287"/>
-      <c r="F27" s="288"/>
-      <c r="G27" s="201"/>
-      <c r="H27" s="289"/>
-      <c r="I27" s="289"/>
-      <c r="J27" s="289"/>
-      <c r="K27" s="289"/>
-      <c r="L27" s="290"/>
+      <c r="D27" s="214"/>
+      <c r="E27" s="291"/>
+      <c r="F27" s="292"/>
+      <c r="G27" s="215"/>
+      <c r="H27" s="299"/>
+      <c r="I27" s="299"/>
+      <c r="J27" s="299"/>
+      <c r="K27" s="299"/>
+      <c r="L27" s="300"/>
     </row>
     <row r="28" spans="1:12" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A28" s="295"/>
       <c r="B28" s="296"/>
-      <c r="C28" s="220" t="s">
+      <c r="C28" s="213" t="s">
         <v>33</v>
       </c>
-      <c r="D28" s="221"/>
-      <c r="E28" s="287"/>
-      <c r="F28" s="288"/>
-      <c r="G28" s="201"/>
-      <c r="H28" s="289"/>
-      <c r="I28" s="289"/>
-      <c r="J28" s="289"/>
-      <c r="K28" s="289"/>
-      <c r="L28" s="290"/>
+      <c r="D28" s="214"/>
+      <c r="E28" s="291"/>
+      <c r="F28" s="292"/>
+      <c r="G28" s="215"/>
+      <c r="H28" s="299"/>
+      <c r="I28" s="299"/>
+      <c r="J28" s="299"/>
+      <c r="K28" s="299"/>
+      <c r="L28" s="300"/>
     </row>
     <row r="29" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="141" t="s">
+      <c r="A29" s="71" t="s">
         <v>2</v>
       </c>
-      <c r="B29" s="142"/>
-      <c r="C29" s="142"/>
-      <c r="D29" s="142"/>
-      <c r="E29" s="142"/>
-      <c r="F29" s="142"/>
-      <c r="G29" s="142"/>
-      <c r="H29" s="142"/>
-      <c r="I29" s="142"/>
-      <c r="J29" s="142"/>
-      <c r="K29" s="142"/>
-      <c r="L29" s="143"/>
+      <c r="B29" s="72"/>
+      <c r="C29" s="72"/>
+      <c r="D29" s="72"/>
+      <c r="E29" s="72"/>
+      <c r="F29" s="72"/>
+      <c r="G29" s="72"/>
+      <c r="H29" s="72"/>
+      <c r="I29" s="72"/>
+      <c r="J29" s="72"/>
+      <c r="K29" s="72"/>
+      <c r="L29" s="73"/>
     </row>
     <row r="30" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="182" t="s">
+      <c r="A30" s="140" t="s">
         <v>98</v>
       </c>
-      <c r="B30" s="183"/>
-      <c r="C30" s="183"/>
-      <c r="D30" s="183"/>
-      <c r="E30" s="183"/>
-      <c r="F30" s="183"/>
-      <c r="G30" s="183"/>
-      <c r="H30" s="183"/>
-      <c r="I30" s="183"/>
-      <c r="J30" s="183"/>
-      <c r="K30" s="183"/>
-      <c r="L30" s="184"/>
+      <c r="B30" s="141"/>
+      <c r="C30" s="141"/>
+      <c r="D30" s="141"/>
+      <c r="E30" s="141"/>
+      <c r="F30" s="141"/>
+      <c r="G30" s="141"/>
+      <c r="H30" s="141"/>
+      <c r="I30" s="141"/>
+      <c r="J30" s="141"/>
+      <c r="K30" s="141"/>
+      <c r="L30" s="142"/>
     </row>
     <row r="31" spans="1:12" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="185"/>
-      <c r="B31" s="186"/>
-      <c r="C31" s="186"/>
-      <c r="D31" s="186"/>
-      <c r="E31" s="186"/>
-      <c r="F31" s="186"/>
-      <c r="G31" s="186"/>
-      <c r="H31" s="186"/>
-      <c r="I31" s="186"/>
-      <c r="J31" s="186"/>
-      <c r="K31" s="186"/>
-      <c r="L31" s="187"/>
+      <c r="A31" s="143"/>
+      <c r="B31" s="144"/>
+      <c r="C31" s="144"/>
+      <c r="D31" s="144"/>
+      <c r="E31" s="144"/>
+      <c r="F31" s="144"/>
+      <c r="G31" s="144"/>
+      <c r="H31" s="144"/>
+      <c r="I31" s="144"/>
+      <c r="J31" s="144"/>
+      <c r="K31" s="144"/>
+      <c r="L31" s="145"/>
     </row>
     <row r="32" spans="1:12" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="113" t="s">
+      <c r="A32" s="160" t="s">
         <v>15</v>
       </c>
-      <c r="B32" s="114"/>
-      <c r="C32" s="114"/>
-      <c r="D32" s="114"/>
-      <c r="E32" s="114" t="s">
+      <c r="B32" s="161"/>
+      <c r="C32" s="161"/>
+      <c r="D32" s="161"/>
+      <c r="E32" s="161" t="s">
         <v>16</v>
       </c>
-      <c r="F32" s="114"/>
-      <c r="G32" s="114"/>
-      <c r="H32" s="114"/>
-      <c r="I32" s="114" t="s">
+      <c r="F32" s="161"/>
+      <c r="G32" s="161"/>
+      <c r="H32" s="161"/>
+      <c r="I32" s="161" t="s">
         <v>17</v>
       </c>
-      <c r="J32" s="114"/>
-      <c r="K32" s="114"/>
-      <c r="L32" s="115"/>
+      <c r="J32" s="161"/>
+      <c r="K32" s="161"/>
+      <c r="L32" s="162"/>
     </row>
     <row r="33" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="106"/>
-      <c r="B33" s="107"/>
-      <c r="C33" s="107"/>
-      <c r="D33" s="108"/>
-      <c r="E33" s="109"/>
-      <c r="F33" s="107"/>
-      <c r="G33" s="107"/>
-      <c r="H33" s="108"/>
-      <c r="I33" s="109"/>
-      <c r="J33" s="107"/>
-      <c r="K33" s="107"/>
-      <c r="L33" s="124"/>
+      <c r="A33" s="158"/>
+      <c r="B33" s="135"/>
+      <c r="C33" s="135"/>
+      <c r="D33" s="159"/>
+      <c r="E33" s="134"/>
+      <c r="F33" s="135"/>
+      <c r="G33" s="135"/>
+      <c r="H33" s="159"/>
+      <c r="I33" s="134"/>
+      <c r="J33" s="135"/>
+      <c r="K33" s="135"/>
+      <c r="L33" s="136"/>
     </row>
     <row r="34" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="96"/>
+      <c r="A34" s="153"/>
       <c r="B34" s="55"/>
       <c r="C34" s="55"/>
-      <c r="D34" s="97"/>
-      <c r="E34" s="98"/>
+      <c r="D34" s="154"/>
+      <c r="E34" s="137"/>
       <c r="F34" s="55"/>
       <c r="G34" s="55"/>
-      <c r="H34" s="97"/>
-      <c r="I34" s="98"/>
+      <c r="H34" s="154"/>
+      <c r="I34" s="137"/>
       <c r="J34" s="55"/>
       <c r="K34" s="55"/>
-      <c r="L34" s="99"/>
+      <c r="L34" s="138"/>
     </row>
     <row r="35" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="96"/>
+      <c r="A35" s="153"/>
       <c r="B35" s="55"/>
       <c r="C35" s="55"/>
-      <c r="D35" s="97"/>
-      <c r="E35" s="98"/>
+      <c r="D35" s="154"/>
+      <c r="E35" s="137"/>
       <c r="F35" s="55"/>
       <c r="G35" s="55"/>
-      <c r="H35" s="97"/>
-      <c r="I35" s="98"/>
+      <c r="H35" s="154"/>
+      <c r="I35" s="137"/>
       <c r="J35" s="55"/>
       <c r="K35" s="55"/>
-      <c r="L35" s="99"/>
+      <c r="L35" s="138"/>
     </row>
     <row r="36" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="96"/>
+      <c r="A36" s="153"/>
       <c r="B36" s="55"/>
       <c r="C36" s="55"/>
-      <c r="D36" s="97"/>
-      <c r="E36" s="98"/>
+      <c r="D36" s="154"/>
+      <c r="E36" s="137"/>
       <c r="F36" s="55"/>
       <c r="G36" s="55"/>
-      <c r="H36" s="97"/>
-      <c r="I36" s="98"/>
+      <c r="H36" s="154"/>
+      <c r="I36" s="137"/>
       <c r="J36" s="55"/>
       <c r="K36" s="55"/>
-      <c r="L36" s="99"/>
+      <c r="L36" s="138"/>
     </row>
     <row r="37" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="96">
+      <c r="A37" s="153">
         <f>'Page 01 of 02'!A55</f>
         <v>0</v>
       </c>
       <c r="B37" s="55"/>
       <c r="C37" s="55"/>
-      <c r="D37" s="97"/>
-      <c r="E37" s="98">
+      <c r="D37" s="154"/>
+      <c r="E37" s="137">
         <f>'Page 01 of 02'!E55</f>
         <v>0</v>
       </c>
       <c r="F37" s="55"/>
       <c r="G37" s="55"/>
-      <c r="H37" s="97"/>
-      <c r="I37" s="98"/>
+      <c r="H37" s="154"/>
+      <c r="I37" s="137"/>
       <c r="J37" s="55"/>
       <c r="K37" s="55"/>
-      <c r="L37" s="99"/>
+      <c r="L37" s="138"/>
     </row>
     <row r="38" spans="1:12" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="207">
+      <c r="A38" s="218">
         <f>'Page 01 of 02'!A56</f>
         <v>0</v>
       </c>
-      <c r="B38" s="101"/>
-      <c r="C38" s="101"/>
-      <c r="D38" s="102"/>
-      <c r="E38" s="104">
+      <c r="B38" s="66"/>
+      <c r="C38" s="66"/>
+      <c r="D38" s="156"/>
+      <c r="E38" s="65">
         <f>'Page 01 of 02'!E56</f>
         <v>0</v>
       </c>
-      <c r="F38" s="101"/>
-      <c r="G38" s="101"/>
-      <c r="H38" s="102"/>
-      <c r="I38" s="104"/>
-      <c r="J38" s="101"/>
-      <c r="K38" s="101"/>
-      <c r="L38" s="105"/>
+      <c r="F38" s="66"/>
+      <c r="G38" s="66"/>
+      <c r="H38" s="156"/>
+      <c r="I38" s="65"/>
+      <c r="J38" s="66"/>
+      <c r="K38" s="66"/>
+      <c r="L38" s="67"/>
     </row>
     <row r="39" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A39" s="28" t="s">
@@ -8715,52 +8708,35 @@
     </row>
   </sheetData>
   <mergeCells count="93">
-    <mergeCell ref="A1:B4"/>
-    <mergeCell ref="C1:L2"/>
-    <mergeCell ref="C3:L3"/>
-    <mergeCell ref="C4:J4"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="A5:G6"/>
-    <mergeCell ref="H5:J5"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="H6:J6"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="A7:L7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="G8:L8"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="A33:D36"/>
-    <mergeCell ref="E33:H36"/>
-    <mergeCell ref="I33:L36"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="A24:B28"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="A29:L29"/>
-    <mergeCell ref="A30:L31"/>
-    <mergeCell ref="A32:D32"/>
-    <mergeCell ref="E32:H32"/>
-    <mergeCell ref="I32:L32"/>
-    <mergeCell ref="A37:D37"/>
-    <mergeCell ref="E37:H37"/>
-    <mergeCell ref="I37:L37"/>
-    <mergeCell ref="A38:D38"/>
-    <mergeCell ref="E38:H38"/>
-    <mergeCell ref="I38:L38"/>
-    <mergeCell ref="A9:B13"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="G28:L28"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="G24:L24"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="G25:L25"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="G26:L26"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="A19:B23"/>
+    <mergeCell ref="G19:L19"/>
+    <mergeCell ref="G20:L20"/>
+    <mergeCell ref="G21:L21"/>
+    <mergeCell ref="G22:L22"/>
+    <mergeCell ref="G23:L23"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="G18:L18"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="G9:L9"/>
+    <mergeCell ref="G10:L10"/>
+    <mergeCell ref="G11:L11"/>
+    <mergeCell ref="G15:L15"/>
     <mergeCell ref="A14:B18"/>
     <mergeCell ref="G12:L12"/>
     <mergeCell ref="G13:L13"/>
@@ -8777,37 +8753,54 @@
     <mergeCell ref="C14:D14"/>
     <mergeCell ref="C15:D15"/>
     <mergeCell ref="E18:F18"/>
-    <mergeCell ref="G18:L18"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="G9:L9"/>
-    <mergeCell ref="G10:L10"/>
-    <mergeCell ref="G11:L11"/>
-    <mergeCell ref="G15:L15"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="A19:B23"/>
-    <mergeCell ref="G19:L19"/>
-    <mergeCell ref="G20:L20"/>
-    <mergeCell ref="G21:L21"/>
-    <mergeCell ref="G22:L22"/>
-    <mergeCell ref="G23:L23"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="A37:D37"/>
+    <mergeCell ref="E37:H37"/>
+    <mergeCell ref="I37:L37"/>
+    <mergeCell ref="A38:D38"/>
+    <mergeCell ref="E38:H38"/>
+    <mergeCell ref="I38:L38"/>
+    <mergeCell ref="A33:D36"/>
+    <mergeCell ref="E33:H36"/>
+    <mergeCell ref="I33:L36"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="A24:B28"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="A29:L29"/>
+    <mergeCell ref="A30:L31"/>
+    <mergeCell ref="A32:D32"/>
+    <mergeCell ref="E32:H32"/>
+    <mergeCell ref="I32:L32"/>
     <mergeCell ref="E27:F27"/>
     <mergeCell ref="G27:L27"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="G28:L28"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="G24:L24"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="G25:L25"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="G26:L26"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="A7:L7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="G8:L8"/>
+    <mergeCell ref="A9:B13"/>
+    <mergeCell ref="A5:G6"/>
+    <mergeCell ref="H5:J5"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="H6:J6"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="A1:B4"/>
+    <mergeCell ref="C1:L2"/>
+    <mergeCell ref="C3:L3"/>
+    <mergeCell ref="C4:J4"/>
+    <mergeCell ref="K4:L4"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.31496062992125984" right="0.23622047244094491" top="0.82677165354330717" bottom="0.35433070866141736" header="0.19685039370078741" footer="0.19685039370078741"/>

--- a/MTV-QC-FM-013A_Rev.00 - MTC.xlsx
+++ b/MTV-QC-FM-013A_Rev.00 - MTC.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kirangowda/Desktop/excel-generator/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59BCAB29-DCF5-7C43-8CC5-3F67125E6A6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38715DB6-CBC6-714F-BBB7-B0FA117AF191}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19580" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1818,41 +1818,203 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="61" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="59" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="63" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="63" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="60" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="62" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1863,6 +2025,54 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1893,30 +2103,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2013,146 +2199,20 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="62" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="61" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="59" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="63" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -2181,65 +2241,38 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2251,18 +2284,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2286,48 +2307,174 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="49" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="43" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="48" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="39" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="39" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="40" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2340,9 +2487,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2355,152 +2499,38 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="49" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="43" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="48" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="39" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="39" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="40" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -2513,36 +2543,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4425,7 +4425,7 @@
   <dimension ref="A1:DO59"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13:N13"/>
+      <selection activeCell="C24" sqref="C24:F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4446,314 +4446,314 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="74"/>
-      <c r="B1" s="75"/>
-      <c r="C1" s="186" t="s">
+      <c r="A1" s="144"/>
+      <c r="B1" s="145"/>
+      <c r="C1" s="61" t="s">
         <v>86</v>
       </c>
-      <c r="D1" s="187"/>
-      <c r="E1" s="187"/>
-      <c r="F1" s="187"/>
-      <c r="G1" s="187"/>
-      <c r="H1" s="187"/>
-      <c r="I1" s="187"/>
-      <c r="J1" s="187"/>
-      <c r="K1" s="187"/>
-      <c r="L1" s="187"/>
-      <c r="M1" s="192" t="s">
+      <c r="D1" s="62"/>
+      <c r="E1" s="62"/>
+      <c r="F1" s="62"/>
+      <c r="G1" s="62"/>
+      <c r="H1" s="62"/>
+      <c r="I1" s="62"/>
+      <c r="J1" s="62"/>
+      <c r="K1" s="62"/>
+      <c r="L1" s="62"/>
+      <c r="M1" s="67" t="s">
         <v>130</v>
       </c>
-      <c r="N1" s="193"/>
+      <c r="N1" s="68"/>
     </row>
     <row r="2" spans="1:14" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="76"/>
-      <c r="B2" s="77"/>
-      <c r="C2" s="188"/>
-      <c r="D2" s="189"/>
-      <c r="E2" s="189"/>
-      <c r="F2" s="189"/>
-      <c r="G2" s="189"/>
-      <c r="H2" s="189"/>
-      <c r="I2" s="189"/>
-      <c r="J2" s="189"/>
-      <c r="K2" s="189"/>
-      <c r="L2" s="189"/>
-      <c r="M2" s="194"/>
-      <c r="N2" s="195"/>
+      <c r="A2" s="146"/>
+      <c r="B2" s="147"/>
+      <c r="C2" s="63"/>
+      <c r="D2" s="64"/>
+      <c r="E2" s="64"/>
+      <c r="F2" s="64"/>
+      <c r="G2" s="64"/>
+      <c r="H2" s="64"/>
+      <c r="I2" s="64"/>
+      <c r="J2" s="64"/>
+      <c r="K2" s="64"/>
+      <c r="L2" s="64"/>
+      <c r="M2" s="69"/>
+      <c r="N2" s="70"/>
     </row>
     <row r="3" spans="1:14" s="1" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="76"/>
-      <c r="B3" s="77"/>
-      <c r="C3" s="190" t="s">
+      <c r="A3" s="146"/>
+      <c r="B3" s="147"/>
+      <c r="C3" s="65" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="191"/>
-      <c r="E3" s="191"/>
-      <c r="F3" s="191"/>
-      <c r="G3" s="191"/>
-      <c r="H3" s="191"/>
-      <c r="I3" s="191"/>
-      <c r="J3" s="191"/>
-      <c r="K3" s="191"/>
-      <c r="L3" s="191"/>
+      <c r="D3" s="66"/>
+      <c r="E3" s="66"/>
+      <c r="F3" s="66"/>
+      <c r="G3" s="66"/>
+      <c r="H3" s="66"/>
+      <c r="I3" s="66"/>
+      <c r="J3" s="66"/>
+      <c r="K3" s="66"/>
+      <c r="L3" s="66"/>
       <c r="M3" s="43"/>
       <c r="N3" s="44"/>
     </row>
     <row r="4" spans="1:14" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="78"/>
-      <c r="B4" s="79"/>
-      <c r="C4" s="68" t="s">
+      <c r="A4" s="148"/>
+      <c r="B4" s="149"/>
+      <c r="C4" s="141" t="s">
         <v>116</v>
       </c>
-      <c r="D4" s="69"/>
-      <c r="E4" s="69"/>
-      <c r="F4" s="69"/>
-      <c r="G4" s="69"/>
-      <c r="H4" s="69"/>
-      <c r="I4" s="69"/>
-      <c r="J4" s="69"/>
-      <c r="K4" s="69"/>
-      <c r="L4" s="70"/>
-      <c r="M4" s="80" t="s">
+      <c r="D4" s="142"/>
+      <c r="E4" s="142"/>
+      <c r="F4" s="142"/>
+      <c r="G4" s="142"/>
+      <c r="H4" s="142"/>
+      <c r="I4" s="142"/>
+      <c r="J4" s="142"/>
+      <c r="K4" s="142"/>
+      <c r="L4" s="143"/>
+      <c r="M4" s="150" t="s">
         <v>104</v>
       </c>
-      <c r="N4" s="81"/>
+      <c r="N4" s="151"/>
     </row>
     <row r="5" spans="1:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="71" t="s">
+      <c r="A5" s="125" t="s">
         <v>22</v>
       </c>
-      <c r="B5" s="72"/>
-      <c r="C5" s="72"/>
-      <c r="D5" s="72"/>
-      <c r="E5" s="72"/>
-      <c r="F5" s="72"/>
-      <c r="G5" s="72"/>
-      <c r="H5" s="72"/>
-      <c r="I5" s="73"/>
-      <c r="J5" s="71" t="s">
+      <c r="B5" s="126"/>
+      <c r="C5" s="126"/>
+      <c r="D5" s="126"/>
+      <c r="E5" s="126"/>
+      <c r="F5" s="126"/>
+      <c r="G5" s="126"/>
+      <c r="H5" s="126"/>
+      <c r="I5" s="127"/>
+      <c r="J5" s="125" t="s">
         <v>97</v>
       </c>
-      <c r="K5" s="72"/>
-      <c r="L5" s="72"/>
-      <c r="M5" s="72"/>
-      <c r="N5" s="73"/>
+      <c r="K5" s="126"/>
+      <c r="L5" s="126"/>
+      <c r="M5" s="126"/>
+      <c r="N5" s="127"/>
     </row>
     <row r="6" spans="1:14" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="111" t="s">
+      <c r="A6" s="173" t="s">
         <v>87</v>
       </c>
-      <c r="B6" s="112"/>
-      <c r="C6" s="112"/>
-      <c r="D6" s="112"/>
-      <c r="E6" s="112"/>
-      <c r="F6" s="112"/>
-      <c r="G6" s="112"/>
-      <c r="H6" s="112"/>
-      <c r="I6" s="113"/>
-      <c r="J6" s="105" t="s">
+      <c r="B6" s="174"/>
+      <c r="C6" s="174"/>
+      <c r="D6" s="174"/>
+      <c r="E6" s="174"/>
+      <c r="F6" s="174"/>
+      <c r="G6" s="174"/>
+      <c r="H6" s="174"/>
+      <c r="I6" s="175"/>
+      <c r="J6" s="167" t="s">
         <v>88</v>
       </c>
-      <c r="K6" s="106"/>
-      <c r="L6" s="106"/>
-      <c r="M6" s="106"/>
-      <c r="N6" s="107"/>
+      <c r="K6" s="168"/>
+      <c r="L6" s="168"/>
+      <c r="M6" s="168"/>
+      <c r="N6" s="169"/>
     </row>
     <row r="7" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="114"/>
-      <c r="B7" s="115"/>
-      <c r="C7" s="115"/>
-      <c r="D7" s="115"/>
-      <c r="E7" s="115"/>
-      <c r="F7" s="115"/>
-      <c r="G7" s="115"/>
-      <c r="H7" s="115"/>
-      <c r="I7" s="116"/>
-      <c r="J7" s="108" t="s">
+      <c r="A7" s="176"/>
+      <c r="B7" s="177"/>
+      <c r="C7" s="177"/>
+      <c r="D7" s="177"/>
+      <c r="E7" s="177"/>
+      <c r="F7" s="177"/>
+      <c r="G7" s="177"/>
+      <c r="H7" s="177"/>
+      <c r="I7" s="178"/>
+      <c r="J7" s="170" t="s">
         <v>18</v>
       </c>
-      <c r="K7" s="109"/>
-      <c r="L7" s="109"/>
-      <c r="M7" s="109" t="s">
+      <c r="K7" s="171"/>
+      <c r="L7" s="171"/>
+      <c r="M7" s="171" t="s">
         <v>19</v>
       </c>
-      <c r="N7" s="110"/>
+      <c r="N7" s="172"/>
     </row>
     <row r="8" spans="1:14" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="117"/>
-      <c r="B8" s="118"/>
-      <c r="C8" s="118"/>
-      <c r="D8" s="118"/>
-      <c r="E8" s="118"/>
-      <c r="F8" s="118"/>
-      <c r="G8" s="118"/>
-      <c r="H8" s="118"/>
-      <c r="I8" s="119"/>
-      <c r="J8" s="103" t="s">
+      <c r="A8" s="179"/>
+      <c r="B8" s="180"/>
+      <c r="C8" s="180"/>
+      <c r="D8" s="180"/>
+      <c r="E8" s="180"/>
+      <c r="F8" s="180"/>
+      <c r="G8" s="180"/>
+      <c r="H8" s="180"/>
+      <c r="I8" s="181"/>
+      <c r="J8" s="165" t="s">
         <v>117</v>
       </c>
-      <c r="K8" s="104"/>
-      <c r="L8" s="104"/>
-      <c r="M8" s="101"/>
-      <c r="N8" s="102"/>
+      <c r="K8" s="166"/>
+      <c r="L8" s="166"/>
+      <c r="M8" s="163"/>
+      <c r="N8" s="164"/>
     </row>
     <row r="9" spans="1:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="99" t="s">
+      <c r="A9" s="161" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="100"/>
-      <c r="C9" s="100"/>
-      <c r="D9" s="100"/>
-      <c r="E9" s="100"/>
-      <c r="F9" s="96"/>
-      <c r="G9" s="97"/>
-      <c r="H9" s="97"/>
-      <c r="I9" s="97"/>
-      <c r="J9" s="97"/>
-      <c r="K9" s="97"/>
-      <c r="L9" s="97"/>
-      <c r="M9" s="97"/>
-      <c r="N9" s="98"/>
+      <c r="B9" s="162"/>
+      <c r="C9" s="162"/>
+      <c r="D9" s="162"/>
+      <c r="E9" s="162"/>
+      <c r="F9" s="158"/>
+      <c r="G9" s="159"/>
+      <c r="H9" s="159"/>
+      <c r="I9" s="159"/>
+      <c r="J9" s="159"/>
+      <c r="K9" s="159"/>
+      <c r="L9" s="159"/>
+      <c r="M9" s="159"/>
+      <c r="N9" s="160"/>
     </row>
     <row r="10" spans="1:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="120" t="s">
+      <c r="A10" s="182" t="s">
         <v>4</v>
       </c>
-      <c r="B10" s="121"/>
-      <c r="C10" s="121"/>
-      <c r="D10" s="121"/>
-      <c r="E10" s="121"/>
-      <c r="F10" s="124"/>
-      <c r="G10" s="125"/>
-      <c r="H10" s="125"/>
-      <c r="I10" s="125"/>
-      <c r="J10" s="125"/>
-      <c r="K10" s="125"/>
-      <c r="L10" s="125"/>
-      <c r="M10" s="125"/>
-      <c r="N10" s="126"/>
+      <c r="B10" s="183"/>
+      <c r="C10" s="183"/>
+      <c r="D10" s="183"/>
+      <c r="E10" s="183"/>
+      <c r="F10" s="132"/>
+      <c r="G10" s="133"/>
+      <c r="H10" s="133"/>
+      <c r="I10" s="133"/>
+      <c r="J10" s="133"/>
+      <c r="K10" s="133"/>
+      <c r="L10" s="133"/>
+      <c r="M10" s="133"/>
+      <c r="N10" s="134"/>
     </row>
     <row r="11" spans="1:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="120" t="s">
+      <c r="A11" s="182" t="s">
         <v>23</v>
       </c>
-      <c r="B11" s="121"/>
-      <c r="C11" s="121"/>
-      <c r="D11" s="121"/>
-      <c r="E11" s="121"/>
-      <c r="F11" s="124"/>
-      <c r="G11" s="125"/>
-      <c r="H11" s="125"/>
-      <c r="I11" s="125"/>
-      <c r="J11" s="125"/>
-      <c r="K11" s="125"/>
-      <c r="L11" s="125"/>
-      <c r="M11" s="125"/>
-      <c r="N11" s="126"/>
+      <c r="B11" s="183"/>
+      <c r="C11" s="183"/>
+      <c r="D11" s="183"/>
+      <c r="E11" s="183"/>
+      <c r="F11" s="132"/>
+      <c r="G11" s="133"/>
+      <c r="H11" s="133"/>
+      <c r="I11" s="133"/>
+      <c r="J11" s="133"/>
+      <c r="K11" s="133"/>
+      <c r="L11" s="133"/>
+      <c r="M11" s="133"/>
+      <c r="N11" s="134"/>
     </row>
     <row r="12" spans="1:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="120" t="s">
+      <c r="A12" s="182" t="s">
         <v>89</v>
       </c>
-      <c r="B12" s="121"/>
-      <c r="C12" s="121"/>
-      <c r="D12" s="121"/>
-      <c r="E12" s="121"/>
-      <c r="F12" s="125"/>
-      <c r="G12" s="125"/>
-      <c r="H12" s="125"/>
-      <c r="I12" s="125"/>
-      <c r="J12" s="125"/>
-      <c r="K12" s="125"/>
-      <c r="L12" s="125"/>
-      <c r="M12" s="125"/>
-      <c r="N12" s="126"/>
+      <c r="B12" s="183"/>
+      <c r="C12" s="183"/>
+      <c r="D12" s="183"/>
+      <c r="E12" s="183"/>
+      <c r="F12" s="133"/>
+      <c r="G12" s="133"/>
+      <c r="H12" s="133"/>
+      <c r="I12" s="133"/>
+      <c r="J12" s="133"/>
+      <c r="K12" s="133"/>
+      <c r="L12" s="133"/>
+      <c r="M12" s="133"/>
+      <c r="N12" s="134"/>
     </row>
     <row r="13" spans="1:14" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="122" t="s">
+      <c r="A13" s="184" t="s">
         <v>90</v>
       </c>
-      <c r="B13" s="123"/>
-      <c r="C13" s="123"/>
-      <c r="D13" s="123"/>
-      <c r="E13" s="123"/>
-      <c r="F13" s="82"/>
-      <c r="G13" s="82"/>
-      <c r="H13" s="82"/>
-      <c r="I13" s="82"/>
-      <c r="J13" s="82"/>
-      <c r="K13" s="82"/>
-      <c r="L13" s="82"/>
-      <c r="M13" s="82"/>
-      <c r="N13" s="83"/>
+      <c r="B13" s="185"/>
+      <c r="C13" s="185"/>
+      <c r="D13" s="185"/>
+      <c r="E13" s="185"/>
+      <c r="F13" s="152"/>
+      <c r="G13" s="152"/>
+      <c r="H13" s="152"/>
+      <c r="I13" s="152"/>
+      <c r="J13" s="152"/>
+      <c r="K13" s="152"/>
+      <c r="L13" s="152"/>
+      <c r="M13" s="152"/>
+      <c r="N13" s="153"/>
     </row>
     <row r="14" spans="1:14" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="87" t="s">
+      <c r="A14" s="71" t="s">
         <v>5</v>
       </c>
-      <c r="B14" s="88"/>
-      <c r="C14" s="88"/>
-      <c r="D14" s="88"/>
-      <c r="E14" s="88"/>
-      <c r="F14" s="88"/>
-      <c r="G14" s="88"/>
-      <c r="H14" s="88"/>
-      <c r="I14" s="88"/>
-      <c r="J14" s="88"/>
-      <c r="K14" s="88"/>
-      <c r="L14" s="88"/>
-      <c r="M14" s="88"/>
-      <c r="N14" s="89"/>
+      <c r="B14" s="75"/>
+      <c r="C14" s="75"/>
+      <c r="D14" s="75"/>
+      <c r="E14" s="75"/>
+      <c r="F14" s="75"/>
+      <c r="G14" s="75"/>
+      <c r="H14" s="75"/>
+      <c r="I14" s="75"/>
+      <c r="J14" s="75"/>
+      <c r="K14" s="75"/>
+      <c r="L14" s="75"/>
+      <c r="M14" s="75"/>
+      <c r="N14" s="73"/>
     </row>
     <row r="15" spans="1:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="130" t="s">
+      <c r="A15" s="137" t="s">
         <v>6</v>
       </c>
-      <c r="B15" s="131"/>
-      <c r="C15" s="95"/>
-      <c r="D15" s="95"/>
-      <c r="E15" s="95"/>
-      <c r="F15" s="95"/>
-      <c r="G15" s="132" t="s">
+      <c r="B15" s="138"/>
+      <c r="C15" s="157"/>
+      <c r="D15" s="157"/>
+      <c r="E15" s="157"/>
+      <c r="F15" s="157"/>
+      <c r="G15" s="139" t="s">
         <v>99</v>
       </c>
-      <c r="H15" s="133"/>
-      <c r="I15" s="133"/>
-      <c r="J15" s="133"/>
-      <c r="K15" s="133"/>
-      <c r="L15" s="92"/>
-      <c r="M15" s="93"/>
-      <c r="N15" s="94"/>
+      <c r="H15" s="140"/>
+      <c r="I15" s="140"/>
+      <c r="J15" s="140"/>
+      <c r="K15" s="140"/>
+      <c r="L15" s="154"/>
+      <c r="M15" s="155"/>
+      <c r="N15" s="156"/>
     </row>
     <row r="16" spans="1:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="90" t="s">
+      <c r="A16" s="108" t="s">
         <v>7</v>
       </c>
-      <c r="B16" s="91"/>
-      <c r="C16" s="127"/>
-      <c r="D16" s="127"/>
-      <c r="E16" s="127"/>
-      <c r="F16" s="127"/>
-      <c r="G16" s="128" t="s">
+      <c r="B16" s="78"/>
+      <c r="C16" s="59"/>
+      <c r="D16" s="59"/>
+      <c r="E16" s="59"/>
+      <c r="F16" s="59"/>
+      <c r="G16" s="135" t="s">
         <v>73</v>
       </c>
-      <c r="H16" s="129"/>
-      <c r="I16" s="129"/>
-      <c r="J16" s="129"/>
-      <c r="K16" s="129"/>
-      <c r="L16" s="84"/>
-      <c r="M16" s="85"/>
-      <c r="N16" s="86"/>
+      <c r="H16" s="136"/>
+      <c r="I16" s="136"/>
+      <c r="J16" s="136"/>
+      <c r="K16" s="136"/>
+      <c r="L16" s="101"/>
+      <c r="M16" s="102"/>
+      <c r="N16" s="103"/>
     </row>
     <row r="17" spans="1:17" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="90" t="s">
+      <c r="A17" s="108" t="s">
         <v>11</v>
       </c>
-      <c r="B17" s="91"/>
-      <c r="C17" s="127"/>
-      <c r="D17" s="127"/>
-      <c r="E17" s="127"/>
-      <c r="F17" s="127"/>
+      <c r="B17" s="78"/>
+      <c r="C17" s="59"/>
+      <c r="D17" s="59"/>
+      <c r="E17" s="59"/>
+      <c r="F17" s="59"/>
       <c r="G17" s="37" t="s">
         <v>67</v>
       </c>
@@ -4761,19 +4761,19 @@
       <c r="I17" s="38"/>
       <c r="J17" s="38"/>
       <c r="K17" s="38"/>
-      <c r="L17" s="84"/>
-      <c r="M17" s="85"/>
-      <c r="N17" s="86"/>
+      <c r="L17" s="101"/>
+      <c r="M17" s="102"/>
+      <c r="N17" s="103"/>
     </row>
     <row r="18" spans="1:17" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="90" t="s">
+      <c r="A18" s="108" t="s">
         <v>10</v>
       </c>
-      <c r="B18" s="91"/>
-      <c r="C18" s="127"/>
-      <c r="D18" s="127"/>
-      <c r="E18" s="127"/>
-      <c r="F18" s="127"/>
+      <c r="B18" s="78"/>
+      <c r="C18" s="59"/>
+      <c r="D18" s="59"/>
+      <c r="E18" s="59"/>
+      <c r="F18" s="59"/>
       <c r="G18" s="37" t="s">
         <v>27</v>
       </c>
@@ -4781,19 +4781,19 @@
       <c r="I18" s="38"/>
       <c r="J18" s="38"/>
       <c r="K18" s="38"/>
-      <c r="L18" s="84"/>
-      <c r="M18" s="85"/>
-      <c r="N18" s="86"/>
+      <c r="L18" s="101"/>
+      <c r="M18" s="102"/>
+      <c r="N18" s="103"/>
     </row>
     <row r="19" spans="1:17" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="90" t="s">
+      <c r="A19" s="108" t="s">
         <v>8</v>
       </c>
-      <c r="B19" s="91"/>
-      <c r="C19" s="127"/>
-      <c r="D19" s="127"/>
-      <c r="E19" s="127"/>
-      <c r="F19" s="127"/>
+      <c r="B19" s="78"/>
+      <c r="C19" s="59"/>
+      <c r="D19" s="59"/>
+      <c r="E19" s="59"/>
+      <c r="F19" s="59"/>
       <c r="G19" s="37" t="s">
         <v>68</v>
       </c>
@@ -4801,19 +4801,19 @@
       <c r="I19" s="38"/>
       <c r="J19" s="38"/>
       <c r="K19" s="38"/>
-      <c r="L19" s="84"/>
-      <c r="M19" s="85"/>
-      <c r="N19" s="86"/>
+      <c r="L19" s="101"/>
+      <c r="M19" s="102"/>
+      <c r="N19" s="103"/>
     </row>
     <row r="20" spans="1:17" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="90" t="s">
+      <c r="A20" s="108" t="s">
         <v>12</v>
       </c>
-      <c r="B20" s="91"/>
-      <c r="C20" s="127"/>
-      <c r="D20" s="127"/>
-      <c r="E20" s="127"/>
-      <c r="F20" s="127"/>
+      <c r="B20" s="78"/>
+      <c r="C20" s="59"/>
+      <c r="D20" s="59"/>
+      <c r="E20" s="59"/>
+      <c r="F20" s="59"/>
       <c r="G20" s="37" t="s">
         <v>69</v>
       </c>
@@ -4821,19 +4821,19 @@
       <c r="I20" s="38"/>
       <c r="J20" s="38"/>
       <c r="K20" s="38"/>
-      <c r="L20" s="84"/>
-      <c r="M20" s="85"/>
-      <c r="N20" s="86"/>
+      <c r="L20" s="101"/>
+      <c r="M20" s="102"/>
+      <c r="N20" s="103"/>
     </row>
     <row r="21" spans="1:17" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="90" t="s">
+      <c r="A21" s="108" t="s">
         <v>9</v>
       </c>
-      <c r="B21" s="91"/>
-      <c r="C21" s="127"/>
-      <c r="D21" s="127"/>
-      <c r="E21" s="127"/>
-      <c r="F21" s="127"/>
+      <c r="B21" s="78"/>
+      <c r="C21" s="59"/>
+      <c r="D21" s="59"/>
+      <c r="E21" s="59"/>
+      <c r="F21" s="59"/>
       <c r="G21" s="37" t="s">
         <v>70</v>
       </c>
@@ -4841,21 +4841,21 @@
       <c r="I21" s="38"/>
       <c r="J21" s="38"/>
       <c r="K21" s="38"/>
-      <c r="L21" s="85"/>
-      <c r="M21" s="85"/>
-      <c r="N21" s="86"/>
+      <c r="L21" s="102"/>
+      <c r="M21" s="102"/>
+      <c r="N21" s="103"/>
     </row>
     <row r="22" spans="1:17" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="90" t="s">
+      <c r="A22" s="108" t="s">
         <v>184</v>
       </c>
-      <c r="B22" s="91"/>
-      <c r="C22" s="152" t="s">
+      <c r="B22" s="78"/>
+      <c r="C22" s="131" t="s">
         <v>103</v>
       </c>
-      <c r="D22" s="127"/>
-      <c r="E22" s="127"/>
-      <c r="F22" s="127"/>
+      <c r="D22" s="59"/>
+      <c r="E22" s="59"/>
+      <c r="F22" s="59"/>
       <c r="G22" s="37" t="s">
         <v>71</v>
       </c>
@@ -4863,19 +4863,19 @@
       <c r="I22" s="38"/>
       <c r="J22" s="38"/>
       <c r="K22" s="38"/>
-      <c r="L22" s="85"/>
-      <c r="M22" s="85"/>
-      <c r="N22" s="86"/>
+      <c r="L22" s="102"/>
+      <c r="M22" s="102"/>
+      <c r="N22" s="103"/>
     </row>
     <row r="23" spans="1:17" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="90" t="s">
+      <c r="A23" s="108" t="s">
         <v>127</v>
       </c>
-      <c r="B23" s="91"/>
-      <c r="C23" s="127"/>
-      <c r="D23" s="127"/>
-      <c r="E23" s="127"/>
-      <c r="F23" s="127"/>
+      <c r="B23" s="78"/>
+      <c r="C23" s="59"/>
+      <c r="D23" s="59"/>
+      <c r="E23" s="59"/>
+      <c r="F23" s="59"/>
       <c r="G23" s="37" t="s">
         <v>64</v>
       </c>
@@ -4883,19 +4883,19 @@
       <c r="I23" s="38"/>
       <c r="J23" s="38"/>
       <c r="K23" s="38"/>
-      <c r="L23" s="85"/>
-      <c r="M23" s="85"/>
-      <c r="N23" s="86"/>
+      <c r="L23" s="102"/>
+      <c r="M23" s="102"/>
+      <c r="N23" s="103"/>
     </row>
     <row r="24" spans="1:17" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="90" t="s">
+      <c r="A24" s="108" t="s">
         <v>128</v>
       </c>
-      <c r="B24" s="91"/>
-      <c r="C24" s="163"/>
-      <c r="D24" s="163"/>
-      <c r="E24" s="163"/>
-      <c r="F24" s="163"/>
+      <c r="B24" s="78"/>
+      <c r="C24" s="107"/>
+      <c r="D24" s="107"/>
+      <c r="E24" s="107"/>
+      <c r="F24" s="107"/>
       <c r="G24" s="37" t="s">
         <v>75</v>
       </c>
@@ -4903,52 +4903,52 @@
       <c r="I24" s="38"/>
       <c r="J24" s="38"/>
       <c r="K24" s="38"/>
-      <c r="L24" s="59"/>
-      <c r="M24" s="59"/>
-      <c r="N24" s="60"/>
-      <c r="O24" s="59"/>
-      <c r="P24" s="59"/>
-      <c r="Q24" s="60"/>
+      <c r="L24" s="186"/>
+      <c r="M24" s="186"/>
+      <c r="N24" s="187"/>
+      <c r="O24" s="186"/>
+      <c r="P24" s="186"/>
+      <c r="Q24" s="187"/>
     </row>
     <row r="25" spans="1:17" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="164" t="s">
+      <c r="A25" s="109" t="s">
         <v>24</v>
       </c>
-      <c r="B25" s="165"/>
-      <c r="C25" s="165"/>
-      <c r="D25" s="165"/>
-      <c r="E25" s="165"/>
-      <c r="F25" s="165"/>
-      <c r="G25" s="165"/>
-      <c r="H25" s="165"/>
-      <c r="I25" s="165"/>
-      <c r="J25" s="165"/>
-      <c r="K25" s="165"/>
-      <c r="L25" s="165"/>
-      <c r="M25" s="165"/>
-      <c r="N25" s="166"/>
+      <c r="B25" s="110"/>
+      <c r="C25" s="110"/>
+      <c r="D25" s="110"/>
+      <c r="E25" s="110"/>
+      <c r="F25" s="110"/>
+      <c r="G25" s="110"/>
+      <c r="H25" s="110"/>
+      <c r="I25" s="110"/>
+      <c r="J25" s="110"/>
+      <c r="K25" s="110"/>
+      <c r="L25" s="110"/>
+      <c r="M25" s="110"/>
+      <c r="N25" s="111"/>
     </row>
     <row r="26" spans="1:17" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="167" t="s">
+      <c r="A26" s="112" t="s">
         <v>25</v>
       </c>
-      <c r="B26" s="168"/>
-      <c r="C26" s="169" t="s">
+      <c r="B26" s="113"/>
+      <c r="C26" s="114" t="s">
         <v>65</v>
       </c>
-      <c r="D26" s="168"/>
-      <c r="E26" s="62" t="s">
+      <c r="D26" s="113"/>
+      <c r="E26" s="189" t="s">
         <v>29</v>
       </c>
-      <c r="F26" s="63"/>
-      <c r="G26" s="62" t="s">
+      <c r="F26" s="190"/>
+      <c r="G26" s="189" t="s">
         <v>100</v>
       </c>
-      <c r="H26" s="61"/>
-      <c r="I26" s="61" t="s">
+      <c r="H26" s="188"/>
+      <c r="I26" s="188" t="s">
         <v>61</v>
       </c>
-      <c r="J26" s="61"/>
+      <c r="J26" s="188"/>
       <c r="K26" s="45" t="s">
         <v>102</v>
       </c>
@@ -4963,146 +4963,146 @@
       </c>
     </row>
     <row r="27" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="139"/>
-      <c r="B27" s="139"/>
-      <c r="C27" s="139"/>
-      <c r="D27" s="139"/>
-      <c r="E27" s="64"/>
-      <c r="F27" s="64"/>
-      <c r="G27" s="64"/>
-      <c r="H27" s="64"/>
-      <c r="I27" s="64"/>
-      <c r="J27" s="64"/>
+      <c r="A27" s="85"/>
+      <c r="B27" s="85"/>
+      <c r="C27" s="85"/>
+      <c r="D27" s="85"/>
+      <c r="E27" s="86"/>
+      <c r="F27" s="86"/>
+      <c r="G27" s="86"/>
+      <c r="H27" s="86"/>
+      <c r="I27" s="86"/>
+      <c r="J27" s="86"/>
       <c r="K27" s="32"/>
       <c r="L27" s="32"/>
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
     </row>
     <row r="28" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="139"/>
-      <c r="B28" s="139"/>
-      <c r="C28" s="139"/>
-      <c r="D28" s="139"/>
-      <c r="E28" s="64"/>
-      <c r="F28" s="64"/>
-      <c r="G28" s="64"/>
-      <c r="H28" s="64"/>
-      <c r="I28" s="64"/>
-      <c r="J28" s="64"/>
+      <c r="A28" s="85"/>
+      <c r="B28" s="85"/>
+      <c r="C28" s="85"/>
+      <c r="D28" s="85"/>
+      <c r="E28" s="86"/>
+      <c r="F28" s="86"/>
+      <c r="G28" s="86"/>
+      <c r="H28" s="86"/>
+      <c r="I28" s="86"/>
+      <c r="J28" s="86"/>
       <c r="K28" s="32"/>
       <c r="L28" s="32"/>
       <c r="M28" s="2"/>
       <c r="N28" s="2"/>
     </row>
     <row r="29" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="139"/>
-      <c r="B29" s="139"/>
-      <c r="C29" s="139"/>
-      <c r="D29" s="139"/>
-      <c r="E29" s="64"/>
-      <c r="F29" s="64"/>
-      <c r="G29" s="64"/>
-      <c r="H29" s="64"/>
-      <c r="I29" s="64"/>
-      <c r="J29" s="64"/>
+      <c r="A29" s="85"/>
+      <c r="B29" s="85"/>
+      <c r="C29" s="85"/>
+      <c r="D29" s="85"/>
+      <c r="E29" s="86"/>
+      <c r="F29" s="86"/>
+      <c r="G29" s="86"/>
+      <c r="H29" s="86"/>
+      <c r="I29" s="86"/>
+      <c r="J29" s="86"/>
       <c r="K29" s="32"/>
       <c r="L29" s="32"/>
       <c r="M29" s="2"/>
       <c r="N29" s="2"/>
     </row>
     <row r="30" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="139"/>
-      <c r="B30" s="139"/>
-      <c r="C30" s="139"/>
-      <c r="D30" s="139"/>
-      <c r="E30" s="64"/>
-      <c r="F30" s="64"/>
-      <c r="G30" s="64"/>
-      <c r="H30" s="64"/>
-      <c r="I30" s="64"/>
-      <c r="J30" s="64"/>
+      <c r="A30" s="85"/>
+      <c r="B30" s="85"/>
+      <c r="C30" s="85"/>
+      <c r="D30" s="85"/>
+      <c r="E30" s="86"/>
+      <c r="F30" s="86"/>
+      <c r="G30" s="86"/>
+      <c r="H30" s="86"/>
+      <c r="I30" s="86"/>
+      <c r="J30" s="86"/>
       <c r="K30" s="32"/>
       <c r="L30" s="32"/>
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
     </row>
     <row r="31" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="139"/>
-      <c r="B31" s="139"/>
-      <c r="C31" s="139"/>
-      <c r="D31" s="139"/>
-      <c r="E31" s="64"/>
-      <c r="F31" s="64"/>
-      <c r="G31" s="64"/>
-      <c r="H31" s="64"/>
-      <c r="I31" s="64"/>
-      <c r="J31" s="64"/>
+      <c r="A31" s="85"/>
+      <c r="B31" s="85"/>
+      <c r="C31" s="85"/>
+      <c r="D31" s="85"/>
+      <c r="E31" s="86"/>
+      <c r="F31" s="86"/>
+      <c r="G31" s="86"/>
+      <c r="H31" s="86"/>
+      <c r="I31" s="86"/>
+      <c r="J31" s="86"/>
       <c r="K31" s="32"/>
       <c r="L31" s="32"/>
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
     </row>
     <row r="32" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="139"/>
-      <c r="B32" s="139"/>
-      <c r="C32" s="139"/>
-      <c r="D32" s="139"/>
-      <c r="E32" s="64"/>
-      <c r="F32" s="64"/>
-      <c r="G32" s="64"/>
-      <c r="H32" s="64"/>
-      <c r="I32" s="64"/>
-      <c r="J32" s="64"/>
+      <c r="A32" s="85"/>
+      <c r="B32" s="85"/>
+      <c r="C32" s="85"/>
+      <c r="D32" s="85"/>
+      <c r="E32" s="86"/>
+      <c r="F32" s="86"/>
+      <c r="G32" s="86"/>
+      <c r="H32" s="86"/>
+      <c r="I32" s="86"/>
+      <c r="J32" s="86"/>
       <c r="K32" s="32"/>
       <c r="L32" s="32"/>
       <c r="M32" s="2"/>
       <c r="N32" s="2"/>
     </row>
     <row r="33" spans="1:119" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="139"/>
-      <c r="B33" s="139"/>
-      <c r="C33" s="139" t="s">
+      <c r="A33" s="85"/>
+      <c r="B33" s="85"/>
+      <c r="C33" s="85" t="s">
         <v>114</v>
       </c>
-      <c r="D33" s="139"/>
-      <c r="E33" s="64"/>
-      <c r="F33" s="64"/>
-      <c r="G33" s="64"/>
-      <c r="H33" s="64"/>
-      <c r="I33" s="64"/>
-      <c r="J33" s="64"/>
+      <c r="D33" s="85"/>
+      <c r="E33" s="86"/>
+      <c r="F33" s="86"/>
+      <c r="G33" s="86"/>
+      <c r="H33" s="86"/>
+      <c r="I33" s="86"/>
+      <c r="J33" s="86"/>
       <c r="K33" s="32"/>
       <c r="L33" s="32"/>
       <c r="M33" s="2"/>
       <c r="N33" s="2"/>
     </row>
     <row r="34" spans="1:119" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="139"/>
-      <c r="B34" s="139"/>
-      <c r="C34" s="139"/>
-      <c r="D34" s="139"/>
-      <c r="E34" s="64"/>
-      <c r="F34" s="64"/>
-      <c r="G34" s="64"/>
-      <c r="H34" s="64"/>
-      <c r="I34" s="64"/>
-      <c r="J34" s="64"/>
+      <c r="A34" s="85"/>
+      <c r="B34" s="85"/>
+      <c r="C34" s="85"/>
+      <c r="D34" s="85"/>
+      <c r="E34" s="86"/>
+      <c r="F34" s="86"/>
+      <c r="G34" s="86"/>
+      <c r="H34" s="86"/>
+      <c r="I34" s="86"/>
+      <c r="J34" s="86"/>
       <c r="K34" s="32"/>
       <c r="L34" s="32"/>
       <c r="M34" s="2"/>
       <c r="N34" s="2"/>
     </row>
     <row r="35" spans="1:119" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="139"/>
-      <c r="B35" s="139"/>
-      <c r="C35" s="139"/>
-      <c r="D35" s="139"/>
-      <c r="E35" s="64"/>
-      <c r="F35" s="64"/>
-      <c r="G35" s="64"/>
-      <c r="H35" s="64"/>
-      <c r="I35" s="64"/>
-      <c r="J35" s="64"/>
+      <c r="A35" s="85"/>
+      <c r="B35" s="85"/>
+      <c r="C35" s="85"/>
+      <c r="D35" s="85"/>
+      <c r="E35" s="86"/>
+      <c r="F35" s="86"/>
+      <c r="G35" s="86"/>
+      <c r="H35" s="86"/>
+      <c r="I35" s="86"/>
+      <c r="J35" s="86"/>
       <c r="K35" s="32"/>
       <c r="L35" s="32"/>
       <c r="M35" s="2"/>
@@ -5111,10 +5111,10 @@
       </c>
     </row>
     <row r="36" spans="1:119" s="4" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="180" t="s">
+      <c r="A36" s="80" t="s">
         <v>106</v>
       </c>
-      <c r="B36" s="181"/>
+      <c r="B36" s="81"/>
       <c r="C36" s="33" t="s">
         <v>20</v>
       </c>
@@ -5127,17 +5127,17 @@
         <v>32</v>
       </c>
       <c r="H36" s="34"/>
-      <c r="I36" s="198" t="s">
+      <c r="I36" s="76" t="s">
         <v>107</v>
       </c>
-      <c r="J36" s="199"/>
+      <c r="J36" s="77"/>
       <c r="K36" s="36" t="s">
         <v>66</v>
       </c>
-      <c r="L36" s="182" t="s">
+      <c r="L36" s="82" t="s">
         <v>108</v>
       </c>
-      <c r="M36" s="183"/>
+      <c r="M36" s="83"/>
       <c r="N36" s="35" t="s">
         <v>109</v>
       </c>
@@ -5250,21 +5250,21 @@
       <c r="DO36"/>
     </row>
     <row r="37" spans="1:119" s="5" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="184" t="s">
+      <c r="A37" s="84" t="s">
         <v>110</v>
       </c>
-      <c r="B37" s="127"/>
-      <c r="C37" s="185"/>
-      <c r="D37" s="185"/>
-      <c r="E37" s="185"/>
-      <c r="F37" s="185"/>
-      <c r="G37" s="170"/>
-      <c r="H37" s="170"/>
-      <c r="I37" s="170"/>
-      <c r="J37" s="170"/>
+      <c r="B37" s="59"/>
+      <c r="C37" s="60"/>
+      <c r="D37" s="60"/>
+      <c r="E37" s="60"/>
+      <c r="F37" s="60"/>
+      <c r="G37" s="79"/>
+      <c r="H37" s="79"/>
+      <c r="I37" s="79"/>
+      <c r="J37" s="79"/>
       <c r="K37" s="7"/>
-      <c r="L37" s="127"/>
-      <c r="M37" s="127"/>
+      <c r="L37" s="59"/>
+      <c r="M37" s="59"/>
       <c r="N37" s="29"/>
       <c r="O37" s="6"/>
       <c r="P37"/>
@@ -5373,334 +5373,334 @@
       <c r="DO37"/>
     </row>
     <row r="38" spans="1:119" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="184" t="s">
+      <c r="A38" s="84" t="s">
         <v>111</v>
       </c>
-      <c r="B38" s="127"/>
-      <c r="C38" s="185"/>
-      <c r="D38" s="185"/>
-      <c r="E38" s="185"/>
-      <c r="F38" s="185"/>
-      <c r="G38" s="170"/>
-      <c r="H38" s="170"/>
-      <c r="I38" s="91"/>
-      <c r="J38" s="91"/>
+      <c r="B38" s="59"/>
+      <c r="C38" s="60"/>
+      <c r="D38" s="60"/>
+      <c r="E38" s="60"/>
+      <c r="F38" s="60"/>
+      <c r="G38" s="79"/>
+      <c r="H38" s="79"/>
+      <c r="I38" s="78"/>
+      <c r="J38" s="78"/>
       <c r="K38" s="7"/>
-      <c r="L38" s="127"/>
-      <c r="M38" s="127"/>
+      <c r="L38" s="59"/>
+      <c r="M38" s="59"/>
       <c r="N38" s="29"/>
     </row>
     <row r="39" spans="1:119" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="127" t="s">
+      <c r="A39" s="59" t="s">
         <v>112</v>
       </c>
-      <c r="B39" s="127"/>
-      <c r="C39" s="185"/>
-      <c r="D39" s="185"/>
-      <c r="E39" s="185"/>
-      <c r="F39" s="185"/>
-      <c r="G39" s="170"/>
-      <c r="H39" s="170"/>
-      <c r="I39" s="91"/>
-      <c r="J39" s="91"/>
+      <c r="B39" s="59"/>
+      <c r="C39" s="60"/>
+      <c r="D39" s="60"/>
+      <c r="E39" s="60"/>
+      <c r="F39" s="60"/>
+      <c r="G39" s="79"/>
+      <c r="H39" s="79"/>
+      <c r="I39" s="78"/>
+      <c r="J39" s="78"/>
       <c r="K39" s="7"/>
-      <c r="L39" s="127"/>
-      <c r="M39" s="127"/>
+      <c r="L39" s="59"/>
+      <c r="M39" s="59"/>
       <c r="N39" s="29"/>
     </row>
     <row r="40" spans="1:119" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="127" t="s">
+      <c r="A40" s="59" t="s">
         <v>113</v>
       </c>
-      <c r="B40" s="127"/>
-      <c r="C40" s="185"/>
-      <c r="D40" s="185"/>
-      <c r="E40" s="185"/>
-      <c r="F40" s="185"/>
-      <c r="G40" s="170"/>
-      <c r="H40" s="170"/>
-      <c r="I40" s="91"/>
-      <c r="J40" s="91"/>
+      <c r="B40" s="59"/>
+      <c r="C40" s="60"/>
+      <c r="D40" s="60"/>
+      <c r="E40" s="60"/>
+      <c r="F40" s="60"/>
+      <c r="G40" s="79"/>
+      <c r="H40" s="79"/>
+      <c r="I40" s="78"/>
+      <c r="J40" s="78"/>
       <c r="K40" s="7"/>
-      <c r="L40" s="127"/>
-      <c r="M40" s="127"/>
+      <c r="L40" s="59"/>
+      <c r="M40" s="59"/>
       <c r="N40" s="29"/>
     </row>
     <row r="41" spans="1:119" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="149"/>
-      <c r="B41" s="150"/>
-      <c r="C41" s="150"/>
-      <c r="D41" s="150"/>
-      <c r="E41" s="150"/>
-      <c r="F41" s="150"/>
-      <c r="G41" s="150"/>
-      <c r="H41" s="150"/>
-      <c r="I41" s="150"/>
-      <c r="J41" s="150"/>
-      <c r="K41" s="150"/>
-      <c r="L41" s="150"/>
-      <c r="M41" s="150"/>
-      <c r="N41" s="151"/>
+      <c r="A41" s="128"/>
+      <c r="B41" s="129"/>
+      <c r="C41" s="129"/>
+      <c r="D41" s="129"/>
+      <c r="E41" s="129"/>
+      <c r="F41" s="129"/>
+      <c r="G41" s="129"/>
+      <c r="H41" s="129"/>
+      <c r="I41" s="129"/>
+      <c r="J41" s="129"/>
+      <c r="K41" s="129"/>
+      <c r="L41" s="129"/>
+      <c r="M41" s="129"/>
+      <c r="N41" s="130"/>
     </row>
     <row r="42" spans="1:119" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="87" t="s">
+      <c r="A42" s="71" t="s">
         <v>13</v>
       </c>
-      <c r="B42" s="196"/>
-      <c r="C42" s="197"/>
-      <c r="D42" s="88"/>
+      <c r="B42" s="72"/>
+      <c r="C42" s="74"/>
+      <c r="D42" s="75"/>
       <c r="E42" s="40"/>
       <c r="F42" s="41"/>
-      <c r="G42" s="171" t="s">
+      <c r="G42" s="191" t="s">
         <v>105</v>
       </c>
-      <c r="H42" s="172"/>
-      <c r="I42" s="172"/>
-      <c r="J42" s="172"/>
-      <c r="K42" s="172"/>
-      <c r="L42" s="172"/>
-      <c r="M42" s="172"/>
-      <c r="N42" s="173"/>
+      <c r="H42" s="192"/>
+      <c r="I42" s="192"/>
+      <c r="J42" s="192"/>
+      <c r="K42" s="192"/>
+      <c r="L42" s="192"/>
+      <c r="M42" s="192"/>
+      <c r="N42" s="193"/>
     </row>
     <row r="43" spans="1:119" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="87" t="s">
+      <c r="A43" s="71" t="s">
         <v>26</v>
       </c>
-      <c r="B43" s="89"/>
-      <c r="C43" s="197"/>
-      <c r="D43" s="88"/>
-      <c r="E43" s="197"/>
-      <c r="F43" s="88"/>
-      <c r="G43" s="174"/>
-      <c r="H43" s="175"/>
-      <c r="I43" s="175"/>
-      <c r="J43" s="175"/>
-      <c r="K43" s="175"/>
-      <c r="L43" s="175"/>
-      <c r="M43" s="175"/>
-      <c r="N43" s="176"/>
+      <c r="B43" s="73"/>
+      <c r="C43" s="74"/>
+      <c r="D43" s="75"/>
+      <c r="E43" s="74"/>
+      <c r="F43" s="75"/>
+      <c r="G43" s="194"/>
+      <c r="H43" s="195"/>
+      <c r="I43" s="195"/>
+      <c r="J43" s="195"/>
+      <c r="K43" s="195"/>
+      <c r="L43" s="195"/>
+      <c r="M43" s="195"/>
+      <c r="N43" s="196"/>
     </row>
     <row r="44" spans="1:119" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="87" t="s">
+      <c r="A44" s="71" t="s">
         <v>14</v>
       </c>
-      <c r="B44" s="89"/>
-      <c r="C44" s="197"/>
-      <c r="D44" s="88"/>
-      <c r="E44" s="197"/>
-      <c r="F44" s="88"/>
-      <c r="G44" s="174"/>
-      <c r="H44" s="175"/>
-      <c r="I44" s="175"/>
-      <c r="J44" s="175"/>
-      <c r="K44" s="175"/>
-      <c r="L44" s="175"/>
-      <c r="M44" s="175"/>
-      <c r="N44" s="176"/>
+      <c r="B44" s="73"/>
+      <c r="C44" s="74"/>
+      <c r="D44" s="75"/>
+      <c r="E44" s="74"/>
+      <c r="F44" s="75"/>
+      <c r="G44" s="194"/>
+      <c r="H44" s="195"/>
+      <c r="I44" s="195"/>
+      <c r="J44" s="195"/>
+      <c r="K44" s="195"/>
+      <c r="L44" s="195"/>
+      <c r="M44" s="195"/>
+      <c r="N44" s="196"/>
     </row>
     <row r="45" spans="1:119" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="87" t="s">
+      <c r="A45" s="71" t="s">
         <v>83</v>
       </c>
-      <c r="B45" s="89"/>
-      <c r="C45" s="197"/>
-      <c r="D45" s="88"/>
-      <c r="E45" s="197"/>
-      <c r="F45" s="88"/>
-      <c r="G45" s="177"/>
-      <c r="H45" s="178"/>
-      <c r="I45" s="178"/>
-      <c r="J45" s="178"/>
-      <c r="K45" s="178"/>
-      <c r="L45" s="178"/>
-      <c r="M45" s="178"/>
-      <c r="N45" s="179"/>
+      <c r="B45" s="73"/>
+      <c r="C45" s="74"/>
+      <c r="D45" s="75"/>
+      <c r="E45" s="74"/>
+      <c r="F45" s="75"/>
+      <c r="G45" s="197"/>
+      <c r="H45" s="198"/>
+      <c r="I45" s="198"/>
+      <c r="J45" s="198"/>
+      <c r="K45" s="198"/>
+      <c r="L45" s="198"/>
+      <c r="M45" s="198"/>
+      <c r="N45" s="199"/>
     </row>
     <row r="46" spans="1:119" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="146"/>
-      <c r="B46" s="147"/>
-      <c r="C46" s="147"/>
-      <c r="D46" s="147"/>
-      <c r="E46" s="147"/>
-      <c r="F46" s="147"/>
-      <c r="G46" s="147"/>
-      <c r="H46" s="147"/>
-      <c r="I46" s="147"/>
-      <c r="J46" s="147"/>
-      <c r="K46" s="147"/>
-      <c r="L46" s="147"/>
-      <c r="M46" s="147"/>
-      <c r="N46" s="148"/>
+      <c r="A46" s="122"/>
+      <c r="B46" s="123"/>
+      <c r="C46" s="123"/>
+      <c r="D46" s="123"/>
+      <c r="E46" s="123"/>
+      <c r="F46" s="123"/>
+      <c r="G46" s="123"/>
+      <c r="H46" s="123"/>
+      <c r="I46" s="123"/>
+      <c r="J46" s="123"/>
+      <c r="K46" s="123"/>
+      <c r="L46" s="123"/>
+      <c r="M46" s="123"/>
+      <c r="N46" s="124"/>
     </row>
     <row r="47" spans="1:119" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="71" t="s">
+      <c r="A47" s="125" t="s">
         <v>2</v>
       </c>
-      <c r="B47" s="72"/>
-      <c r="C47" s="72"/>
-      <c r="D47" s="72"/>
-      <c r="E47" s="72"/>
-      <c r="F47" s="72"/>
-      <c r="G47" s="72"/>
-      <c r="H47" s="72"/>
-      <c r="I47" s="72"/>
-      <c r="J47" s="72"/>
-      <c r="K47" s="72"/>
-      <c r="L47" s="72"/>
-      <c r="M47" s="72"/>
-      <c r="N47" s="73"/>
+      <c r="B47" s="126"/>
+      <c r="C47" s="126"/>
+      <c r="D47" s="126"/>
+      <c r="E47" s="126"/>
+      <c r="F47" s="126"/>
+      <c r="G47" s="126"/>
+      <c r="H47" s="126"/>
+      <c r="I47" s="126"/>
+      <c r="J47" s="126"/>
+      <c r="K47" s="126"/>
+      <c r="L47" s="126"/>
+      <c r="M47" s="126"/>
+      <c r="N47" s="127"/>
     </row>
     <row r="48" spans="1:119" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="140" t="s">
+      <c r="A48" s="116" t="s">
         <v>91</v>
       </c>
-      <c r="B48" s="141"/>
-      <c r="C48" s="141"/>
-      <c r="D48" s="141"/>
-      <c r="E48" s="141"/>
-      <c r="F48" s="141"/>
-      <c r="G48" s="141"/>
-      <c r="H48" s="141"/>
-      <c r="I48" s="141"/>
-      <c r="J48" s="141"/>
-      <c r="K48" s="141"/>
-      <c r="L48" s="141"/>
-      <c r="M48" s="141"/>
-      <c r="N48" s="142"/>
+      <c r="B48" s="117"/>
+      <c r="C48" s="117"/>
+      <c r="D48" s="117"/>
+      <c r="E48" s="117"/>
+      <c r="F48" s="117"/>
+      <c r="G48" s="117"/>
+      <c r="H48" s="117"/>
+      <c r="I48" s="117"/>
+      <c r="J48" s="117"/>
+      <c r="K48" s="117"/>
+      <c r="L48" s="117"/>
+      <c r="M48" s="117"/>
+      <c r="N48" s="118"/>
     </row>
     <row r="49" spans="1:14" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="143"/>
-      <c r="B49" s="144"/>
-      <c r="C49" s="144"/>
-      <c r="D49" s="144"/>
-      <c r="E49" s="144"/>
-      <c r="F49" s="144"/>
-      <c r="G49" s="144"/>
-      <c r="H49" s="144"/>
-      <c r="I49" s="144"/>
-      <c r="J49" s="144"/>
-      <c r="K49" s="144"/>
-      <c r="L49" s="144"/>
-      <c r="M49" s="144"/>
-      <c r="N49" s="145"/>
+      <c r="A49" s="119"/>
+      <c r="B49" s="120"/>
+      <c r="C49" s="120"/>
+      <c r="D49" s="120"/>
+      <c r="E49" s="120"/>
+      <c r="F49" s="120"/>
+      <c r="G49" s="120"/>
+      <c r="H49" s="120"/>
+      <c r="I49" s="120"/>
+      <c r="J49" s="120"/>
+      <c r="K49" s="120"/>
+      <c r="L49" s="120"/>
+      <c r="M49" s="120"/>
+      <c r="N49" s="121"/>
     </row>
     <row r="50" spans="1:14" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="160" t="s">
+      <c r="A50" s="104" t="s">
         <v>15</v>
       </c>
-      <c r="B50" s="161"/>
-      <c r="C50" s="161"/>
-      <c r="D50" s="161"/>
-      <c r="E50" s="161" t="s">
+      <c r="B50" s="105"/>
+      <c r="C50" s="105"/>
+      <c r="D50" s="105"/>
+      <c r="E50" s="105" t="s">
         <v>16</v>
       </c>
-      <c r="F50" s="161"/>
-      <c r="G50" s="161"/>
-      <c r="H50" s="161"/>
-      <c r="I50" s="161"/>
-      <c r="J50" s="161"/>
-      <c r="K50" s="161" t="s">
+      <c r="F50" s="105"/>
+      <c r="G50" s="105"/>
+      <c r="H50" s="105"/>
+      <c r="I50" s="105"/>
+      <c r="J50" s="105"/>
+      <c r="K50" s="105" t="s">
         <v>17</v>
       </c>
-      <c r="L50" s="161"/>
-      <c r="M50" s="161"/>
-      <c r="N50" s="162"/>
+      <c r="L50" s="105"/>
+      <c r="M50" s="105"/>
+      <c r="N50" s="106"/>
     </row>
     <row r="51" spans="1:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="158"/>
-      <c r="B51" s="135"/>
-      <c r="C51" s="135"/>
-      <c r="D51" s="159"/>
-      <c r="E51" s="134"/>
-      <c r="F51" s="135"/>
-      <c r="G51" s="135"/>
-      <c r="H51" s="135"/>
-      <c r="I51" s="135"/>
-      <c r="J51" s="159"/>
-      <c r="K51" s="134"/>
-      <c r="L51" s="135"/>
-      <c r="M51" s="135"/>
-      <c r="N51" s="136"/>
+      <c r="A51" s="97"/>
+      <c r="B51" s="98"/>
+      <c r="C51" s="98"/>
+      <c r="D51" s="99"/>
+      <c r="E51" s="100"/>
+      <c r="F51" s="98"/>
+      <c r="G51" s="98"/>
+      <c r="H51" s="98"/>
+      <c r="I51" s="98"/>
+      <c r="J51" s="99"/>
+      <c r="K51" s="100"/>
+      <c r="L51" s="98"/>
+      <c r="M51" s="98"/>
+      <c r="N51" s="115"/>
     </row>
     <row r="52" spans="1:14" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="153"/>
+      <c r="A52" s="87"/>
       <c r="B52" s="55"/>
       <c r="C52" s="55"/>
-      <c r="D52" s="154"/>
-      <c r="E52" s="137"/>
+      <c r="D52" s="88"/>
+      <c r="E52" s="89"/>
       <c r="F52" s="55"/>
       <c r="G52" s="55"/>
       <c r="H52" s="55"/>
       <c r="I52" s="55"/>
-      <c r="J52" s="154"/>
-      <c r="K52" s="137"/>
+      <c r="J52" s="88"/>
+      <c r="K52" s="89"/>
       <c r="L52" s="55"/>
       <c r="M52" s="55"/>
-      <c r="N52" s="138"/>
+      <c r="N52" s="90"/>
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A53" s="153"/>
+      <c r="A53" s="87"/>
       <c r="B53" s="55"/>
       <c r="C53" s="55"/>
-      <c r="D53" s="154"/>
-      <c r="E53" s="137"/>
+      <c r="D53" s="88"/>
+      <c r="E53" s="89"/>
       <c r="F53" s="55"/>
       <c r="G53" s="55"/>
       <c r="H53" s="55"/>
       <c r="I53" s="55"/>
-      <c r="J53" s="154"/>
-      <c r="K53" s="137"/>
+      <c r="J53" s="88"/>
+      <c r="K53" s="89"/>
       <c r="L53" s="55"/>
       <c r="M53" s="55"/>
-      <c r="N53" s="138"/>
+      <c r="N53" s="90"/>
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A54" s="153"/>
+      <c r="A54" s="87"/>
       <c r="B54" s="55"/>
       <c r="C54" s="55"/>
-      <c r="D54" s="154"/>
-      <c r="E54" s="137"/>
+      <c r="D54" s="88"/>
+      <c r="E54" s="89"/>
       <c r="F54" s="55"/>
       <c r="G54" s="55"/>
       <c r="H54" s="55"/>
       <c r="I54" s="55"/>
-      <c r="J54" s="154"/>
-      <c r="K54" s="137"/>
+      <c r="J54" s="88"/>
+      <c r="K54" s="89"/>
       <c r="L54" s="55"/>
       <c r="M54" s="55"/>
-      <c r="N54" s="138"/>
+      <c r="N54" s="90"/>
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A55" s="153"/>
+      <c r="A55" s="87"/>
       <c r="B55" s="55"/>
       <c r="C55" s="55"/>
-      <c r="D55" s="154"/>
-      <c r="E55" s="137"/>
+      <c r="D55" s="88"/>
+      <c r="E55" s="89"/>
       <c r="F55" s="55"/>
       <c r="G55" s="55"/>
       <c r="H55" s="55"/>
       <c r="I55" s="55"/>
-      <c r="J55" s="154"/>
-      <c r="K55" s="137"/>
+      <c r="J55" s="88"/>
+      <c r="K55" s="89"/>
       <c r="L55" s="55"/>
       <c r="M55" s="55"/>
-      <c r="N55" s="138"/>
+      <c r="N55" s="90"/>
     </row>
     <row r="56" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="155"/>
-      <c r="B56" s="66"/>
-      <c r="C56" s="66"/>
-      <c r="D56" s="156"/>
-      <c r="E56" s="157"/>
-      <c r="F56" s="66"/>
-      <c r="G56" s="66"/>
-      <c r="H56" s="66"/>
-      <c r="I56" s="66"/>
-      <c r="J56" s="156"/>
-      <c r="K56" s="65"/>
-      <c r="L56" s="66"/>
-      <c r="M56" s="66"/>
-      <c r="N56" s="67"/>
+      <c r="A56" s="91"/>
+      <c r="B56" s="92"/>
+      <c r="C56" s="92"/>
+      <c r="D56" s="93"/>
+      <c r="E56" s="94"/>
+      <c r="F56" s="92"/>
+      <c r="G56" s="92"/>
+      <c r="H56" s="92"/>
+      <c r="I56" s="92"/>
+      <c r="J56" s="93"/>
+      <c r="K56" s="95"/>
+      <c r="L56" s="92"/>
+      <c r="M56" s="92"/>
+      <c r="N56" s="96"/>
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A57" s="28" t="s">
@@ -5725,13 +5725,154 @@
       </c>
     </row>
     <row r="59" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="K59" s="65"/>
-      <c r="L59" s="66"/>
-      <c r="M59" s="66"/>
-      <c r="N59" s="67"/>
+      <c r="K59" s="95"/>
+      <c r="L59" s="92"/>
+      <c r="M59" s="92"/>
+      <c r="N59" s="96"/>
     </row>
   </sheetData>
   <mergeCells count="165">
+    <mergeCell ref="L24:N24"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="O24:Q24"/>
+    <mergeCell ref="K56:N56"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="G39:H39"/>
+    <mergeCell ref="G42:N45"/>
+    <mergeCell ref="L40:M40"/>
+    <mergeCell ref="E39:F39"/>
+    <mergeCell ref="C4:L4"/>
+    <mergeCell ref="J5:N5"/>
+    <mergeCell ref="A1:B4"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="A5:I5"/>
+    <mergeCell ref="F13:N13"/>
+    <mergeCell ref="L18:N18"/>
+    <mergeCell ref="A14:N14"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="L15:N15"/>
+    <mergeCell ref="C15:F15"/>
+    <mergeCell ref="F9:N9"/>
+    <mergeCell ref="A9:E9"/>
+    <mergeCell ref="M8:N8"/>
+    <mergeCell ref="J8:L8"/>
+    <mergeCell ref="J6:N6"/>
+    <mergeCell ref="J7:L7"/>
+    <mergeCell ref="M7:N7"/>
+    <mergeCell ref="A6:I8"/>
+    <mergeCell ref="L16:N16"/>
+    <mergeCell ref="A10:E10"/>
+    <mergeCell ref="A11:E11"/>
+    <mergeCell ref="A12:E12"/>
+    <mergeCell ref="A13:E13"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="F10:N10"/>
+    <mergeCell ref="F11:N11"/>
+    <mergeCell ref="F12:N12"/>
+    <mergeCell ref="L17:N17"/>
+    <mergeCell ref="C16:F16"/>
+    <mergeCell ref="C17:F17"/>
+    <mergeCell ref="C18:F18"/>
+    <mergeCell ref="C19:F19"/>
+    <mergeCell ref="C20:F20"/>
+    <mergeCell ref="G16:K16"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="G15:K15"/>
+    <mergeCell ref="C21:F21"/>
+    <mergeCell ref="L21:N21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="K51:N54"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="A48:N49"/>
+    <mergeCell ref="A46:N46"/>
+    <mergeCell ref="A47:N47"/>
+    <mergeCell ref="A41:N41"/>
+    <mergeCell ref="C22:F22"/>
+    <mergeCell ref="L22:N22"/>
+    <mergeCell ref="L23:N23"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="A55:D55"/>
+    <mergeCell ref="E55:J55"/>
+    <mergeCell ref="K55:N55"/>
+    <mergeCell ref="A56:D56"/>
+    <mergeCell ref="E56:J56"/>
+    <mergeCell ref="K59:N59"/>
+    <mergeCell ref="A51:D54"/>
+    <mergeCell ref="E51:J54"/>
+    <mergeCell ref="L19:N19"/>
+    <mergeCell ref="L20:N20"/>
+    <mergeCell ref="A50:D50"/>
+    <mergeCell ref="E50:J50"/>
+    <mergeCell ref="K50:N50"/>
+    <mergeCell ref="C24:F24"/>
+    <mergeCell ref="C23:F23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A25:N25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="I31:J31"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="I32:J32"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="I35:J35"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="I33:J33"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="G34:H34"/>
+    <mergeCell ref="I34:J34"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="L36:M36"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="I37:J37"/>
+    <mergeCell ref="L37:M37"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="E38:F38"/>
+    <mergeCell ref="G38:H38"/>
+    <mergeCell ref="I38:J38"/>
+    <mergeCell ref="L38:M38"/>
     <mergeCell ref="A39:B39"/>
     <mergeCell ref="C39:D39"/>
     <mergeCell ref="C1:L2"/>
@@ -5756,147 +5897,6 @@
     <mergeCell ref="E40:F40"/>
     <mergeCell ref="G40:H40"/>
     <mergeCell ref="I40:J40"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="L36:M36"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="E37:F37"/>
-    <mergeCell ref="G37:H37"/>
-    <mergeCell ref="I37:J37"/>
-    <mergeCell ref="L37:M37"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="E38:F38"/>
-    <mergeCell ref="G38:H38"/>
-    <mergeCell ref="I38:J38"/>
-    <mergeCell ref="L38:M38"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="G35:H35"/>
-    <mergeCell ref="I35:J35"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="G33:H33"/>
-    <mergeCell ref="I33:J33"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="G34:H34"/>
-    <mergeCell ref="I34:J34"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="I31:J31"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="G32:H32"/>
-    <mergeCell ref="I32:J32"/>
-    <mergeCell ref="A55:D55"/>
-    <mergeCell ref="E55:J55"/>
-    <mergeCell ref="K55:N55"/>
-    <mergeCell ref="A56:D56"/>
-    <mergeCell ref="E56:J56"/>
-    <mergeCell ref="K59:N59"/>
-    <mergeCell ref="A51:D54"/>
-    <mergeCell ref="E51:J54"/>
-    <mergeCell ref="L19:N19"/>
-    <mergeCell ref="L20:N20"/>
-    <mergeCell ref="A50:D50"/>
-    <mergeCell ref="E50:J50"/>
-    <mergeCell ref="K50:N50"/>
-    <mergeCell ref="C24:F24"/>
-    <mergeCell ref="C23:F23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A25:N25"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="K51:N54"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="I29:J29"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="A48:N49"/>
-    <mergeCell ref="A46:N46"/>
-    <mergeCell ref="A47:N47"/>
-    <mergeCell ref="A41:N41"/>
-    <mergeCell ref="C22:F22"/>
-    <mergeCell ref="L22:N22"/>
-    <mergeCell ref="L23:N23"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="F10:N10"/>
-    <mergeCell ref="F11:N11"/>
-    <mergeCell ref="F12:N12"/>
-    <mergeCell ref="L17:N17"/>
-    <mergeCell ref="C16:F16"/>
-    <mergeCell ref="C17:F17"/>
-    <mergeCell ref="C18:F18"/>
-    <mergeCell ref="C19:F19"/>
-    <mergeCell ref="C20:F20"/>
-    <mergeCell ref="G16:K16"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="G15:K15"/>
-    <mergeCell ref="C21:F21"/>
-    <mergeCell ref="L21:N21"/>
-    <mergeCell ref="C4:L4"/>
-    <mergeCell ref="J5:N5"/>
-    <mergeCell ref="A1:B4"/>
-    <mergeCell ref="M4:N4"/>
-    <mergeCell ref="A5:I5"/>
-    <mergeCell ref="F13:N13"/>
-    <mergeCell ref="L18:N18"/>
-    <mergeCell ref="A14:N14"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="L15:N15"/>
-    <mergeCell ref="C15:F15"/>
-    <mergeCell ref="F9:N9"/>
-    <mergeCell ref="A9:E9"/>
-    <mergeCell ref="M8:N8"/>
-    <mergeCell ref="J8:L8"/>
-    <mergeCell ref="J6:N6"/>
-    <mergeCell ref="J7:L7"/>
-    <mergeCell ref="M7:N7"/>
-    <mergeCell ref="A6:I8"/>
-    <mergeCell ref="L16:N16"/>
-    <mergeCell ref="A10:E10"/>
-    <mergeCell ref="A11:E11"/>
-    <mergeCell ref="A12:E12"/>
-    <mergeCell ref="A13:E13"/>
-    <mergeCell ref="L24:N24"/>
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="O24:Q24"/>
-    <mergeCell ref="K56:N56"/>
-    <mergeCell ref="I30:J30"/>
-    <mergeCell ref="G39:H39"/>
-    <mergeCell ref="G42:N45"/>
-    <mergeCell ref="L40:M40"/>
-    <mergeCell ref="E39:F39"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A55:D55" xr:uid="{D5153263-A3F1-4A1D-854B-B463AC659398}">
@@ -5942,134 +5942,134 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="74"/>
-      <c r="B1" s="75"/>
-      <c r="C1" s="186" t="s">
+      <c r="A1" s="144"/>
+      <c r="B1" s="145"/>
+      <c r="C1" s="61" t="s">
         <v>86</v>
       </c>
-      <c r="D1" s="187"/>
-      <c r="E1" s="187"/>
-      <c r="F1" s="187"/>
-      <c r="G1" s="187"/>
-      <c r="H1" s="187"/>
-      <c r="I1" s="187"/>
-      <c r="J1" s="187"/>
-      <c r="K1" s="187"/>
-      <c r="L1" s="187"/>
-      <c r="M1" s="187"/>
-      <c r="N1" s="187"/>
-      <c r="O1" s="200"/>
+      <c r="D1" s="62"/>
+      <c r="E1" s="62"/>
+      <c r="F1" s="62"/>
+      <c r="G1" s="62"/>
+      <c r="H1" s="62"/>
+      <c r="I1" s="62"/>
+      <c r="J1" s="62"/>
+      <c r="K1" s="62"/>
+      <c r="L1" s="62"/>
+      <c r="M1" s="62"/>
+      <c r="N1" s="62"/>
+      <c r="O1" s="211"/>
     </row>
     <row r="2" spans="1:15" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="76"/>
-      <c r="B2" s="77"/>
-      <c r="C2" s="188"/>
-      <c r="D2" s="189"/>
-      <c r="E2" s="189"/>
-      <c r="F2" s="189"/>
-      <c r="G2" s="189"/>
-      <c r="H2" s="189"/>
-      <c r="I2" s="189"/>
-      <c r="J2" s="189"/>
-      <c r="K2" s="189"/>
-      <c r="L2" s="189"/>
-      <c r="M2" s="189"/>
-      <c r="N2" s="189"/>
-      <c r="O2" s="201"/>
+      <c r="A2" s="146"/>
+      <c r="B2" s="147"/>
+      <c r="C2" s="63"/>
+      <c r="D2" s="64"/>
+      <c r="E2" s="64"/>
+      <c r="F2" s="64"/>
+      <c r="G2" s="64"/>
+      <c r="H2" s="64"/>
+      <c r="I2" s="64"/>
+      <c r="J2" s="64"/>
+      <c r="K2" s="64"/>
+      <c r="L2" s="64"/>
+      <c r="M2" s="64"/>
+      <c r="N2" s="64"/>
+      <c r="O2" s="212"/>
     </row>
     <row r="3" spans="1:15" s="1" customFormat="1" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="76"/>
-      <c r="B3" s="77"/>
-      <c r="C3" s="190" t="s">
+      <c r="A3" s="146"/>
+      <c r="B3" s="147"/>
+      <c r="C3" s="65" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="191"/>
-      <c r="E3" s="191"/>
-      <c r="F3" s="191"/>
-      <c r="G3" s="191"/>
-      <c r="H3" s="191"/>
-      <c r="I3" s="191"/>
-      <c r="J3" s="191"/>
-      <c r="K3" s="191"/>
-      <c r="L3" s="191"/>
-      <c r="M3" s="191"/>
-      <c r="N3" s="191"/>
-      <c r="O3" s="202"/>
+      <c r="D3" s="66"/>
+      <c r="E3" s="66"/>
+      <c r="F3" s="66"/>
+      <c r="G3" s="66"/>
+      <c r="H3" s="66"/>
+      <c r="I3" s="66"/>
+      <c r="J3" s="66"/>
+      <c r="K3" s="66"/>
+      <c r="L3" s="66"/>
+      <c r="M3" s="66"/>
+      <c r="N3" s="66"/>
+      <c r="O3" s="213"/>
     </row>
     <row r="4" spans="1:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="221" t="s">
+      <c r="A4" s="206" t="s">
         <v>118</v>
       </c>
-      <c r="B4" s="115"/>
-      <c r="C4" s="115"/>
-      <c r="D4" s="115"/>
-      <c r="E4" s="115"/>
-      <c r="F4" s="115"/>
-      <c r="G4" s="115"/>
-      <c r="H4" s="115"/>
-      <c r="I4" s="116"/>
-      <c r="J4" s="108" t="s">
+      <c r="B4" s="177"/>
+      <c r="C4" s="177"/>
+      <c r="D4" s="177"/>
+      <c r="E4" s="177"/>
+      <c r="F4" s="177"/>
+      <c r="G4" s="177"/>
+      <c r="H4" s="177"/>
+      <c r="I4" s="178"/>
+      <c r="J4" s="170" t="s">
         <v>18</v>
       </c>
-      <c r="K4" s="109"/>
-      <c r="L4" s="109"/>
-      <c r="M4" s="109"/>
-      <c r="N4" s="109" t="s">
+      <c r="K4" s="171"/>
+      <c r="L4" s="171"/>
+      <c r="M4" s="171"/>
+      <c r="N4" s="171" t="s">
         <v>19</v>
       </c>
-      <c r="O4" s="110"/>
+      <c r="O4" s="172"/>
     </row>
     <row r="5" spans="1:15" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="117"/>
-      <c r="B5" s="118"/>
-      <c r="C5" s="118"/>
-      <c r="D5" s="118"/>
-      <c r="E5" s="118"/>
-      <c r="F5" s="118"/>
-      <c r="G5" s="118"/>
-      <c r="H5" s="118"/>
-      <c r="I5" s="119"/>
-      <c r="J5" s="103" t="str">
+      <c r="A5" s="179"/>
+      <c r="B5" s="180"/>
+      <c r="C5" s="180"/>
+      <c r="D5" s="180"/>
+      <c r="E5" s="180"/>
+      <c r="F5" s="180"/>
+      <c r="G5" s="180"/>
+      <c r="H5" s="180"/>
+      <c r="I5" s="181"/>
+      <c r="J5" s="165" t="str">
         <f>'Page 01 of 02'!J8</f>
         <v>MTV2400001-1-1</v>
       </c>
-      <c r="K5" s="104"/>
-      <c r="L5" s="104"/>
-      <c r="M5" s="104"/>
-      <c r="N5" s="101">
+      <c r="K5" s="166"/>
+      <c r="L5" s="166"/>
+      <c r="M5" s="166"/>
+      <c r="N5" s="163">
         <f>'Page 01 of 02'!M8</f>
         <v>0</v>
       </c>
-      <c r="O5" s="102"/>
+      <c r="O5" s="164"/>
     </row>
     <row r="6" spans="1:15" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="164" t="s">
+      <c r="A6" s="109" t="s">
         <v>119</v>
       </c>
-      <c r="B6" s="165"/>
-      <c r="C6" s="165"/>
-      <c r="D6" s="165"/>
-      <c r="E6" s="165"/>
-      <c r="F6" s="165"/>
-      <c r="G6" s="165"/>
-      <c r="H6" s="165"/>
-      <c r="I6" s="165"/>
-      <c r="J6" s="165"/>
-      <c r="K6" s="165"/>
-      <c r="L6" s="165"/>
-      <c r="M6" s="165"/>
-      <c r="N6" s="165"/>
-      <c r="O6" s="166"/>
+      <c r="B6" s="110"/>
+      <c r="C6" s="110"/>
+      <c r="D6" s="110"/>
+      <c r="E6" s="110"/>
+      <c r="F6" s="110"/>
+      <c r="G6" s="110"/>
+      <c r="H6" s="110"/>
+      <c r="I6" s="110"/>
+      <c r="J6" s="110"/>
+      <c r="K6" s="110"/>
+      <c r="L6" s="110"/>
+      <c r="M6" s="110"/>
+      <c r="N6" s="110"/>
+      <c r="O6" s="111"/>
     </row>
     <row r="7" spans="1:15" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="164" t="s">
+      <c r="A7" s="109" t="s">
         <v>25</v>
       </c>
-      <c r="B7" s="165"/>
-      <c r="C7" s="208" t="s">
+      <c r="B7" s="110"/>
+      <c r="C7" s="215" t="s">
         <v>65</v>
       </c>
-      <c r="D7" s="165"/>
+      <c r="D7" s="110"/>
       <c r="E7" s="24" t="s">
         <v>29</v>
       </c>
@@ -6088,342 +6088,342 @@
       <c r="J7" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="K7" s="213" t="s">
+      <c r="K7" s="220" t="s">
         <v>31</v>
       </c>
-      <c r="L7" s="214"/>
+      <c r="L7" s="221"/>
       <c r="M7" s="25"/>
       <c r="N7" s="25"/>
       <c r="O7" s="26"/>
     </row>
     <row r="8" spans="1:15" s="8" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="203"/>
-      <c r="B8" s="204"/>
-      <c r="C8" s="211"/>
-      <c r="D8" s="212"/>
+      <c r="A8" s="214"/>
+      <c r="B8" s="210"/>
+      <c r="C8" s="218"/>
+      <c r="D8" s="219"/>
       <c r="E8" s="22"/>
       <c r="F8" s="22"/>
       <c r="G8" s="22"/>
       <c r="H8" s="22"/>
       <c r="I8" s="22"/>
       <c r="J8" s="22"/>
-      <c r="K8" s="216"/>
-      <c r="L8" s="204"/>
+      <c r="K8" s="209"/>
+      <c r="L8" s="210"/>
       <c r="M8" s="22"/>
       <c r="N8" s="22"/>
       <c r="O8" s="23"/>
     </row>
     <row r="9" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="205"/>
-      <c r="B9" s="206"/>
-      <c r="C9" s="209"/>
-      <c r="D9" s="210"/>
+      <c r="A9" s="208"/>
+      <c r="B9" s="203"/>
+      <c r="C9" s="216"/>
+      <c r="D9" s="217"/>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
-      <c r="K9" s="215"/>
-      <c r="L9" s="206"/>
+      <c r="K9" s="202"/>
+      <c r="L9" s="203"/>
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
       <c r="O9" s="3"/>
     </row>
     <row r="10" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="207"/>
-      <c r="B10" s="184"/>
-      <c r="C10" s="209"/>
-      <c r="D10" s="210"/>
+      <c r="A10" s="200"/>
+      <c r="B10" s="84"/>
+      <c r="C10" s="216"/>
+      <c r="D10" s="217"/>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
-      <c r="K10" s="215"/>
-      <c r="L10" s="206"/>
+      <c r="K10" s="202"/>
+      <c r="L10" s="203"/>
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
       <c r="O10" s="3"/>
     </row>
     <row r="11" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="205"/>
-      <c r="B11" s="206"/>
-      <c r="C11" s="209"/>
-      <c r="D11" s="210"/>
+      <c r="A11" s="208"/>
+      <c r="B11" s="203"/>
+      <c r="C11" s="216"/>
+      <c r="D11" s="217"/>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
-      <c r="K11" s="215"/>
-      <c r="L11" s="206"/>
+      <c r="K11" s="202"/>
+      <c r="L11" s="203"/>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
       <c r="O11" s="3"/>
     </row>
     <row r="12" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="207"/>
-      <c r="B12" s="184"/>
-      <c r="C12" s="209"/>
-      <c r="D12" s="210"/>
+      <c r="A12" s="200"/>
+      <c r="B12" s="84"/>
+      <c r="C12" s="216"/>
+      <c r="D12" s="217"/>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
-      <c r="K12" s="215"/>
-      <c r="L12" s="206"/>
+      <c r="K12" s="202"/>
+      <c r="L12" s="203"/>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
       <c r="O12" s="3"/>
     </row>
     <row r="13" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="205"/>
-      <c r="B13" s="206"/>
-      <c r="C13" s="217"/>
-      <c r="D13" s="217"/>
+      <c r="A13" s="208"/>
+      <c r="B13" s="203"/>
+      <c r="C13" s="201"/>
+      <c r="D13" s="201"/>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
-      <c r="K13" s="215"/>
-      <c r="L13" s="206"/>
+      <c r="K13" s="202"/>
+      <c r="L13" s="203"/>
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
       <c r="O13" s="3"/>
     </row>
     <row r="14" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="207"/>
-      <c r="B14" s="184"/>
-      <c r="C14" s="217"/>
-      <c r="D14" s="217"/>
+      <c r="A14" s="200"/>
+      <c r="B14" s="84"/>
+      <c r="C14" s="201"/>
+      <c r="D14" s="201"/>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
       <c r="J14" s="2"/>
-      <c r="K14" s="215"/>
-      <c r="L14" s="206"/>
+      <c r="K14" s="202"/>
+      <c r="L14" s="203"/>
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
       <c r="O14" s="3"/>
     </row>
     <row r="15" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="205"/>
-      <c r="B15" s="206"/>
-      <c r="C15" s="217"/>
-      <c r="D15" s="217"/>
+      <c r="A15" s="208"/>
+      <c r="B15" s="203"/>
+      <c r="C15" s="201"/>
+      <c r="D15" s="201"/>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
       <c r="J15" s="2"/>
-      <c r="K15" s="215"/>
-      <c r="L15" s="206"/>
+      <c r="K15" s="202"/>
+      <c r="L15" s="203"/>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
       <c r="O15" s="3"/>
     </row>
     <row r="16" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="207"/>
-      <c r="B16" s="184"/>
-      <c r="C16" s="217"/>
-      <c r="D16" s="217"/>
+      <c r="A16" s="200"/>
+      <c r="B16" s="84"/>
+      <c r="C16" s="201"/>
+      <c r="D16" s="201"/>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
       <c r="J16" s="2"/>
-      <c r="K16" s="215"/>
-      <c r="L16" s="206"/>
+      <c r="K16" s="202"/>
+      <c r="L16" s="203"/>
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
       <c r="O16" s="3"/>
     </row>
     <row r="17" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="205"/>
-      <c r="B17" s="206"/>
-      <c r="C17" s="217"/>
-      <c r="D17" s="217"/>
+      <c r="A17" s="208"/>
+      <c r="B17" s="203"/>
+      <c r="C17" s="201"/>
+      <c r="D17" s="201"/>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
       <c r="J17" s="2"/>
-      <c r="K17" s="215"/>
-      <c r="L17" s="206"/>
+      <c r="K17" s="202"/>
+      <c r="L17" s="203"/>
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
       <c r="O17" s="3"/>
     </row>
     <row r="18" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="207"/>
-      <c r="B18" s="184"/>
-      <c r="C18" s="217"/>
-      <c r="D18" s="217"/>
+      <c r="A18" s="200"/>
+      <c r="B18" s="84"/>
+      <c r="C18" s="201"/>
+      <c r="D18" s="201"/>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
       <c r="I18" s="2"/>
       <c r="J18" s="2"/>
-      <c r="K18" s="215"/>
-      <c r="L18" s="206"/>
+      <c r="K18" s="202"/>
+      <c r="L18" s="203"/>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
       <c r="O18" s="3"/>
     </row>
     <row r="19" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="205"/>
-      <c r="B19" s="206"/>
-      <c r="C19" s="217"/>
-      <c r="D19" s="217"/>
+      <c r="A19" s="208"/>
+      <c r="B19" s="203"/>
+      <c r="C19" s="201"/>
+      <c r="D19" s="201"/>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
       <c r="H19" s="2"/>
       <c r="I19" s="2"/>
       <c r="J19" s="2"/>
-      <c r="K19" s="215"/>
-      <c r="L19" s="206"/>
+      <c r="K19" s="202"/>
+      <c r="L19" s="203"/>
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
       <c r="O19" s="3"/>
     </row>
     <row r="20" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="207"/>
-      <c r="B20" s="184"/>
-      <c r="C20" s="217"/>
-      <c r="D20" s="217"/>
+      <c r="A20" s="200"/>
+      <c r="B20" s="84"/>
+      <c r="C20" s="201"/>
+      <c r="D20" s="201"/>
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
       <c r="H20" s="2"/>
       <c r="I20" s="2"/>
       <c r="J20" s="2"/>
-      <c r="K20" s="215"/>
-      <c r="L20" s="206"/>
+      <c r="K20" s="202"/>
+      <c r="L20" s="203"/>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
       <c r="O20" s="3"/>
     </row>
     <row r="21" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="205"/>
-      <c r="B21" s="206"/>
-      <c r="C21" s="217"/>
-      <c r="D21" s="217"/>
+      <c r="A21" s="208"/>
+      <c r="B21" s="203"/>
+      <c r="C21" s="201"/>
+      <c r="D21" s="201"/>
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
       <c r="H21" s="2"/>
       <c r="I21" s="2"/>
       <c r="J21" s="2"/>
-      <c r="K21" s="215"/>
-      <c r="L21" s="206"/>
+      <c r="K21" s="202"/>
+      <c r="L21" s="203"/>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
       <c r="O21" s="3"/>
     </row>
     <row r="22" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="207"/>
-      <c r="B22" s="184"/>
-      <c r="C22" s="217"/>
-      <c r="D22" s="217"/>
+      <c r="A22" s="200"/>
+      <c r="B22" s="84"/>
+      <c r="C22" s="201"/>
+      <c r="D22" s="201"/>
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
       <c r="H22" s="2"/>
       <c r="I22" s="2"/>
       <c r="J22" s="2"/>
-      <c r="K22" s="215"/>
-      <c r="L22" s="206"/>
+      <c r="K22" s="202"/>
+      <c r="L22" s="203"/>
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
       <c r="O22" s="3"/>
     </row>
     <row r="23" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="205"/>
-      <c r="B23" s="206"/>
-      <c r="C23" s="217"/>
-      <c r="D23" s="217"/>
+      <c r="A23" s="208"/>
+      <c r="B23" s="203"/>
+      <c r="C23" s="201"/>
+      <c r="D23" s="201"/>
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
       <c r="H23" s="2"/>
       <c r="I23" s="2"/>
       <c r="J23" s="2"/>
-      <c r="K23" s="215"/>
-      <c r="L23" s="206"/>
+      <c r="K23" s="202"/>
+      <c r="L23" s="203"/>
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
       <c r="O23" s="3"/>
     </row>
     <row r="24" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="207"/>
-      <c r="B24" s="184"/>
-      <c r="C24" s="217"/>
-      <c r="D24" s="217"/>
+      <c r="A24" s="200"/>
+      <c r="B24" s="84"/>
+      <c r="C24" s="201"/>
+      <c r="D24" s="201"/>
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
       <c r="H24" s="2"/>
       <c r="I24" s="2"/>
       <c r="J24" s="2"/>
-      <c r="K24" s="215"/>
-      <c r="L24" s="206"/>
+      <c r="K24" s="202"/>
+      <c r="L24" s="203"/>
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
       <c r="O24" s="3"/>
     </row>
     <row r="25" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="207"/>
-      <c r="B25" s="184"/>
-      <c r="C25" s="217"/>
-      <c r="D25" s="217"/>
+      <c r="A25" s="200"/>
+      <c r="B25" s="84"/>
+      <c r="C25" s="201"/>
+      <c r="D25" s="201"/>
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
       <c r="H25" s="2"/>
       <c r="I25" s="2"/>
       <c r="J25" s="2"/>
-      <c r="K25" s="215"/>
-      <c r="L25" s="206"/>
+      <c r="K25" s="202"/>
+      <c r="L25" s="203"/>
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
       <c r="O25" s="3"/>
     </row>
     <row r="26" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="207"/>
-      <c r="B26" s="184"/>
-      <c r="C26" s="217"/>
-      <c r="D26" s="217"/>
+      <c r="A26" s="200"/>
+      <c r="B26" s="84"/>
+      <c r="C26" s="201"/>
+      <c r="D26" s="201"/>
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
       <c r="G26" s="2"/>
       <c r="H26" s="2"/>
       <c r="I26" s="2"/>
       <c r="J26" s="2"/>
-      <c r="K26" s="215"/>
-      <c r="L26" s="206"/>
+      <c r="K26" s="202"/>
+      <c r="L26" s="203"/>
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
       <c r="O26" s="3"/>
     </row>
     <row r="27" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="207"/>
-      <c r="B27" s="184"/>
-      <c r="C27" s="217"/>
-      <c r="D27" s="217"/>
+      <c r="A27" s="200"/>
+      <c r="B27" s="84"/>
+      <c r="C27" s="201"/>
+      <c r="D27" s="201"/>
       <c r="E27" s="2"/>
       <c r="F27" s="2"/>
       <c r="G27" s="2"/>
@@ -6437,10 +6437,10 @@
       <c r="O27" s="3"/>
     </row>
     <row r="28" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="207"/>
-      <c r="B28" s="184"/>
-      <c r="C28" s="217"/>
-      <c r="D28" s="217"/>
+      <c r="A28" s="200"/>
+      <c r="B28" s="84"/>
+      <c r="C28" s="201"/>
+      <c r="D28" s="201"/>
       <c r="E28" s="2"/>
       <c r="F28" s="2"/>
       <c r="G28" s="2"/>
@@ -6454,10 +6454,10 @@
       <c r="O28" s="3"/>
     </row>
     <row r="29" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="207"/>
-      <c r="B29" s="184"/>
-      <c r="C29" s="217"/>
-      <c r="D29" s="217"/>
+      <c r="A29" s="200"/>
+      <c r="B29" s="84"/>
+      <c r="C29" s="201"/>
+      <c r="D29" s="201"/>
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
       <c r="G29" s="2"/>
@@ -6471,10 +6471,10 @@
       <c r="O29" s="3"/>
     </row>
     <row r="30" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="207"/>
-      <c r="B30" s="184"/>
-      <c r="C30" s="217"/>
-      <c r="D30" s="217"/>
+      <c r="A30" s="200"/>
+      <c r="B30" s="84"/>
+      <c r="C30" s="201"/>
+      <c r="D30" s="201"/>
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
       <c r="G30" s="2"/>
@@ -6488,10 +6488,10 @@
       <c r="O30" s="3"/>
     </row>
     <row r="31" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="207"/>
-      <c r="B31" s="184"/>
-      <c r="C31" s="217"/>
-      <c r="D31" s="217"/>
+      <c r="A31" s="200"/>
+      <c r="B31" s="84"/>
+      <c r="C31" s="201"/>
+      <c r="D31" s="201"/>
       <c r="E31" s="2"/>
       <c r="F31" s="2"/>
       <c r="G31" s="2"/>
@@ -6505,10 +6505,10 @@
       <c r="O31" s="3"/>
     </row>
     <row r="32" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="207"/>
-      <c r="B32" s="184"/>
-      <c r="C32" s="217"/>
-      <c r="D32" s="217"/>
+      <c r="A32" s="200"/>
+      <c r="B32" s="84"/>
+      <c r="C32" s="201"/>
+      <c r="D32" s="201"/>
       <c r="E32" s="2"/>
       <c r="F32" s="2"/>
       <c r="G32" s="2"/>
@@ -6522,262 +6522,262 @@
       <c r="O32" s="3"/>
     </row>
     <row r="33" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="207"/>
-      <c r="B33" s="184"/>
-      <c r="C33" s="217"/>
-      <c r="D33" s="217"/>
+      <c r="A33" s="200"/>
+      <c r="B33" s="84"/>
+      <c r="C33" s="201"/>
+      <c r="D33" s="201"/>
       <c r="E33" s="2"/>
       <c r="F33" s="2"/>
       <c r="G33" s="2"/>
       <c r="H33" s="2"/>
       <c r="I33" s="2"/>
       <c r="J33" s="2"/>
-      <c r="K33" s="215"/>
-      <c r="L33" s="206"/>
+      <c r="K33" s="202"/>
+      <c r="L33" s="203"/>
       <c r="M33" s="2"/>
       <c r="N33" s="2"/>
       <c r="O33" s="3"/>
     </row>
     <row r="34" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="207"/>
-      <c r="B34" s="184"/>
-      <c r="C34" s="217"/>
-      <c r="D34" s="217"/>
+      <c r="A34" s="200"/>
+      <c r="B34" s="84"/>
+      <c r="C34" s="201"/>
+      <c r="D34" s="201"/>
       <c r="E34" s="2"/>
       <c r="F34" s="2"/>
       <c r="G34" s="2"/>
       <c r="H34" s="2"/>
       <c r="I34" s="2"/>
       <c r="J34" s="2"/>
-      <c r="K34" s="215"/>
-      <c r="L34" s="206"/>
+      <c r="K34" s="202"/>
+      <c r="L34" s="203"/>
       <c r="M34" s="2"/>
       <c r="N34" s="2"/>
       <c r="O34" s="3"/>
     </row>
     <row r="35" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="207"/>
-      <c r="B35" s="184"/>
-      <c r="C35" s="217"/>
-      <c r="D35" s="217"/>
+      <c r="A35" s="200"/>
+      <c r="B35" s="84"/>
+      <c r="C35" s="201"/>
+      <c r="D35" s="201"/>
       <c r="E35" s="2"/>
       <c r="F35" s="2"/>
       <c r="G35" s="2"/>
       <c r="H35" s="2"/>
       <c r="I35" s="2"/>
       <c r="J35" s="2"/>
-      <c r="K35" s="215"/>
-      <c r="L35" s="206"/>
+      <c r="K35" s="202"/>
+      <c r="L35" s="203"/>
       <c r="M35" s="2"/>
       <c r="N35" s="2"/>
       <c r="O35" s="3"/>
     </row>
     <row r="36" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="207"/>
-      <c r="B36" s="184"/>
-      <c r="C36" s="217"/>
-      <c r="D36" s="217"/>
+      <c r="A36" s="200"/>
+      <c r="B36" s="84"/>
+      <c r="C36" s="201"/>
+      <c r="D36" s="201"/>
       <c r="E36" s="2"/>
       <c r="F36" s="2"/>
       <c r="G36" s="2"/>
       <c r="H36" s="2"/>
       <c r="I36" s="2"/>
       <c r="J36" s="2"/>
-      <c r="K36" s="215"/>
-      <c r="L36" s="206"/>
+      <c r="K36" s="202"/>
+      <c r="L36" s="203"/>
       <c r="M36" s="2"/>
       <c r="N36" s="2"/>
       <c r="O36" s="3"/>
     </row>
     <row r="37" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="207"/>
-      <c r="B37" s="184"/>
-      <c r="C37" s="217"/>
-      <c r="D37" s="217"/>
+      <c r="A37" s="200"/>
+      <c r="B37" s="84"/>
+      <c r="C37" s="201"/>
+      <c r="D37" s="201"/>
       <c r="E37" s="2"/>
       <c r="F37" s="2"/>
       <c r="G37" s="2"/>
       <c r="H37" s="2"/>
       <c r="I37" s="2"/>
       <c r="J37" s="2"/>
-      <c r="K37" s="215"/>
-      <c r="L37" s="206"/>
+      <c r="K37" s="202"/>
+      <c r="L37" s="203"/>
       <c r="M37" s="2"/>
       <c r="N37" s="2"/>
       <c r="O37" s="3"/>
     </row>
     <row r="38" spans="1:15" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="207"/>
-      <c r="B38" s="184"/>
-      <c r="C38" s="219"/>
-      <c r="D38" s="220"/>
+      <c r="A38" s="200"/>
+      <c r="B38" s="84"/>
+      <c r="C38" s="204"/>
+      <c r="D38" s="205"/>
       <c r="E38" s="2"/>
       <c r="F38" s="2"/>
       <c r="G38" s="2"/>
       <c r="H38" s="2"/>
       <c r="I38" s="2"/>
       <c r="J38" s="2"/>
-      <c r="K38" s="219"/>
-      <c r="L38" s="220"/>
+      <c r="K38" s="204"/>
+      <c r="L38" s="205"/>
       <c r="M38" s="2"/>
       <c r="N38" s="2"/>
       <c r="O38" s="3"/>
     </row>
     <row r="39" spans="1:15" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="71" t="s">
+      <c r="A39" s="125" t="s">
         <v>2</v>
       </c>
-      <c r="B39" s="72"/>
-      <c r="C39" s="72"/>
-      <c r="D39" s="72"/>
-      <c r="E39" s="72"/>
-      <c r="F39" s="72"/>
-      <c r="G39" s="72"/>
-      <c r="H39" s="72"/>
-      <c r="I39" s="72"/>
-      <c r="J39" s="72"/>
-      <c r="K39" s="72"/>
-      <c r="L39" s="72"/>
-      <c r="M39" s="72"/>
-      <c r="N39" s="72"/>
-      <c r="O39" s="73"/>
+      <c r="B39" s="126"/>
+      <c r="C39" s="126"/>
+      <c r="D39" s="126"/>
+      <c r="E39" s="126"/>
+      <c r="F39" s="126"/>
+      <c r="G39" s="126"/>
+      <c r="H39" s="126"/>
+      <c r="I39" s="126"/>
+      <c r="J39" s="126"/>
+      <c r="K39" s="126"/>
+      <c r="L39" s="126"/>
+      <c r="M39" s="126"/>
+      <c r="N39" s="126"/>
+      <c r="O39" s="127"/>
     </row>
     <row r="40" spans="1:15" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="140" t="s">
+      <c r="A40" s="116" t="s">
         <v>98</v>
       </c>
-      <c r="B40" s="141"/>
-      <c r="C40" s="141"/>
-      <c r="D40" s="141"/>
-      <c r="E40" s="141"/>
-      <c r="F40" s="141"/>
-      <c r="G40" s="141"/>
-      <c r="H40" s="141"/>
-      <c r="I40" s="141"/>
-      <c r="J40" s="141"/>
-      <c r="K40" s="141"/>
-      <c r="L40" s="141"/>
-      <c r="M40" s="141"/>
-      <c r="N40" s="141"/>
-      <c r="O40" s="142"/>
+      <c r="B40" s="117"/>
+      <c r="C40" s="117"/>
+      <c r="D40" s="117"/>
+      <c r="E40" s="117"/>
+      <c r="F40" s="117"/>
+      <c r="G40" s="117"/>
+      <c r="H40" s="117"/>
+      <c r="I40" s="117"/>
+      <c r="J40" s="117"/>
+      <c r="K40" s="117"/>
+      <c r="L40" s="117"/>
+      <c r="M40" s="117"/>
+      <c r="N40" s="117"/>
+      <c r="O40" s="118"/>
     </row>
     <row r="41" spans="1:15" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="143"/>
-      <c r="B41" s="144"/>
-      <c r="C41" s="144"/>
-      <c r="D41" s="144"/>
-      <c r="E41" s="144"/>
-      <c r="F41" s="144"/>
-      <c r="G41" s="144"/>
-      <c r="H41" s="144"/>
-      <c r="I41" s="144"/>
-      <c r="J41" s="144"/>
-      <c r="K41" s="144"/>
-      <c r="L41" s="144"/>
-      <c r="M41" s="144"/>
-      <c r="N41" s="144"/>
-      <c r="O41" s="145"/>
+      <c r="A41" s="119"/>
+      <c r="B41" s="120"/>
+      <c r="C41" s="120"/>
+      <c r="D41" s="120"/>
+      <c r="E41" s="120"/>
+      <c r="F41" s="120"/>
+      <c r="G41" s="120"/>
+      <c r="H41" s="120"/>
+      <c r="I41" s="120"/>
+      <c r="J41" s="120"/>
+      <c r="K41" s="120"/>
+      <c r="L41" s="120"/>
+      <c r="M41" s="120"/>
+      <c r="N41" s="120"/>
+      <c r="O41" s="121"/>
     </row>
     <row r="42" spans="1:15" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="160" t="s">
+      <c r="A42" s="104" t="s">
         <v>15</v>
       </c>
-      <c r="B42" s="161"/>
-      <c r="C42" s="161"/>
-      <c r="D42" s="161"/>
-      <c r="E42" s="161" t="s">
+      <c r="B42" s="105"/>
+      <c r="C42" s="105"/>
+      <c r="D42" s="105"/>
+      <c r="E42" s="105" t="s">
         <v>16</v>
       </c>
-      <c r="F42" s="161"/>
-      <c r="G42" s="161"/>
-      <c r="H42" s="161"/>
-      <c r="I42" s="161"/>
-      <c r="J42" s="161"/>
-      <c r="K42" s="161" t="s">
+      <c r="F42" s="105"/>
+      <c r="G42" s="105"/>
+      <c r="H42" s="105"/>
+      <c r="I42" s="105"/>
+      <c r="J42" s="105"/>
+      <c r="K42" s="105" t="s">
         <v>17</v>
       </c>
-      <c r="L42" s="161"/>
-      <c r="M42" s="161"/>
-      <c r="N42" s="161"/>
-      <c r="O42" s="162"/>
+      <c r="L42" s="105"/>
+      <c r="M42" s="105"/>
+      <c r="N42" s="105"/>
+      <c r="O42" s="106"/>
     </row>
     <row r="43" spans="1:15" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="158"/>
-      <c r="B43" s="135"/>
-      <c r="C43" s="135"/>
-      <c r="D43" s="159"/>
-      <c r="E43" s="134"/>
-      <c r="F43" s="135"/>
-      <c r="G43" s="135"/>
-      <c r="H43" s="135"/>
-      <c r="I43" s="135"/>
-      <c r="J43" s="159"/>
-      <c r="K43" s="134"/>
-      <c r="L43" s="135"/>
-      <c r="M43" s="135"/>
-      <c r="N43" s="135"/>
-      <c r="O43" s="136"/>
+      <c r="A43" s="97"/>
+      <c r="B43" s="98"/>
+      <c r="C43" s="98"/>
+      <c r="D43" s="99"/>
+      <c r="E43" s="100"/>
+      <c r="F43" s="98"/>
+      <c r="G43" s="98"/>
+      <c r="H43" s="98"/>
+      <c r="I43" s="98"/>
+      <c r="J43" s="99"/>
+      <c r="K43" s="100"/>
+      <c r="L43" s="98"/>
+      <c r="M43" s="98"/>
+      <c r="N43" s="98"/>
+      <c r="O43" s="115"/>
     </row>
     <row r="44" spans="1:15" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="153"/>
+      <c r="A44" s="87"/>
       <c r="B44" s="55"/>
       <c r="C44" s="55"/>
-      <c r="D44" s="154"/>
-      <c r="E44" s="137"/>
+      <c r="D44" s="88"/>
+      <c r="E44" s="89"/>
       <c r="F44" s="55"/>
       <c r="G44" s="55"/>
       <c r="H44" s="55"/>
       <c r="I44" s="55"/>
-      <c r="J44" s="154"/>
-      <c r="K44" s="137"/>
+      <c r="J44" s="88"/>
+      <c r="K44" s="89"/>
       <c r="L44" s="55"/>
       <c r="M44" s="55"/>
       <c r="N44" s="55"/>
-      <c r="O44" s="138"/>
+      <c r="O44" s="90"/>
     </row>
     <row r="45" spans="1:15" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="153"/>
+      <c r="A45" s="87"/>
       <c r="B45" s="55"/>
       <c r="C45" s="55"/>
-      <c r="D45" s="154"/>
-      <c r="E45" s="137"/>
+      <c r="D45" s="88"/>
+      <c r="E45" s="89"/>
       <c r="F45" s="55"/>
       <c r="G45" s="55"/>
       <c r="H45" s="55"/>
       <c r="I45" s="55"/>
-      <c r="J45" s="154"/>
-      <c r="K45" s="137"/>
+      <c r="J45" s="88"/>
+      <c r="K45" s="89"/>
       <c r="L45" s="55"/>
       <c r="M45" s="55"/>
       <c r="N45" s="55"/>
-      <c r="O45" s="138"/>
+      <c r="O45" s="90"/>
     </row>
     <row r="46" spans="1:15" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="153"/>
+      <c r="A46" s="87"/>
       <c r="B46" s="55"/>
       <c r="C46" s="55"/>
-      <c r="D46" s="154"/>
-      <c r="E46" s="137"/>
+      <c r="D46" s="88"/>
+      <c r="E46" s="89"/>
       <c r="F46" s="55"/>
       <c r="G46" s="55"/>
       <c r="H46" s="55"/>
       <c r="I46" s="55"/>
-      <c r="J46" s="154"/>
-      <c r="K46" s="137"/>
+      <c r="J46" s="88"/>
+      <c r="K46" s="89"/>
       <c r="L46" s="55"/>
       <c r="M46" s="55"/>
       <c r="N46" s="55"/>
-      <c r="O46" s="138"/>
+      <c r="O46" s="90"/>
     </row>
     <row r="47" spans="1:15" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="153">
+      <c r="A47" s="87">
         <f>'Page 01 of 02'!A55</f>
         <v>0</v>
       </c>
       <c r="B47" s="55"/>
       <c r="C47" s="55"/>
-      <c r="D47" s="154"/>
-      <c r="E47" s="137">
+      <c r="D47" s="88"/>
+      <c r="E47" s="89">
         <f>'Page 01 of 02'!E55</f>
         <v>0</v>
       </c>
@@ -6785,35 +6785,35 @@
       <c r="G47" s="55"/>
       <c r="H47" s="55"/>
       <c r="I47" s="55"/>
-      <c r="J47" s="154"/>
-      <c r="K47" s="137"/>
+      <c r="J47" s="88"/>
+      <c r="K47" s="89"/>
       <c r="L47" s="55"/>
       <c r="M47" s="55"/>
       <c r="N47" s="55"/>
-      <c r="O47" s="138"/>
+      <c r="O47" s="90"/>
     </row>
     <row r="48" spans="1:15" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="218">
+      <c r="A48" s="207">
         <f>'Page 01 of 02'!A56</f>
         <v>0</v>
       </c>
-      <c r="B48" s="66"/>
-      <c r="C48" s="66"/>
-      <c r="D48" s="156"/>
-      <c r="E48" s="65">
+      <c r="B48" s="92"/>
+      <c r="C48" s="92"/>
+      <c r="D48" s="93"/>
+      <c r="E48" s="95">
         <f>'Page 01 of 02'!E56</f>
         <v>0</v>
       </c>
-      <c r="F48" s="66"/>
-      <c r="G48" s="66"/>
-      <c r="H48" s="66"/>
-      <c r="I48" s="66"/>
-      <c r="J48" s="156"/>
-      <c r="K48" s="65"/>
-      <c r="L48" s="66"/>
-      <c r="M48" s="66"/>
-      <c r="N48" s="66"/>
-      <c r="O48" s="67"/>
+      <c r="F48" s="92"/>
+      <c r="G48" s="92"/>
+      <c r="H48" s="92"/>
+      <c r="I48" s="92"/>
+      <c r="J48" s="93"/>
+      <c r="K48" s="95"/>
+      <c r="L48" s="92"/>
+      <c r="M48" s="92"/>
+      <c r="N48" s="92"/>
+      <c r="O48" s="96"/>
     </row>
     <row r="49" spans="1:15" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A49" s="28" t="s">
@@ -6828,74 +6828,27 @@
     </row>
   </sheetData>
   <mergeCells count="113">
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="K13:L13"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="K26:L26"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="K17:L17"/>
-    <mergeCell ref="J4:M4"/>
-    <mergeCell ref="A4:I5"/>
-    <mergeCell ref="K36:L36"/>
-    <mergeCell ref="K37:L37"/>
-    <mergeCell ref="K38:L38"/>
-    <mergeCell ref="K18:L18"/>
-    <mergeCell ref="K19:L19"/>
-    <mergeCell ref="K20:L20"/>
-    <mergeCell ref="K21:L21"/>
-    <mergeCell ref="K22:L22"/>
-    <mergeCell ref="K23:L23"/>
-    <mergeCell ref="K24:L24"/>
-    <mergeCell ref="K25:L25"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="A47:D47"/>
-    <mergeCell ref="A48:D48"/>
-    <mergeCell ref="E47:J47"/>
-    <mergeCell ref="E48:J48"/>
-    <mergeCell ref="K47:O47"/>
-    <mergeCell ref="K48:O48"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="A43:D46"/>
-    <mergeCell ref="E43:J46"/>
-    <mergeCell ref="K43:O46"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="K34:L34"/>
-    <mergeCell ref="K35:L35"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="A39:O39"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="K14:L14"/>
-    <mergeCell ref="K15:L15"/>
-    <mergeCell ref="K16:L16"/>
+    <mergeCell ref="C1:O2"/>
+    <mergeCell ref="C3:O3"/>
+    <mergeCell ref="A1:B3"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="J5:M5"/>
+    <mergeCell ref="N5:O5"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="K9:L9"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="K12:L12"/>
+    <mergeCell ref="N4:O4"/>
     <mergeCell ref="A40:O41"/>
     <mergeCell ref="A42:D42"/>
     <mergeCell ref="E42:J42"/>
@@ -6920,27 +6873,74 @@
     <mergeCell ref="A23:B23"/>
     <mergeCell ref="A25:B25"/>
     <mergeCell ref="K33:L33"/>
-    <mergeCell ref="C1:O2"/>
-    <mergeCell ref="C3:O3"/>
-    <mergeCell ref="A1:B3"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="J5:M5"/>
-    <mergeCell ref="N5:O5"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="K9:L9"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="K11:L11"/>
-    <mergeCell ref="K12:L12"/>
-    <mergeCell ref="N4:O4"/>
+    <mergeCell ref="A47:D47"/>
+    <mergeCell ref="A48:D48"/>
+    <mergeCell ref="E47:J47"/>
+    <mergeCell ref="E48:J48"/>
+    <mergeCell ref="K47:O47"/>
+    <mergeCell ref="K48:O48"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="A43:D46"/>
+    <mergeCell ref="E43:J46"/>
+    <mergeCell ref="K43:O46"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="K34:L34"/>
+    <mergeCell ref="K35:L35"/>
+    <mergeCell ref="A39:O39"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="K17:L17"/>
+    <mergeCell ref="J4:M4"/>
+    <mergeCell ref="A4:I5"/>
+    <mergeCell ref="K36:L36"/>
+    <mergeCell ref="K37:L37"/>
+    <mergeCell ref="K38:L38"/>
+    <mergeCell ref="K18:L18"/>
+    <mergeCell ref="K19:L19"/>
+    <mergeCell ref="K20:L20"/>
+    <mergeCell ref="K21:L21"/>
+    <mergeCell ref="K22:L22"/>
+    <mergeCell ref="K23:L23"/>
+    <mergeCell ref="K24:L24"/>
+    <mergeCell ref="K25:L25"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="K13:L13"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="K26:L26"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="K14:L14"/>
+    <mergeCell ref="K15:L15"/>
+    <mergeCell ref="K16:L16"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -6978,299 +6978,299 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="74"/>
-      <c r="B1" s="236"/>
-      <c r="C1" s="75"/>
-      <c r="D1" s="186" t="s">
+      <c r="A1" s="144"/>
+      <c r="B1" s="284"/>
+      <c r="C1" s="145"/>
+      <c r="D1" s="61" t="s">
         <v>86</v>
       </c>
-      <c r="E1" s="187"/>
-      <c r="F1" s="187"/>
-      <c r="G1" s="187"/>
-      <c r="H1" s="187"/>
-      <c r="I1" s="187"/>
-      <c r="J1" s="187"/>
-      <c r="K1" s="187"/>
-      <c r="L1" s="187"/>
-      <c r="M1" s="187"/>
-      <c r="N1" s="187"/>
-      <c r="O1" s="187"/>
-      <c r="P1" s="187"/>
-      <c r="Q1" s="187"/>
-      <c r="R1" s="187"/>
-      <c r="S1" s="187"/>
-      <c r="T1" s="187"/>
-      <c r="U1" s="187"/>
-      <c r="V1" s="187"/>
-      <c r="W1" s="200"/>
+      <c r="E1" s="62"/>
+      <c r="F1" s="62"/>
+      <c r="G1" s="62"/>
+      <c r="H1" s="62"/>
+      <c r="I1" s="62"/>
+      <c r="J1" s="62"/>
+      <c r="K1" s="62"/>
+      <c r="L1" s="62"/>
+      <c r="M1" s="62"/>
+      <c r="N1" s="62"/>
+      <c r="O1" s="62"/>
+      <c r="P1" s="62"/>
+      <c r="Q1" s="62"/>
+      <c r="R1" s="62"/>
+      <c r="S1" s="62"/>
+      <c r="T1" s="62"/>
+      <c r="U1" s="62"/>
+      <c r="V1" s="62"/>
+      <c r="W1" s="211"/>
     </row>
     <row r="2" spans="1:23" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="76"/>
+      <c r="A2" s="146"/>
       <c r="B2" s="56"/>
-      <c r="C2" s="77"/>
-      <c r="D2" s="188"/>
-      <c r="E2" s="189"/>
-      <c r="F2" s="189"/>
-      <c r="G2" s="189"/>
-      <c r="H2" s="189"/>
-      <c r="I2" s="189"/>
-      <c r="J2" s="189"/>
-      <c r="K2" s="189"/>
-      <c r="L2" s="189"/>
-      <c r="M2" s="189"/>
-      <c r="N2" s="189"/>
-      <c r="O2" s="189"/>
-      <c r="P2" s="189"/>
-      <c r="Q2" s="189"/>
-      <c r="R2" s="189"/>
-      <c r="S2" s="189"/>
-      <c r="T2" s="189"/>
-      <c r="U2" s="189"/>
-      <c r="V2" s="189"/>
-      <c r="W2" s="201"/>
+      <c r="C2" s="147"/>
+      <c r="D2" s="63"/>
+      <c r="E2" s="64"/>
+      <c r="F2" s="64"/>
+      <c r="G2" s="64"/>
+      <c r="H2" s="64"/>
+      <c r="I2" s="64"/>
+      <c r="J2" s="64"/>
+      <c r="K2" s="64"/>
+      <c r="L2" s="64"/>
+      <c r="M2" s="64"/>
+      <c r="N2" s="64"/>
+      <c r="O2" s="64"/>
+      <c r="P2" s="64"/>
+      <c r="Q2" s="64"/>
+      <c r="R2" s="64"/>
+      <c r="S2" s="64"/>
+      <c r="T2" s="64"/>
+      <c r="U2" s="64"/>
+      <c r="V2" s="64"/>
+      <c r="W2" s="212"/>
     </row>
     <row r="3" spans="1:23" s="1" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="76"/>
+      <c r="A3" s="146"/>
       <c r="B3" s="56"/>
-      <c r="C3" s="77"/>
-      <c r="D3" s="190" t="s">
+      <c r="C3" s="147"/>
+      <c r="D3" s="65" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="191"/>
-      <c r="F3" s="191"/>
-      <c r="G3" s="191"/>
-      <c r="H3" s="191"/>
-      <c r="I3" s="191"/>
-      <c r="J3" s="191"/>
-      <c r="K3" s="191"/>
-      <c r="L3" s="191"/>
-      <c r="M3" s="191"/>
-      <c r="N3" s="191"/>
-      <c r="O3" s="191"/>
-      <c r="P3" s="191"/>
-      <c r="Q3" s="191"/>
-      <c r="R3" s="191"/>
-      <c r="S3" s="191"/>
-      <c r="T3" s="191"/>
-      <c r="U3" s="191"/>
-      <c r="V3" s="191"/>
-      <c r="W3" s="202"/>
+      <c r="E3" s="66"/>
+      <c r="F3" s="66"/>
+      <c r="G3" s="66"/>
+      <c r="H3" s="66"/>
+      <c r="I3" s="66"/>
+      <c r="J3" s="66"/>
+      <c r="K3" s="66"/>
+      <c r="L3" s="66"/>
+      <c r="M3" s="66"/>
+      <c r="N3" s="66"/>
+      <c r="O3" s="66"/>
+      <c r="P3" s="66"/>
+      <c r="Q3" s="66"/>
+      <c r="R3" s="66"/>
+      <c r="S3" s="66"/>
+      <c r="T3" s="66"/>
+      <c r="U3" s="66"/>
+      <c r="V3" s="66"/>
+      <c r="W3" s="213"/>
     </row>
     <row r="4" spans="1:23" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="78"/>
-      <c r="B4" s="237"/>
-      <c r="C4" s="79"/>
-      <c r="D4" s="68" t="s">
+      <c r="A4" s="148"/>
+      <c r="B4" s="285"/>
+      <c r="C4" s="149"/>
+      <c r="D4" s="141" t="s">
         <v>72</v>
       </c>
-      <c r="E4" s="69"/>
-      <c r="F4" s="69"/>
-      <c r="G4" s="69"/>
-      <c r="H4" s="69"/>
-      <c r="I4" s="69"/>
-      <c r="J4" s="69"/>
-      <c r="K4" s="69"/>
-      <c r="L4" s="69"/>
-      <c r="M4" s="69"/>
-      <c r="N4" s="69"/>
-      <c r="O4" s="69"/>
-      <c r="P4" s="69"/>
-      <c r="Q4" s="69"/>
-      <c r="R4" s="69"/>
-      <c r="S4" s="69"/>
-      <c r="T4" s="70"/>
-      <c r="U4" s="227" t="s">
+      <c r="E4" s="142"/>
+      <c r="F4" s="142"/>
+      <c r="G4" s="142"/>
+      <c r="H4" s="142"/>
+      <c r="I4" s="142"/>
+      <c r="J4" s="142"/>
+      <c r="K4" s="142"/>
+      <c r="L4" s="142"/>
+      <c r="M4" s="142"/>
+      <c r="N4" s="142"/>
+      <c r="O4" s="142"/>
+      <c r="P4" s="142"/>
+      <c r="Q4" s="142"/>
+      <c r="R4" s="142"/>
+      <c r="S4" s="142"/>
+      <c r="T4" s="143"/>
+      <c r="U4" s="277" t="s">
         <v>54</v>
       </c>
-      <c r="V4" s="228"/>
-      <c r="W4" s="229"/>
+      <c r="V4" s="235"/>
+      <c r="W4" s="278"/>
     </row>
     <row r="5" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="233" t="s">
+      <c r="A5" s="247" t="s">
         <v>22</v>
       </c>
-      <c r="B5" s="233"/>
-      <c r="C5" s="233"/>
-      <c r="D5" s="233"/>
-      <c r="E5" s="233"/>
-      <c r="F5" s="233"/>
-      <c r="G5" s="233"/>
-      <c r="H5" s="233"/>
-      <c r="I5" s="233"/>
-      <c r="J5" s="233"/>
-      <c r="K5" s="233"/>
-      <c r="L5" s="233"/>
-      <c r="M5" s="233"/>
-      <c r="N5" s="233"/>
-      <c r="O5" s="233" t="s">
+      <c r="B5" s="247"/>
+      <c r="C5" s="247"/>
+      <c r="D5" s="247"/>
+      <c r="E5" s="247"/>
+      <c r="F5" s="247"/>
+      <c r="G5" s="247"/>
+      <c r="H5" s="247"/>
+      <c r="I5" s="247"/>
+      <c r="J5" s="247"/>
+      <c r="K5" s="247"/>
+      <c r="L5" s="247"/>
+      <c r="M5" s="247"/>
+      <c r="N5" s="247"/>
+      <c r="O5" s="247" t="s">
         <v>97</v>
       </c>
-      <c r="P5" s="233"/>
-      <c r="Q5" s="233"/>
-      <c r="R5" s="233"/>
-      <c r="S5" s="233"/>
-      <c r="T5" s="233"/>
-      <c r="U5" s="233"/>
-      <c r="V5" s="233"/>
-      <c r="W5" s="233"/>
+      <c r="P5" s="247"/>
+      <c r="Q5" s="247"/>
+      <c r="R5" s="247"/>
+      <c r="S5" s="247"/>
+      <c r="T5" s="247"/>
+      <c r="U5" s="247"/>
+      <c r="V5" s="247"/>
+      <c r="W5" s="247"/>
     </row>
     <row r="6" spans="1:23" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="234" t="str">
+      <c r="A6" s="282" t="str">
         <f>'Page 01 of 02'!A6</f>
         <v>Address: Plot# 3009-lT01/ Building C09-16 &amp; 41-48, PO Box # 149162, Al Markaz Phase 1, Abu Dhabi – UAE.
 Web: www.mtfluid.com</v>
       </c>
-      <c r="B6" s="234"/>
-      <c r="C6" s="234"/>
-      <c r="D6" s="234"/>
-      <c r="E6" s="234"/>
-      <c r="F6" s="234"/>
-      <c r="G6" s="234"/>
-      <c r="H6" s="234"/>
-      <c r="I6" s="234"/>
-      <c r="J6" s="234"/>
-      <c r="K6" s="234"/>
-      <c r="L6" s="234"/>
-      <c r="M6" s="234"/>
-      <c r="N6" s="234"/>
-      <c r="O6" s="262" t="str">
+      <c r="B6" s="282"/>
+      <c r="C6" s="282"/>
+      <c r="D6" s="282"/>
+      <c r="E6" s="282"/>
+      <c r="F6" s="282"/>
+      <c r="G6" s="282"/>
+      <c r="H6" s="282"/>
+      <c r="I6" s="282"/>
+      <c r="J6" s="282"/>
+      <c r="K6" s="282"/>
+      <c r="L6" s="282"/>
+      <c r="M6" s="282"/>
+      <c r="N6" s="282"/>
+      <c r="O6" s="248" t="str">
         <f>'Page 01 of 02'!J6</f>
         <v>ISO 9001:2015</v>
       </c>
-      <c r="P6" s="263"/>
-      <c r="Q6" s="263"/>
-      <c r="R6" s="263"/>
-      <c r="S6" s="264"/>
-      <c r="T6" s="264"/>
-      <c r="U6" s="264"/>
-      <c r="V6" s="264"/>
-      <c r="W6" s="265"/>
+      <c r="P6" s="249"/>
+      <c r="Q6" s="249"/>
+      <c r="R6" s="249"/>
+      <c r="S6" s="250"/>
+      <c r="T6" s="250"/>
+      <c r="U6" s="250"/>
+      <c r="V6" s="250"/>
+      <c r="W6" s="251"/>
     </row>
     <row r="7" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="234"/>
-      <c r="B7" s="234"/>
-      <c r="C7" s="234"/>
-      <c r="D7" s="234"/>
-      <c r="E7" s="234"/>
-      <c r="F7" s="234"/>
-      <c r="G7" s="234"/>
-      <c r="H7" s="234"/>
-      <c r="I7" s="234"/>
-      <c r="J7" s="234"/>
-      <c r="K7" s="234"/>
-      <c r="L7" s="234"/>
-      <c r="M7" s="234"/>
-      <c r="N7" s="234"/>
-      <c r="O7" s="108" t="s">
+      <c r="A7" s="282"/>
+      <c r="B7" s="282"/>
+      <c r="C7" s="282"/>
+      <c r="D7" s="282"/>
+      <c r="E7" s="282"/>
+      <c r="F7" s="282"/>
+      <c r="G7" s="282"/>
+      <c r="H7" s="282"/>
+      <c r="I7" s="282"/>
+      <c r="J7" s="282"/>
+      <c r="K7" s="282"/>
+      <c r="L7" s="282"/>
+      <c r="M7" s="282"/>
+      <c r="N7" s="282"/>
+      <c r="O7" s="170" t="s">
         <v>18</v>
       </c>
-      <c r="P7" s="266"/>
-      <c r="Q7" s="266"/>
-      <c r="R7" s="266"/>
-      <c r="S7" s="109"/>
-      <c r="T7" s="109"/>
-      <c r="U7" s="109" t="s">
+      <c r="P7" s="252"/>
+      <c r="Q7" s="252"/>
+      <c r="R7" s="252"/>
+      <c r="S7" s="171"/>
+      <c r="T7" s="171"/>
+      <c r="U7" s="171" t="s">
         <v>19</v>
       </c>
-      <c r="V7" s="109"/>
-      <c r="W7" s="110"/>
+      <c r="V7" s="171"/>
+      <c r="W7" s="172"/>
     </row>
     <row r="8" spans="1:23" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="235"/>
-      <c r="B8" s="235"/>
-      <c r="C8" s="235"/>
-      <c r="D8" s="235"/>
-      <c r="E8" s="235"/>
-      <c r="F8" s="235"/>
-      <c r="G8" s="235"/>
-      <c r="H8" s="235"/>
-      <c r="I8" s="235"/>
-      <c r="J8" s="235"/>
-      <c r="K8" s="235"/>
-      <c r="L8" s="235"/>
-      <c r="M8" s="235"/>
-      <c r="N8" s="235"/>
-      <c r="O8" s="267" t="str">
+      <c r="A8" s="283"/>
+      <c r="B8" s="283"/>
+      <c r="C8" s="283"/>
+      <c r="D8" s="283"/>
+      <c r="E8" s="283"/>
+      <c r="F8" s="283"/>
+      <c r="G8" s="283"/>
+      <c r="H8" s="283"/>
+      <c r="I8" s="283"/>
+      <c r="J8" s="283"/>
+      <c r="K8" s="283"/>
+      <c r="L8" s="283"/>
+      <c r="M8" s="283"/>
+      <c r="N8" s="283"/>
+      <c r="O8" s="253" t="str">
         <f>'Page 01 of 02'!J8</f>
         <v>MTV2400001-1-1</v>
       </c>
-      <c r="P8" s="220"/>
-      <c r="Q8" s="220"/>
-      <c r="R8" s="220"/>
-      <c r="S8" s="268"/>
-      <c r="T8" s="268"/>
-      <c r="U8" s="101">
+      <c r="P8" s="205"/>
+      <c r="Q8" s="205"/>
+      <c r="R8" s="205"/>
+      <c r="S8" s="254"/>
+      <c r="T8" s="254"/>
+      <c r="U8" s="163">
         <f>'Page 01 of 02'!M8</f>
         <v>0</v>
       </c>
-      <c r="V8" s="101"/>
-      <c r="W8" s="102"/>
+      <c r="V8" s="163"/>
+      <c r="W8" s="164"/>
     </row>
     <row r="9" spans="1:23" ht="10" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="230"/>
-      <c r="B9" s="231"/>
-      <c r="C9" s="231"/>
-      <c r="D9" s="231"/>
-      <c r="E9" s="231"/>
-      <c r="F9" s="231"/>
-      <c r="G9" s="231"/>
-      <c r="H9" s="231"/>
-      <c r="I9" s="231"/>
-      <c r="J9" s="231"/>
-      <c r="K9" s="231"/>
-      <c r="L9" s="231"/>
-      <c r="M9" s="231"/>
-      <c r="N9" s="231"/>
-      <c r="O9" s="231"/>
-      <c r="P9" s="231"/>
-      <c r="Q9" s="231"/>
-      <c r="R9" s="231"/>
-      <c r="S9" s="231"/>
-      <c r="T9" s="231"/>
-      <c r="U9" s="231"/>
-      <c r="V9" s="231"/>
-      <c r="W9" s="232"/>
+      <c r="A9" s="279"/>
+      <c r="B9" s="280"/>
+      <c r="C9" s="280"/>
+      <c r="D9" s="280"/>
+      <c r="E9" s="280"/>
+      <c r="F9" s="280"/>
+      <c r="G9" s="280"/>
+      <c r="H9" s="280"/>
+      <c r="I9" s="280"/>
+      <c r="J9" s="280"/>
+      <c r="K9" s="280"/>
+      <c r="L9" s="280"/>
+      <c r="M9" s="280"/>
+      <c r="N9" s="280"/>
+      <c r="O9" s="280"/>
+      <c r="P9" s="280"/>
+      <c r="Q9" s="280"/>
+      <c r="R9" s="280"/>
+      <c r="S9" s="280"/>
+      <c r="T9" s="280"/>
+      <c r="U9" s="280"/>
+      <c r="V9" s="280"/>
+      <c r="W9" s="281"/>
     </row>
     <row r="10" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="238" t="s">
+      <c r="A10" s="265" t="s">
         <v>35</v>
       </c>
-      <c r="B10" s="240" t="s">
+      <c r="B10" s="261" t="s">
         <v>34</v>
       </c>
-      <c r="C10" s="240" t="s">
+      <c r="C10" s="261" t="s">
         <v>84</v>
       </c>
-      <c r="D10" s="183"/>
-      <c r="E10" s="242" t="s">
+      <c r="D10" s="83"/>
+      <c r="E10" s="255" t="s">
         <v>36</v>
       </c>
-      <c r="F10" s="242"/>
-      <c r="G10" s="242"/>
-      <c r="H10" s="242"/>
-      <c r="I10" s="242"/>
-      <c r="J10" s="242"/>
-      <c r="K10" s="242"/>
-      <c r="L10" s="242"/>
-      <c r="M10" s="242"/>
-      <c r="N10" s="242"/>
-      <c r="O10" s="242"/>
-      <c r="P10" s="242"/>
-      <c r="Q10" s="242"/>
-      <c r="R10" s="242"/>
-      <c r="S10" s="242" t="s">
+      <c r="F10" s="255"/>
+      <c r="G10" s="255"/>
+      <c r="H10" s="255"/>
+      <c r="I10" s="255"/>
+      <c r="J10" s="255"/>
+      <c r="K10" s="255"/>
+      <c r="L10" s="255"/>
+      <c r="M10" s="255"/>
+      <c r="N10" s="255"/>
+      <c r="O10" s="255"/>
+      <c r="P10" s="255"/>
+      <c r="Q10" s="255"/>
+      <c r="R10" s="255"/>
+      <c r="S10" s="255" t="s">
         <v>37</v>
       </c>
-      <c r="T10" s="242"/>
-      <c r="U10" s="242"/>
-      <c r="V10" s="242"/>
-      <c r="W10" s="243"/>
+      <c r="T10" s="255"/>
+      <c r="U10" s="255"/>
+      <c r="V10" s="255"/>
+      <c r="W10" s="256"/>
     </row>
     <row r="11" spans="1:23" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="239"/>
-      <c r="B11" s="241"/>
-      <c r="C11" s="241"/>
-      <c r="D11" s="248"/>
+      <c r="A11" s="286"/>
+      <c r="B11" s="262"/>
+      <c r="C11" s="262"/>
+      <c r="D11" s="263"/>
       <c r="E11" s="7" t="s">
         <v>38</v>
       </c>
@@ -7332,7 +7332,7 @@
     <row r="12" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="18"/>
       <c r="B12" s="16"/>
-      <c r="C12" s="249"/>
+      <c r="C12" s="264"/>
       <c r="D12" s="223"/>
       <c r="E12" s="13"/>
       <c r="F12" s="11"/>
@@ -7382,7 +7382,7 @@
     <row r="14" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="18"/>
       <c r="B14" s="16"/>
-      <c r="C14" s="249"/>
+      <c r="C14" s="264"/>
       <c r="D14" s="223"/>
       <c r="E14" s="13"/>
       <c r="F14" s="16"/>
@@ -7432,8 +7432,8 @@
     <row r="16" spans="1:23" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="18"/>
       <c r="B16" s="17"/>
-      <c r="C16" s="104"/>
-      <c r="D16" s="104"/>
+      <c r="C16" s="166"/>
+      <c r="D16" s="166"/>
       <c r="E16" s="19"/>
       <c r="F16" s="11"/>
       <c r="G16" s="19"/>
@@ -7455,80 +7455,80 @@
       <c r="W16" s="21"/>
     </row>
     <row r="17" spans="1:23" ht="10" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="146"/>
-      <c r="B17" s="147"/>
-      <c r="C17" s="147"/>
-      <c r="D17" s="147"/>
-      <c r="E17" s="147"/>
-      <c r="F17" s="147"/>
-      <c r="G17" s="147"/>
-      <c r="H17" s="147"/>
-      <c r="I17" s="147"/>
-      <c r="J17" s="147"/>
-      <c r="K17" s="147"/>
-      <c r="L17" s="147"/>
-      <c r="M17" s="147"/>
-      <c r="N17" s="147"/>
-      <c r="O17" s="147"/>
-      <c r="P17" s="147"/>
-      <c r="Q17" s="147"/>
-      <c r="R17" s="147"/>
-      <c r="S17" s="147"/>
-      <c r="T17" s="147"/>
-      <c r="U17" s="147"/>
-      <c r="V17" s="147"/>
-      <c r="W17" s="148"/>
+      <c r="A17" s="122"/>
+      <c r="B17" s="123"/>
+      <c r="C17" s="123"/>
+      <c r="D17" s="123"/>
+      <c r="E17" s="123"/>
+      <c r="F17" s="123"/>
+      <c r="G17" s="123"/>
+      <c r="H17" s="123"/>
+      <c r="I17" s="123"/>
+      <c r="J17" s="123"/>
+      <c r="K17" s="123"/>
+      <c r="L17" s="123"/>
+      <c r="M17" s="123"/>
+      <c r="N17" s="123"/>
+      <c r="O17" s="123"/>
+      <c r="P17" s="123"/>
+      <c r="Q17" s="123"/>
+      <c r="R17" s="123"/>
+      <c r="S17" s="123"/>
+      <c r="T17" s="123"/>
+      <c r="U17" s="123"/>
+      <c r="V17" s="123"/>
+      <c r="W17" s="124"/>
     </row>
     <row r="18" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="244" t="s">
+      <c r="A18" s="257" t="s">
         <v>85</v>
       </c>
-      <c r="B18" s="245"/>
-      <c r="C18" s="260" t="s">
+      <c r="B18" s="258"/>
+      <c r="C18" s="275" t="s">
         <v>56</v>
       </c>
-      <c r="D18" s="261"/>
-      <c r="E18" s="261"/>
-      <c r="F18" s="261"/>
-      <c r="G18" s="261"/>
-      <c r="H18" s="261"/>
-      <c r="I18" s="261"/>
-      <c r="J18" s="261"/>
-      <c r="K18" s="261"/>
-      <c r="L18" s="245"/>
-      <c r="M18" s="256" t="s">
+      <c r="D18" s="276"/>
+      <c r="E18" s="276"/>
+      <c r="F18" s="276"/>
+      <c r="G18" s="276"/>
+      <c r="H18" s="276"/>
+      <c r="I18" s="276"/>
+      <c r="J18" s="276"/>
+      <c r="K18" s="276"/>
+      <c r="L18" s="258"/>
+      <c r="M18" s="272" t="s">
         <v>0</v>
       </c>
-      <c r="N18" s="257"/>
-      <c r="O18" s="257"/>
-      <c r="P18" s="257"/>
-      <c r="Q18" s="257"/>
-      <c r="R18" s="257"/>
-      <c r="S18" s="258"/>
-      <c r="T18" s="238" t="s">
+      <c r="N18" s="273"/>
+      <c r="O18" s="273"/>
+      <c r="P18" s="273"/>
+      <c r="Q18" s="273"/>
+      <c r="R18" s="273"/>
+      <c r="S18" s="274"/>
+      <c r="T18" s="265" t="s">
         <v>49</v>
       </c>
-      <c r="U18" s="242"/>
-      <c r="V18" s="242"/>
-      <c r="W18" s="243"/>
+      <c r="U18" s="255"/>
+      <c r="V18" s="255"/>
+      <c r="W18" s="256"/>
     </row>
     <row r="19" spans="1:23" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="246"/>
-      <c r="B19" s="247"/>
-      <c r="C19" s="226" t="s">
+      <c r="A19" s="259"/>
+      <c r="B19" s="260"/>
+      <c r="C19" s="246" t="s">
         <v>57</v>
       </c>
       <c r="D19" s="57"/>
-      <c r="E19" s="226" t="s">
+      <c r="E19" s="246" t="s">
         <v>59</v>
       </c>
       <c r="F19" s="57"/>
       <c r="G19" s="57"/>
-      <c r="H19" s="226" t="s">
+      <c r="H19" s="246" t="s">
         <v>60</v>
       </c>
       <c r="I19" s="57"/>
-      <c r="J19" s="226" t="s">
+      <c r="J19" s="246" t="s">
         <v>58</v>
       </c>
       <c r="K19" s="57"/>
@@ -7555,12 +7555,12 @@
         <f>M19</f>
         <v>-</v>
       </c>
-      <c r="T19" s="250" t="s">
+      <c r="T19" s="266" t="s">
         <v>92</v>
       </c>
-      <c r="U19" s="251"/>
-      <c r="V19" s="251"/>
-      <c r="W19" s="252"/>
+      <c r="U19" s="267"/>
+      <c r="V19" s="267"/>
+      <c r="W19" s="268"/>
     </row>
     <row r="20" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="222"/>
@@ -7570,7 +7570,7 @@
       <c r="E20" s="225"/>
       <c r="F20" s="225"/>
       <c r="G20" s="225"/>
-      <c r="H20" s="259"/>
+      <c r="H20" s="226"/>
       <c r="I20" s="225"/>
       <c r="J20" s="225"/>
       <c r="K20" s="225"/>
@@ -7597,10 +7597,10 @@
         <f>M20</f>
         <v>-</v>
       </c>
-      <c r="T20" s="250"/>
-      <c r="U20" s="251"/>
-      <c r="V20" s="251"/>
-      <c r="W20" s="252"/>
+      <c r="T20" s="266"/>
+      <c r="U20" s="267"/>
+      <c r="V20" s="267"/>
+      <c r="W20" s="268"/>
     </row>
     <row r="21" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="222"/>
@@ -7610,7 +7610,7 @@
       <c r="E21" s="225"/>
       <c r="F21" s="225"/>
       <c r="G21" s="225"/>
-      <c r="H21" s="259"/>
+      <c r="H21" s="226"/>
       <c r="I21" s="225"/>
       <c r="J21" s="225"/>
       <c r="K21" s="225"/>
@@ -7637,10 +7637,10 @@
         <f t="shared" ref="S21:S23" si="0">M21</f>
         <v>-</v>
       </c>
-      <c r="T21" s="253"/>
-      <c r="U21" s="254"/>
-      <c r="V21" s="254"/>
-      <c r="W21" s="255"/>
+      <c r="T21" s="269"/>
+      <c r="U21" s="270"/>
+      <c r="V21" s="270"/>
+      <c r="W21" s="271"/>
     </row>
     <row r="22" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="222"/>
@@ -7650,7 +7650,7 @@
       <c r="E22" s="225"/>
       <c r="F22" s="225"/>
       <c r="G22" s="225"/>
-      <c r="H22" s="259"/>
+      <c r="H22" s="226"/>
       <c r="I22" s="225"/>
       <c r="J22" s="225"/>
       <c r="K22" s="225"/>
@@ -7677,10 +7677,10 @@
         <f t="shared" si="0"/>
         <v>-</v>
       </c>
-      <c r="T22" s="253"/>
-      <c r="U22" s="254"/>
-      <c r="V22" s="254"/>
-      <c r="W22" s="255"/>
+      <c r="T22" s="269"/>
+      <c r="U22" s="270"/>
+      <c r="V22" s="270"/>
+      <c r="W22" s="271"/>
     </row>
     <row r="23" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="222"/>
@@ -7690,7 +7690,7 @@
       <c r="E23" s="225"/>
       <c r="F23" s="225"/>
       <c r="G23" s="225"/>
-      <c r="H23" s="259"/>
+      <c r="H23" s="226"/>
       <c r="I23" s="225"/>
       <c r="J23" s="225"/>
       <c r="K23" s="225"/>
@@ -7717,10 +7717,10 @@
         <f t="shared" si="0"/>
         <v>-</v>
       </c>
-      <c r="T23" s="253"/>
-      <c r="U23" s="254"/>
-      <c r="V23" s="254"/>
-      <c r="W23" s="255"/>
+      <c r="T23" s="269"/>
+      <c r="U23" s="270"/>
+      <c r="V23" s="270"/>
+      <c r="W23" s="271"/>
     </row>
     <row r="24" spans="1:23" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="222"/>
@@ -7730,7 +7730,7 @@
       <c r="E24" s="225"/>
       <c r="F24" s="225"/>
       <c r="G24" s="225"/>
-      <c r="H24" s="259"/>
+      <c r="H24" s="226"/>
       <c r="I24" s="225"/>
       <c r="J24" s="225"/>
       <c r="K24" s="225"/>
@@ -7757,88 +7757,88 @@
         <f>M24</f>
         <v>-</v>
       </c>
-      <c r="T24" s="253"/>
-      <c r="U24" s="254"/>
-      <c r="V24" s="254"/>
-      <c r="W24" s="255"/>
+      <c r="T24" s="269"/>
+      <c r="U24" s="270"/>
+      <c r="V24" s="270"/>
+      <c r="W24" s="271"/>
     </row>
     <row r="25" spans="1:23" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="269" t="s">
+      <c r="A25" s="227" t="s">
         <v>50</v>
       </c>
-      <c r="B25" s="270"/>
-      <c r="C25" s="270"/>
-      <c r="D25" s="270"/>
-      <c r="E25" s="270"/>
-      <c r="F25" s="270"/>
-      <c r="G25" s="270"/>
-      <c r="H25" s="282" t="s">
+      <c r="B25" s="228"/>
+      <c r="C25" s="228"/>
+      <c r="D25" s="228"/>
+      <c r="E25" s="228"/>
+      <c r="F25" s="228"/>
+      <c r="G25" s="228"/>
+      <c r="H25" s="241" t="s">
         <v>51</v>
       </c>
-      <c r="I25" s="281"/>
-      <c r="J25" s="196" t="s">
+      <c r="I25" s="240"/>
+      <c r="J25" s="72" t="s">
         <v>15</v>
       </c>
-      <c r="K25" s="271"/>
-      <c r="L25" s="271"/>
-      <c r="M25" s="271"/>
-      <c r="N25" s="271" t="s">
+      <c r="K25" s="229"/>
+      <c r="L25" s="229"/>
+      <c r="M25" s="229"/>
+      <c r="N25" s="229" t="s">
         <v>16</v>
       </c>
-      <c r="O25" s="271"/>
-      <c r="P25" s="271"/>
-      <c r="Q25" s="271"/>
-      <c r="R25" s="271"/>
-      <c r="S25" s="271"/>
-      <c r="T25" s="271" t="s">
+      <c r="O25" s="229"/>
+      <c r="P25" s="229"/>
+      <c r="Q25" s="229"/>
+      <c r="R25" s="229"/>
+      <c r="S25" s="229"/>
+      <c r="T25" s="229" t="s">
         <v>17</v>
       </c>
-      <c r="U25" s="271"/>
-      <c r="V25" s="271"/>
-      <c r="W25" s="281"/>
+      <c r="U25" s="229"/>
+      <c r="V25" s="229"/>
+      <c r="W25" s="240"/>
     </row>
     <row r="26" spans="1:23" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="272" t="s">
+      <c r="A26" s="230" t="s">
         <v>93</v>
       </c>
-      <c r="B26" s="273"/>
-      <c r="C26" s="273"/>
-      <c r="D26" s="273"/>
-      <c r="E26" s="273"/>
-      <c r="F26" s="273"/>
-      <c r="G26" s="273"/>
-      <c r="H26" s="283" t="s">
+      <c r="B26" s="231"/>
+      <c r="C26" s="231"/>
+      <c r="D26" s="231"/>
+      <c r="E26" s="231"/>
+      <c r="F26" s="231"/>
+      <c r="G26" s="231"/>
+      <c r="H26" s="242" t="s">
         <v>28</v>
       </c>
-      <c r="I26" s="284"/>
-      <c r="J26" s="158"/>
-      <c r="K26" s="135"/>
-      <c r="L26" s="135"/>
-      <c r="M26" s="135"/>
-      <c r="N26" s="135"/>
-      <c r="O26" s="135"/>
-      <c r="P26" s="135"/>
-      <c r="Q26" s="135"/>
-      <c r="R26" s="135"/>
-      <c r="S26" s="135"/>
-      <c r="T26" s="135"/>
-      <c r="U26" s="135"/>
-      <c r="V26" s="135"/>
-      <c r="W26" s="136"/>
+      <c r="I26" s="243"/>
+      <c r="J26" s="97"/>
+      <c r="K26" s="98"/>
+      <c r="L26" s="98"/>
+      <c r="M26" s="98"/>
+      <c r="N26" s="98"/>
+      <c r="O26" s="98"/>
+      <c r="P26" s="98"/>
+      <c r="Q26" s="98"/>
+      <c r="R26" s="98"/>
+      <c r="S26" s="98"/>
+      <c r="T26" s="98"/>
+      <c r="U26" s="98"/>
+      <c r="V26" s="98"/>
+      <c r="W26" s="115"/>
     </row>
     <row r="27" spans="1:23" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="274"/>
-      <c r="B27" s="275"/>
-      <c r="C27" s="275"/>
-      <c r="D27" s="275"/>
-      <c r="E27" s="275"/>
-      <c r="F27" s="275"/>
-      <c r="G27" s="275"/>
-      <c r="H27" s="279" t="s">
+      <c r="A27" s="232"/>
+      <c r="B27" s="233"/>
+      <c r="C27" s="233"/>
+      <c r="D27" s="233"/>
+      <c r="E27" s="233"/>
+      <c r="F27" s="233"/>
+      <c r="G27" s="233"/>
+      <c r="H27" s="238" t="s">
         <v>52</v>
       </c>
-      <c r="I27" s="280"/>
-      <c r="J27" s="153"/>
+      <c r="I27" s="239"/>
+      <c r="J27" s="87"/>
       <c r="K27" s="55"/>
       <c r="L27" s="55"/>
       <c r="M27" s="55"/>
@@ -7851,21 +7851,21 @@
       <c r="T27" s="55"/>
       <c r="U27" s="55"/>
       <c r="V27" s="55"/>
-      <c r="W27" s="138"/>
+      <c r="W27" s="90"/>
     </row>
     <row r="28" spans="1:23" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="274"/>
-      <c r="B28" s="275"/>
-      <c r="C28" s="275"/>
-      <c r="D28" s="275"/>
-      <c r="E28" s="275"/>
-      <c r="F28" s="275"/>
-      <c r="G28" s="275"/>
-      <c r="H28" s="277" t="s">
+      <c r="A28" s="232"/>
+      <c r="B28" s="233"/>
+      <c r="C28" s="233"/>
+      <c r="D28" s="233"/>
+      <c r="E28" s="233"/>
+      <c r="F28" s="233"/>
+      <c r="G28" s="233"/>
+      <c r="H28" s="236" t="s">
         <v>28</v>
       </c>
-      <c r="I28" s="278"/>
-      <c r="J28" s="153"/>
+      <c r="I28" s="237"/>
+      <c r="J28" s="87"/>
       <c r="K28" s="55"/>
       <c r="L28" s="55"/>
       <c r="M28" s="55"/>
@@ -7878,21 +7878,21 @@
       <c r="T28" s="55"/>
       <c r="U28" s="55"/>
       <c r="V28" s="55"/>
-      <c r="W28" s="138"/>
+      <c r="W28" s="90"/>
     </row>
     <row r="29" spans="1:23" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="274"/>
-      <c r="B29" s="275"/>
-      <c r="C29" s="275"/>
-      <c r="D29" s="275"/>
-      <c r="E29" s="275"/>
-      <c r="F29" s="275"/>
-      <c r="G29" s="275"/>
-      <c r="H29" s="279" t="s">
+      <c r="A29" s="232"/>
+      <c r="B29" s="233"/>
+      <c r="C29" s="233"/>
+      <c r="D29" s="233"/>
+      <c r="E29" s="233"/>
+      <c r="F29" s="233"/>
+      <c r="G29" s="233"/>
+      <c r="H29" s="238" t="s">
         <v>53</v>
       </c>
-      <c r="I29" s="280"/>
-      <c r="J29" s="153">
+      <c r="I29" s="239"/>
+      <c r="J29" s="87">
         <f>'Page 01 of 02'!A55</f>
         <v>0</v>
       </c>
@@ -7911,71 +7911,103 @@
       <c r="T29" s="55"/>
       <c r="U29" s="55"/>
       <c r="V29" s="55"/>
-      <c r="W29" s="138"/>
+      <c r="W29" s="90"/>
     </row>
     <row r="30" spans="1:23" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="276"/>
-      <c r="B30" s="228"/>
-      <c r="C30" s="228"/>
-      <c r="D30" s="228"/>
-      <c r="E30" s="228"/>
-      <c r="F30" s="228"/>
-      <c r="G30" s="228"/>
-      <c r="H30" s="285" t="s">
+      <c r="A30" s="234"/>
+      <c r="B30" s="235"/>
+      <c r="C30" s="235"/>
+      <c r="D30" s="235"/>
+      <c r="E30" s="235"/>
+      <c r="F30" s="235"/>
+      <c r="G30" s="235"/>
+      <c r="H30" s="244" t="s">
         <v>28</v>
       </c>
-      <c r="I30" s="286"/>
-      <c r="J30" s="218">
+      <c r="I30" s="245"/>
+      <c r="J30" s="207">
         <f>'Page 01 of 02'!A56</f>
         <v>0</v>
       </c>
-      <c r="K30" s="66"/>
-      <c r="L30" s="66"/>
-      <c r="M30" s="66"/>
-      <c r="N30" s="66">
+      <c r="K30" s="92"/>
+      <c r="L30" s="92"/>
+      <c r="M30" s="92"/>
+      <c r="N30" s="92">
         <f>'Page 01 of 02'!E56</f>
         <v>0</v>
       </c>
-      <c r="O30" s="66"/>
-      <c r="P30" s="66"/>
-      <c r="Q30" s="66"/>
-      <c r="R30" s="66"/>
-      <c r="S30" s="66"/>
-      <c r="T30" s="66"/>
-      <c r="U30" s="66"/>
-      <c r="V30" s="66"/>
-      <c r="W30" s="67"/>
+      <c r="O30" s="92"/>
+      <c r="P30" s="92"/>
+      <c r="Q30" s="92"/>
+      <c r="R30" s="92"/>
+      <c r="S30" s="92"/>
+      <c r="T30" s="92"/>
+      <c r="U30" s="92"/>
+      <c r="V30" s="92"/>
+      <c r="W30" s="96"/>
     </row>
     <row r="31" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A31" s="28" t="s">
         <v>94</v>
       </c>
-      <c r="M31" s="135" t="s">
+      <c r="M31" s="98" t="s">
         <v>95</v>
       </c>
-      <c r="N31" s="135"/>
+      <c r="N31" s="98"/>
       <c r="W31" s="27" t="s">
         <v>96</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="80">
-    <mergeCell ref="J26:M28"/>
-    <mergeCell ref="N26:S28"/>
-    <mergeCell ref="T26:W28"/>
-    <mergeCell ref="J29:M29"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="E23:G23"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="J24:L24"/>
-    <mergeCell ref="J22:L22"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E21:G21"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="J21:L21"/>
+    <mergeCell ref="D1:W2"/>
+    <mergeCell ref="D3:W3"/>
+    <mergeCell ref="M31:N31"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="E20:G20"/>
+    <mergeCell ref="E19:G19"/>
+    <mergeCell ref="U4:W4"/>
+    <mergeCell ref="A9:W9"/>
+    <mergeCell ref="U8:W8"/>
+    <mergeCell ref="A5:N5"/>
+    <mergeCell ref="A6:N8"/>
+    <mergeCell ref="A1:C4"/>
+    <mergeCell ref="D4:T4"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="E10:R10"/>
+    <mergeCell ref="S10:W10"/>
+    <mergeCell ref="A18:B19"/>
+    <mergeCell ref="C10:D11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="A17:W17"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="T18:W18"/>
+    <mergeCell ref="T19:W24"/>
+    <mergeCell ref="M18:S18"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="C18:L18"/>
+    <mergeCell ref="O5:W5"/>
+    <mergeCell ref="O6:W6"/>
+    <mergeCell ref="O7:T7"/>
+    <mergeCell ref="U7:W7"/>
+    <mergeCell ref="O8:T8"/>
+    <mergeCell ref="J19:L19"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="J20:L20"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E24:G24"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E22:G22"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="J23:L23"/>
     <mergeCell ref="J30:M30"/>
     <mergeCell ref="N29:S29"/>
     <mergeCell ref="N30:S30"/>
@@ -7992,54 +8024,22 @@
     <mergeCell ref="H27:I27"/>
     <mergeCell ref="H30:I30"/>
     <mergeCell ref="N25:S25"/>
-    <mergeCell ref="J19:L19"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="J20:L20"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E24:G24"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="E22:G22"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="J23:L23"/>
-    <mergeCell ref="O5:W5"/>
-    <mergeCell ref="O6:W6"/>
-    <mergeCell ref="O7:T7"/>
-    <mergeCell ref="U7:W7"/>
-    <mergeCell ref="O8:T8"/>
-    <mergeCell ref="E10:R10"/>
-    <mergeCell ref="S10:W10"/>
-    <mergeCell ref="A18:B19"/>
-    <mergeCell ref="C10:D11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="A17:W17"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="T18:W18"/>
-    <mergeCell ref="T19:W24"/>
-    <mergeCell ref="M18:S18"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="C18:L18"/>
-    <mergeCell ref="D1:W2"/>
-    <mergeCell ref="D3:W3"/>
-    <mergeCell ref="M31:N31"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="E20:G20"/>
-    <mergeCell ref="E19:G19"/>
-    <mergeCell ref="U4:W4"/>
-    <mergeCell ref="A9:W9"/>
-    <mergeCell ref="U8:W8"/>
-    <mergeCell ref="A5:N5"/>
-    <mergeCell ref="A6:N8"/>
-    <mergeCell ref="A1:C4"/>
-    <mergeCell ref="D4:T4"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:G21"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="J21:L21"/>
+    <mergeCell ref="J26:M28"/>
+    <mergeCell ref="N26:S28"/>
+    <mergeCell ref="T26:W28"/>
+    <mergeCell ref="J29:M29"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="E23:G23"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="J24:L24"/>
+    <mergeCell ref="J22:L22"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.68" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.37"/>
@@ -8075,628 +8075,628 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="74"/>
-      <c r="B1" s="75"/>
-      <c r="C1" s="186" t="s">
+      <c r="A1" s="144"/>
+      <c r="B1" s="145"/>
+      <c r="C1" s="61" t="s">
         <v>86</v>
       </c>
-      <c r="D1" s="187"/>
-      <c r="E1" s="187"/>
-      <c r="F1" s="187"/>
-      <c r="G1" s="187"/>
-      <c r="H1" s="187"/>
-      <c r="I1" s="187"/>
-      <c r="J1" s="187"/>
-      <c r="K1" s="187"/>
-      <c r="L1" s="200"/>
+      <c r="D1" s="62"/>
+      <c r="E1" s="62"/>
+      <c r="F1" s="62"/>
+      <c r="G1" s="62"/>
+      <c r="H1" s="62"/>
+      <c r="I1" s="62"/>
+      <c r="J1" s="62"/>
+      <c r="K1" s="62"/>
+      <c r="L1" s="211"/>
     </row>
     <row r="2" spans="1:12" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="76"/>
-      <c r="B2" s="77"/>
-      <c r="C2" s="188"/>
-      <c r="D2" s="189"/>
-      <c r="E2" s="189"/>
-      <c r="F2" s="189"/>
-      <c r="G2" s="189"/>
-      <c r="H2" s="189"/>
-      <c r="I2" s="189"/>
-      <c r="J2" s="189"/>
-      <c r="K2" s="189"/>
-      <c r="L2" s="201"/>
+      <c r="A2" s="146"/>
+      <c r="B2" s="147"/>
+      <c r="C2" s="63"/>
+      <c r="D2" s="64"/>
+      <c r="E2" s="64"/>
+      <c r="F2" s="64"/>
+      <c r="G2" s="64"/>
+      <c r="H2" s="64"/>
+      <c r="I2" s="64"/>
+      <c r="J2" s="64"/>
+      <c r="K2" s="64"/>
+      <c r="L2" s="212"/>
     </row>
     <row r="3" spans="1:12" s="1" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="76"/>
-      <c r="B3" s="77"/>
-      <c r="C3" s="190" t="s">
+      <c r="A3" s="146"/>
+      <c r="B3" s="147"/>
+      <c r="C3" s="65" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="191"/>
-      <c r="E3" s="191"/>
-      <c r="F3" s="191"/>
-      <c r="G3" s="191"/>
-      <c r="H3" s="191"/>
-      <c r="I3" s="191"/>
-      <c r="J3" s="191"/>
-      <c r="K3" s="191"/>
-      <c r="L3" s="202"/>
+      <c r="D3" s="66"/>
+      <c r="E3" s="66"/>
+      <c r="F3" s="66"/>
+      <c r="G3" s="66"/>
+      <c r="H3" s="66"/>
+      <c r="I3" s="66"/>
+      <c r="J3" s="66"/>
+      <c r="K3" s="66"/>
+      <c r="L3" s="213"/>
     </row>
     <row r="4" spans="1:12" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="78"/>
-      <c r="B4" s="79"/>
-      <c r="C4" s="68" t="s">
+      <c r="A4" s="148"/>
+      <c r="B4" s="149"/>
+      <c r="C4" s="141" t="s">
         <v>115</v>
       </c>
-      <c r="D4" s="69"/>
-      <c r="E4" s="69"/>
-      <c r="F4" s="69"/>
-      <c r="G4" s="69"/>
-      <c r="H4" s="69"/>
-      <c r="I4" s="69"/>
-      <c r="J4" s="70"/>
-      <c r="K4" s="80" t="s">
+      <c r="D4" s="142"/>
+      <c r="E4" s="142"/>
+      <c r="F4" s="142"/>
+      <c r="G4" s="142"/>
+      <c r="H4" s="142"/>
+      <c r="I4" s="142"/>
+      <c r="J4" s="143"/>
+      <c r="K4" s="150" t="s">
         <v>55</v>
       </c>
-      <c r="L4" s="81"/>
+      <c r="L4" s="151"/>
     </row>
     <row r="5" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="287" t="s">
+      <c r="A5" s="297" t="s">
         <v>125</v>
       </c>
-      <c r="B5" s="288"/>
-      <c r="C5" s="288"/>
-      <c r="D5" s="288"/>
-      <c r="E5" s="288"/>
-      <c r="F5" s="288"/>
-      <c r="G5" s="288"/>
-      <c r="H5" s="108" t="s">
+      <c r="B5" s="298"/>
+      <c r="C5" s="298"/>
+      <c r="D5" s="298"/>
+      <c r="E5" s="298"/>
+      <c r="F5" s="298"/>
+      <c r="G5" s="298"/>
+      <c r="H5" s="170" t="s">
         <v>18</v>
       </c>
-      <c r="I5" s="109"/>
-      <c r="J5" s="109"/>
-      <c r="K5" s="109" t="s">
+      <c r="I5" s="171"/>
+      <c r="J5" s="171"/>
+      <c r="K5" s="171" t="s">
         <v>19</v>
       </c>
-      <c r="L5" s="110"/>
+      <c r="L5" s="172"/>
     </row>
     <row r="6" spans="1:12" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="289"/>
-      <c r="B6" s="290"/>
-      <c r="C6" s="290"/>
-      <c r="D6" s="290"/>
-      <c r="E6" s="290"/>
-      <c r="F6" s="290"/>
-      <c r="G6" s="290"/>
-      <c r="H6" s="103" t="str">
+      <c r="A6" s="299"/>
+      <c r="B6" s="300"/>
+      <c r="C6" s="300"/>
+      <c r="D6" s="300"/>
+      <c r="E6" s="300"/>
+      <c r="F6" s="300"/>
+      <c r="G6" s="300"/>
+      <c r="H6" s="165" t="str">
         <f>'Page 01 of 02'!J8</f>
         <v>MTV2400001-1-1</v>
       </c>
-      <c r="I6" s="104"/>
-      <c r="J6" s="104"/>
-      <c r="K6" s="101">
+      <c r="I6" s="166"/>
+      <c r="J6" s="166"/>
+      <c r="K6" s="163">
         <f>'Page 01 of 02'!M8</f>
         <v>0</v>
       </c>
-      <c r="L6" s="102"/>
+      <c r="L6" s="164"/>
     </row>
     <row r="7" spans="1:12" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="164" t="s">
+      <c r="A7" s="109" t="s">
         <v>124</v>
       </c>
-      <c r="B7" s="165"/>
-      <c r="C7" s="165"/>
-      <c r="D7" s="165"/>
-      <c r="E7" s="165"/>
-      <c r="F7" s="165"/>
-      <c r="G7" s="165"/>
-      <c r="H7" s="165"/>
-      <c r="I7" s="165"/>
-      <c r="J7" s="165"/>
-      <c r="K7" s="165"/>
-      <c r="L7" s="166"/>
+      <c r="B7" s="110"/>
+      <c r="C7" s="110"/>
+      <c r="D7" s="110"/>
+      <c r="E7" s="110"/>
+      <c r="F7" s="110"/>
+      <c r="G7" s="110"/>
+      <c r="H7" s="110"/>
+      <c r="I7" s="110"/>
+      <c r="J7" s="110"/>
+      <c r="K7" s="110"/>
+      <c r="L7" s="111"/>
     </row>
     <row r="8" spans="1:12" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="164" t="s">
+      <c r="A8" s="109" t="s">
         <v>25</v>
       </c>
-      <c r="B8" s="165"/>
-      <c r="C8" s="208" t="s">
+      <c r="B8" s="110"/>
+      <c r="C8" s="215" t="s">
         <v>122</v>
       </c>
-      <c r="D8" s="165"/>
-      <c r="E8" s="213" t="s">
+      <c r="D8" s="110"/>
+      <c r="E8" s="220" t="s">
         <v>84</v>
       </c>
-      <c r="F8" s="214"/>
-      <c r="G8" s="213" t="s">
+      <c r="F8" s="221"/>
+      <c r="G8" s="220" t="s">
         <v>123</v>
       </c>
-      <c r="H8" s="231"/>
-      <c r="I8" s="231"/>
-      <c r="J8" s="231"/>
-      <c r="K8" s="231"/>
-      <c r="L8" s="232"/>
+      <c r="H8" s="280"/>
+      <c r="I8" s="280"/>
+      <c r="J8" s="280"/>
+      <c r="K8" s="280"/>
+      <c r="L8" s="281"/>
     </row>
     <row r="9" spans="1:12" s="8" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="293"/>
       <c r="B9" s="294"/>
-      <c r="C9" s="213" t="s">
+      <c r="C9" s="220" t="s">
         <v>29</v>
       </c>
-      <c r="D9" s="214"/>
-      <c r="E9" s="291"/>
-      <c r="F9" s="292"/>
-      <c r="G9" s="291"/>
-      <c r="H9" s="297"/>
-      <c r="I9" s="297"/>
-      <c r="J9" s="297"/>
-      <c r="K9" s="297"/>
-      <c r="L9" s="298"/>
+      <c r="D9" s="221"/>
+      <c r="E9" s="287"/>
+      <c r="F9" s="288"/>
+      <c r="G9" s="287"/>
+      <c r="H9" s="291"/>
+      <c r="I9" s="291"/>
+      <c r="J9" s="291"/>
+      <c r="K9" s="291"/>
+      <c r="L9" s="292"/>
     </row>
     <row r="10" spans="1:12" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="203"/>
-      <c r="B10" s="204"/>
-      <c r="C10" s="213" t="s">
+      <c r="A10" s="214"/>
+      <c r="B10" s="210"/>
+      <c r="C10" s="220" t="s">
         <v>62</v>
       </c>
-      <c r="D10" s="214"/>
-      <c r="E10" s="291"/>
-      <c r="F10" s="292"/>
-      <c r="G10" s="215"/>
-      <c r="H10" s="299"/>
-      <c r="I10" s="299"/>
-      <c r="J10" s="299"/>
-      <c r="K10" s="299"/>
-      <c r="L10" s="300"/>
+      <c r="D10" s="221"/>
+      <c r="E10" s="287"/>
+      <c r="F10" s="288"/>
+      <c r="G10" s="202"/>
+      <c r="H10" s="289"/>
+      <c r="I10" s="289"/>
+      <c r="J10" s="289"/>
+      <c r="K10" s="289"/>
+      <c r="L10" s="290"/>
     </row>
     <row r="11" spans="1:12" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="203"/>
-      <c r="B11" s="204"/>
-      <c r="C11" s="213" t="s">
+      <c r="A11" s="214"/>
+      <c r="B11" s="210"/>
+      <c r="C11" s="220" t="s">
         <v>61</v>
       </c>
-      <c r="D11" s="214"/>
-      <c r="E11" s="291"/>
-      <c r="F11" s="292"/>
-      <c r="G11" s="215"/>
-      <c r="H11" s="299"/>
-      <c r="I11" s="299"/>
-      <c r="J11" s="299"/>
-      <c r="K11" s="299"/>
-      <c r="L11" s="300"/>
+      <c r="D11" s="221"/>
+      <c r="E11" s="287"/>
+      <c r="F11" s="288"/>
+      <c r="G11" s="202"/>
+      <c r="H11" s="289"/>
+      <c r="I11" s="289"/>
+      <c r="J11" s="289"/>
+      <c r="K11" s="289"/>
+      <c r="L11" s="290"/>
     </row>
     <row r="12" spans="1:12" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="203"/>
-      <c r="B12" s="204"/>
-      <c r="C12" s="213" t="s">
+      <c r="A12" s="214"/>
+      <c r="B12" s="210"/>
+      <c r="C12" s="220" t="s">
         <v>76</v>
       </c>
-      <c r="D12" s="214"/>
-      <c r="E12" s="291"/>
-      <c r="F12" s="292"/>
-      <c r="G12" s="291"/>
-      <c r="H12" s="297"/>
-      <c r="I12" s="297"/>
-      <c r="J12" s="297"/>
-      <c r="K12" s="297"/>
-      <c r="L12" s="298"/>
+      <c r="D12" s="221"/>
+      <c r="E12" s="287"/>
+      <c r="F12" s="288"/>
+      <c r="G12" s="287"/>
+      <c r="H12" s="291"/>
+      <c r="I12" s="291"/>
+      <c r="J12" s="291"/>
+      <c r="K12" s="291"/>
+      <c r="L12" s="292"/>
     </row>
     <row r="13" spans="1:12" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="295"/>
       <c r="B13" s="296"/>
-      <c r="C13" s="213" t="s">
+      <c r="C13" s="220" t="s">
         <v>33</v>
       </c>
-      <c r="D13" s="214"/>
-      <c r="E13" s="291"/>
-      <c r="F13" s="292"/>
-      <c r="G13" s="215"/>
-      <c r="H13" s="299"/>
-      <c r="I13" s="299"/>
-      <c r="J13" s="299"/>
-      <c r="K13" s="299"/>
-      <c r="L13" s="300"/>
+      <c r="D13" s="221"/>
+      <c r="E13" s="287"/>
+      <c r="F13" s="288"/>
+      <c r="G13" s="202"/>
+      <c r="H13" s="289"/>
+      <c r="I13" s="289"/>
+      <c r="J13" s="289"/>
+      <c r="K13" s="289"/>
+      <c r="L13" s="290"/>
     </row>
     <row r="14" spans="1:12" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="293"/>
       <c r="B14" s="294"/>
-      <c r="C14" s="213" t="s">
+      <c r="C14" s="220" t="s">
         <v>29</v>
       </c>
-      <c r="D14" s="214"/>
-      <c r="E14" s="291"/>
-      <c r="F14" s="292"/>
-      <c r="G14" s="215"/>
-      <c r="H14" s="299"/>
-      <c r="I14" s="299"/>
-      <c r="J14" s="299"/>
-      <c r="K14" s="299"/>
-      <c r="L14" s="300"/>
+      <c r="D14" s="221"/>
+      <c r="E14" s="287"/>
+      <c r="F14" s="288"/>
+      <c r="G14" s="202"/>
+      <c r="H14" s="289"/>
+      <c r="I14" s="289"/>
+      <c r="J14" s="289"/>
+      <c r="K14" s="289"/>
+      <c r="L14" s="290"/>
     </row>
     <row r="15" spans="1:12" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="203"/>
-      <c r="B15" s="204"/>
-      <c r="C15" s="213" t="s">
+      <c r="A15" s="214"/>
+      <c r="B15" s="210"/>
+      <c r="C15" s="220" t="s">
         <v>62</v>
       </c>
-      <c r="D15" s="214"/>
-      <c r="E15" s="291"/>
-      <c r="F15" s="292"/>
-      <c r="G15" s="215"/>
-      <c r="H15" s="299"/>
-      <c r="I15" s="299"/>
-      <c r="J15" s="299"/>
-      <c r="K15" s="299"/>
-      <c r="L15" s="300"/>
+      <c r="D15" s="221"/>
+      <c r="E15" s="287"/>
+      <c r="F15" s="288"/>
+      <c r="G15" s="202"/>
+      <c r="H15" s="289"/>
+      <c r="I15" s="289"/>
+      <c r="J15" s="289"/>
+      <c r="K15" s="289"/>
+      <c r="L15" s="290"/>
     </row>
     <row r="16" spans="1:12" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="203"/>
-      <c r="B16" s="204"/>
-      <c r="C16" s="213" t="s">
+      <c r="A16" s="214"/>
+      <c r="B16" s="210"/>
+      <c r="C16" s="220" t="s">
         <v>61</v>
       </c>
-      <c r="D16" s="214"/>
-      <c r="E16" s="291"/>
-      <c r="F16" s="292"/>
-      <c r="G16" s="215"/>
-      <c r="H16" s="299"/>
-      <c r="I16" s="299"/>
-      <c r="J16" s="299"/>
-      <c r="K16" s="299"/>
-      <c r="L16" s="300"/>
+      <c r="D16" s="221"/>
+      <c r="E16" s="287"/>
+      <c r="F16" s="288"/>
+      <c r="G16" s="202"/>
+      <c r="H16" s="289"/>
+      <c r="I16" s="289"/>
+      <c r="J16" s="289"/>
+      <c r="K16" s="289"/>
+      <c r="L16" s="290"/>
     </row>
     <row r="17" spans="1:12" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="203"/>
-      <c r="B17" s="204"/>
-      <c r="C17" s="213" t="s">
+      <c r="A17" s="214"/>
+      <c r="B17" s="210"/>
+      <c r="C17" s="220" t="s">
         <v>76</v>
       </c>
-      <c r="D17" s="214"/>
-      <c r="E17" s="291"/>
-      <c r="F17" s="292"/>
-      <c r="G17" s="215"/>
-      <c r="H17" s="299"/>
-      <c r="I17" s="299"/>
-      <c r="J17" s="299"/>
-      <c r="K17" s="299"/>
-      <c r="L17" s="300"/>
+      <c r="D17" s="221"/>
+      <c r="E17" s="287"/>
+      <c r="F17" s="288"/>
+      <c r="G17" s="202"/>
+      <c r="H17" s="289"/>
+      <c r="I17" s="289"/>
+      <c r="J17" s="289"/>
+      <c r="K17" s="289"/>
+      <c r="L17" s="290"/>
     </row>
     <row r="18" spans="1:12" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="295"/>
       <c r="B18" s="296"/>
-      <c r="C18" s="213" t="s">
+      <c r="C18" s="220" t="s">
         <v>33</v>
       </c>
-      <c r="D18" s="214"/>
-      <c r="E18" s="291"/>
-      <c r="F18" s="292"/>
-      <c r="G18" s="215"/>
-      <c r="H18" s="299"/>
-      <c r="I18" s="299"/>
-      <c r="J18" s="299"/>
-      <c r="K18" s="299"/>
-      <c r="L18" s="300"/>
+      <c r="D18" s="221"/>
+      <c r="E18" s="287"/>
+      <c r="F18" s="288"/>
+      <c r="G18" s="202"/>
+      <c r="H18" s="289"/>
+      <c r="I18" s="289"/>
+      <c r="J18" s="289"/>
+      <c r="K18" s="289"/>
+      <c r="L18" s="290"/>
     </row>
     <row r="19" spans="1:12" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="293"/>
       <c r="B19" s="294"/>
-      <c r="C19" s="213" t="s">
+      <c r="C19" s="220" t="s">
         <v>29</v>
       </c>
-      <c r="D19" s="214"/>
-      <c r="E19" s="291"/>
-      <c r="F19" s="292"/>
-      <c r="G19" s="215"/>
-      <c r="H19" s="299"/>
-      <c r="I19" s="299"/>
-      <c r="J19" s="299"/>
-      <c r="K19" s="299"/>
-      <c r="L19" s="300"/>
+      <c r="D19" s="221"/>
+      <c r="E19" s="287"/>
+      <c r="F19" s="288"/>
+      <c r="G19" s="202"/>
+      <c r="H19" s="289"/>
+      <c r="I19" s="289"/>
+      <c r="J19" s="289"/>
+      <c r="K19" s="289"/>
+      <c r="L19" s="290"/>
     </row>
     <row r="20" spans="1:12" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="203"/>
-      <c r="B20" s="204"/>
-      <c r="C20" s="213" t="s">
+      <c r="A20" s="214"/>
+      <c r="B20" s="210"/>
+      <c r="C20" s="220" t="s">
         <v>62</v>
       </c>
-      <c r="D20" s="214"/>
-      <c r="E20" s="291"/>
-      <c r="F20" s="292"/>
-      <c r="G20" s="291"/>
-      <c r="H20" s="297"/>
-      <c r="I20" s="297"/>
-      <c r="J20" s="297"/>
-      <c r="K20" s="297"/>
-      <c r="L20" s="298"/>
+      <c r="D20" s="221"/>
+      <c r="E20" s="287"/>
+      <c r="F20" s="288"/>
+      <c r="G20" s="287"/>
+      <c r="H20" s="291"/>
+      <c r="I20" s="291"/>
+      <c r="J20" s="291"/>
+      <c r="K20" s="291"/>
+      <c r="L20" s="292"/>
     </row>
     <row r="21" spans="1:12" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="203"/>
-      <c r="B21" s="204"/>
-      <c r="C21" s="213" t="s">
+      <c r="A21" s="214"/>
+      <c r="B21" s="210"/>
+      <c r="C21" s="220" t="s">
         <v>61</v>
       </c>
-      <c r="D21" s="214"/>
-      <c r="E21" s="291"/>
-      <c r="F21" s="292"/>
-      <c r="G21" s="215"/>
-      <c r="H21" s="299"/>
-      <c r="I21" s="299"/>
-      <c r="J21" s="299"/>
-      <c r="K21" s="299"/>
-      <c r="L21" s="300"/>
+      <c r="D21" s="221"/>
+      <c r="E21" s="287"/>
+      <c r="F21" s="288"/>
+      <c r="G21" s="202"/>
+      <c r="H21" s="289"/>
+      <c r="I21" s="289"/>
+      <c r="J21" s="289"/>
+      <c r="K21" s="289"/>
+      <c r="L21" s="290"/>
     </row>
     <row r="22" spans="1:12" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="203"/>
-      <c r="B22" s="204"/>
-      <c r="C22" s="213" t="s">
+      <c r="A22" s="214"/>
+      <c r="B22" s="210"/>
+      <c r="C22" s="220" t="s">
         <v>76</v>
       </c>
-      <c r="D22" s="214"/>
-      <c r="E22" s="291"/>
-      <c r="F22" s="292"/>
-      <c r="G22" s="215"/>
-      <c r="H22" s="299"/>
-      <c r="I22" s="299"/>
-      <c r="J22" s="299"/>
-      <c r="K22" s="299"/>
-      <c r="L22" s="300"/>
+      <c r="D22" s="221"/>
+      <c r="E22" s="287"/>
+      <c r="F22" s="288"/>
+      <c r="G22" s="202"/>
+      <c r="H22" s="289"/>
+      <c r="I22" s="289"/>
+      <c r="J22" s="289"/>
+      <c r="K22" s="289"/>
+      <c r="L22" s="290"/>
     </row>
     <row r="23" spans="1:12" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="295"/>
       <c r="B23" s="296"/>
-      <c r="C23" s="213" t="s">
+      <c r="C23" s="220" t="s">
         <v>33</v>
       </c>
-      <c r="D23" s="214"/>
-      <c r="E23" s="291"/>
-      <c r="F23" s="292"/>
-      <c r="G23" s="215"/>
-      <c r="H23" s="299"/>
-      <c r="I23" s="299"/>
-      <c r="J23" s="299"/>
-      <c r="K23" s="299"/>
-      <c r="L23" s="300"/>
+      <c r="D23" s="221"/>
+      <c r="E23" s="287"/>
+      <c r="F23" s="288"/>
+      <c r="G23" s="202"/>
+      <c r="H23" s="289"/>
+      <c r="I23" s="289"/>
+      <c r="J23" s="289"/>
+      <c r="K23" s="289"/>
+      <c r="L23" s="290"/>
     </row>
     <row r="24" spans="1:12" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="293"/>
       <c r="B24" s="294"/>
-      <c r="C24" s="213" t="s">
+      <c r="C24" s="220" t="s">
         <v>29</v>
       </c>
-      <c r="D24" s="214"/>
-      <c r="E24" s="291"/>
-      <c r="F24" s="292"/>
-      <c r="G24" s="215"/>
-      <c r="H24" s="299"/>
-      <c r="I24" s="299"/>
-      <c r="J24" s="299"/>
-      <c r="K24" s="299"/>
-      <c r="L24" s="300"/>
+      <c r="D24" s="221"/>
+      <c r="E24" s="287"/>
+      <c r="F24" s="288"/>
+      <c r="G24" s="202"/>
+      <c r="H24" s="289"/>
+      <c r="I24" s="289"/>
+      <c r="J24" s="289"/>
+      <c r="K24" s="289"/>
+      <c r="L24" s="290"/>
     </row>
     <row r="25" spans="1:12" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="203"/>
-      <c r="B25" s="204"/>
-      <c r="C25" s="213" t="s">
+      <c r="A25" s="214"/>
+      <c r="B25" s="210"/>
+      <c r="C25" s="220" t="s">
         <v>62</v>
       </c>
-      <c r="D25" s="214"/>
-      <c r="E25" s="291"/>
-      <c r="F25" s="292"/>
-      <c r="G25" s="291"/>
-      <c r="H25" s="297"/>
-      <c r="I25" s="297"/>
-      <c r="J25" s="297"/>
-      <c r="K25" s="297"/>
-      <c r="L25" s="298"/>
+      <c r="D25" s="221"/>
+      <c r="E25" s="287"/>
+      <c r="F25" s="288"/>
+      <c r="G25" s="287"/>
+      <c r="H25" s="291"/>
+      <c r="I25" s="291"/>
+      <c r="J25" s="291"/>
+      <c r="K25" s="291"/>
+      <c r="L25" s="292"/>
     </row>
     <row r="26" spans="1:12" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="203"/>
-      <c r="B26" s="204"/>
-      <c r="C26" s="213" t="s">
+      <c r="A26" s="214"/>
+      <c r="B26" s="210"/>
+      <c r="C26" s="220" t="s">
         <v>61</v>
       </c>
-      <c r="D26" s="214"/>
-      <c r="E26" s="291"/>
-      <c r="F26" s="292"/>
-      <c r="G26" s="215"/>
-      <c r="H26" s="299"/>
-      <c r="I26" s="299"/>
-      <c r="J26" s="299"/>
-      <c r="K26" s="299"/>
-      <c r="L26" s="300"/>
+      <c r="D26" s="221"/>
+      <c r="E26" s="287"/>
+      <c r="F26" s="288"/>
+      <c r="G26" s="202"/>
+      <c r="H26" s="289"/>
+      <c r="I26" s="289"/>
+      <c r="J26" s="289"/>
+      <c r="K26" s="289"/>
+      <c r="L26" s="290"/>
     </row>
     <row r="27" spans="1:12" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="203"/>
-      <c r="B27" s="204"/>
-      <c r="C27" s="213" t="s">
+      <c r="A27" s="214"/>
+      <c r="B27" s="210"/>
+      <c r="C27" s="220" t="s">
         <v>76</v>
       </c>
-      <c r="D27" s="214"/>
-      <c r="E27" s="291"/>
-      <c r="F27" s="292"/>
-      <c r="G27" s="215"/>
-      <c r="H27" s="299"/>
-      <c r="I27" s="299"/>
-      <c r="J27" s="299"/>
-      <c r="K27" s="299"/>
-      <c r="L27" s="300"/>
+      <c r="D27" s="221"/>
+      <c r="E27" s="287"/>
+      <c r="F27" s="288"/>
+      <c r="G27" s="202"/>
+      <c r="H27" s="289"/>
+      <c r="I27" s="289"/>
+      <c r="J27" s="289"/>
+      <c r="K27" s="289"/>
+      <c r="L27" s="290"/>
     </row>
     <row r="28" spans="1:12" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A28" s="295"/>
       <c r="B28" s="296"/>
-      <c r="C28" s="213" t="s">
+      <c r="C28" s="220" t="s">
         <v>33</v>
       </c>
-      <c r="D28" s="214"/>
-      <c r="E28" s="291"/>
-      <c r="F28" s="292"/>
-      <c r="G28" s="215"/>
-      <c r="H28" s="299"/>
-      <c r="I28" s="299"/>
-      <c r="J28" s="299"/>
-      <c r="K28" s="299"/>
-      <c r="L28" s="300"/>
+      <c r="D28" s="221"/>
+      <c r="E28" s="287"/>
+      <c r="F28" s="288"/>
+      <c r="G28" s="202"/>
+      <c r="H28" s="289"/>
+      <c r="I28" s="289"/>
+      <c r="J28" s="289"/>
+      <c r="K28" s="289"/>
+      <c r="L28" s="290"/>
     </row>
     <row r="29" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="71" t="s">
+      <c r="A29" s="125" t="s">
         <v>2</v>
       </c>
-      <c r="B29" s="72"/>
-      <c r="C29" s="72"/>
-      <c r="D29" s="72"/>
-      <c r="E29" s="72"/>
-      <c r="F29" s="72"/>
-      <c r="G29" s="72"/>
-      <c r="H29" s="72"/>
-      <c r="I29" s="72"/>
-      <c r="J29" s="72"/>
-      <c r="K29" s="72"/>
-      <c r="L29" s="73"/>
+      <c r="B29" s="126"/>
+      <c r="C29" s="126"/>
+      <c r="D29" s="126"/>
+      <c r="E29" s="126"/>
+      <c r="F29" s="126"/>
+      <c r="G29" s="126"/>
+      <c r="H29" s="126"/>
+      <c r="I29" s="126"/>
+      <c r="J29" s="126"/>
+      <c r="K29" s="126"/>
+      <c r="L29" s="127"/>
     </row>
     <row r="30" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="140" t="s">
+      <c r="A30" s="116" t="s">
         <v>98</v>
       </c>
-      <c r="B30" s="141"/>
-      <c r="C30" s="141"/>
-      <c r="D30" s="141"/>
-      <c r="E30" s="141"/>
-      <c r="F30" s="141"/>
-      <c r="G30" s="141"/>
-      <c r="H30" s="141"/>
-      <c r="I30" s="141"/>
-      <c r="J30" s="141"/>
-      <c r="K30" s="141"/>
-      <c r="L30" s="142"/>
+      <c r="B30" s="117"/>
+      <c r="C30" s="117"/>
+      <c r="D30" s="117"/>
+      <c r="E30" s="117"/>
+      <c r="F30" s="117"/>
+      <c r="G30" s="117"/>
+      <c r="H30" s="117"/>
+      <c r="I30" s="117"/>
+      <c r="J30" s="117"/>
+      <c r="K30" s="117"/>
+      <c r="L30" s="118"/>
     </row>
     <row r="31" spans="1:12" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="143"/>
-      <c r="B31" s="144"/>
-      <c r="C31" s="144"/>
-      <c r="D31" s="144"/>
-      <c r="E31" s="144"/>
-      <c r="F31" s="144"/>
-      <c r="G31" s="144"/>
-      <c r="H31" s="144"/>
-      <c r="I31" s="144"/>
-      <c r="J31" s="144"/>
-      <c r="K31" s="144"/>
-      <c r="L31" s="145"/>
+      <c r="A31" s="119"/>
+      <c r="B31" s="120"/>
+      <c r="C31" s="120"/>
+      <c r="D31" s="120"/>
+      <c r="E31" s="120"/>
+      <c r="F31" s="120"/>
+      <c r="G31" s="120"/>
+      <c r="H31" s="120"/>
+      <c r="I31" s="120"/>
+      <c r="J31" s="120"/>
+      <c r="K31" s="120"/>
+      <c r="L31" s="121"/>
     </row>
     <row r="32" spans="1:12" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="160" t="s">
+      <c r="A32" s="104" t="s">
         <v>15</v>
       </c>
-      <c r="B32" s="161"/>
-      <c r="C32" s="161"/>
-      <c r="D32" s="161"/>
-      <c r="E32" s="161" t="s">
+      <c r="B32" s="105"/>
+      <c r="C32" s="105"/>
+      <c r="D32" s="105"/>
+      <c r="E32" s="105" t="s">
         <v>16</v>
       </c>
-      <c r="F32" s="161"/>
-      <c r="G32" s="161"/>
-      <c r="H32" s="161"/>
-      <c r="I32" s="161" t="s">
+      <c r="F32" s="105"/>
+      <c r="G32" s="105"/>
+      <c r="H32" s="105"/>
+      <c r="I32" s="105" t="s">
         <v>17</v>
       </c>
-      <c r="J32" s="161"/>
-      <c r="K32" s="161"/>
-      <c r="L32" s="162"/>
+      <c r="J32" s="105"/>
+      <c r="K32" s="105"/>
+      <c r="L32" s="106"/>
     </row>
     <row r="33" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="158"/>
-      <c r="B33" s="135"/>
-      <c r="C33" s="135"/>
-      <c r="D33" s="159"/>
-      <c r="E33" s="134"/>
-      <c r="F33" s="135"/>
-      <c r="G33" s="135"/>
-      <c r="H33" s="159"/>
-      <c r="I33" s="134"/>
-      <c r="J33" s="135"/>
-      <c r="K33" s="135"/>
-      <c r="L33" s="136"/>
+      <c r="A33" s="97"/>
+      <c r="B33" s="98"/>
+      <c r="C33" s="98"/>
+      <c r="D33" s="99"/>
+      <c r="E33" s="100"/>
+      <c r="F33" s="98"/>
+      <c r="G33" s="98"/>
+      <c r="H33" s="99"/>
+      <c r="I33" s="100"/>
+      <c r="J33" s="98"/>
+      <c r="K33" s="98"/>
+      <c r="L33" s="115"/>
     </row>
     <row r="34" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="153"/>
+      <c r="A34" s="87"/>
       <c r="B34" s="55"/>
       <c r="C34" s="55"/>
-      <c r="D34" s="154"/>
-      <c r="E34" s="137"/>
+      <c r="D34" s="88"/>
+      <c r="E34" s="89"/>
       <c r="F34" s="55"/>
       <c r="G34" s="55"/>
-      <c r="H34" s="154"/>
-      <c r="I34" s="137"/>
+      <c r="H34" s="88"/>
+      <c r="I34" s="89"/>
       <c r="J34" s="55"/>
       <c r="K34" s="55"/>
-      <c r="L34" s="138"/>
+      <c r="L34" s="90"/>
     </row>
     <row r="35" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="153"/>
+      <c r="A35" s="87"/>
       <c r="B35" s="55"/>
       <c r="C35" s="55"/>
-      <c r="D35" s="154"/>
-      <c r="E35" s="137"/>
+      <c r="D35" s="88"/>
+      <c r="E35" s="89"/>
       <c r="F35" s="55"/>
       <c r="G35" s="55"/>
-      <c r="H35" s="154"/>
-      <c r="I35" s="137"/>
+      <c r="H35" s="88"/>
+      <c r="I35" s="89"/>
       <c r="J35" s="55"/>
       <c r="K35" s="55"/>
-      <c r="L35" s="138"/>
+      <c r="L35" s="90"/>
     </row>
     <row r="36" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="153"/>
+      <c r="A36" s="87"/>
       <c r="B36" s="55"/>
       <c r="C36" s="55"/>
-      <c r="D36" s="154"/>
-      <c r="E36" s="137"/>
+      <c r="D36" s="88"/>
+      <c r="E36" s="89"/>
       <c r="F36" s="55"/>
       <c r="G36" s="55"/>
-      <c r="H36" s="154"/>
-      <c r="I36" s="137"/>
+      <c r="H36" s="88"/>
+      <c r="I36" s="89"/>
       <c r="J36" s="55"/>
       <c r="K36" s="55"/>
-      <c r="L36" s="138"/>
+      <c r="L36" s="90"/>
     </row>
     <row r="37" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="153">
+      <c r="A37" s="87">
         <f>'Page 01 of 02'!A55</f>
         <v>0</v>
       </c>
       <c r="B37" s="55"/>
       <c r="C37" s="55"/>
-      <c r="D37" s="154"/>
-      <c r="E37" s="137">
+      <c r="D37" s="88"/>
+      <c r="E37" s="89">
         <f>'Page 01 of 02'!E55</f>
         <v>0</v>
       </c>
       <c r="F37" s="55"/>
       <c r="G37" s="55"/>
-      <c r="H37" s="154"/>
-      <c r="I37" s="137"/>
+      <c r="H37" s="88"/>
+      <c r="I37" s="89"/>
       <c r="J37" s="55"/>
       <c r="K37" s="55"/>
-      <c r="L37" s="138"/>
+      <c r="L37" s="90"/>
     </row>
     <row r="38" spans="1:12" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="218">
+      <c r="A38" s="207">
         <f>'Page 01 of 02'!A56</f>
         <v>0</v>
       </c>
-      <c r="B38" s="66"/>
-      <c r="C38" s="66"/>
-      <c r="D38" s="156"/>
-      <c r="E38" s="65">
+      <c r="B38" s="92"/>
+      <c r="C38" s="92"/>
+      <c r="D38" s="93"/>
+      <c r="E38" s="95">
         <f>'Page 01 of 02'!E56</f>
         <v>0</v>
       </c>
-      <c r="F38" s="66"/>
-      <c r="G38" s="66"/>
-      <c r="H38" s="156"/>
-      <c r="I38" s="65"/>
-      <c r="J38" s="66"/>
-      <c r="K38" s="66"/>
-      <c r="L38" s="67"/>
+      <c r="F38" s="92"/>
+      <c r="G38" s="92"/>
+      <c r="H38" s="93"/>
+      <c r="I38" s="95"/>
+      <c r="J38" s="92"/>
+      <c r="K38" s="92"/>
+      <c r="L38" s="96"/>
     </row>
     <row r="39" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A39" s="28" t="s">
@@ -8708,35 +8708,54 @@
     </row>
   </sheetData>
   <mergeCells count="93">
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="G28:L28"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="G24:L24"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="G25:L25"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="G26:L26"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="A19:B23"/>
-    <mergeCell ref="G19:L19"/>
-    <mergeCell ref="G20:L20"/>
-    <mergeCell ref="G21:L21"/>
-    <mergeCell ref="G22:L22"/>
-    <mergeCell ref="G23:L23"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="G18:L18"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="G9:L9"/>
-    <mergeCell ref="G10:L10"/>
-    <mergeCell ref="G11:L11"/>
-    <mergeCell ref="G15:L15"/>
+    <mergeCell ref="A1:B4"/>
+    <mergeCell ref="C1:L2"/>
+    <mergeCell ref="C3:L3"/>
+    <mergeCell ref="C4:J4"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="A5:G6"/>
+    <mergeCell ref="H5:J5"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="H6:J6"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="A7:L7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="G8:L8"/>
+    <mergeCell ref="A9:B13"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="A33:D36"/>
+    <mergeCell ref="E33:H36"/>
+    <mergeCell ref="I33:L36"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="A24:B28"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="A29:L29"/>
+    <mergeCell ref="A30:L31"/>
+    <mergeCell ref="A32:D32"/>
+    <mergeCell ref="E32:H32"/>
+    <mergeCell ref="I32:L32"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="G27:L27"/>
+    <mergeCell ref="A37:D37"/>
+    <mergeCell ref="E37:H37"/>
+    <mergeCell ref="I37:L37"/>
+    <mergeCell ref="A38:D38"/>
+    <mergeCell ref="E38:H38"/>
+    <mergeCell ref="I38:L38"/>
     <mergeCell ref="A14:B18"/>
     <mergeCell ref="G12:L12"/>
     <mergeCell ref="G13:L13"/>
@@ -8753,54 +8772,35 @@
     <mergeCell ref="C14:D14"/>
     <mergeCell ref="C15:D15"/>
     <mergeCell ref="E18:F18"/>
-    <mergeCell ref="A37:D37"/>
-    <mergeCell ref="E37:H37"/>
-    <mergeCell ref="I37:L37"/>
-    <mergeCell ref="A38:D38"/>
-    <mergeCell ref="E38:H38"/>
-    <mergeCell ref="I38:L38"/>
-    <mergeCell ref="A33:D36"/>
-    <mergeCell ref="E33:H36"/>
-    <mergeCell ref="I33:L36"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="A24:B28"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="A29:L29"/>
-    <mergeCell ref="A30:L31"/>
-    <mergeCell ref="A32:D32"/>
-    <mergeCell ref="E32:H32"/>
-    <mergeCell ref="I32:L32"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="G27:L27"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="A7:L7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="G8:L8"/>
-    <mergeCell ref="A9:B13"/>
-    <mergeCell ref="A5:G6"/>
-    <mergeCell ref="H5:J5"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="H6:J6"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="A1:B4"/>
-    <mergeCell ref="C1:L2"/>
-    <mergeCell ref="C3:L3"/>
-    <mergeCell ref="C4:J4"/>
-    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="G18:L18"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="G9:L9"/>
+    <mergeCell ref="G10:L10"/>
+    <mergeCell ref="G11:L11"/>
+    <mergeCell ref="G15:L15"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="A19:B23"/>
+    <mergeCell ref="G19:L19"/>
+    <mergeCell ref="G20:L20"/>
+    <mergeCell ref="G21:L21"/>
+    <mergeCell ref="G22:L22"/>
+    <mergeCell ref="G23:L23"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="G28:L28"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="G24:L24"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="G25:L25"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="G26:L26"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.31496062992125984" right="0.23622047244094491" top="0.82677165354330717" bottom="0.35433070866141736" header="0.19685039370078741" footer="0.19685039370078741"/>

--- a/MTV-QC-FM-013A_Rev.00 - MTC.xlsx
+++ b/MTV-QC-FM-013A_Rev.00 - MTC.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kirangowda/Desktop/excel-generator/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kirangowda/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38715DB6-CBC6-714F-BBB7-B0FA117AF191}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A850249C-7F8F-7B4B-961E-CF98931CC25F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19580" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="184">
   <si>
     <t>-</t>
   </si>
@@ -390,9 +390,6 @@
   </si>
   <si>
     <t xml:space="preserve"> SEAT RING</t>
-  </si>
-  <si>
-    <t>Refer below table</t>
   </si>
   <si>
     <t>Page 01 of 02</t>
@@ -1658,7 +1655,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="301">
+  <cellXfs count="296">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1818,8 +1815,350 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="63" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="60" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="58" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="59" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="60" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="62" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="61" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="59" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="63" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1854,404 +2193,74 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="61" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="59" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="63" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="63" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="60" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="62" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="58" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="59" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="60" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2262,65 +2271,146 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="49" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="43" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="48" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="39" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="39" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="40" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -2346,9 +2436,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2378,159 +2465,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="49" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="43" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="48" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="39" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="39" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="40" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -2543,6 +2477,54 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3635,12 +3617,12 @@
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B1" s="53" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C1" s="53"/>
       <c r="D1" s="53"/>
       <c r="F1" s="54" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G1" s="54"/>
       <c r="H1" s="54"/>
@@ -3650,13 +3632,13 @@
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B2" s="49" t="s">
         <v>132</v>
       </c>
-      <c r="B2" s="49" t="s">
-        <v>133</v>
-      </c>
       <c r="C2" s="49" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D2" s="48"/>
       <c r="F2" s="50"/>
@@ -3668,15 +3650,15 @@
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B3" s="48"/>
       <c r="C3" s="48"/>
       <c r="D3" s="49" t="s">
+        <v>134</v>
+      </c>
+      <c r="F3" s="50" t="s">
         <v>135</v>
-      </c>
-      <c r="F3" s="50" t="s">
-        <v>136</v>
       </c>
       <c r="G3" s="50"/>
       <c r="H3" s="50"/>
@@ -3688,13 +3670,13 @@
       <c r="B4" s="48"/>
       <c r="C4" s="48"/>
       <c r="D4" s="48" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E4">
         <v>1</v>
       </c>
       <c r="F4" s="50" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G4" s="50"/>
       <c r="H4" s="50"/>
@@ -3702,21 +3684,21 @@
       <c r="J4" s="50"/>
       <c r="K4" s="50"/>
       <c r="M4" t="s">
+        <v>138</v>
+      </c>
+      <c r="N4" t="s">
         <v>139</v>
-      </c>
-      <c r="N4" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B5" s="48"/>
       <c r="C5" s="48"/>
       <c r="D5" s="48" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F5" s="50"/>
       <c r="G5" s="50" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H5" s="50"/>
       <c r="I5" s="50"/>
@@ -3727,7 +3709,7 @@
       <c r="B6" s="48"/>
       <c r="C6" s="48"/>
       <c r="D6" s="48" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F6" s="50"/>
       <c r="G6" s="50"/>
@@ -3744,7 +3726,7 @@
         <v>2</v>
       </c>
       <c r="F7" s="50" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G7" s="50"/>
       <c r="H7" s="50"/>
@@ -3765,18 +3747,18 @@
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B9" s="48"/>
       <c r="C9" s="48"/>
       <c r="D9" s="48" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E9">
         <v>3</v>
       </c>
       <c r="F9" s="50" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G9" s="50"/>
       <c r="H9" s="50"/>
@@ -3786,29 +3768,29 @@
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B10" s="48"/>
       <c r="C10" s="48"/>
       <c r="D10" s="48" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F10" s="50"/>
       <c r="G10" s="50" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H10" s="50"/>
       <c r="I10" s="50"/>
       <c r="J10" s="50"/>
       <c r="K10" s="50"/>
       <c r="M10" t="s">
+        <v>149</v>
+      </c>
+      <c r="N10" t="s">
         <v>150</v>
       </c>
-      <c r="N10" t="s">
+      <c r="O10" t="s">
         <v>151</v>
-      </c>
-      <c r="O10" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.2">
@@ -3819,7 +3801,7 @@
         <v>4</v>
       </c>
       <c r="F11" s="50" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G11" s="50"/>
       <c r="H11" s="50"/>
@@ -3829,14 +3811,14 @@
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B12" s="48"/>
       <c r="C12" s="48" t="s">
+        <v>154</v>
+      </c>
+      <c r="D12" s="48" t="s">
         <v>155</v>
-      </c>
-      <c r="D12" s="48" t="s">
-        <v>156</v>
       </c>
       <c r="F12" s="50"/>
       <c r="G12" s="50"/>
@@ -3858,15 +3840,15 @@
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B14" s="48"/>
       <c r="C14" s="48"/>
       <c r="D14" s="48" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F14" s="50" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G14" s="50"/>
       <c r="H14" s="50"/>
@@ -3898,15 +3880,15 @@
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A17" s="55" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B17" s="48"/>
       <c r="C17" s="48" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D17" s="48"/>
       <c r="F17" s="50" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G17" s="50"/>
       <c r="H17" s="50"/>
@@ -3914,10 +3896,10 @@
       <c r="J17" s="50"/>
       <c r="K17" s="50"/>
       <c r="M17" s="56" t="s">
+        <v>161</v>
+      </c>
+      <c r="O17" t="s">
         <v>162</v>
-      </c>
-      <c r="O17" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.2">
@@ -3937,11 +3919,11 @@
       <c r="A19" s="55"/>
       <c r="B19" s="48"/>
       <c r="C19" s="48" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D19" s="48"/>
       <c r="F19" s="50" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G19" s="50"/>
       <c r="H19" s="50"/>
@@ -3967,11 +3949,11 @@
       <c r="A21" s="55"/>
       <c r="B21" s="48"/>
       <c r="C21" s="48" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D21" s="48"/>
       <c r="F21" s="50" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G21" s="50"/>
       <c r="H21" s="50"/>
@@ -3997,11 +3979,11 @@
       <c r="A23" s="55"/>
       <c r="B23" s="48"/>
       <c r="C23" s="48" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D23" s="48"/>
       <c r="F23" s="50" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G23" s="50"/>
       <c r="H23" s="50"/>
@@ -4012,7 +3994,7 @@
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
   </sheetData>
@@ -4042,83 +4024,83 @@
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="2" spans="1:15" ht="71.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="51"/>
       <c r="B2" s="57" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C2" s="57"/>
       <c r="D2" s="57" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E2" s="57"/>
       <c r="F2" s="58" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="G2" s="58"/>
       <c r="H2" s="58" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="I2" s="58"/>
       <c r="J2" s="58" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="K2" s="58"/>
       <c r="L2" s="58" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="M2" s="58"/>
       <c r="N2" s="57" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="O2" s="57"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" s="51"/>
       <c r="B3" s="51" t="s">
+        <v>178</v>
+      </c>
+      <c r="C3" s="51" t="s">
         <v>179</v>
       </c>
-      <c r="C3" s="51" t="s">
-        <v>180</v>
-      </c>
       <c r="D3" s="51" t="s">
+        <v>178</v>
+      </c>
+      <c r="E3" s="51" t="s">
         <v>179</v>
       </c>
-      <c r="E3" s="51" t="s">
-        <v>180</v>
-      </c>
       <c r="F3" s="51" t="s">
+        <v>178</v>
+      </c>
+      <c r="G3" s="51" t="s">
         <v>179</v>
       </c>
-      <c r="G3" s="51" t="s">
-        <v>180</v>
-      </c>
       <c r="H3" s="51" t="s">
+        <v>178</v>
+      </c>
+      <c r="I3" s="51" t="s">
         <v>179</v>
       </c>
-      <c r="I3" s="51" t="s">
-        <v>180</v>
-      </c>
       <c r="J3" s="51" t="s">
+        <v>178</v>
+      </c>
+      <c r="K3" s="51" t="s">
         <v>179</v>
       </c>
-      <c r="K3" s="51" t="s">
-        <v>180</v>
-      </c>
       <c r="L3" s="51" t="s">
+        <v>178</v>
+      </c>
+      <c r="M3" s="51" t="s">
         <v>179</v>
       </c>
-      <c r="M3" s="51" t="s">
-        <v>180</v>
-      </c>
       <c r="N3" s="51" t="s">
+        <v>178</v>
+      </c>
+      <c r="O3" s="51" t="s">
         <v>179</v>
-      </c>
-      <c r="O3" s="51" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.2">
@@ -4425,7 +4407,7 @@
   <dimension ref="A1:DO59"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24:F24"/>
+      <selection activeCell="F13" sqref="F13:N13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4446,314 +4428,314 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="144"/>
-      <c r="B1" s="145"/>
-      <c r="C1" s="61" t="s">
+      <c r="A1" s="74"/>
+      <c r="B1" s="75"/>
+      <c r="C1" s="175" t="s">
         <v>86</v>
       </c>
-      <c r="D1" s="62"/>
-      <c r="E1" s="62"/>
-      <c r="F1" s="62"/>
-      <c r="G1" s="62"/>
-      <c r="H1" s="62"/>
-      <c r="I1" s="62"/>
-      <c r="J1" s="62"/>
-      <c r="K1" s="62"/>
-      <c r="L1" s="62"/>
-      <c r="M1" s="67" t="s">
-        <v>130</v>
-      </c>
-      <c r="N1" s="68"/>
+      <c r="D1" s="176"/>
+      <c r="E1" s="176"/>
+      <c r="F1" s="176"/>
+      <c r="G1" s="176"/>
+      <c r="H1" s="176"/>
+      <c r="I1" s="176"/>
+      <c r="J1" s="176"/>
+      <c r="K1" s="176"/>
+      <c r="L1" s="176"/>
+      <c r="M1" s="181" t="s">
+        <v>129</v>
+      </c>
+      <c r="N1" s="182"/>
     </row>
     <row r="2" spans="1:14" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="146"/>
-      <c r="B2" s="147"/>
-      <c r="C2" s="63"/>
-      <c r="D2" s="64"/>
-      <c r="E2" s="64"/>
-      <c r="F2" s="64"/>
-      <c r="G2" s="64"/>
-      <c r="H2" s="64"/>
-      <c r="I2" s="64"/>
-      <c r="J2" s="64"/>
-      <c r="K2" s="64"/>
-      <c r="L2" s="64"/>
-      <c r="M2" s="69"/>
-      <c r="N2" s="70"/>
+      <c r="A2" s="76"/>
+      <c r="B2" s="77"/>
+      <c r="C2" s="177"/>
+      <c r="D2" s="178"/>
+      <c r="E2" s="178"/>
+      <c r="F2" s="178"/>
+      <c r="G2" s="178"/>
+      <c r="H2" s="178"/>
+      <c r="I2" s="178"/>
+      <c r="J2" s="178"/>
+      <c r="K2" s="178"/>
+      <c r="L2" s="178"/>
+      <c r="M2" s="183"/>
+      <c r="N2" s="184"/>
     </row>
     <row r="3" spans="1:14" s="1" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="146"/>
-      <c r="B3" s="147"/>
-      <c r="C3" s="65" t="s">
+      <c r="A3" s="76"/>
+      <c r="B3" s="77"/>
+      <c r="C3" s="179" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="66"/>
-      <c r="E3" s="66"/>
-      <c r="F3" s="66"/>
-      <c r="G3" s="66"/>
-      <c r="H3" s="66"/>
-      <c r="I3" s="66"/>
-      <c r="J3" s="66"/>
-      <c r="K3" s="66"/>
-      <c r="L3" s="66"/>
+      <c r="D3" s="180"/>
+      <c r="E3" s="180"/>
+      <c r="F3" s="180"/>
+      <c r="G3" s="180"/>
+      <c r="H3" s="180"/>
+      <c r="I3" s="180"/>
+      <c r="J3" s="180"/>
+      <c r="K3" s="180"/>
+      <c r="L3" s="180"/>
       <c r="M3" s="43"/>
       <c r="N3" s="44"/>
     </row>
     <row r="4" spans="1:14" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="148"/>
-      <c r="B4" s="149"/>
-      <c r="C4" s="141" t="s">
+      <c r="A4" s="78"/>
+      <c r="B4" s="79"/>
+      <c r="C4" s="68" t="s">
+        <v>115</v>
+      </c>
+      <c r="D4" s="69"/>
+      <c r="E4" s="69"/>
+      <c r="F4" s="69"/>
+      <c r="G4" s="69"/>
+      <c r="H4" s="69"/>
+      <c r="I4" s="69"/>
+      <c r="J4" s="69"/>
+      <c r="K4" s="69"/>
+      <c r="L4" s="70"/>
+      <c r="M4" s="80" t="s">
+        <v>103</v>
+      </c>
+      <c r="N4" s="81"/>
+    </row>
+    <row r="5" spans="1:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="71" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" s="72"/>
+      <c r="C5" s="72"/>
+      <c r="D5" s="72"/>
+      <c r="E5" s="72"/>
+      <c r="F5" s="72"/>
+      <c r="G5" s="72"/>
+      <c r="H5" s="72"/>
+      <c r="I5" s="73"/>
+      <c r="J5" s="71" t="s">
+        <v>97</v>
+      </c>
+      <c r="K5" s="72"/>
+      <c r="L5" s="72"/>
+      <c r="M5" s="72"/>
+      <c r="N5" s="73"/>
+    </row>
+    <row r="6" spans="1:14" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="105" t="s">
+        <v>87</v>
+      </c>
+      <c r="B6" s="106"/>
+      <c r="C6" s="106"/>
+      <c r="D6" s="106"/>
+      <c r="E6" s="106"/>
+      <c r="F6" s="106"/>
+      <c r="G6" s="106"/>
+      <c r="H6" s="106"/>
+      <c r="I6" s="107"/>
+      <c r="J6" s="99" t="s">
+        <v>88</v>
+      </c>
+      <c r="K6" s="100"/>
+      <c r="L6" s="100"/>
+      <c r="M6" s="100"/>
+      <c r="N6" s="101"/>
+    </row>
+    <row r="7" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="108"/>
+      <c r="B7" s="109"/>
+      <c r="C7" s="109"/>
+      <c r="D7" s="109"/>
+      <c r="E7" s="109"/>
+      <c r="F7" s="109"/>
+      <c r="G7" s="109"/>
+      <c r="H7" s="109"/>
+      <c r="I7" s="110"/>
+      <c r="J7" s="102" t="s">
+        <v>18</v>
+      </c>
+      <c r="K7" s="103"/>
+      <c r="L7" s="103"/>
+      <c r="M7" s="103" t="s">
+        <v>19</v>
+      </c>
+      <c r="N7" s="104"/>
+    </row>
+    <row r="8" spans="1:14" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="111"/>
+      <c r="B8" s="112"/>
+      <c r="C8" s="112"/>
+      <c r="D8" s="112"/>
+      <c r="E8" s="112"/>
+      <c r="F8" s="112"/>
+      <c r="G8" s="112"/>
+      <c r="H8" s="112"/>
+      <c r="I8" s="113"/>
+      <c r="J8" s="97" t="s">
         <v>116</v>
       </c>
-      <c r="D4" s="142"/>
-      <c r="E4" s="142"/>
-      <c r="F4" s="142"/>
-      <c r="G4" s="142"/>
-      <c r="H4" s="142"/>
-      <c r="I4" s="142"/>
-      <c r="J4" s="142"/>
-      <c r="K4" s="142"/>
-      <c r="L4" s="143"/>
-      <c r="M4" s="150" t="s">
-        <v>104</v>
-      </c>
-      <c r="N4" s="151"/>
-    </row>
-    <row r="5" spans="1:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="125" t="s">
-        <v>22</v>
-      </c>
-      <c r="B5" s="126"/>
-      <c r="C5" s="126"/>
-      <c r="D5" s="126"/>
-      <c r="E5" s="126"/>
-      <c r="F5" s="126"/>
-      <c r="G5" s="126"/>
-      <c r="H5" s="126"/>
-      <c r="I5" s="127"/>
-      <c r="J5" s="125" t="s">
-        <v>97</v>
-      </c>
-      <c r="K5" s="126"/>
-      <c r="L5" s="126"/>
-      <c r="M5" s="126"/>
-      <c r="N5" s="127"/>
-    </row>
-    <row r="6" spans="1:14" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="173" t="s">
-        <v>87</v>
-      </c>
-      <c r="B6" s="174"/>
-      <c r="C6" s="174"/>
-      <c r="D6" s="174"/>
-      <c r="E6" s="174"/>
-      <c r="F6" s="174"/>
-      <c r="G6" s="174"/>
-      <c r="H6" s="174"/>
-      <c r="I6" s="175"/>
-      <c r="J6" s="167" t="s">
-        <v>88</v>
-      </c>
-      <c r="K6" s="168"/>
-      <c r="L6" s="168"/>
-      <c r="M6" s="168"/>
-      <c r="N6" s="169"/>
-    </row>
-    <row r="7" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="176"/>
-      <c r="B7" s="177"/>
-      <c r="C7" s="177"/>
-      <c r="D7" s="177"/>
-      <c r="E7" s="177"/>
-      <c r="F7" s="177"/>
-      <c r="G7" s="177"/>
-      <c r="H7" s="177"/>
-      <c r="I7" s="178"/>
-      <c r="J7" s="170" t="s">
-        <v>18</v>
-      </c>
-      <c r="K7" s="171"/>
-      <c r="L7" s="171"/>
-      <c r="M7" s="171" t="s">
-        <v>19</v>
-      </c>
-      <c r="N7" s="172"/>
-    </row>
-    <row r="8" spans="1:14" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="179"/>
-      <c r="B8" s="180"/>
-      <c r="C8" s="180"/>
-      <c r="D8" s="180"/>
-      <c r="E8" s="180"/>
-      <c r="F8" s="180"/>
-      <c r="G8" s="180"/>
-      <c r="H8" s="180"/>
-      <c r="I8" s="181"/>
-      <c r="J8" s="165" t="s">
-        <v>117</v>
-      </c>
-      <c r="K8" s="166"/>
-      <c r="L8" s="166"/>
-      <c r="M8" s="163"/>
-      <c r="N8" s="164"/>
+      <c r="K8" s="98"/>
+      <c r="L8" s="98"/>
+      <c r="M8" s="95"/>
+      <c r="N8" s="96"/>
     </row>
     <row r="9" spans="1:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="161" t="s">
+      <c r="A9" s="93" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="162"/>
-      <c r="C9" s="162"/>
-      <c r="D9" s="162"/>
-      <c r="E9" s="162"/>
-      <c r="F9" s="158"/>
-      <c r="G9" s="159"/>
-      <c r="H9" s="159"/>
-      <c r="I9" s="159"/>
-      <c r="J9" s="159"/>
-      <c r="K9" s="159"/>
-      <c r="L9" s="159"/>
-      <c r="M9" s="159"/>
-      <c r="N9" s="160"/>
+      <c r="B9" s="94"/>
+      <c r="C9" s="94"/>
+      <c r="D9" s="94"/>
+      <c r="E9" s="94"/>
+      <c r="F9" s="290"/>
+      <c r="G9" s="291"/>
+      <c r="H9" s="291"/>
+      <c r="I9" s="291"/>
+      <c r="J9" s="291"/>
+      <c r="K9" s="291"/>
+      <c r="L9" s="291"/>
+      <c r="M9" s="291"/>
+      <c r="N9" s="292"/>
     </row>
     <row r="10" spans="1:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="182" t="s">
+      <c r="A10" s="114" t="s">
         <v>4</v>
       </c>
-      <c r="B10" s="183"/>
-      <c r="C10" s="183"/>
-      <c r="D10" s="183"/>
-      <c r="E10" s="183"/>
-      <c r="F10" s="132"/>
-      <c r="G10" s="133"/>
-      <c r="H10" s="133"/>
-      <c r="I10" s="133"/>
-      <c r="J10" s="133"/>
-      <c r="K10" s="133"/>
-      <c r="L10" s="133"/>
-      <c r="M10" s="133"/>
-      <c r="N10" s="134"/>
+      <c r="B10" s="115"/>
+      <c r="C10" s="115"/>
+      <c r="D10" s="115"/>
+      <c r="E10" s="115"/>
+      <c r="F10" s="253"/>
+      <c r="G10" s="240"/>
+      <c r="H10" s="240"/>
+      <c r="I10" s="240"/>
+      <c r="J10" s="240"/>
+      <c r="K10" s="240"/>
+      <c r="L10" s="240"/>
+      <c r="M10" s="240"/>
+      <c r="N10" s="241"/>
     </row>
     <row r="11" spans="1:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="182" t="s">
+      <c r="A11" s="114" t="s">
         <v>23</v>
       </c>
-      <c r="B11" s="183"/>
-      <c r="C11" s="183"/>
-      <c r="D11" s="183"/>
-      <c r="E11" s="183"/>
-      <c r="F11" s="132"/>
-      <c r="G11" s="133"/>
-      <c r="H11" s="133"/>
-      <c r="I11" s="133"/>
-      <c r="J11" s="133"/>
-      <c r="K11" s="133"/>
-      <c r="L11" s="133"/>
-      <c r="M11" s="133"/>
-      <c r="N11" s="134"/>
+      <c r="B11" s="115"/>
+      <c r="C11" s="115"/>
+      <c r="D11" s="115"/>
+      <c r="E11" s="115"/>
+      <c r="F11" s="253"/>
+      <c r="G11" s="240"/>
+      <c r="H11" s="240"/>
+      <c r="I11" s="240"/>
+      <c r="J11" s="240"/>
+      <c r="K11" s="240"/>
+      <c r="L11" s="240"/>
+      <c r="M11" s="240"/>
+      <c r="N11" s="241"/>
     </row>
     <row r="12" spans="1:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="182" t="s">
+      <c r="A12" s="114" t="s">
         <v>89</v>
       </c>
-      <c r="B12" s="183"/>
-      <c r="C12" s="183"/>
-      <c r="D12" s="183"/>
-      <c r="E12" s="183"/>
-      <c r="F12" s="133"/>
-      <c r="G12" s="133"/>
-      <c r="H12" s="133"/>
-      <c r="I12" s="133"/>
-      <c r="J12" s="133"/>
-      <c r="K12" s="133"/>
-      <c r="L12" s="133"/>
-      <c r="M12" s="133"/>
-      <c r="N12" s="134"/>
+      <c r="B12" s="115"/>
+      <c r="C12" s="115"/>
+      <c r="D12" s="115"/>
+      <c r="E12" s="115"/>
+      <c r="F12" s="240"/>
+      <c r="G12" s="240"/>
+      <c r="H12" s="240"/>
+      <c r="I12" s="240"/>
+      <c r="J12" s="240"/>
+      <c r="K12" s="240"/>
+      <c r="L12" s="240"/>
+      <c r="M12" s="240"/>
+      <c r="N12" s="241"/>
     </row>
     <row r="13" spans="1:14" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="184" t="s">
+      <c r="A13" s="116" t="s">
         <v>90</v>
       </c>
-      <c r="B13" s="185"/>
-      <c r="C13" s="185"/>
-      <c r="D13" s="185"/>
-      <c r="E13" s="185"/>
-      <c r="F13" s="152"/>
-      <c r="G13" s="152"/>
-      <c r="H13" s="152"/>
-      <c r="I13" s="152"/>
-      <c r="J13" s="152"/>
-      <c r="K13" s="152"/>
-      <c r="L13" s="152"/>
-      <c r="M13" s="152"/>
-      <c r="N13" s="153"/>
+      <c r="B13" s="117"/>
+      <c r="C13" s="117"/>
+      <c r="D13" s="117"/>
+      <c r="E13" s="117"/>
+      <c r="F13" s="243"/>
+      <c r="G13" s="243"/>
+      <c r="H13" s="243"/>
+      <c r="I13" s="243"/>
+      <c r="J13" s="243"/>
+      <c r="K13" s="243"/>
+      <c r="L13" s="243"/>
+      <c r="M13" s="243"/>
+      <c r="N13" s="244"/>
     </row>
     <row r="14" spans="1:14" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="71" t="s">
+      <c r="A14" s="85" t="s">
         <v>5</v>
       </c>
-      <c r="B14" s="75"/>
-      <c r="C14" s="75"/>
-      <c r="D14" s="75"/>
-      <c r="E14" s="75"/>
-      <c r="F14" s="75"/>
-      <c r="G14" s="75"/>
-      <c r="H14" s="75"/>
-      <c r="I14" s="75"/>
-      <c r="J14" s="75"/>
-      <c r="K14" s="75"/>
-      <c r="L14" s="75"/>
-      <c r="M14" s="75"/>
-      <c r="N14" s="73"/>
+      <c r="B14" s="86"/>
+      <c r="C14" s="86"/>
+      <c r="D14" s="86"/>
+      <c r="E14" s="86"/>
+      <c r="F14" s="86"/>
+      <c r="G14" s="86"/>
+      <c r="H14" s="86"/>
+      <c r="I14" s="86"/>
+      <c r="J14" s="86"/>
+      <c r="K14" s="86"/>
+      <c r="L14" s="86"/>
+      <c r="M14" s="86"/>
+      <c r="N14" s="87"/>
     </row>
     <row r="15" spans="1:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="137" t="s">
+      <c r="A15" s="121" t="s">
         <v>6</v>
       </c>
-      <c r="B15" s="138"/>
-      <c r="C15" s="157"/>
-      <c r="D15" s="157"/>
-      <c r="E15" s="157"/>
-      <c r="F15" s="157"/>
-      <c r="G15" s="139" t="s">
+      <c r="B15" s="122"/>
+      <c r="C15" s="293"/>
+      <c r="D15" s="293"/>
+      <c r="E15" s="293"/>
+      <c r="F15" s="293"/>
+      <c r="G15" s="123" t="s">
         <v>99</v>
       </c>
-      <c r="H15" s="140"/>
-      <c r="I15" s="140"/>
-      <c r="J15" s="140"/>
-      <c r="K15" s="140"/>
-      <c r="L15" s="154"/>
-      <c r="M15" s="155"/>
-      <c r="N15" s="156"/>
+      <c r="H15" s="124"/>
+      <c r="I15" s="124"/>
+      <c r="J15" s="124"/>
+      <c r="K15" s="124"/>
+      <c r="L15" s="90"/>
+      <c r="M15" s="91"/>
+      <c r="N15" s="92"/>
     </row>
     <row r="16" spans="1:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="108" t="s">
+      <c r="A16" s="88" t="s">
         <v>7</v>
       </c>
-      <c r="B16" s="78"/>
-      <c r="C16" s="59"/>
-      <c r="D16" s="59"/>
-      <c r="E16" s="59"/>
-      <c r="F16" s="59"/>
-      <c r="G16" s="135" t="s">
+      <c r="B16" s="89"/>
+      <c r="C16" s="173"/>
+      <c r="D16" s="173"/>
+      <c r="E16" s="173"/>
+      <c r="F16" s="173"/>
+      <c r="G16" s="119" t="s">
         <v>73</v>
       </c>
-      <c r="H16" s="136"/>
-      <c r="I16" s="136"/>
-      <c r="J16" s="136"/>
-      <c r="K16" s="136"/>
-      <c r="L16" s="101"/>
-      <c r="M16" s="102"/>
-      <c r="N16" s="103"/>
+      <c r="H16" s="120"/>
+      <c r="I16" s="120"/>
+      <c r="J16" s="120"/>
+      <c r="K16" s="120"/>
+      <c r="L16" s="82"/>
+      <c r="M16" s="83"/>
+      <c r="N16" s="84"/>
     </row>
     <row r="17" spans="1:17" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="108" t="s">
+      <c r="A17" s="88" t="s">
         <v>11</v>
       </c>
-      <c r="B17" s="78"/>
-      <c r="C17" s="59"/>
-      <c r="D17" s="59"/>
-      <c r="E17" s="59"/>
-      <c r="F17" s="59"/>
+      <c r="B17" s="89"/>
+      <c r="C17" s="173"/>
+      <c r="D17" s="173"/>
+      <c r="E17" s="173"/>
+      <c r="F17" s="173"/>
       <c r="G17" s="37" t="s">
         <v>67</v>
       </c>
@@ -4761,19 +4743,19 @@
       <c r="I17" s="38"/>
       <c r="J17" s="38"/>
       <c r="K17" s="38"/>
-      <c r="L17" s="101"/>
-      <c r="M17" s="102"/>
-      <c r="N17" s="103"/>
+      <c r="L17" s="82"/>
+      <c r="M17" s="83"/>
+      <c r="N17" s="84"/>
     </row>
     <row r="18" spans="1:17" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="108" t="s">
+      <c r="A18" s="88" t="s">
         <v>10</v>
       </c>
-      <c r="B18" s="78"/>
-      <c r="C18" s="59"/>
-      <c r="D18" s="59"/>
-      <c r="E18" s="59"/>
-      <c r="F18" s="59"/>
+      <c r="B18" s="89"/>
+      <c r="C18" s="173"/>
+      <c r="D18" s="173"/>
+      <c r="E18" s="173"/>
+      <c r="F18" s="173"/>
       <c r="G18" s="37" t="s">
         <v>27</v>
       </c>
@@ -4781,19 +4763,19 @@
       <c r="I18" s="38"/>
       <c r="J18" s="38"/>
       <c r="K18" s="38"/>
-      <c r="L18" s="101"/>
-      <c r="M18" s="102"/>
-      <c r="N18" s="103"/>
+      <c r="L18" s="82"/>
+      <c r="M18" s="83"/>
+      <c r="N18" s="84"/>
     </row>
     <row r="19" spans="1:17" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="108" t="s">
+      <c r="A19" s="88" t="s">
         <v>8</v>
       </c>
-      <c r="B19" s="78"/>
-      <c r="C19" s="59"/>
-      <c r="D19" s="59"/>
-      <c r="E19" s="59"/>
-      <c r="F19" s="59"/>
+      <c r="B19" s="89"/>
+      <c r="C19" s="173"/>
+      <c r="D19" s="173"/>
+      <c r="E19" s="173"/>
+      <c r="F19" s="173"/>
       <c r="G19" s="37" t="s">
         <v>68</v>
       </c>
@@ -4801,19 +4783,19 @@
       <c r="I19" s="38"/>
       <c r="J19" s="38"/>
       <c r="K19" s="38"/>
-      <c r="L19" s="101"/>
-      <c r="M19" s="102"/>
-      <c r="N19" s="103"/>
+      <c r="L19" s="82"/>
+      <c r="M19" s="83"/>
+      <c r="N19" s="84"/>
     </row>
     <row r="20" spans="1:17" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="108" t="s">
+      <c r="A20" s="88" t="s">
         <v>12</v>
       </c>
-      <c r="B20" s="78"/>
-      <c r="C20" s="59"/>
-      <c r="D20" s="59"/>
-      <c r="E20" s="59"/>
-      <c r="F20" s="59"/>
+      <c r="B20" s="89"/>
+      <c r="C20" s="173"/>
+      <c r="D20" s="173"/>
+      <c r="E20" s="173"/>
+      <c r="F20" s="173"/>
       <c r="G20" s="37" t="s">
         <v>69</v>
       </c>
@@ -4821,19 +4803,19 @@
       <c r="I20" s="38"/>
       <c r="J20" s="38"/>
       <c r="K20" s="38"/>
-      <c r="L20" s="101"/>
-      <c r="M20" s="102"/>
-      <c r="N20" s="103"/>
+      <c r="L20" s="82"/>
+      <c r="M20" s="83"/>
+      <c r="N20" s="84"/>
     </row>
     <row r="21" spans="1:17" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="108" t="s">
+      <c r="A21" s="88" t="s">
         <v>9</v>
       </c>
-      <c r="B21" s="78"/>
-      <c r="C21" s="59"/>
-      <c r="D21" s="59"/>
-      <c r="E21" s="59"/>
-      <c r="F21" s="59"/>
+      <c r="B21" s="89"/>
+      <c r="C21" s="173"/>
+      <c r="D21" s="173"/>
+      <c r="E21" s="173"/>
+      <c r="F21" s="173"/>
       <c r="G21" s="37" t="s">
         <v>70</v>
       </c>
@@ -4841,21 +4823,19 @@
       <c r="I21" s="38"/>
       <c r="J21" s="38"/>
       <c r="K21" s="38"/>
-      <c r="L21" s="102"/>
-      <c r="M21" s="102"/>
-      <c r="N21" s="103"/>
+      <c r="L21" s="83"/>
+      <c r="M21" s="83"/>
+      <c r="N21" s="84"/>
     </row>
     <row r="22" spans="1:17" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="108" t="s">
-        <v>184</v>
-      </c>
-      <c r="B22" s="78"/>
-      <c r="C22" s="131" t="s">
-        <v>103</v>
-      </c>
-      <c r="D22" s="59"/>
-      <c r="E22" s="59"/>
-      <c r="F22" s="59"/>
+      <c r="A22" s="88" t="s">
+        <v>183</v>
+      </c>
+      <c r="B22" s="89"/>
+      <c r="C22" s="294"/>
+      <c r="D22" s="173"/>
+      <c r="E22" s="173"/>
+      <c r="F22" s="173"/>
       <c r="G22" s="37" t="s">
         <v>71</v>
       </c>
@@ -4863,19 +4843,19 @@
       <c r="I22" s="38"/>
       <c r="J22" s="38"/>
       <c r="K22" s="38"/>
-      <c r="L22" s="102"/>
-      <c r="M22" s="102"/>
-      <c r="N22" s="103"/>
+      <c r="L22" s="83"/>
+      <c r="M22" s="83"/>
+      <c r="N22" s="84"/>
     </row>
     <row r="23" spans="1:17" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="108" t="s">
-        <v>127</v>
-      </c>
-      <c r="B23" s="78"/>
-      <c r="C23" s="59"/>
-      <c r="D23" s="59"/>
-      <c r="E23" s="59"/>
-      <c r="F23" s="59"/>
+      <c r="A23" s="88" t="s">
+        <v>126</v>
+      </c>
+      <c r="B23" s="89"/>
+      <c r="C23" s="173"/>
+      <c r="D23" s="173"/>
+      <c r="E23" s="173"/>
+      <c r="F23" s="173"/>
       <c r="G23" s="37" t="s">
         <v>64</v>
       </c>
@@ -4883,19 +4863,19 @@
       <c r="I23" s="38"/>
       <c r="J23" s="38"/>
       <c r="K23" s="38"/>
-      <c r="L23" s="102"/>
-      <c r="M23" s="102"/>
-      <c r="N23" s="103"/>
+      <c r="L23" s="83"/>
+      <c r="M23" s="83"/>
+      <c r="N23" s="84"/>
     </row>
     <row r="24" spans="1:17" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="108" t="s">
-        <v>128</v>
-      </c>
-      <c r="B24" s="78"/>
-      <c r="C24" s="107"/>
-      <c r="D24" s="107"/>
-      <c r="E24" s="107"/>
-      <c r="F24" s="107"/>
+      <c r="A24" s="88" t="s">
+        <v>127</v>
+      </c>
+      <c r="B24" s="89"/>
+      <c r="C24" s="295"/>
+      <c r="D24" s="295"/>
+      <c r="E24" s="295"/>
+      <c r="F24" s="295"/>
       <c r="G24" s="37" t="s">
         <v>75</v>
       </c>
@@ -4903,52 +4883,52 @@
       <c r="I24" s="38"/>
       <c r="J24" s="38"/>
       <c r="K24" s="38"/>
-      <c r="L24" s="186"/>
-      <c r="M24" s="186"/>
-      <c r="N24" s="187"/>
-      <c r="O24" s="186"/>
-      <c r="P24" s="186"/>
-      <c r="Q24" s="187"/>
+      <c r="L24" s="59"/>
+      <c r="M24" s="59"/>
+      <c r="N24" s="60"/>
+      <c r="O24" s="59"/>
+      <c r="P24" s="59"/>
+      <c r="Q24" s="60"/>
     </row>
     <row r="25" spans="1:17" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="109" t="s">
+      <c r="A25" s="153" t="s">
         <v>24</v>
       </c>
-      <c r="B25" s="110"/>
-      <c r="C25" s="110"/>
-      <c r="D25" s="110"/>
-      <c r="E25" s="110"/>
-      <c r="F25" s="110"/>
-      <c r="G25" s="110"/>
-      <c r="H25" s="110"/>
-      <c r="I25" s="110"/>
-      <c r="J25" s="110"/>
-      <c r="K25" s="110"/>
-      <c r="L25" s="110"/>
-      <c r="M25" s="110"/>
-      <c r="N25" s="111"/>
+      <c r="B25" s="154"/>
+      <c r="C25" s="154"/>
+      <c r="D25" s="154"/>
+      <c r="E25" s="154"/>
+      <c r="F25" s="154"/>
+      <c r="G25" s="154"/>
+      <c r="H25" s="154"/>
+      <c r="I25" s="154"/>
+      <c r="J25" s="154"/>
+      <c r="K25" s="154"/>
+      <c r="L25" s="154"/>
+      <c r="M25" s="154"/>
+      <c r="N25" s="155"/>
     </row>
     <row r="26" spans="1:17" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="112" t="s">
+      <c r="A26" s="156" t="s">
         <v>25</v>
       </c>
-      <c r="B26" s="113"/>
-      <c r="C26" s="114" t="s">
+      <c r="B26" s="157"/>
+      <c r="C26" s="158" t="s">
         <v>65</v>
       </c>
-      <c r="D26" s="113"/>
-      <c r="E26" s="189" t="s">
+      <c r="D26" s="157"/>
+      <c r="E26" s="62" t="s">
         <v>29</v>
       </c>
-      <c r="F26" s="190"/>
-      <c r="G26" s="189" t="s">
+      <c r="F26" s="63"/>
+      <c r="G26" s="62" t="s">
         <v>100</v>
       </c>
-      <c r="H26" s="188"/>
-      <c r="I26" s="188" t="s">
+      <c r="H26" s="61"/>
+      <c r="I26" s="61" t="s">
         <v>61</v>
       </c>
-      <c r="J26" s="188"/>
+      <c r="J26" s="61"/>
       <c r="K26" s="45" t="s">
         <v>102</v>
       </c>
@@ -4963,158 +4943,158 @@
       </c>
     </row>
     <row r="27" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="85"/>
-      <c r="B27" s="85"/>
-      <c r="C27" s="85"/>
-      <c r="D27" s="85"/>
-      <c r="E27" s="86"/>
-      <c r="F27" s="86"/>
-      <c r="G27" s="86"/>
-      <c r="H27" s="86"/>
-      <c r="I27" s="86"/>
-      <c r="J27" s="86"/>
+      <c r="A27" s="130"/>
+      <c r="B27" s="130"/>
+      <c r="C27" s="130"/>
+      <c r="D27" s="130"/>
+      <c r="E27" s="64"/>
+      <c r="F27" s="64"/>
+      <c r="G27" s="64"/>
+      <c r="H27" s="64"/>
+      <c r="I27" s="64"/>
+      <c r="J27" s="64"/>
       <c r="K27" s="32"/>
       <c r="L27" s="32"/>
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
     </row>
     <row r="28" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="85"/>
-      <c r="B28" s="85"/>
-      <c r="C28" s="85"/>
-      <c r="D28" s="85"/>
-      <c r="E28" s="86"/>
-      <c r="F28" s="86"/>
-      <c r="G28" s="86"/>
-      <c r="H28" s="86"/>
-      <c r="I28" s="86"/>
-      <c r="J28" s="86"/>
+      <c r="A28" s="130"/>
+      <c r="B28" s="130"/>
+      <c r="C28" s="130"/>
+      <c r="D28" s="130"/>
+      <c r="E28" s="64"/>
+      <c r="F28" s="64"/>
+      <c r="G28" s="64"/>
+      <c r="H28" s="64"/>
+      <c r="I28" s="64"/>
+      <c r="J28" s="64"/>
       <c r="K28" s="32"/>
       <c r="L28" s="32"/>
       <c r="M28" s="2"/>
       <c r="N28" s="2"/>
     </row>
     <row r="29" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="85"/>
-      <c r="B29" s="85"/>
-      <c r="C29" s="85"/>
-      <c r="D29" s="85"/>
-      <c r="E29" s="86"/>
-      <c r="F29" s="86"/>
-      <c r="G29" s="86"/>
-      <c r="H29" s="86"/>
-      <c r="I29" s="86"/>
-      <c r="J29" s="86"/>
+      <c r="A29" s="130"/>
+      <c r="B29" s="130"/>
+      <c r="C29" s="130"/>
+      <c r="D29" s="130"/>
+      <c r="E29" s="64"/>
+      <c r="F29" s="64"/>
+      <c r="G29" s="64"/>
+      <c r="H29" s="64"/>
+      <c r="I29" s="64"/>
+      <c r="J29" s="64"/>
       <c r="K29" s="32"/>
       <c r="L29" s="32"/>
       <c r="M29" s="2"/>
       <c r="N29" s="2"/>
     </row>
     <row r="30" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="85"/>
-      <c r="B30" s="85"/>
-      <c r="C30" s="85"/>
-      <c r="D30" s="85"/>
-      <c r="E30" s="86"/>
-      <c r="F30" s="86"/>
-      <c r="G30" s="86"/>
-      <c r="H30" s="86"/>
-      <c r="I30" s="86"/>
-      <c r="J30" s="86"/>
+      <c r="A30" s="130"/>
+      <c r="B30" s="130"/>
+      <c r="C30" s="130"/>
+      <c r="D30" s="130"/>
+      <c r="E30" s="64"/>
+      <c r="F30" s="64"/>
+      <c r="G30" s="64"/>
+      <c r="H30" s="64"/>
+      <c r="I30" s="64"/>
+      <c r="J30" s="64"/>
       <c r="K30" s="32"/>
       <c r="L30" s="32"/>
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
     </row>
     <row r="31" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="85"/>
-      <c r="B31" s="85"/>
-      <c r="C31" s="85"/>
-      <c r="D31" s="85"/>
-      <c r="E31" s="86"/>
-      <c r="F31" s="86"/>
-      <c r="G31" s="86"/>
-      <c r="H31" s="86"/>
-      <c r="I31" s="86"/>
-      <c r="J31" s="86"/>
+      <c r="A31" s="130"/>
+      <c r="B31" s="130"/>
+      <c r="C31" s="130"/>
+      <c r="D31" s="130"/>
+      <c r="E31" s="64"/>
+      <c r="F31" s="64"/>
+      <c r="G31" s="64"/>
+      <c r="H31" s="64"/>
+      <c r="I31" s="64"/>
+      <c r="J31" s="64"/>
       <c r="K31" s="32"/>
       <c r="L31" s="32"/>
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
     </row>
     <row r="32" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="85"/>
-      <c r="B32" s="85"/>
-      <c r="C32" s="85"/>
-      <c r="D32" s="85"/>
-      <c r="E32" s="86"/>
-      <c r="F32" s="86"/>
-      <c r="G32" s="86"/>
-      <c r="H32" s="86"/>
-      <c r="I32" s="86"/>
-      <c r="J32" s="86"/>
+      <c r="A32" s="130"/>
+      <c r="B32" s="130"/>
+      <c r="C32" s="130"/>
+      <c r="D32" s="130"/>
+      <c r="E32" s="64"/>
+      <c r="F32" s="64"/>
+      <c r="G32" s="64"/>
+      <c r="H32" s="64"/>
+      <c r="I32" s="64"/>
+      <c r="J32" s="64"/>
       <c r="K32" s="32"/>
       <c r="L32" s="32"/>
       <c r="M32" s="2"/>
       <c r="N32" s="2"/>
     </row>
     <row r="33" spans="1:119" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="85"/>
-      <c r="B33" s="85"/>
-      <c r="C33" s="85" t="s">
-        <v>114</v>
-      </c>
-      <c r="D33" s="85"/>
-      <c r="E33" s="86"/>
-      <c r="F33" s="86"/>
-      <c r="G33" s="86"/>
-      <c r="H33" s="86"/>
-      <c r="I33" s="86"/>
-      <c r="J33" s="86"/>
+      <c r="A33" s="130"/>
+      <c r="B33" s="130"/>
+      <c r="C33" s="130" t="s">
+        <v>113</v>
+      </c>
+      <c r="D33" s="130"/>
+      <c r="E33" s="64"/>
+      <c r="F33" s="64"/>
+      <c r="G33" s="64"/>
+      <c r="H33" s="64"/>
+      <c r="I33" s="64"/>
+      <c r="J33" s="64"/>
       <c r="K33" s="32"/>
       <c r="L33" s="32"/>
       <c r="M33" s="2"/>
       <c r="N33" s="2"/>
     </row>
     <row r="34" spans="1:119" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="85"/>
-      <c r="B34" s="85"/>
-      <c r="C34" s="85"/>
-      <c r="D34" s="85"/>
-      <c r="E34" s="86"/>
-      <c r="F34" s="86"/>
-      <c r="G34" s="86"/>
-      <c r="H34" s="86"/>
-      <c r="I34" s="86"/>
-      <c r="J34" s="86"/>
+      <c r="A34" s="130"/>
+      <c r="B34" s="130"/>
+      <c r="C34" s="130"/>
+      <c r="D34" s="130"/>
+      <c r="E34" s="64"/>
+      <c r="F34" s="64"/>
+      <c r="G34" s="64"/>
+      <c r="H34" s="64"/>
+      <c r="I34" s="64"/>
+      <c r="J34" s="64"/>
       <c r="K34" s="32"/>
       <c r="L34" s="32"/>
       <c r="M34" s="2"/>
       <c r="N34" s="2"/>
     </row>
     <row r="35" spans="1:119" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="85"/>
-      <c r="B35" s="85"/>
-      <c r="C35" s="85"/>
-      <c r="D35" s="85"/>
-      <c r="E35" s="86"/>
-      <c r="F35" s="86"/>
-      <c r="G35" s="86"/>
-      <c r="H35" s="86"/>
-      <c r="I35" s="86"/>
-      <c r="J35" s="86"/>
+      <c r="A35" s="130"/>
+      <c r="B35" s="130"/>
+      <c r="C35" s="130"/>
+      <c r="D35" s="130"/>
+      <c r="E35" s="64"/>
+      <c r="F35" s="64"/>
+      <c r="G35" s="64"/>
+      <c r="H35" s="64"/>
+      <c r="I35" s="64"/>
+      <c r="J35" s="64"/>
       <c r="K35" s="32"/>
       <c r="L35" s="32"/>
       <c r="M35" s="2"/>
       <c r="N35" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="36" spans="1:119" s="4" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="80" t="s">
-        <v>106</v>
-      </c>
-      <c r="B36" s="81"/>
+      <c r="A36" s="169" t="s">
+        <v>105</v>
+      </c>
+      <c r="B36" s="170"/>
       <c r="C36" s="33" t="s">
         <v>20</v>
       </c>
@@ -5127,23 +5107,23 @@
         <v>32</v>
       </c>
       <c r="H36" s="34"/>
-      <c r="I36" s="76" t="s">
-        <v>107</v>
-      </c>
-      <c r="J36" s="77"/>
+      <c r="I36" s="187" t="s">
+        <v>106</v>
+      </c>
+      <c r="J36" s="188"/>
       <c r="K36" s="36" t="s">
         <v>66</v>
       </c>
-      <c r="L36" s="82" t="s">
+      <c r="L36" s="171" t="s">
+        <v>107</v>
+      </c>
+      <c r="M36" s="172"/>
+      <c r="N36" s="35" t="s">
         <v>108</v>
-      </c>
-      <c r="M36" s="83"/>
-      <c r="N36" s="35" t="s">
-        <v>109</v>
       </c>
       <c r="O36" s="6"/>
       <c r="P36" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="Q36"/>
       <c r="R36"/>
@@ -5250,21 +5230,21 @@
       <c r="DO36"/>
     </row>
     <row r="37" spans="1:119" s="5" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="84" t="s">
-        <v>110</v>
-      </c>
-      <c r="B37" s="59"/>
-      <c r="C37" s="60"/>
-      <c r="D37" s="60"/>
-      <c r="E37" s="60"/>
-      <c r="F37" s="60"/>
-      <c r="G37" s="79"/>
-      <c r="H37" s="79"/>
-      <c r="I37" s="79"/>
-      <c r="J37" s="79"/>
+      <c r="A37" s="173" t="s">
+        <v>109</v>
+      </c>
+      <c r="B37" s="118"/>
+      <c r="C37" s="174"/>
+      <c r="D37" s="174"/>
+      <c r="E37" s="174"/>
+      <c r="F37" s="174"/>
+      <c r="G37" s="159"/>
+      <c r="H37" s="159"/>
+      <c r="I37" s="159"/>
+      <c r="J37" s="159"/>
       <c r="K37" s="7"/>
-      <c r="L37" s="59"/>
-      <c r="M37" s="59"/>
+      <c r="L37" s="118"/>
+      <c r="M37" s="118"/>
       <c r="N37" s="29"/>
       <c r="O37" s="6"/>
       <c r="P37"/>
@@ -5373,338 +5353,338 @@
       <c r="DO37"/>
     </row>
     <row r="38" spans="1:119" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="84" t="s">
+      <c r="A38" s="173" t="s">
+        <v>110</v>
+      </c>
+      <c r="B38" s="118"/>
+      <c r="C38" s="174"/>
+      <c r="D38" s="174"/>
+      <c r="E38" s="174"/>
+      <c r="F38" s="174"/>
+      <c r="G38" s="159"/>
+      <c r="H38" s="159"/>
+      <c r="I38" s="89"/>
+      <c r="J38" s="89"/>
+      <c r="K38" s="7"/>
+      <c r="L38" s="118"/>
+      <c r="M38" s="118"/>
+      <c r="N38" s="29"/>
+    </row>
+    <row r="39" spans="1:119" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="118" t="s">
         <v>111</v>
       </c>
-      <c r="B38" s="59"/>
-      <c r="C38" s="60"/>
-      <c r="D38" s="60"/>
-      <c r="E38" s="60"/>
-      <c r="F38" s="60"/>
-      <c r="G38" s="79"/>
-      <c r="H38" s="79"/>
-      <c r="I38" s="78"/>
-      <c r="J38" s="78"/>
-      <c r="K38" s="7"/>
-      <c r="L38" s="59"/>
-      <c r="M38" s="59"/>
-      <c r="N38" s="29"/>
-    </row>
-    <row r="39" spans="1:119" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="59" t="s">
+      <c r="B39" s="118"/>
+      <c r="C39" s="174"/>
+      <c r="D39" s="174"/>
+      <c r="E39" s="174"/>
+      <c r="F39" s="174"/>
+      <c r="G39" s="159"/>
+      <c r="H39" s="159"/>
+      <c r="I39" s="89"/>
+      <c r="J39" s="89"/>
+      <c r="K39" s="7"/>
+      <c r="L39" s="118"/>
+      <c r="M39" s="118"/>
+      <c r="N39" s="29"/>
+    </row>
+    <row r="40" spans="1:119" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="118" t="s">
         <v>112</v>
       </c>
-      <c r="B39" s="59"/>
-      <c r="C39" s="60"/>
-      <c r="D39" s="60"/>
-      <c r="E39" s="60"/>
-      <c r="F39" s="60"/>
-      <c r="G39" s="79"/>
-      <c r="H39" s="79"/>
-      <c r="I39" s="78"/>
-      <c r="J39" s="78"/>
-      <c r="K39" s="7"/>
-      <c r="L39" s="59"/>
-      <c r="M39" s="59"/>
-      <c r="N39" s="29"/>
-    </row>
-    <row r="40" spans="1:119" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="59" t="s">
-        <v>113</v>
-      </c>
-      <c r="B40" s="59"/>
-      <c r="C40" s="60"/>
-      <c r="D40" s="60"/>
-      <c r="E40" s="60"/>
-      <c r="F40" s="60"/>
-      <c r="G40" s="79"/>
-      <c r="H40" s="79"/>
-      <c r="I40" s="78"/>
-      <c r="J40" s="78"/>
+      <c r="B40" s="118"/>
+      <c r="C40" s="174"/>
+      <c r="D40" s="174"/>
+      <c r="E40" s="174"/>
+      <c r="F40" s="174"/>
+      <c r="G40" s="159"/>
+      <c r="H40" s="159"/>
+      <c r="I40" s="89"/>
+      <c r="J40" s="89"/>
       <c r="K40" s="7"/>
-      <c r="L40" s="59"/>
-      <c r="M40" s="59"/>
+      <c r="L40" s="118"/>
+      <c r="M40" s="118"/>
       <c r="N40" s="29"/>
     </row>
     <row r="41" spans="1:119" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="128"/>
-      <c r="B41" s="129"/>
-      <c r="C41" s="129"/>
-      <c r="D41" s="129"/>
-      <c r="E41" s="129"/>
-      <c r="F41" s="129"/>
-      <c r="G41" s="129"/>
-      <c r="H41" s="129"/>
-      <c r="I41" s="129"/>
-      <c r="J41" s="129"/>
-      <c r="K41" s="129"/>
-      <c r="L41" s="129"/>
-      <c r="M41" s="129"/>
-      <c r="N41" s="130"/>
+      <c r="A41" s="140"/>
+      <c r="B41" s="141"/>
+      <c r="C41" s="141"/>
+      <c r="D41" s="141"/>
+      <c r="E41" s="141"/>
+      <c r="F41" s="141"/>
+      <c r="G41" s="141"/>
+      <c r="H41" s="141"/>
+      <c r="I41" s="141"/>
+      <c r="J41" s="141"/>
+      <c r="K41" s="141"/>
+      <c r="L41" s="141"/>
+      <c r="M41" s="141"/>
+      <c r="N41" s="142"/>
     </row>
     <row r="42" spans="1:119" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="71" t="s">
+      <c r="A42" s="85" t="s">
         <v>13</v>
       </c>
-      <c r="B42" s="72"/>
-      <c r="C42" s="74"/>
-      <c r="D42" s="75"/>
+      <c r="B42" s="185"/>
+      <c r="C42" s="186"/>
+      <c r="D42" s="86"/>
       <c r="E42" s="40"/>
       <c r="F42" s="41"/>
-      <c r="G42" s="191" t="s">
-        <v>105</v>
-      </c>
-      <c r="H42" s="192"/>
-      <c r="I42" s="192"/>
-      <c r="J42" s="192"/>
-      <c r="K42" s="192"/>
-      <c r="L42" s="192"/>
-      <c r="M42" s="192"/>
-      <c r="N42" s="193"/>
+      <c r="G42" s="160" t="s">
+        <v>104</v>
+      </c>
+      <c r="H42" s="161"/>
+      <c r="I42" s="161"/>
+      <c r="J42" s="161"/>
+      <c r="K42" s="161"/>
+      <c r="L42" s="161"/>
+      <c r="M42" s="161"/>
+      <c r="N42" s="162"/>
     </row>
     <row r="43" spans="1:119" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="71" t="s">
+      <c r="A43" s="85" t="s">
         <v>26</v>
       </c>
-      <c r="B43" s="73"/>
-      <c r="C43" s="74"/>
-      <c r="D43" s="75"/>
-      <c r="E43" s="74"/>
-      <c r="F43" s="75"/>
-      <c r="G43" s="194"/>
-      <c r="H43" s="195"/>
-      <c r="I43" s="195"/>
-      <c r="J43" s="195"/>
-      <c r="K43" s="195"/>
-      <c r="L43" s="195"/>
-      <c r="M43" s="195"/>
-      <c r="N43" s="196"/>
+      <c r="B43" s="87"/>
+      <c r="C43" s="186"/>
+      <c r="D43" s="86"/>
+      <c r="E43" s="186"/>
+      <c r="F43" s="86"/>
+      <c r="G43" s="163"/>
+      <c r="H43" s="164"/>
+      <c r="I43" s="164"/>
+      <c r="J43" s="164"/>
+      <c r="K43" s="164"/>
+      <c r="L43" s="164"/>
+      <c r="M43" s="164"/>
+      <c r="N43" s="165"/>
     </row>
     <row r="44" spans="1:119" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="71" t="s">
+      <c r="A44" s="85" t="s">
         <v>14</v>
       </c>
-      <c r="B44" s="73"/>
-      <c r="C44" s="74"/>
-      <c r="D44" s="75"/>
-      <c r="E44" s="74"/>
-      <c r="F44" s="75"/>
-      <c r="G44" s="194"/>
-      <c r="H44" s="195"/>
-      <c r="I44" s="195"/>
-      <c r="J44" s="195"/>
-      <c r="K44" s="195"/>
-      <c r="L44" s="195"/>
-      <c r="M44" s="195"/>
-      <c r="N44" s="196"/>
+      <c r="B44" s="87"/>
+      <c r="C44" s="186"/>
+      <c r="D44" s="86"/>
+      <c r="E44" s="186"/>
+      <c r="F44" s="86"/>
+      <c r="G44" s="163"/>
+      <c r="H44" s="164"/>
+      <c r="I44" s="164"/>
+      <c r="J44" s="164"/>
+      <c r="K44" s="164"/>
+      <c r="L44" s="164"/>
+      <c r="M44" s="164"/>
+      <c r="N44" s="165"/>
     </row>
     <row r="45" spans="1:119" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="71" t="s">
+      <c r="A45" s="85" t="s">
         <v>83</v>
       </c>
-      <c r="B45" s="73"/>
-      <c r="C45" s="74"/>
-      <c r="D45" s="75"/>
-      <c r="E45" s="74"/>
-      <c r="F45" s="75"/>
-      <c r="G45" s="197"/>
-      <c r="H45" s="198"/>
-      <c r="I45" s="198"/>
-      <c r="J45" s="198"/>
-      <c r="K45" s="198"/>
-      <c r="L45" s="198"/>
-      <c r="M45" s="198"/>
-      <c r="N45" s="199"/>
+      <c r="B45" s="87"/>
+      <c r="C45" s="186"/>
+      <c r="D45" s="86"/>
+      <c r="E45" s="186"/>
+      <c r="F45" s="86"/>
+      <c r="G45" s="166"/>
+      <c r="H45" s="167"/>
+      <c r="I45" s="167"/>
+      <c r="J45" s="167"/>
+      <c r="K45" s="167"/>
+      <c r="L45" s="167"/>
+      <c r="M45" s="167"/>
+      <c r="N45" s="168"/>
     </row>
     <row r="46" spans="1:119" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="122"/>
-      <c r="B46" s="123"/>
-      <c r="C46" s="123"/>
-      <c r="D46" s="123"/>
-      <c r="E46" s="123"/>
-      <c r="F46" s="123"/>
-      <c r="G46" s="123"/>
-      <c r="H46" s="123"/>
-      <c r="I46" s="123"/>
-      <c r="J46" s="123"/>
-      <c r="K46" s="123"/>
-      <c r="L46" s="123"/>
-      <c r="M46" s="123"/>
-      <c r="N46" s="124"/>
+      <c r="A46" s="137"/>
+      <c r="B46" s="138"/>
+      <c r="C46" s="138"/>
+      <c r="D46" s="138"/>
+      <c r="E46" s="138"/>
+      <c r="F46" s="138"/>
+      <c r="G46" s="138"/>
+      <c r="H46" s="138"/>
+      <c r="I46" s="138"/>
+      <c r="J46" s="138"/>
+      <c r="K46" s="138"/>
+      <c r="L46" s="138"/>
+      <c r="M46" s="138"/>
+      <c r="N46" s="139"/>
     </row>
     <row r="47" spans="1:119" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="125" t="s">
+      <c r="A47" s="71" t="s">
         <v>2</v>
       </c>
-      <c r="B47" s="126"/>
-      <c r="C47" s="126"/>
-      <c r="D47" s="126"/>
-      <c r="E47" s="126"/>
-      <c r="F47" s="126"/>
-      <c r="G47" s="126"/>
-      <c r="H47" s="126"/>
-      <c r="I47" s="126"/>
-      <c r="J47" s="126"/>
-      <c r="K47" s="126"/>
-      <c r="L47" s="126"/>
-      <c r="M47" s="126"/>
-      <c r="N47" s="127"/>
+      <c r="B47" s="72"/>
+      <c r="C47" s="72"/>
+      <c r="D47" s="72"/>
+      <c r="E47" s="72"/>
+      <c r="F47" s="72"/>
+      <c r="G47" s="72"/>
+      <c r="H47" s="72"/>
+      <c r="I47" s="72"/>
+      <c r="J47" s="72"/>
+      <c r="K47" s="72"/>
+      <c r="L47" s="72"/>
+      <c r="M47" s="72"/>
+      <c r="N47" s="73"/>
     </row>
     <row r="48" spans="1:119" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="116" t="s">
+      <c r="A48" s="131" t="s">
         <v>91</v>
       </c>
-      <c r="B48" s="117"/>
-      <c r="C48" s="117"/>
-      <c r="D48" s="117"/>
-      <c r="E48" s="117"/>
-      <c r="F48" s="117"/>
-      <c r="G48" s="117"/>
-      <c r="H48" s="117"/>
-      <c r="I48" s="117"/>
-      <c r="J48" s="117"/>
-      <c r="K48" s="117"/>
-      <c r="L48" s="117"/>
-      <c r="M48" s="117"/>
-      <c r="N48" s="118"/>
+      <c r="B48" s="132"/>
+      <c r="C48" s="132"/>
+      <c r="D48" s="132"/>
+      <c r="E48" s="132"/>
+      <c r="F48" s="132"/>
+      <c r="G48" s="132"/>
+      <c r="H48" s="132"/>
+      <c r="I48" s="132"/>
+      <c r="J48" s="132"/>
+      <c r="K48" s="132"/>
+      <c r="L48" s="132"/>
+      <c r="M48" s="132"/>
+      <c r="N48" s="133"/>
     </row>
     <row r="49" spans="1:14" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="119"/>
-      <c r="B49" s="120"/>
-      <c r="C49" s="120"/>
-      <c r="D49" s="120"/>
-      <c r="E49" s="120"/>
-      <c r="F49" s="120"/>
-      <c r="G49" s="120"/>
-      <c r="H49" s="120"/>
-      <c r="I49" s="120"/>
-      <c r="J49" s="120"/>
-      <c r="K49" s="120"/>
-      <c r="L49" s="120"/>
-      <c r="M49" s="120"/>
-      <c r="N49" s="121"/>
+      <c r="A49" s="134"/>
+      <c r="B49" s="135"/>
+      <c r="C49" s="135"/>
+      <c r="D49" s="135"/>
+      <c r="E49" s="135"/>
+      <c r="F49" s="135"/>
+      <c r="G49" s="135"/>
+      <c r="H49" s="135"/>
+      <c r="I49" s="135"/>
+      <c r="J49" s="135"/>
+      <c r="K49" s="135"/>
+      <c r="L49" s="135"/>
+      <c r="M49" s="135"/>
+      <c r="N49" s="136"/>
     </row>
     <row r="50" spans="1:14" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="104" t="s">
+      <c r="A50" s="150" t="s">
         <v>15</v>
       </c>
-      <c r="B50" s="105"/>
-      <c r="C50" s="105"/>
-      <c r="D50" s="105"/>
-      <c r="E50" s="105" t="s">
+      <c r="B50" s="151"/>
+      <c r="C50" s="151"/>
+      <c r="D50" s="151"/>
+      <c r="E50" s="151" t="s">
         <v>16</v>
       </c>
-      <c r="F50" s="105"/>
-      <c r="G50" s="105"/>
-      <c r="H50" s="105"/>
-      <c r="I50" s="105"/>
-      <c r="J50" s="105"/>
-      <c r="K50" s="105" t="s">
+      <c r="F50" s="151"/>
+      <c r="G50" s="151"/>
+      <c r="H50" s="151"/>
+      <c r="I50" s="151"/>
+      <c r="J50" s="151"/>
+      <c r="K50" s="151" t="s">
         <v>17</v>
       </c>
-      <c r="L50" s="105"/>
-      <c r="M50" s="105"/>
-      <c r="N50" s="106"/>
+      <c r="L50" s="151"/>
+      <c r="M50" s="151"/>
+      <c r="N50" s="152"/>
     </row>
     <row r="51" spans="1:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="97"/>
-      <c r="B51" s="98"/>
-      <c r="C51" s="98"/>
-      <c r="D51" s="99"/>
-      <c r="E51" s="100"/>
-      <c r="F51" s="98"/>
-      <c r="G51" s="98"/>
-      <c r="H51" s="98"/>
-      <c r="I51" s="98"/>
-      <c r="J51" s="99"/>
-      <c r="K51" s="100"/>
-      <c r="L51" s="98"/>
-      <c r="M51" s="98"/>
-      <c r="N51" s="115"/>
+      <c r="A51" s="148"/>
+      <c r="B51" s="126"/>
+      <c r="C51" s="126"/>
+      <c r="D51" s="149"/>
+      <c r="E51" s="125"/>
+      <c r="F51" s="126"/>
+      <c r="G51" s="126"/>
+      <c r="H51" s="126"/>
+      <c r="I51" s="126"/>
+      <c r="J51" s="149"/>
+      <c r="K51" s="125"/>
+      <c r="L51" s="126"/>
+      <c r="M51" s="126"/>
+      <c r="N51" s="127"/>
     </row>
     <row r="52" spans="1:14" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="87"/>
+      <c r="A52" s="143"/>
       <c r="B52" s="55"/>
       <c r="C52" s="55"/>
-      <c r="D52" s="88"/>
-      <c r="E52" s="89"/>
+      <c r="D52" s="144"/>
+      <c r="E52" s="128"/>
       <c r="F52" s="55"/>
       <c r="G52" s="55"/>
       <c r="H52" s="55"/>
       <c r="I52" s="55"/>
-      <c r="J52" s="88"/>
-      <c r="K52" s="89"/>
+      <c r="J52" s="144"/>
+      <c r="K52" s="128"/>
       <c r="L52" s="55"/>
       <c r="M52" s="55"/>
-      <c r="N52" s="90"/>
+      <c r="N52" s="129"/>
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A53" s="87"/>
+      <c r="A53" s="143"/>
       <c r="B53" s="55"/>
       <c r="C53" s="55"/>
-      <c r="D53" s="88"/>
-      <c r="E53" s="89"/>
+      <c r="D53" s="144"/>
+      <c r="E53" s="128"/>
       <c r="F53" s="55"/>
       <c r="G53" s="55"/>
       <c r="H53" s="55"/>
       <c r="I53" s="55"/>
-      <c r="J53" s="88"/>
-      <c r="K53" s="89"/>
+      <c r="J53" s="144"/>
+      <c r="K53" s="128"/>
       <c r="L53" s="55"/>
       <c r="M53" s="55"/>
-      <c r="N53" s="90"/>
+      <c r="N53" s="129"/>
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A54" s="87"/>
+      <c r="A54" s="143"/>
       <c r="B54" s="55"/>
       <c r="C54" s="55"/>
-      <c r="D54" s="88"/>
-      <c r="E54" s="89"/>
+      <c r="D54" s="144"/>
+      <c r="E54" s="128"/>
       <c r="F54" s="55"/>
       <c r="G54" s="55"/>
       <c r="H54" s="55"/>
       <c r="I54" s="55"/>
-      <c r="J54" s="88"/>
-      <c r="K54" s="89"/>
+      <c r="J54" s="144"/>
+      <c r="K54" s="128"/>
       <c r="L54" s="55"/>
       <c r="M54" s="55"/>
-      <c r="N54" s="90"/>
+      <c r="N54" s="129"/>
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A55" s="87"/>
+      <c r="A55" s="143"/>
       <c r="B55" s="55"/>
       <c r="C55" s="55"/>
-      <c r="D55" s="88"/>
-      <c r="E55" s="89"/>
+      <c r="D55" s="144"/>
+      <c r="E55" s="128"/>
       <c r="F55" s="55"/>
       <c r="G55" s="55"/>
       <c r="H55" s="55"/>
       <c r="I55" s="55"/>
-      <c r="J55" s="88"/>
-      <c r="K55" s="89"/>
+      <c r="J55" s="144"/>
+      <c r="K55" s="128"/>
       <c r="L55" s="55"/>
       <c r="M55" s="55"/>
-      <c r="N55" s="90"/>
+      <c r="N55" s="129"/>
     </row>
     <row r="56" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="91"/>
-      <c r="B56" s="92"/>
-      <c r="C56" s="92"/>
-      <c r="D56" s="93"/>
-      <c r="E56" s="94"/>
-      <c r="F56" s="92"/>
-      <c r="G56" s="92"/>
-      <c r="H56" s="92"/>
-      <c r="I56" s="92"/>
-      <c r="J56" s="93"/>
-      <c r="K56" s="95"/>
-      <c r="L56" s="92"/>
-      <c r="M56" s="92"/>
-      <c r="N56" s="96"/>
+      <c r="A56" s="145"/>
+      <c r="B56" s="66"/>
+      <c r="C56" s="66"/>
+      <c r="D56" s="146"/>
+      <c r="E56" s="147"/>
+      <c r="F56" s="66"/>
+      <c r="G56" s="66"/>
+      <c r="H56" s="66"/>
+      <c r="I56" s="66"/>
+      <c r="J56" s="146"/>
+      <c r="K56" s="65"/>
+      <c r="L56" s="66"/>
+      <c r="M56" s="66"/>
+      <c r="N56" s="67"/>
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A57" s="28" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B57" s="8"/>
       <c r="C57" s="8"/>
@@ -5725,27 +5705,140 @@
       </c>
     </row>
     <row r="59" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="K59" s="95"/>
-      <c r="L59" s="92"/>
-      <c r="M59" s="92"/>
-      <c r="N59" s="96"/>
+      <c r="K59" s="65"/>
+      <c r="L59" s="66"/>
+      <c r="M59" s="66"/>
+      <c r="N59" s="67"/>
     </row>
   </sheetData>
   <mergeCells count="165">
-    <mergeCell ref="L24:N24"/>
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="O24:Q24"/>
-    <mergeCell ref="K56:N56"/>
-    <mergeCell ref="I30:J30"/>
-    <mergeCell ref="G39:H39"/>
-    <mergeCell ref="G42:N45"/>
-    <mergeCell ref="L40:M40"/>
-    <mergeCell ref="E39:F39"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="C1:L2"/>
+    <mergeCell ref="C3:L3"/>
+    <mergeCell ref="M1:N2"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="E43:F43"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="E44:F44"/>
+    <mergeCell ref="C45:D45"/>
+    <mergeCell ref="E45:F45"/>
+    <mergeCell ref="I36:J36"/>
+    <mergeCell ref="I39:J39"/>
+    <mergeCell ref="L39:M39"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="E40:F40"/>
+    <mergeCell ref="G40:H40"/>
+    <mergeCell ref="I40:J40"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="L36:M36"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="I37:J37"/>
+    <mergeCell ref="L37:M37"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="E38:F38"/>
+    <mergeCell ref="G38:H38"/>
+    <mergeCell ref="I38:J38"/>
+    <mergeCell ref="L38:M38"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="I35:J35"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="I33:J33"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="G34:H34"/>
+    <mergeCell ref="I34:J34"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="I31:J31"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="I32:J32"/>
+    <mergeCell ref="A55:D55"/>
+    <mergeCell ref="E55:J55"/>
+    <mergeCell ref="K55:N55"/>
+    <mergeCell ref="A56:D56"/>
+    <mergeCell ref="E56:J56"/>
+    <mergeCell ref="K59:N59"/>
+    <mergeCell ref="A51:D54"/>
+    <mergeCell ref="E51:J54"/>
+    <mergeCell ref="L19:N19"/>
+    <mergeCell ref="L20:N20"/>
+    <mergeCell ref="A50:D50"/>
+    <mergeCell ref="E50:J50"/>
+    <mergeCell ref="K50:N50"/>
+    <mergeCell ref="C24:F24"/>
+    <mergeCell ref="C23:F23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A25:N25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="K51:N54"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="A48:N49"/>
+    <mergeCell ref="A46:N46"/>
+    <mergeCell ref="A47:N47"/>
+    <mergeCell ref="A41:N41"/>
+    <mergeCell ref="C22:F22"/>
+    <mergeCell ref="L22:N22"/>
+    <mergeCell ref="L23:N23"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="F10:N10"/>
+    <mergeCell ref="F11:N11"/>
+    <mergeCell ref="F12:N12"/>
+    <mergeCell ref="L17:N17"/>
+    <mergeCell ref="C16:F16"/>
+    <mergeCell ref="C17:F17"/>
+    <mergeCell ref="C18:F18"/>
+    <mergeCell ref="C19:F19"/>
+    <mergeCell ref="C20:F20"/>
+    <mergeCell ref="G16:K16"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="G15:K15"/>
+    <mergeCell ref="C21:F21"/>
+    <mergeCell ref="L21:N21"/>
     <mergeCell ref="C4:L4"/>
     <mergeCell ref="J5:N5"/>
     <mergeCell ref="A1:B4"/>
@@ -5770,133 +5863,20 @@
     <mergeCell ref="A11:E11"/>
     <mergeCell ref="A12:E12"/>
     <mergeCell ref="A13:E13"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="F10:N10"/>
-    <mergeCell ref="F11:N11"/>
-    <mergeCell ref="F12:N12"/>
-    <mergeCell ref="L17:N17"/>
-    <mergeCell ref="C16:F16"/>
-    <mergeCell ref="C17:F17"/>
-    <mergeCell ref="C18:F18"/>
-    <mergeCell ref="C19:F19"/>
-    <mergeCell ref="C20:F20"/>
-    <mergeCell ref="G16:K16"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="G15:K15"/>
-    <mergeCell ref="C21:F21"/>
-    <mergeCell ref="L21:N21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="K51:N54"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="I29:J29"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="A48:N49"/>
-    <mergeCell ref="A46:N46"/>
-    <mergeCell ref="A47:N47"/>
-    <mergeCell ref="A41:N41"/>
-    <mergeCell ref="C22:F22"/>
-    <mergeCell ref="L22:N22"/>
-    <mergeCell ref="L23:N23"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="A55:D55"/>
-    <mergeCell ref="E55:J55"/>
-    <mergeCell ref="K55:N55"/>
-    <mergeCell ref="A56:D56"/>
-    <mergeCell ref="E56:J56"/>
-    <mergeCell ref="K59:N59"/>
-    <mergeCell ref="A51:D54"/>
-    <mergeCell ref="E51:J54"/>
-    <mergeCell ref="L19:N19"/>
-    <mergeCell ref="L20:N20"/>
-    <mergeCell ref="A50:D50"/>
-    <mergeCell ref="E50:J50"/>
-    <mergeCell ref="K50:N50"/>
-    <mergeCell ref="C24:F24"/>
-    <mergeCell ref="C23:F23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A25:N25"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="I31:J31"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="G32:H32"/>
-    <mergeCell ref="I32:J32"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="G35:H35"/>
-    <mergeCell ref="I35:J35"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="G33:H33"/>
-    <mergeCell ref="I33:J33"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="G34:H34"/>
-    <mergeCell ref="I34:J34"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="L36:M36"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="E37:F37"/>
-    <mergeCell ref="G37:H37"/>
-    <mergeCell ref="I37:J37"/>
-    <mergeCell ref="L37:M37"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="E38:F38"/>
-    <mergeCell ref="G38:H38"/>
-    <mergeCell ref="I38:J38"/>
-    <mergeCell ref="L38:M38"/>
-    <mergeCell ref="A39:B39"/>
-    <mergeCell ref="C39:D39"/>
-    <mergeCell ref="C1:L2"/>
-    <mergeCell ref="C3:L3"/>
-    <mergeCell ref="M1:N2"/>
-    <mergeCell ref="A42:B42"/>
-    <mergeCell ref="A43:B43"/>
-    <mergeCell ref="A44:B44"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="C42:D42"/>
-    <mergeCell ref="C43:D43"/>
-    <mergeCell ref="E43:F43"/>
-    <mergeCell ref="C44:D44"/>
-    <mergeCell ref="E44:F44"/>
-    <mergeCell ref="C45:D45"/>
-    <mergeCell ref="E45:F45"/>
-    <mergeCell ref="I36:J36"/>
-    <mergeCell ref="I39:J39"/>
-    <mergeCell ref="L39:M39"/>
-    <mergeCell ref="A40:B40"/>
-    <mergeCell ref="C40:D40"/>
-    <mergeCell ref="E40:F40"/>
-    <mergeCell ref="G40:H40"/>
-    <mergeCell ref="I40:J40"/>
+    <mergeCell ref="L24:N24"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="O24:Q24"/>
+    <mergeCell ref="K56:N56"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="G39:H39"/>
+    <mergeCell ref="G42:N45"/>
+    <mergeCell ref="L40:M40"/>
+    <mergeCell ref="E39:F39"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A55:D55" xr:uid="{D5153263-A3F1-4A1D-854B-B463AC659398}">
@@ -5942,134 +5922,134 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="144"/>
-      <c r="B1" s="145"/>
-      <c r="C1" s="61" t="s">
+      <c r="A1" s="74"/>
+      <c r="B1" s="75"/>
+      <c r="C1" s="175" t="s">
         <v>86</v>
       </c>
-      <c r="D1" s="62"/>
-      <c r="E1" s="62"/>
-      <c r="F1" s="62"/>
-      <c r="G1" s="62"/>
-      <c r="H1" s="62"/>
-      <c r="I1" s="62"/>
-      <c r="J1" s="62"/>
-      <c r="K1" s="62"/>
-      <c r="L1" s="62"/>
-      <c r="M1" s="62"/>
-      <c r="N1" s="62"/>
-      <c r="O1" s="211"/>
+      <c r="D1" s="176"/>
+      <c r="E1" s="176"/>
+      <c r="F1" s="176"/>
+      <c r="G1" s="176"/>
+      <c r="H1" s="176"/>
+      <c r="I1" s="176"/>
+      <c r="J1" s="176"/>
+      <c r="K1" s="176"/>
+      <c r="L1" s="176"/>
+      <c r="M1" s="176"/>
+      <c r="N1" s="176"/>
+      <c r="O1" s="189"/>
     </row>
     <row r="2" spans="1:15" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="146"/>
-      <c r="B2" s="147"/>
-      <c r="C2" s="63"/>
-      <c r="D2" s="64"/>
-      <c r="E2" s="64"/>
-      <c r="F2" s="64"/>
-      <c r="G2" s="64"/>
-      <c r="H2" s="64"/>
-      <c r="I2" s="64"/>
-      <c r="J2" s="64"/>
-      <c r="K2" s="64"/>
-      <c r="L2" s="64"/>
-      <c r="M2" s="64"/>
-      <c r="N2" s="64"/>
-      <c r="O2" s="212"/>
+      <c r="A2" s="76"/>
+      <c r="B2" s="77"/>
+      <c r="C2" s="177"/>
+      <c r="D2" s="178"/>
+      <c r="E2" s="178"/>
+      <c r="F2" s="178"/>
+      <c r="G2" s="178"/>
+      <c r="H2" s="178"/>
+      <c r="I2" s="178"/>
+      <c r="J2" s="178"/>
+      <c r="K2" s="178"/>
+      <c r="L2" s="178"/>
+      <c r="M2" s="178"/>
+      <c r="N2" s="178"/>
+      <c r="O2" s="190"/>
     </row>
     <row r="3" spans="1:15" s="1" customFormat="1" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="146"/>
-      <c r="B3" s="147"/>
-      <c r="C3" s="65" t="s">
+      <c r="A3" s="76"/>
+      <c r="B3" s="77"/>
+      <c r="C3" s="179" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="66"/>
-      <c r="E3" s="66"/>
-      <c r="F3" s="66"/>
-      <c r="G3" s="66"/>
-      <c r="H3" s="66"/>
-      <c r="I3" s="66"/>
-      <c r="J3" s="66"/>
-      <c r="K3" s="66"/>
-      <c r="L3" s="66"/>
-      <c r="M3" s="66"/>
-      <c r="N3" s="66"/>
-      <c r="O3" s="213"/>
+      <c r="D3" s="180"/>
+      <c r="E3" s="180"/>
+      <c r="F3" s="180"/>
+      <c r="G3" s="180"/>
+      <c r="H3" s="180"/>
+      <c r="I3" s="180"/>
+      <c r="J3" s="180"/>
+      <c r="K3" s="180"/>
+      <c r="L3" s="180"/>
+      <c r="M3" s="180"/>
+      <c r="N3" s="180"/>
+      <c r="O3" s="191"/>
     </row>
     <row r="4" spans="1:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="206" t="s">
-        <v>118</v>
-      </c>
-      <c r="B4" s="177"/>
-      <c r="C4" s="177"/>
-      <c r="D4" s="177"/>
-      <c r="E4" s="177"/>
-      <c r="F4" s="177"/>
-      <c r="G4" s="177"/>
-      <c r="H4" s="177"/>
-      <c r="I4" s="178"/>
-      <c r="J4" s="170" t="s">
+      <c r="A4" s="210" t="s">
+        <v>117</v>
+      </c>
+      <c r="B4" s="109"/>
+      <c r="C4" s="109"/>
+      <c r="D4" s="109"/>
+      <c r="E4" s="109"/>
+      <c r="F4" s="109"/>
+      <c r="G4" s="109"/>
+      <c r="H4" s="109"/>
+      <c r="I4" s="110"/>
+      <c r="J4" s="102" t="s">
         <v>18</v>
       </c>
-      <c r="K4" s="171"/>
-      <c r="L4" s="171"/>
-      <c r="M4" s="171"/>
-      <c r="N4" s="171" t="s">
+      <c r="K4" s="103"/>
+      <c r="L4" s="103"/>
+      <c r="M4" s="103"/>
+      <c r="N4" s="103" t="s">
         <v>19</v>
       </c>
-      <c r="O4" s="172"/>
+      <c r="O4" s="104"/>
     </row>
     <row r="5" spans="1:15" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="179"/>
-      <c r="B5" s="180"/>
-      <c r="C5" s="180"/>
-      <c r="D5" s="180"/>
-      <c r="E5" s="180"/>
-      <c r="F5" s="180"/>
-      <c r="G5" s="180"/>
-      <c r="H5" s="180"/>
-      <c r="I5" s="181"/>
-      <c r="J5" s="165" t="str">
+      <c r="A5" s="111"/>
+      <c r="B5" s="112"/>
+      <c r="C5" s="112"/>
+      <c r="D5" s="112"/>
+      <c r="E5" s="112"/>
+      <c r="F5" s="112"/>
+      <c r="G5" s="112"/>
+      <c r="H5" s="112"/>
+      <c r="I5" s="113"/>
+      <c r="J5" s="97" t="str">
         <f>'Page 01 of 02'!J8</f>
         <v>MTV2400001-1-1</v>
       </c>
-      <c r="K5" s="166"/>
-      <c r="L5" s="166"/>
-      <c r="M5" s="166"/>
-      <c r="N5" s="163">
+      <c r="K5" s="98"/>
+      <c r="L5" s="98"/>
+      <c r="M5" s="98"/>
+      <c r="N5" s="95">
         <f>'Page 01 of 02'!M8</f>
         <v>0</v>
       </c>
-      <c r="O5" s="164"/>
+      <c r="O5" s="96"/>
     </row>
     <row r="6" spans="1:15" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="109" t="s">
-        <v>119</v>
-      </c>
-      <c r="B6" s="110"/>
-      <c r="C6" s="110"/>
-      <c r="D6" s="110"/>
-      <c r="E6" s="110"/>
-      <c r="F6" s="110"/>
-      <c r="G6" s="110"/>
-      <c r="H6" s="110"/>
-      <c r="I6" s="110"/>
-      <c r="J6" s="110"/>
-      <c r="K6" s="110"/>
-      <c r="L6" s="110"/>
-      <c r="M6" s="110"/>
-      <c r="N6" s="110"/>
-      <c r="O6" s="111"/>
+      <c r="A6" s="153" t="s">
+        <v>118</v>
+      </c>
+      <c r="B6" s="154"/>
+      <c r="C6" s="154"/>
+      <c r="D6" s="154"/>
+      <c r="E6" s="154"/>
+      <c r="F6" s="154"/>
+      <c r="G6" s="154"/>
+      <c r="H6" s="154"/>
+      <c r="I6" s="154"/>
+      <c r="J6" s="154"/>
+      <c r="K6" s="154"/>
+      <c r="L6" s="154"/>
+      <c r="M6" s="154"/>
+      <c r="N6" s="154"/>
+      <c r="O6" s="155"/>
     </row>
     <row r="7" spans="1:15" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="109" t="s">
+      <c r="A7" s="153" t="s">
         <v>25</v>
       </c>
-      <c r="B7" s="110"/>
-      <c r="C7" s="215" t="s">
+      <c r="B7" s="154"/>
+      <c r="C7" s="197" t="s">
         <v>65</v>
       </c>
-      <c r="D7" s="110"/>
+      <c r="D7" s="154"/>
       <c r="E7" s="24" t="s">
         <v>29</v>
       </c>
@@ -6088,342 +6068,342 @@
       <c r="J7" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="K7" s="220" t="s">
+      <c r="K7" s="202" t="s">
         <v>31</v>
       </c>
-      <c r="L7" s="221"/>
+      <c r="L7" s="203"/>
       <c r="M7" s="25"/>
       <c r="N7" s="25"/>
       <c r="O7" s="26"/>
     </row>
     <row r="8" spans="1:15" s="8" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="214"/>
-      <c r="B8" s="210"/>
-      <c r="C8" s="218"/>
-      <c r="D8" s="219"/>
+      <c r="A8" s="192"/>
+      <c r="B8" s="193"/>
+      <c r="C8" s="200"/>
+      <c r="D8" s="201"/>
       <c r="E8" s="22"/>
       <c r="F8" s="22"/>
       <c r="G8" s="22"/>
       <c r="H8" s="22"/>
       <c r="I8" s="22"/>
       <c r="J8" s="22"/>
-      <c r="K8" s="209"/>
-      <c r="L8" s="210"/>
+      <c r="K8" s="205"/>
+      <c r="L8" s="193"/>
       <c r="M8" s="22"/>
       <c r="N8" s="22"/>
       <c r="O8" s="23"/>
     </row>
     <row r="9" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="208"/>
-      <c r="B9" s="203"/>
-      <c r="C9" s="216"/>
-      <c r="D9" s="217"/>
+      <c r="A9" s="194"/>
+      <c r="B9" s="195"/>
+      <c r="C9" s="198"/>
+      <c r="D9" s="199"/>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
-      <c r="K9" s="202"/>
-      <c r="L9" s="203"/>
+      <c r="K9" s="204"/>
+      <c r="L9" s="195"/>
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
       <c r="O9" s="3"/>
     </row>
     <row r="10" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="200"/>
-      <c r="B10" s="84"/>
-      <c r="C10" s="216"/>
-      <c r="D10" s="217"/>
+      <c r="A10" s="196"/>
+      <c r="B10" s="173"/>
+      <c r="C10" s="198"/>
+      <c r="D10" s="199"/>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
-      <c r="K10" s="202"/>
-      <c r="L10" s="203"/>
+      <c r="K10" s="204"/>
+      <c r="L10" s="195"/>
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
       <c r="O10" s="3"/>
     </row>
     <row r="11" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="208"/>
-      <c r="B11" s="203"/>
-      <c r="C11" s="216"/>
-      <c r="D11" s="217"/>
+      <c r="A11" s="194"/>
+      <c r="B11" s="195"/>
+      <c r="C11" s="198"/>
+      <c r="D11" s="199"/>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
-      <c r="K11" s="202"/>
-      <c r="L11" s="203"/>
+      <c r="K11" s="204"/>
+      <c r="L11" s="195"/>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
       <c r="O11" s="3"/>
     </row>
     <row r="12" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="200"/>
-      <c r="B12" s="84"/>
-      <c r="C12" s="216"/>
-      <c r="D12" s="217"/>
+      <c r="A12" s="196"/>
+      <c r="B12" s="173"/>
+      <c r="C12" s="198"/>
+      <c r="D12" s="199"/>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
-      <c r="K12" s="202"/>
-      <c r="L12" s="203"/>
+      <c r="K12" s="204"/>
+      <c r="L12" s="195"/>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
       <c r="O12" s="3"/>
     </row>
     <row r="13" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="208"/>
-      <c r="B13" s="203"/>
-      <c r="C13" s="201"/>
-      <c r="D13" s="201"/>
+      <c r="A13" s="194"/>
+      <c r="B13" s="195"/>
+      <c r="C13" s="206"/>
+      <c r="D13" s="206"/>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
-      <c r="K13" s="202"/>
-      <c r="L13" s="203"/>
+      <c r="K13" s="204"/>
+      <c r="L13" s="195"/>
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
       <c r="O13" s="3"/>
     </row>
     <row r="14" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="200"/>
-      <c r="B14" s="84"/>
-      <c r="C14" s="201"/>
-      <c r="D14" s="201"/>
+      <c r="A14" s="196"/>
+      <c r="B14" s="173"/>
+      <c r="C14" s="206"/>
+      <c r="D14" s="206"/>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
       <c r="J14" s="2"/>
-      <c r="K14" s="202"/>
-      <c r="L14" s="203"/>
+      <c r="K14" s="204"/>
+      <c r="L14" s="195"/>
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
       <c r="O14" s="3"/>
     </row>
     <row r="15" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="208"/>
-      <c r="B15" s="203"/>
-      <c r="C15" s="201"/>
-      <c r="D15" s="201"/>
+      <c r="A15" s="194"/>
+      <c r="B15" s="195"/>
+      <c r="C15" s="206"/>
+      <c r="D15" s="206"/>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
       <c r="J15" s="2"/>
-      <c r="K15" s="202"/>
-      <c r="L15" s="203"/>
+      <c r="K15" s="204"/>
+      <c r="L15" s="195"/>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
       <c r="O15" s="3"/>
     </row>
     <row r="16" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="200"/>
-      <c r="B16" s="84"/>
-      <c r="C16" s="201"/>
-      <c r="D16" s="201"/>
+      <c r="A16" s="196"/>
+      <c r="B16" s="173"/>
+      <c r="C16" s="206"/>
+      <c r="D16" s="206"/>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
       <c r="J16" s="2"/>
-      <c r="K16" s="202"/>
-      <c r="L16" s="203"/>
+      <c r="K16" s="204"/>
+      <c r="L16" s="195"/>
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
       <c r="O16" s="3"/>
     </row>
     <row r="17" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="208"/>
-      <c r="B17" s="203"/>
-      <c r="C17" s="201"/>
-      <c r="D17" s="201"/>
+      <c r="A17" s="194"/>
+      <c r="B17" s="195"/>
+      <c r="C17" s="206"/>
+      <c r="D17" s="206"/>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
       <c r="J17" s="2"/>
-      <c r="K17" s="202"/>
-      <c r="L17" s="203"/>
+      <c r="K17" s="204"/>
+      <c r="L17" s="195"/>
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
       <c r="O17" s="3"/>
     </row>
     <row r="18" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="200"/>
-      <c r="B18" s="84"/>
-      <c r="C18" s="201"/>
-      <c r="D18" s="201"/>
+      <c r="A18" s="196"/>
+      <c r="B18" s="173"/>
+      <c r="C18" s="206"/>
+      <c r="D18" s="206"/>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
       <c r="I18" s="2"/>
       <c r="J18" s="2"/>
-      <c r="K18" s="202"/>
-      <c r="L18" s="203"/>
+      <c r="K18" s="204"/>
+      <c r="L18" s="195"/>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
       <c r="O18" s="3"/>
     </row>
     <row r="19" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="208"/>
-      <c r="B19" s="203"/>
-      <c r="C19" s="201"/>
-      <c r="D19" s="201"/>
+      <c r="A19" s="194"/>
+      <c r="B19" s="195"/>
+      <c r="C19" s="206"/>
+      <c r="D19" s="206"/>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
       <c r="H19" s="2"/>
       <c r="I19" s="2"/>
       <c r="J19" s="2"/>
-      <c r="K19" s="202"/>
-      <c r="L19" s="203"/>
+      <c r="K19" s="204"/>
+      <c r="L19" s="195"/>
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
       <c r="O19" s="3"/>
     </row>
     <row r="20" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="200"/>
-      <c r="B20" s="84"/>
-      <c r="C20" s="201"/>
-      <c r="D20" s="201"/>
+      <c r="A20" s="196"/>
+      <c r="B20" s="173"/>
+      <c r="C20" s="206"/>
+      <c r="D20" s="206"/>
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
       <c r="H20" s="2"/>
       <c r="I20" s="2"/>
       <c r="J20" s="2"/>
-      <c r="K20" s="202"/>
-      <c r="L20" s="203"/>
+      <c r="K20" s="204"/>
+      <c r="L20" s="195"/>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
       <c r="O20" s="3"/>
     </row>
     <row r="21" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="208"/>
-      <c r="B21" s="203"/>
-      <c r="C21" s="201"/>
-      <c r="D21" s="201"/>
+      <c r="A21" s="194"/>
+      <c r="B21" s="195"/>
+      <c r="C21" s="206"/>
+      <c r="D21" s="206"/>
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
       <c r="H21" s="2"/>
       <c r="I21" s="2"/>
       <c r="J21" s="2"/>
-      <c r="K21" s="202"/>
-      <c r="L21" s="203"/>
+      <c r="K21" s="204"/>
+      <c r="L21" s="195"/>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
       <c r="O21" s="3"/>
     </row>
     <row r="22" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="200"/>
-      <c r="B22" s="84"/>
-      <c r="C22" s="201"/>
-      <c r="D22" s="201"/>
+      <c r="A22" s="196"/>
+      <c r="B22" s="173"/>
+      <c r="C22" s="206"/>
+      <c r="D22" s="206"/>
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
       <c r="H22" s="2"/>
       <c r="I22" s="2"/>
       <c r="J22" s="2"/>
-      <c r="K22" s="202"/>
-      <c r="L22" s="203"/>
+      <c r="K22" s="204"/>
+      <c r="L22" s="195"/>
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
       <c r="O22" s="3"/>
     </row>
     <row r="23" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="208"/>
-      <c r="B23" s="203"/>
-      <c r="C23" s="201"/>
-      <c r="D23" s="201"/>
+      <c r="A23" s="194"/>
+      <c r="B23" s="195"/>
+      <c r="C23" s="206"/>
+      <c r="D23" s="206"/>
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
       <c r="H23" s="2"/>
       <c r="I23" s="2"/>
       <c r="J23" s="2"/>
-      <c r="K23" s="202"/>
-      <c r="L23" s="203"/>
+      <c r="K23" s="204"/>
+      <c r="L23" s="195"/>
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
       <c r="O23" s="3"/>
     </row>
     <row r="24" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="200"/>
-      <c r="B24" s="84"/>
-      <c r="C24" s="201"/>
-      <c r="D24" s="201"/>
+      <c r="A24" s="196"/>
+      <c r="B24" s="173"/>
+      <c r="C24" s="206"/>
+      <c r="D24" s="206"/>
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
       <c r="H24" s="2"/>
       <c r="I24" s="2"/>
       <c r="J24" s="2"/>
-      <c r="K24" s="202"/>
-      <c r="L24" s="203"/>
+      <c r="K24" s="204"/>
+      <c r="L24" s="195"/>
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
       <c r="O24" s="3"/>
     </row>
     <row r="25" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="200"/>
-      <c r="B25" s="84"/>
-      <c r="C25" s="201"/>
-      <c r="D25" s="201"/>
+      <c r="A25" s="196"/>
+      <c r="B25" s="173"/>
+      <c r="C25" s="206"/>
+      <c r="D25" s="206"/>
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
       <c r="H25" s="2"/>
       <c r="I25" s="2"/>
       <c r="J25" s="2"/>
-      <c r="K25" s="202"/>
-      <c r="L25" s="203"/>
+      <c r="K25" s="204"/>
+      <c r="L25" s="195"/>
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
       <c r="O25" s="3"/>
     </row>
     <row r="26" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="200"/>
-      <c r="B26" s="84"/>
-      <c r="C26" s="201"/>
-      <c r="D26" s="201"/>
+      <c r="A26" s="196"/>
+      <c r="B26" s="173"/>
+      <c r="C26" s="206"/>
+      <c r="D26" s="206"/>
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
       <c r="G26" s="2"/>
       <c r="H26" s="2"/>
       <c r="I26" s="2"/>
       <c r="J26" s="2"/>
-      <c r="K26" s="202"/>
-      <c r="L26" s="203"/>
+      <c r="K26" s="204"/>
+      <c r="L26" s="195"/>
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
       <c r="O26" s="3"/>
     </row>
     <row r="27" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="200"/>
-      <c r="B27" s="84"/>
-      <c r="C27" s="201"/>
-      <c r="D27" s="201"/>
+      <c r="A27" s="196"/>
+      <c r="B27" s="173"/>
+      <c r="C27" s="206"/>
+      <c r="D27" s="206"/>
       <c r="E27" s="2"/>
       <c r="F27" s="2"/>
       <c r="G27" s="2"/>
@@ -6437,10 +6417,10 @@
       <c r="O27" s="3"/>
     </row>
     <row r="28" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="200"/>
-      <c r="B28" s="84"/>
-      <c r="C28" s="201"/>
-      <c r="D28" s="201"/>
+      <c r="A28" s="196"/>
+      <c r="B28" s="173"/>
+      <c r="C28" s="206"/>
+      <c r="D28" s="206"/>
       <c r="E28" s="2"/>
       <c r="F28" s="2"/>
       <c r="G28" s="2"/>
@@ -6454,10 +6434,10 @@
       <c r="O28" s="3"/>
     </row>
     <row r="29" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="200"/>
-      <c r="B29" s="84"/>
-      <c r="C29" s="201"/>
-      <c r="D29" s="201"/>
+      <c r="A29" s="196"/>
+      <c r="B29" s="173"/>
+      <c r="C29" s="206"/>
+      <c r="D29" s="206"/>
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
       <c r="G29" s="2"/>
@@ -6471,10 +6451,10 @@
       <c r="O29" s="3"/>
     </row>
     <row r="30" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="200"/>
-      <c r="B30" s="84"/>
-      <c r="C30" s="201"/>
-      <c r="D30" s="201"/>
+      <c r="A30" s="196"/>
+      <c r="B30" s="173"/>
+      <c r="C30" s="206"/>
+      <c r="D30" s="206"/>
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
       <c r="G30" s="2"/>
@@ -6488,10 +6468,10 @@
       <c r="O30" s="3"/>
     </row>
     <row r="31" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="200"/>
-      <c r="B31" s="84"/>
-      <c r="C31" s="201"/>
-      <c r="D31" s="201"/>
+      <c r="A31" s="196"/>
+      <c r="B31" s="173"/>
+      <c r="C31" s="206"/>
+      <c r="D31" s="206"/>
       <c r="E31" s="2"/>
       <c r="F31" s="2"/>
       <c r="G31" s="2"/>
@@ -6505,10 +6485,10 @@
       <c r="O31" s="3"/>
     </row>
     <row r="32" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="200"/>
-      <c r="B32" s="84"/>
-      <c r="C32" s="201"/>
-      <c r="D32" s="201"/>
+      <c r="A32" s="196"/>
+      <c r="B32" s="173"/>
+      <c r="C32" s="206"/>
+      <c r="D32" s="206"/>
       <c r="E32" s="2"/>
       <c r="F32" s="2"/>
       <c r="G32" s="2"/>
@@ -6522,262 +6502,262 @@
       <c r="O32" s="3"/>
     </row>
     <row r="33" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="200"/>
-      <c r="B33" s="84"/>
-      <c r="C33" s="201"/>
-      <c r="D33" s="201"/>
+      <c r="A33" s="196"/>
+      <c r="B33" s="173"/>
+      <c r="C33" s="206"/>
+      <c r="D33" s="206"/>
       <c r="E33" s="2"/>
       <c r="F33" s="2"/>
       <c r="G33" s="2"/>
       <c r="H33" s="2"/>
       <c r="I33" s="2"/>
       <c r="J33" s="2"/>
-      <c r="K33" s="202"/>
-      <c r="L33" s="203"/>
+      <c r="K33" s="204"/>
+      <c r="L33" s="195"/>
       <c r="M33" s="2"/>
       <c r="N33" s="2"/>
       <c r="O33" s="3"/>
     </row>
     <row r="34" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="200"/>
-      <c r="B34" s="84"/>
-      <c r="C34" s="201"/>
-      <c r="D34" s="201"/>
+      <c r="A34" s="196"/>
+      <c r="B34" s="173"/>
+      <c r="C34" s="206"/>
+      <c r="D34" s="206"/>
       <c r="E34" s="2"/>
       <c r="F34" s="2"/>
       <c r="G34" s="2"/>
       <c r="H34" s="2"/>
       <c r="I34" s="2"/>
       <c r="J34" s="2"/>
-      <c r="K34" s="202"/>
-      <c r="L34" s="203"/>
+      <c r="K34" s="204"/>
+      <c r="L34" s="195"/>
       <c r="M34" s="2"/>
       <c r="N34" s="2"/>
       <c r="O34" s="3"/>
     </row>
     <row r="35" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="200"/>
-      <c r="B35" s="84"/>
-      <c r="C35" s="201"/>
-      <c r="D35" s="201"/>
+      <c r="A35" s="196"/>
+      <c r="B35" s="173"/>
+      <c r="C35" s="206"/>
+      <c r="D35" s="206"/>
       <c r="E35" s="2"/>
       <c r="F35" s="2"/>
       <c r="G35" s="2"/>
       <c r="H35" s="2"/>
       <c r="I35" s="2"/>
       <c r="J35" s="2"/>
-      <c r="K35" s="202"/>
-      <c r="L35" s="203"/>
+      <c r="K35" s="204"/>
+      <c r="L35" s="195"/>
       <c r="M35" s="2"/>
       <c r="N35" s="2"/>
       <c r="O35" s="3"/>
     </row>
     <row r="36" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="200"/>
-      <c r="B36" s="84"/>
-      <c r="C36" s="201"/>
-      <c r="D36" s="201"/>
+      <c r="A36" s="196"/>
+      <c r="B36" s="173"/>
+      <c r="C36" s="206"/>
+      <c r="D36" s="206"/>
       <c r="E36" s="2"/>
       <c r="F36" s="2"/>
       <c r="G36" s="2"/>
       <c r="H36" s="2"/>
       <c r="I36" s="2"/>
       <c r="J36" s="2"/>
-      <c r="K36" s="202"/>
-      <c r="L36" s="203"/>
+      <c r="K36" s="204"/>
+      <c r="L36" s="195"/>
       <c r="M36" s="2"/>
       <c r="N36" s="2"/>
       <c r="O36" s="3"/>
     </row>
     <row r="37" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="200"/>
-      <c r="B37" s="84"/>
-      <c r="C37" s="201"/>
-      <c r="D37" s="201"/>
+      <c r="A37" s="196"/>
+      <c r="B37" s="173"/>
+      <c r="C37" s="206"/>
+      <c r="D37" s="206"/>
       <c r="E37" s="2"/>
       <c r="F37" s="2"/>
       <c r="G37" s="2"/>
       <c r="H37" s="2"/>
       <c r="I37" s="2"/>
       <c r="J37" s="2"/>
-      <c r="K37" s="202"/>
-      <c r="L37" s="203"/>
+      <c r="K37" s="204"/>
+      <c r="L37" s="195"/>
       <c r="M37" s="2"/>
       <c r="N37" s="2"/>
       <c r="O37" s="3"/>
     </row>
     <row r="38" spans="1:15" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="200"/>
-      <c r="B38" s="84"/>
-      <c r="C38" s="204"/>
-      <c r="D38" s="205"/>
+      <c r="A38" s="196"/>
+      <c r="B38" s="173"/>
+      <c r="C38" s="208"/>
+      <c r="D38" s="209"/>
       <c r="E38" s="2"/>
       <c r="F38" s="2"/>
       <c r="G38" s="2"/>
       <c r="H38" s="2"/>
       <c r="I38" s="2"/>
       <c r="J38" s="2"/>
-      <c r="K38" s="204"/>
-      <c r="L38" s="205"/>
+      <c r="K38" s="208"/>
+      <c r="L38" s="209"/>
       <c r="M38" s="2"/>
       <c r="N38" s="2"/>
       <c r="O38" s="3"/>
     </row>
     <row r="39" spans="1:15" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="125" t="s">
+      <c r="A39" s="71" t="s">
         <v>2</v>
       </c>
-      <c r="B39" s="126"/>
-      <c r="C39" s="126"/>
-      <c r="D39" s="126"/>
-      <c r="E39" s="126"/>
-      <c r="F39" s="126"/>
-      <c r="G39" s="126"/>
-      <c r="H39" s="126"/>
-      <c r="I39" s="126"/>
-      <c r="J39" s="126"/>
-      <c r="K39" s="126"/>
-      <c r="L39" s="126"/>
-      <c r="M39" s="126"/>
-      <c r="N39" s="126"/>
-      <c r="O39" s="127"/>
+      <c r="B39" s="72"/>
+      <c r="C39" s="72"/>
+      <c r="D39" s="72"/>
+      <c r="E39" s="72"/>
+      <c r="F39" s="72"/>
+      <c r="G39" s="72"/>
+      <c r="H39" s="72"/>
+      <c r="I39" s="72"/>
+      <c r="J39" s="72"/>
+      <c r="K39" s="72"/>
+      <c r="L39" s="72"/>
+      <c r="M39" s="72"/>
+      <c r="N39" s="72"/>
+      <c r="O39" s="73"/>
     </row>
     <row r="40" spans="1:15" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="116" t="s">
+      <c r="A40" s="131" t="s">
         <v>98</v>
       </c>
-      <c r="B40" s="117"/>
-      <c r="C40" s="117"/>
-      <c r="D40" s="117"/>
-      <c r="E40" s="117"/>
-      <c r="F40" s="117"/>
-      <c r="G40" s="117"/>
-      <c r="H40" s="117"/>
-      <c r="I40" s="117"/>
-      <c r="J40" s="117"/>
-      <c r="K40" s="117"/>
-      <c r="L40" s="117"/>
-      <c r="M40" s="117"/>
-      <c r="N40" s="117"/>
-      <c r="O40" s="118"/>
+      <c r="B40" s="132"/>
+      <c r="C40" s="132"/>
+      <c r="D40" s="132"/>
+      <c r="E40" s="132"/>
+      <c r="F40" s="132"/>
+      <c r="G40" s="132"/>
+      <c r="H40" s="132"/>
+      <c r="I40" s="132"/>
+      <c r="J40" s="132"/>
+      <c r="K40" s="132"/>
+      <c r="L40" s="132"/>
+      <c r="M40" s="132"/>
+      <c r="N40" s="132"/>
+      <c r="O40" s="133"/>
     </row>
     <row r="41" spans="1:15" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="119"/>
-      <c r="B41" s="120"/>
-      <c r="C41" s="120"/>
-      <c r="D41" s="120"/>
-      <c r="E41" s="120"/>
-      <c r="F41" s="120"/>
-      <c r="G41" s="120"/>
-      <c r="H41" s="120"/>
-      <c r="I41" s="120"/>
-      <c r="J41" s="120"/>
-      <c r="K41" s="120"/>
-      <c r="L41" s="120"/>
-      <c r="M41" s="120"/>
-      <c r="N41" s="120"/>
-      <c r="O41" s="121"/>
+      <c r="A41" s="134"/>
+      <c r="B41" s="135"/>
+      <c r="C41" s="135"/>
+      <c r="D41" s="135"/>
+      <c r="E41" s="135"/>
+      <c r="F41" s="135"/>
+      <c r="G41" s="135"/>
+      <c r="H41" s="135"/>
+      <c r="I41" s="135"/>
+      <c r="J41" s="135"/>
+      <c r="K41" s="135"/>
+      <c r="L41" s="135"/>
+      <c r="M41" s="135"/>
+      <c r="N41" s="135"/>
+      <c r="O41" s="136"/>
     </row>
     <row r="42" spans="1:15" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="104" t="s">
+      <c r="A42" s="150" t="s">
         <v>15</v>
       </c>
-      <c r="B42" s="105"/>
-      <c r="C42" s="105"/>
-      <c r="D42" s="105"/>
-      <c r="E42" s="105" t="s">
+      <c r="B42" s="151"/>
+      <c r="C42" s="151"/>
+      <c r="D42" s="151"/>
+      <c r="E42" s="151" t="s">
         <v>16</v>
       </c>
-      <c r="F42" s="105"/>
-      <c r="G42" s="105"/>
-      <c r="H42" s="105"/>
-      <c r="I42" s="105"/>
-      <c r="J42" s="105"/>
-      <c r="K42" s="105" t="s">
+      <c r="F42" s="151"/>
+      <c r="G42" s="151"/>
+      <c r="H42" s="151"/>
+      <c r="I42" s="151"/>
+      <c r="J42" s="151"/>
+      <c r="K42" s="151" t="s">
         <v>17</v>
       </c>
-      <c r="L42" s="105"/>
-      <c r="M42" s="105"/>
-      <c r="N42" s="105"/>
-      <c r="O42" s="106"/>
+      <c r="L42" s="151"/>
+      <c r="M42" s="151"/>
+      <c r="N42" s="151"/>
+      <c r="O42" s="152"/>
     </row>
     <row r="43" spans="1:15" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="97"/>
-      <c r="B43" s="98"/>
-      <c r="C43" s="98"/>
-      <c r="D43" s="99"/>
-      <c r="E43" s="100"/>
-      <c r="F43" s="98"/>
-      <c r="G43" s="98"/>
-      <c r="H43" s="98"/>
-      <c r="I43" s="98"/>
-      <c r="J43" s="99"/>
-      <c r="K43" s="100"/>
-      <c r="L43" s="98"/>
-      <c r="M43" s="98"/>
-      <c r="N43" s="98"/>
-      <c r="O43" s="115"/>
+      <c r="A43" s="148"/>
+      <c r="B43" s="126"/>
+      <c r="C43" s="126"/>
+      <c r="D43" s="149"/>
+      <c r="E43" s="125"/>
+      <c r="F43" s="126"/>
+      <c r="G43" s="126"/>
+      <c r="H43" s="126"/>
+      <c r="I43" s="126"/>
+      <c r="J43" s="149"/>
+      <c r="K43" s="125"/>
+      <c r="L43" s="126"/>
+      <c r="M43" s="126"/>
+      <c r="N43" s="126"/>
+      <c r="O43" s="127"/>
     </row>
     <row r="44" spans="1:15" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="87"/>
+      <c r="A44" s="143"/>
       <c r="B44" s="55"/>
       <c r="C44" s="55"/>
-      <c r="D44" s="88"/>
-      <c r="E44" s="89"/>
+      <c r="D44" s="144"/>
+      <c r="E44" s="128"/>
       <c r="F44" s="55"/>
       <c r="G44" s="55"/>
       <c r="H44" s="55"/>
       <c r="I44" s="55"/>
-      <c r="J44" s="88"/>
-      <c r="K44" s="89"/>
+      <c r="J44" s="144"/>
+      <c r="K44" s="128"/>
       <c r="L44" s="55"/>
       <c r="M44" s="55"/>
       <c r="N44" s="55"/>
-      <c r="O44" s="90"/>
+      <c r="O44" s="129"/>
     </row>
     <row r="45" spans="1:15" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="87"/>
+      <c r="A45" s="143"/>
       <c r="B45" s="55"/>
       <c r="C45" s="55"/>
-      <c r="D45" s="88"/>
-      <c r="E45" s="89"/>
+      <c r="D45" s="144"/>
+      <c r="E45" s="128"/>
       <c r="F45" s="55"/>
       <c r="G45" s="55"/>
       <c r="H45" s="55"/>
       <c r="I45" s="55"/>
-      <c r="J45" s="88"/>
-      <c r="K45" s="89"/>
+      <c r="J45" s="144"/>
+      <c r="K45" s="128"/>
       <c r="L45" s="55"/>
       <c r="M45" s="55"/>
       <c r="N45" s="55"/>
-      <c r="O45" s="90"/>
+      <c r="O45" s="129"/>
     </row>
     <row r="46" spans="1:15" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="87"/>
+      <c r="A46" s="143"/>
       <c r="B46" s="55"/>
       <c r="C46" s="55"/>
-      <c r="D46" s="88"/>
-      <c r="E46" s="89"/>
+      <c r="D46" s="144"/>
+      <c r="E46" s="128"/>
       <c r="F46" s="55"/>
       <c r="G46" s="55"/>
       <c r="H46" s="55"/>
       <c r="I46" s="55"/>
-      <c r="J46" s="88"/>
-      <c r="K46" s="89"/>
+      <c r="J46" s="144"/>
+      <c r="K46" s="128"/>
       <c r="L46" s="55"/>
       <c r="M46" s="55"/>
       <c r="N46" s="55"/>
-      <c r="O46" s="90"/>
+      <c r="O46" s="129"/>
     </row>
     <row r="47" spans="1:15" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="87">
+      <c r="A47" s="143">
         <f>'Page 01 of 02'!A55</f>
         <v>0</v>
       </c>
       <c r="B47" s="55"/>
       <c r="C47" s="55"/>
-      <c r="D47" s="88"/>
-      <c r="E47" s="89">
+      <c r="D47" s="144"/>
+      <c r="E47" s="128">
         <f>'Page 01 of 02'!E55</f>
         <v>0</v>
       </c>
@@ -6785,35 +6765,35 @@
       <c r="G47" s="55"/>
       <c r="H47" s="55"/>
       <c r="I47" s="55"/>
-      <c r="J47" s="88"/>
-      <c r="K47" s="89"/>
+      <c r="J47" s="144"/>
+      <c r="K47" s="128"/>
       <c r="L47" s="55"/>
       <c r="M47" s="55"/>
       <c r="N47" s="55"/>
-      <c r="O47" s="90"/>
+      <c r="O47" s="129"/>
     </row>
     <row r="48" spans="1:15" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A48" s="207">
         <f>'Page 01 of 02'!A56</f>
         <v>0</v>
       </c>
-      <c r="B48" s="92"/>
-      <c r="C48" s="92"/>
-      <c r="D48" s="93"/>
-      <c r="E48" s="95">
+      <c r="B48" s="66"/>
+      <c r="C48" s="66"/>
+      <c r="D48" s="146"/>
+      <c r="E48" s="65">
         <f>'Page 01 of 02'!E56</f>
         <v>0</v>
       </c>
-      <c r="F48" s="92"/>
-      <c r="G48" s="92"/>
-      <c r="H48" s="92"/>
-      <c r="I48" s="92"/>
-      <c r="J48" s="93"/>
-      <c r="K48" s="95"/>
-      <c r="L48" s="92"/>
-      <c r="M48" s="92"/>
-      <c r="N48" s="92"/>
-      <c r="O48" s="96"/>
+      <c r="F48" s="66"/>
+      <c r="G48" s="66"/>
+      <c r="H48" s="66"/>
+      <c r="I48" s="66"/>
+      <c r="J48" s="146"/>
+      <c r="K48" s="65"/>
+      <c r="L48" s="66"/>
+      <c r="M48" s="66"/>
+      <c r="N48" s="66"/>
+      <c r="O48" s="67"/>
     </row>
     <row r="49" spans="1:15" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A49" s="28" t="s">
@@ -6828,27 +6808,74 @@
     </row>
   </sheetData>
   <mergeCells count="113">
-    <mergeCell ref="C1:O2"/>
-    <mergeCell ref="C3:O3"/>
-    <mergeCell ref="A1:B3"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="J5:M5"/>
-    <mergeCell ref="N5:O5"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="K9:L9"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="K11:L11"/>
-    <mergeCell ref="K12:L12"/>
-    <mergeCell ref="N4:O4"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="K13:L13"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="K26:L26"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="K17:L17"/>
+    <mergeCell ref="J4:M4"/>
+    <mergeCell ref="A4:I5"/>
+    <mergeCell ref="K36:L36"/>
+    <mergeCell ref="K37:L37"/>
+    <mergeCell ref="K38:L38"/>
+    <mergeCell ref="K18:L18"/>
+    <mergeCell ref="K19:L19"/>
+    <mergeCell ref="K20:L20"/>
+    <mergeCell ref="K21:L21"/>
+    <mergeCell ref="K22:L22"/>
+    <mergeCell ref="K23:L23"/>
+    <mergeCell ref="K24:L24"/>
+    <mergeCell ref="K25:L25"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="A47:D47"/>
+    <mergeCell ref="A48:D48"/>
+    <mergeCell ref="E47:J47"/>
+    <mergeCell ref="E48:J48"/>
+    <mergeCell ref="K47:O47"/>
+    <mergeCell ref="K48:O48"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="A43:D46"/>
+    <mergeCell ref="E43:J46"/>
+    <mergeCell ref="K43:O46"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="K34:L34"/>
+    <mergeCell ref="K35:L35"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="A39:O39"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="K14:L14"/>
+    <mergeCell ref="K15:L15"/>
+    <mergeCell ref="K16:L16"/>
     <mergeCell ref="A40:O41"/>
     <mergeCell ref="A42:D42"/>
     <mergeCell ref="E42:J42"/>
@@ -6873,74 +6900,27 @@
     <mergeCell ref="A23:B23"/>
     <mergeCell ref="A25:B25"/>
     <mergeCell ref="K33:L33"/>
-    <mergeCell ref="A47:D47"/>
-    <mergeCell ref="A48:D48"/>
-    <mergeCell ref="E47:J47"/>
-    <mergeCell ref="E48:J48"/>
-    <mergeCell ref="K47:O47"/>
-    <mergeCell ref="K48:O48"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="A43:D46"/>
-    <mergeCell ref="E43:J46"/>
-    <mergeCell ref="K43:O46"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="K34:L34"/>
-    <mergeCell ref="K35:L35"/>
-    <mergeCell ref="A39:O39"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="K17:L17"/>
-    <mergeCell ref="J4:M4"/>
-    <mergeCell ref="A4:I5"/>
-    <mergeCell ref="K36:L36"/>
-    <mergeCell ref="K37:L37"/>
-    <mergeCell ref="K38:L38"/>
-    <mergeCell ref="K18:L18"/>
-    <mergeCell ref="K19:L19"/>
-    <mergeCell ref="K20:L20"/>
-    <mergeCell ref="K21:L21"/>
-    <mergeCell ref="K22:L22"/>
-    <mergeCell ref="K23:L23"/>
-    <mergeCell ref="K24:L24"/>
-    <mergeCell ref="K25:L25"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="K13:L13"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="K26:L26"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="K14:L14"/>
-    <mergeCell ref="K15:L15"/>
-    <mergeCell ref="K16:L16"/>
+    <mergeCell ref="C1:O2"/>
+    <mergeCell ref="C3:O3"/>
+    <mergeCell ref="A1:B3"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="J5:M5"/>
+    <mergeCell ref="N5:O5"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="K9:L9"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="K12:L12"/>
+    <mergeCell ref="N4:O4"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -6978,299 +6958,299 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="144"/>
-      <c r="B1" s="284"/>
-      <c r="C1" s="145"/>
-      <c r="D1" s="61" t="s">
+      <c r="A1" s="74"/>
+      <c r="B1" s="225"/>
+      <c r="C1" s="75"/>
+      <c r="D1" s="175" t="s">
         <v>86</v>
       </c>
-      <c r="E1" s="62"/>
-      <c r="F1" s="62"/>
-      <c r="G1" s="62"/>
-      <c r="H1" s="62"/>
-      <c r="I1" s="62"/>
-      <c r="J1" s="62"/>
-      <c r="K1" s="62"/>
-      <c r="L1" s="62"/>
-      <c r="M1" s="62"/>
-      <c r="N1" s="62"/>
-      <c r="O1" s="62"/>
-      <c r="P1" s="62"/>
-      <c r="Q1" s="62"/>
-      <c r="R1" s="62"/>
-      <c r="S1" s="62"/>
-      <c r="T1" s="62"/>
-      <c r="U1" s="62"/>
-      <c r="V1" s="62"/>
-      <c r="W1" s="211"/>
+      <c r="E1" s="176"/>
+      <c r="F1" s="176"/>
+      <c r="G1" s="176"/>
+      <c r="H1" s="176"/>
+      <c r="I1" s="176"/>
+      <c r="J1" s="176"/>
+      <c r="K1" s="176"/>
+      <c r="L1" s="176"/>
+      <c r="M1" s="176"/>
+      <c r="N1" s="176"/>
+      <c r="O1" s="176"/>
+      <c r="P1" s="176"/>
+      <c r="Q1" s="176"/>
+      <c r="R1" s="176"/>
+      <c r="S1" s="176"/>
+      <c r="T1" s="176"/>
+      <c r="U1" s="176"/>
+      <c r="V1" s="176"/>
+      <c r="W1" s="189"/>
     </row>
     <row r="2" spans="1:23" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="146"/>
+      <c r="A2" s="76"/>
       <c r="B2" s="56"/>
-      <c r="C2" s="147"/>
-      <c r="D2" s="63"/>
-      <c r="E2" s="64"/>
-      <c r="F2" s="64"/>
-      <c r="G2" s="64"/>
-      <c r="H2" s="64"/>
-      <c r="I2" s="64"/>
-      <c r="J2" s="64"/>
-      <c r="K2" s="64"/>
-      <c r="L2" s="64"/>
-      <c r="M2" s="64"/>
-      <c r="N2" s="64"/>
-      <c r="O2" s="64"/>
-      <c r="P2" s="64"/>
-      <c r="Q2" s="64"/>
-      <c r="R2" s="64"/>
-      <c r="S2" s="64"/>
-      <c r="T2" s="64"/>
-      <c r="U2" s="64"/>
-      <c r="V2" s="64"/>
-      <c r="W2" s="212"/>
+      <c r="C2" s="77"/>
+      <c r="D2" s="177"/>
+      <c r="E2" s="178"/>
+      <c r="F2" s="178"/>
+      <c r="G2" s="178"/>
+      <c r="H2" s="178"/>
+      <c r="I2" s="178"/>
+      <c r="J2" s="178"/>
+      <c r="K2" s="178"/>
+      <c r="L2" s="178"/>
+      <c r="M2" s="178"/>
+      <c r="N2" s="178"/>
+      <c r="O2" s="178"/>
+      <c r="P2" s="178"/>
+      <c r="Q2" s="178"/>
+      <c r="R2" s="178"/>
+      <c r="S2" s="178"/>
+      <c r="T2" s="178"/>
+      <c r="U2" s="178"/>
+      <c r="V2" s="178"/>
+      <c r="W2" s="190"/>
     </row>
     <row r="3" spans="1:23" s="1" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="146"/>
+      <c r="A3" s="76"/>
       <c r="B3" s="56"/>
-      <c r="C3" s="147"/>
-      <c r="D3" s="65" t="s">
+      <c r="C3" s="77"/>
+      <c r="D3" s="179" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="66"/>
-      <c r="F3" s="66"/>
-      <c r="G3" s="66"/>
-      <c r="H3" s="66"/>
-      <c r="I3" s="66"/>
-      <c r="J3" s="66"/>
-      <c r="K3" s="66"/>
-      <c r="L3" s="66"/>
-      <c r="M3" s="66"/>
-      <c r="N3" s="66"/>
-      <c r="O3" s="66"/>
-      <c r="P3" s="66"/>
-      <c r="Q3" s="66"/>
-      <c r="R3" s="66"/>
-      <c r="S3" s="66"/>
-      <c r="T3" s="66"/>
-      <c r="U3" s="66"/>
-      <c r="V3" s="66"/>
-      <c r="W3" s="213"/>
+      <c r="E3" s="180"/>
+      <c r="F3" s="180"/>
+      <c r="G3" s="180"/>
+      <c r="H3" s="180"/>
+      <c r="I3" s="180"/>
+      <c r="J3" s="180"/>
+      <c r="K3" s="180"/>
+      <c r="L3" s="180"/>
+      <c r="M3" s="180"/>
+      <c r="N3" s="180"/>
+      <c r="O3" s="180"/>
+      <c r="P3" s="180"/>
+      <c r="Q3" s="180"/>
+      <c r="R3" s="180"/>
+      <c r="S3" s="180"/>
+      <c r="T3" s="180"/>
+      <c r="U3" s="180"/>
+      <c r="V3" s="180"/>
+      <c r="W3" s="191"/>
     </row>
     <row r="4" spans="1:23" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="148"/>
-      <c r="B4" s="285"/>
-      <c r="C4" s="149"/>
-      <c r="D4" s="141" t="s">
+      <c r="A4" s="78"/>
+      <c r="B4" s="226"/>
+      <c r="C4" s="79"/>
+      <c r="D4" s="68" t="s">
         <v>72</v>
       </c>
-      <c r="E4" s="142"/>
-      <c r="F4" s="142"/>
-      <c r="G4" s="142"/>
-      <c r="H4" s="142"/>
-      <c r="I4" s="142"/>
-      <c r="J4" s="142"/>
-      <c r="K4" s="142"/>
-      <c r="L4" s="142"/>
-      <c r="M4" s="142"/>
-      <c r="N4" s="142"/>
-      <c r="O4" s="142"/>
-      <c r="P4" s="142"/>
-      <c r="Q4" s="142"/>
-      <c r="R4" s="142"/>
-      <c r="S4" s="142"/>
-      <c r="T4" s="143"/>
-      <c r="U4" s="277" t="s">
+      <c r="E4" s="69"/>
+      <c r="F4" s="69"/>
+      <c r="G4" s="69"/>
+      <c r="H4" s="69"/>
+      <c r="I4" s="69"/>
+      <c r="J4" s="69"/>
+      <c r="K4" s="69"/>
+      <c r="L4" s="69"/>
+      <c r="M4" s="69"/>
+      <c r="N4" s="69"/>
+      <c r="O4" s="69"/>
+      <c r="P4" s="69"/>
+      <c r="Q4" s="69"/>
+      <c r="R4" s="69"/>
+      <c r="S4" s="69"/>
+      <c r="T4" s="70"/>
+      <c r="U4" s="216" t="s">
         <v>54</v>
       </c>
-      <c r="V4" s="235"/>
-      <c r="W4" s="278"/>
+      <c r="V4" s="217"/>
+      <c r="W4" s="218"/>
     </row>
     <row r="5" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="247" t="s">
+      <c r="A5" s="222" t="s">
         <v>22</v>
       </c>
-      <c r="B5" s="247"/>
-      <c r="C5" s="247"/>
-      <c r="D5" s="247"/>
-      <c r="E5" s="247"/>
-      <c r="F5" s="247"/>
-      <c r="G5" s="247"/>
-      <c r="H5" s="247"/>
-      <c r="I5" s="247"/>
-      <c r="J5" s="247"/>
-      <c r="K5" s="247"/>
-      <c r="L5" s="247"/>
-      <c r="M5" s="247"/>
-      <c r="N5" s="247"/>
-      <c r="O5" s="247" t="s">
+      <c r="B5" s="222"/>
+      <c r="C5" s="222"/>
+      <c r="D5" s="222"/>
+      <c r="E5" s="222"/>
+      <c r="F5" s="222"/>
+      <c r="G5" s="222"/>
+      <c r="H5" s="222"/>
+      <c r="I5" s="222"/>
+      <c r="J5" s="222"/>
+      <c r="K5" s="222"/>
+      <c r="L5" s="222"/>
+      <c r="M5" s="222"/>
+      <c r="N5" s="222"/>
+      <c r="O5" s="222" t="s">
         <v>97</v>
       </c>
-      <c r="P5" s="247"/>
-      <c r="Q5" s="247"/>
-      <c r="R5" s="247"/>
-      <c r="S5" s="247"/>
-      <c r="T5" s="247"/>
-      <c r="U5" s="247"/>
-      <c r="V5" s="247"/>
-      <c r="W5" s="247"/>
+      <c r="P5" s="222"/>
+      <c r="Q5" s="222"/>
+      <c r="R5" s="222"/>
+      <c r="S5" s="222"/>
+      <c r="T5" s="222"/>
+      <c r="U5" s="222"/>
+      <c r="V5" s="222"/>
+      <c r="W5" s="222"/>
     </row>
     <row r="6" spans="1:23" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="282" t="str">
+      <c r="A6" s="223" t="str">
         <f>'Page 01 of 02'!A6</f>
         <v>Address: Plot# 3009-lT01/ Building C09-16 &amp; 41-48, PO Box # 149162, Al Markaz Phase 1, Abu Dhabi – UAE.
 Web: www.mtfluid.com</v>
       </c>
-      <c r="B6" s="282"/>
-      <c r="C6" s="282"/>
-      <c r="D6" s="282"/>
-      <c r="E6" s="282"/>
-      <c r="F6" s="282"/>
-      <c r="G6" s="282"/>
-      <c r="H6" s="282"/>
-      <c r="I6" s="282"/>
-      <c r="J6" s="282"/>
-      <c r="K6" s="282"/>
-      <c r="L6" s="282"/>
-      <c r="M6" s="282"/>
-      <c r="N6" s="282"/>
-      <c r="O6" s="248" t="str">
+      <c r="B6" s="223"/>
+      <c r="C6" s="223"/>
+      <c r="D6" s="223"/>
+      <c r="E6" s="223"/>
+      <c r="F6" s="223"/>
+      <c r="G6" s="223"/>
+      <c r="H6" s="223"/>
+      <c r="I6" s="223"/>
+      <c r="J6" s="223"/>
+      <c r="K6" s="223"/>
+      <c r="L6" s="223"/>
+      <c r="M6" s="223"/>
+      <c r="N6" s="223"/>
+      <c r="O6" s="251" t="str">
         <f>'Page 01 of 02'!J6</f>
         <v>ISO 9001:2015</v>
       </c>
-      <c r="P6" s="249"/>
-      <c r="Q6" s="249"/>
-      <c r="R6" s="249"/>
-      <c r="S6" s="250"/>
-      <c r="T6" s="250"/>
-      <c r="U6" s="250"/>
-      <c r="V6" s="250"/>
-      <c r="W6" s="251"/>
+      <c r="P6" s="252"/>
+      <c r="Q6" s="252"/>
+      <c r="R6" s="252"/>
+      <c r="S6" s="253"/>
+      <c r="T6" s="253"/>
+      <c r="U6" s="253"/>
+      <c r="V6" s="253"/>
+      <c r="W6" s="254"/>
     </row>
     <row r="7" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="282"/>
-      <c r="B7" s="282"/>
-      <c r="C7" s="282"/>
-      <c r="D7" s="282"/>
-      <c r="E7" s="282"/>
-      <c r="F7" s="282"/>
-      <c r="G7" s="282"/>
-      <c r="H7" s="282"/>
-      <c r="I7" s="282"/>
-      <c r="J7" s="282"/>
-      <c r="K7" s="282"/>
-      <c r="L7" s="282"/>
-      <c r="M7" s="282"/>
-      <c r="N7" s="282"/>
-      <c r="O7" s="170" t="s">
+      <c r="A7" s="223"/>
+      <c r="B7" s="223"/>
+      <c r="C7" s="223"/>
+      <c r="D7" s="223"/>
+      <c r="E7" s="223"/>
+      <c r="F7" s="223"/>
+      <c r="G7" s="223"/>
+      <c r="H7" s="223"/>
+      <c r="I7" s="223"/>
+      <c r="J7" s="223"/>
+      <c r="K7" s="223"/>
+      <c r="L7" s="223"/>
+      <c r="M7" s="223"/>
+      <c r="N7" s="223"/>
+      <c r="O7" s="102" t="s">
         <v>18</v>
       </c>
-      <c r="P7" s="252"/>
-      <c r="Q7" s="252"/>
-      <c r="R7" s="252"/>
-      <c r="S7" s="171"/>
-      <c r="T7" s="171"/>
-      <c r="U7" s="171" t="s">
+      <c r="P7" s="255"/>
+      <c r="Q7" s="255"/>
+      <c r="R7" s="255"/>
+      <c r="S7" s="103"/>
+      <c r="T7" s="103"/>
+      <c r="U7" s="103" t="s">
         <v>19</v>
       </c>
-      <c r="V7" s="171"/>
-      <c r="W7" s="172"/>
+      <c r="V7" s="103"/>
+      <c r="W7" s="104"/>
     </row>
     <row r="8" spans="1:23" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="283"/>
-      <c r="B8" s="283"/>
-      <c r="C8" s="283"/>
-      <c r="D8" s="283"/>
-      <c r="E8" s="283"/>
-      <c r="F8" s="283"/>
-      <c r="G8" s="283"/>
-      <c r="H8" s="283"/>
-      <c r="I8" s="283"/>
-      <c r="J8" s="283"/>
-      <c r="K8" s="283"/>
-      <c r="L8" s="283"/>
-      <c r="M8" s="283"/>
-      <c r="N8" s="283"/>
-      <c r="O8" s="253" t="str">
+      <c r="A8" s="224"/>
+      <c r="B8" s="224"/>
+      <c r="C8" s="224"/>
+      <c r="D8" s="224"/>
+      <c r="E8" s="224"/>
+      <c r="F8" s="224"/>
+      <c r="G8" s="224"/>
+      <c r="H8" s="224"/>
+      <c r="I8" s="224"/>
+      <c r="J8" s="224"/>
+      <c r="K8" s="224"/>
+      <c r="L8" s="224"/>
+      <c r="M8" s="224"/>
+      <c r="N8" s="224"/>
+      <c r="O8" s="256" t="str">
         <f>'Page 01 of 02'!J8</f>
         <v>MTV2400001-1-1</v>
       </c>
-      <c r="P8" s="205"/>
-      <c r="Q8" s="205"/>
-      <c r="R8" s="205"/>
-      <c r="S8" s="254"/>
-      <c r="T8" s="254"/>
-      <c r="U8" s="163">
+      <c r="P8" s="209"/>
+      <c r="Q8" s="209"/>
+      <c r="R8" s="209"/>
+      <c r="S8" s="257"/>
+      <c r="T8" s="257"/>
+      <c r="U8" s="95">
         <f>'Page 01 of 02'!M8</f>
         <v>0</v>
       </c>
-      <c r="V8" s="163"/>
-      <c r="W8" s="164"/>
+      <c r="V8" s="95"/>
+      <c r="W8" s="96"/>
     </row>
     <row r="9" spans="1:23" ht="10" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="279"/>
-      <c r="B9" s="280"/>
-      <c r="C9" s="280"/>
-      <c r="D9" s="280"/>
-      <c r="E9" s="280"/>
-      <c r="F9" s="280"/>
-      <c r="G9" s="280"/>
-      <c r="H9" s="280"/>
-      <c r="I9" s="280"/>
-      <c r="J9" s="280"/>
-      <c r="K9" s="280"/>
-      <c r="L9" s="280"/>
-      <c r="M9" s="280"/>
-      <c r="N9" s="280"/>
-      <c r="O9" s="280"/>
-      <c r="P9" s="280"/>
-      <c r="Q9" s="280"/>
-      <c r="R9" s="280"/>
-      <c r="S9" s="280"/>
-      <c r="T9" s="280"/>
-      <c r="U9" s="280"/>
-      <c r="V9" s="280"/>
-      <c r="W9" s="281"/>
+      <c r="A9" s="219"/>
+      <c r="B9" s="220"/>
+      <c r="C9" s="220"/>
+      <c r="D9" s="220"/>
+      <c r="E9" s="220"/>
+      <c r="F9" s="220"/>
+      <c r="G9" s="220"/>
+      <c r="H9" s="220"/>
+      <c r="I9" s="220"/>
+      <c r="J9" s="220"/>
+      <c r="K9" s="220"/>
+      <c r="L9" s="220"/>
+      <c r="M9" s="220"/>
+      <c r="N9" s="220"/>
+      <c r="O9" s="220"/>
+      <c r="P9" s="220"/>
+      <c r="Q9" s="220"/>
+      <c r="R9" s="220"/>
+      <c r="S9" s="220"/>
+      <c r="T9" s="220"/>
+      <c r="U9" s="220"/>
+      <c r="V9" s="220"/>
+      <c r="W9" s="221"/>
     </row>
     <row r="10" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="265" t="s">
+      <c r="A10" s="227" t="s">
         <v>35</v>
       </c>
-      <c r="B10" s="261" t="s">
+      <c r="B10" s="229" t="s">
         <v>34</v>
       </c>
-      <c r="C10" s="261" t="s">
+      <c r="C10" s="229" t="s">
         <v>84</v>
       </c>
-      <c r="D10" s="83"/>
-      <c r="E10" s="255" t="s">
+      <c r="D10" s="172"/>
+      <c r="E10" s="231" t="s">
         <v>36</v>
       </c>
-      <c r="F10" s="255"/>
-      <c r="G10" s="255"/>
-      <c r="H10" s="255"/>
-      <c r="I10" s="255"/>
-      <c r="J10" s="255"/>
-      <c r="K10" s="255"/>
-      <c r="L10" s="255"/>
-      <c r="M10" s="255"/>
-      <c r="N10" s="255"/>
-      <c r="O10" s="255"/>
-      <c r="P10" s="255"/>
-      <c r="Q10" s="255"/>
-      <c r="R10" s="255"/>
-      <c r="S10" s="255" t="s">
+      <c r="F10" s="231"/>
+      <c r="G10" s="231"/>
+      <c r="H10" s="231"/>
+      <c r="I10" s="231"/>
+      <c r="J10" s="231"/>
+      <c r="K10" s="231"/>
+      <c r="L10" s="231"/>
+      <c r="M10" s="231"/>
+      <c r="N10" s="231"/>
+      <c r="O10" s="231"/>
+      <c r="P10" s="231"/>
+      <c r="Q10" s="231"/>
+      <c r="R10" s="231"/>
+      <c r="S10" s="231" t="s">
         <v>37</v>
       </c>
-      <c r="T10" s="255"/>
-      <c r="U10" s="255"/>
-      <c r="V10" s="255"/>
-      <c r="W10" s="256"/>
+      <c r="T10" s="231"/>
+      <c r="U10" s="231"/>
+      <c r="V10" s="231"/>
+      <c r="W10" s="232"/>
     </row>
     <row r="11" spans="1:23" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="286"/>
-      <c r="B11" s="262"/>
-      <c r="C11" s="262"/>
-      <c r="D11" s="263"/>
+      <c r="A11" s="228"/>
+      <c r="B11" s="230"/>
+      <c r="C11" s="230"/>
+      <c r="D11" s="237"/>
       <c r="E11" s="7" t="s">
         <v>38</v>
       </c>
@@ -7332,8 +7312,8 @@
     <row r="12" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="18"/>
       <c r="B12" s="16"/>
-      <c r="C12" s="264"/>
-      <c r="D12" s="223"/>
+      <c r="C12" s="238"/>
+      <c r="D12" s="212"/>
       <c r="E12" s="13"/>
       <c r="F12" s="11"/>
       <c r="G12" s="11"/>
@@ -7357,8 +7337,8 @@
     <row r="13" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="18"/>
       <c r="B13" s="16"/>
-      <c r="C13" s="225"/>
-      <c r="D13" s="225"/>
+      <c r="C13" s="214"/>
+      <c r="D13" s="214"/>
       <c r="E13" s="13"/>
       <c r="F13" s="16"/>
       <c r="G13" s="16"/>
@@ -7382,8 +7362,8 @@
     <row r="14" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="18"/>
       <c r="B14" s="16"/>
-      <c r="C14" s="264"/>
-      <c r="D14" s="223"/>
+      <c r="C14" s="238"/>
+      <c r="D14" s="212"/>
       <c r="E14" s="13"/>
       <c r="F14" s="16"/>
       <c r="G14" s="16"/>
@@ -7407,8 +7387,8 @@
     <row r="15" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="18"/>
       <c r="B15" s="16"/>
-      <c r="C15" s="225"/>
-      <c r="D15" s="225"/>
+      <c r="C15" s="214"/>
+      <c r="D15" s="214"/>
       <c r="E15" s="19"/>
       <c r="F15" s="11"/>
       <c r="G15" s="11"/>
@@ -7432,8 +7412,8 @@
     <row r="16" spans="1:23" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="18"/>
       <c r="B16" s="17"/>
-      <c r="C16" s="166"/>
-      <c r="D16" s="166"/>
+      <c r="C16" s="98"/>
+      <c r="D16" s="98"/>
       <c r="E16" s="19"/>
       <c r="F16" s="11"/>
       <c r="G16" s="19"/>
@@ -7455,80 +7435,80 @@
       <c r="W16" s="21"/>
     </row>
     <row r="17" spans="1:23" ht="10" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="122"/>
-      <c r="B17" s="123"/>
-      <c r="C17" s="123"/>
-      <c r="D17" s="123"/>
-      <c r="E17" s="123"/>
-      <c r="F17" s="123"/>
-      <c r="G17" s="123"/>
-      <c r="H17" s="123"/>
-      <c r="I17" s="123"/>
-      <c r="J17" s="123"/>
-      <c r="K17" s="123"/>
-      <c r="L17" s="123"/>
-      <c r="M17" s="123"/>
-      <c r="N17" s="123"/>
-      <c r="O17" s="123"/>
-      <c r="P17" s="123"/>
-      <c r="Q17" s="123"/>
-      <c r="R17" s="123"/>
-      <c r="S17" s="123"/>
-      <c r="T17" s="123"/>
-      <c r="U17" s="123"/>
-      <c r="V17" s="123"/>
-      <c r="W17" s="124"/>
+      <c r="A17" s="137"/>
+      <c r="B17" s="138"/>
+      <c r="C17" s="138"/>
+      <c r="D17" s="138"/>
+      <c r="E17" s="138"/>
+      <c r="F17" s="138"/>
+      <c r="G17" s="138"/>
+      <c r="H17" s="138"/>
+      <c r="I17" s="138"/>
+      <c r="J17" s="138"/>
+      <c r="K17" s="138"/>
+      <c r="L17" s="138"/>
+      <c r="M17" s="138"/>
+      <c r="N17" s="138"/>
+      <c r="O17" s="138"/>
+      <c r="P17" s="138"/>
+      <c r="Q17" s="138"/>
+      <c r="R17" s="138"/>
+      <c r="S17" s="138"/>
+      <c r="T17" s="138"/>
+      <c r="U17" s="138"/>
+      <c r="V17" s="138"/>
+      <c r="W17" s="139"/>
     </row>
     <row r="18" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="257" t="s">
+      <c r="A18" s="233" t="s">
         <v>85</v>
       </c>
-      <c r="B18" s="258"/>
-      <c r="C18" s="275" t="s">
+      <c r="B18" s="234"/>
+      <c r="C18" s="249" t="s">
         <v>56</v>
       </c>
-      <c r="D18" s="276"/>
-      <c r="E18" s="276"/>
-      <c r="F18" s="276"/>
-      <c r="G18" s="276"/>
-      <c r="H18" s="276"/>
-      <c r="I18" s="276"/>
-      <c r="J18" s="276"/>
-      <c r="K18" s="276"/>
-      <c r="L18" s="258"/>
-      <c r="M18" s="272" t="s">
+      <c r="D18" s="250"/>
+      <c r="E18" s="250"/>
+      <c r="F18" s="250"/>
+      <c r="G18" s="250"/>
+      <c r="H18" s="250"/>
+      <c r="I18" s="250"/>
+      <c r="J18" s="250"/>
+      <c r="K18" s="250"/>
+      <c r="L18" s="234"/>
+      <c r="M18" s="245" t="s">
         <v>0</v>
       </c>
-      <c r="N18" s="273"/>
-      <c r="O18" s="273"/>
-      <c r="P18" s="273"/>
-      <c r="Q18" s="273"/>
-      <c r="R18" s="273"/>
-      <c r="S18" s="274"/>
-      <c r="T18" s="265" t="s">
+      <c r="N18" s="246"/>
+      <c r="O18" s="246"/>
+      <c r="P18" s="246"/>
+      <c r="Q18" s="246"/>
+      <c r="R18" s="246"/>
+      <c r="S18" s="247"/>
+      <c r="T18" s="227" t="s">
         <v>49</v>
       </c>
-      <c r="U18" s="255"/>
-      <c r="V18" s="255"/>
-      <c r="W18" s="256"/>
+      <c r="U18" s="231"/>
+      <c r="V18" s="231"/>
+      <c r="W18" s="232"/>
     </row>
     <row r="19" spans="1:23" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="259"/>
-      <c r="B19" s="260"/>
-      <c r="C19" s="246" t="s">
+      <c r="A19" s="235"/>
+      <c r="B19" s="236"/>
+      <c r="C19" s="215" t="s">
         <v>57</v>
       </c>
       <c r="D19" s="57"/>
-      <c r="E19" s="246" t="s">
+      <c r="E19" s="215" t="s">
         <v>59</v>
       </c>
       <c r="F19" s="57"/>
       <c r="G19" s="57"/>
-      <c r="H19" s="246" t="s">
+      <c r="H19" s="215" t="s">
         <v>60</v>
       </c>
       <c r="I19" s="57"/>
-      <c r="J19" s="246" t="s">
+      <c r="J19" s="215" t="s">
         <v>58</v>
       </c>
       <c r="K19" s="57"/>
@@ -7555,26 +7535,26 @@
         <f>M19</f>
         <v>-</v>
       </c>
-      <c r="T19" s="266" t="s">
+      <c r="T19" s="239" t="s">
         <v>92</v>
       </c>
-      <c r="U19" s="267"/>
-      <c r="V19" s="267"/>
-      <c r="W19" s="268"/>
+      <c r="U19" s="240"/>
+      <c r="V19" s="240"/>
+      <c r="W19" s="241"/>
     </row>
     <row r="20" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="222"/>
-      <c r="B20" s="223"/>
-      <c r="C20" s="224"/>
-      <c r="D20" s="224"/>
-      <c r="E20" s="225"/>
-      <c r="F20" s="225"/>
-      <c r="G20" s="225"/>
-      <c r="H20" s="226"/>
-      <c r="I20" s="225"/>
-      <c r="J20" s="225"/>
-      <c r="K20" s="225"/>
-      <c r="L20" s="225"/>
+      <c r="A20" s="211"/>
+      <c r="B20" s="212"/>
+      <c r="C20" s="213"/>
+      <c r="D20" s="213"/>
+      <c r="E20" s="214"/>
+      <c r="F20" s="214"/>
+      <c r="G20" s="214"/>
+      <c r="H20" s="248"/>
+      <c r="I20" s="214"/>
+      <c r="J20" s="214"/>
+      <c r="K20" s="214"/>
+      <c r="L20" s="214"/>
       <c r="M20" s="13" t="s">
         <v>0</v>
       </c>
@@ -7597,24 +7577,24 @@
         <f>M20</f>
         <v>-</v>
       </c>
-      <c r="T20" s="266"/>
-      <c r="U20" s="267"/>
-      <c r="V20" s="267"/>
-      <c r="W20" s="268"/>
+      <c r="T20" s="239"/>
+      <c r="U20" s="240"/>
+      <c r="V20" s="240"/>
+      <c r="W20" s="241"/>
     </row>
     <row r="21" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="222"/>
-      <c r="B21" s="223"/>
-      <c r="C21" s="224"/>
-      <c r="D21" s="224"/>
-      <c r="E21" s="225"/>
-      <c r="F21" s="225"/>
-      <c r="G21" s="225"/>
-      <c r="H21" s="226"/>
-      <c r="I21" s="225"/>
-      <c r="J21" s="225"/>
-      <c r="K21" s="225"/>
-      <c r="L21" s="225"/>
+      <c r="A21" s="211"/>
+      <c r="B21" s="212"/>
+      <c r="C21" s="213"/>
+      <c r="D21" s="213"/>
+      <c r="E21" s="214"/>
+      <c r="F21" s="214"/>
+      <c r="G21" s="214"/>
+      <c r="H21" s="248"/>
+      <c r="I21" s="214"/>
+      <c r="J21" s="214"/>
+      <c r="K21" s="214"/>
+      <c r="L21" s="214"/>
       <c r="M21" s="13" t="s">
         <v>0</v>
       </c>
@@ -7637,24 +7617,24 @@
         <f t="shared" ref="S21:S23" si="0">M21</f>
         <v>-</v>
       </c>
-      <c r="T21" s="269"/>
-      <c r="U21" s="270"/>
-      <c r="V21" s="270"/>
-      <c r="W21" s="271"/>
+      <c r="T21" s="242"/>
+      <c r="U21" s="243"/>
+      <c r="V21" s="243"/>
+      <c r="W21" s="244"/>
     </row>
     <row r="22" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="222"/>
-      <c r="B22" s="223"/>
-      <c r="C22" s="224"/>
-      <c r="D22" s="224"/>
-      <c r="E22" s="225"/>
-      <c r="F22" s="225"/>
-      <c r="G22" s="225"/>
-      <c r="H22" s="226"/>
-      <c r="I22" s="225"/>
-      <c r="J22" s="225"/>
-      <c r="K22" s="225"/>
-      <c r="L22" s="225"/>
+      <c r="A22" s="211"/>
+      <c r="B22" s="212"/>
+      <c r="C22" s="213"/>
+      <c r="D22" s="213"/>
+      <c r="E22" s="214"/>
+      <c r="F22" s="214"/>
+      <c r="G22" s="214"/>
+      <c r="H22" s="248"/>
+      <c r="I22" s="214"/>
+      <c r="J22" s="214"/>
+      <c r="K22" s="214"/>
+      <c r="L22" s="214"/>
       <c r="M22" s="13" t="s">
         <v>0</v>
       </c>
@@ -7677,24 +7657,24 @@
         <f t="shared" si="0"/>
         <v>-</v>
       </c>
-      <c r="T22" s="269"/>
-      <c r="U22" s="270"/>
-      <c r="V22" s="270"/>
-      <c r="W22" s="271"/>
+      <c r="T22" s="242"/>
+      <c r="U22" s="243"/>
+      <c r="V22" s="243"/>
+      <c r="W22" s="244"/>
     </row>
     <row r="23" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="222"/>
-      <c r="B23" s="223"/>
-      <c r="C23" s="224"/>
-      <c r="D23" s="224"/>
-      <c r="E23" s="225"/>
-      <c r="F23" s="225"/>
-      <c r="G23" s="225"/>
-      <c r="H23" s="226"/>
-      <c r="I23" s="225"/>
-      <c r="J23" s="225"/>
-      <c r="K23" s="225"/>
-      <c r="L23" s="225"/>
+      <c r="A23" s="211"/>
+      <c r="B23" s="212"/>
+      <c r="C23" s="213"/>
+      <c r="D23" s="213"/>
+      <c r="E23" s="214"/>
+      <c r="F23" s="214"/>
+      <c r="G23" s="214"/>
+      <c r="H23" s="248"/>
+      <c r="I23" s="214"/>
+      <c r="J23" s="214"/>
+      <c r="K23" s="214"/>
+      <c r="L23" s="214"/>
       <c r="M23" s="13" t="s">
         <v>0</v>
       </c>
@@ -7717,24 +7697,24 @@
         <f t="shared" si="0"/>
         <v>-</v>
       </c>
-      <c r="T23" s="269"/>
-      <c r="U23" s="270"/>
-      <c r="V23" s="270"/>
-      <c r="W23" s="271"/>
+      <c r="T23" s="242"/>
+      <c r="U23" s="243"/>
+      <c r="V23" s="243"/>
+      <c r="W23" s="244"/>
     </row>
     <row r="24" spans="1:23" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="222"/>
-      <c r="B24" s="223"/>
-      <c r="C24" s="224"/>
-      <c r="D24" s="224"/>
-      <c r="E24" s="225"/>
-      <c r="F24" s="225"/>
-      <c r="G24" s="225"/>
-      <c r="H24" s="226"/>
-      <c r="I24" s="225"/>
-      <c r="J24" s="225"/>
-      <c r="K24" s="225"/>
-      <c r="L24" s="225"/>
+      <c r="A24" s="211"/>
+      <c r="B24" s="212"/>
+      <c r="C24" s="213"/>
+      <c r="D24" s="213"/>
+      <c r="E24" s="214"/>
+      <c r="F24" s="214"/>
+      <c r="G24" s="214"/>
+      <c r="H24" s="248"/>
+      <c r="I24" s="214"/>
+      <c r="J24" s="214"/>
+      <c r="K24" s="214"/>
+      <c r="L24" s="214"/>
       <c r="M24" s="13" t="s">
         <v>0</v>
       </c>
@@ -7757,88 +7737,88 @@
         <f>M24</f>
         <v>-</v>
       </c>
-      <c r="T24" s="269"/>
-      <c r="U24" s="270"/>
-      <c r="V24" s="270"/>
-      <c r="W24" s="271"/>
+      <c r="T24" s="242"/>
+      <c r="U24" s="243"/>
+      <c r="V24" s="243"/>
+      <c r="W24" s="244"/>
     </row>
     <row r="25" spans="1:23" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="227" t="s">
+      <c r="A25" s="258" t="s">
         <v>50</v>
       </c>
-      <c r="B25" s="228"/>
-      <c r="C25" s="228"/>
-      <c r="D25" s="228"/>
-      <c r="E25" s="228"/>
-      <c r="F25" s="228"/>
-      <c r="G25" s="228"/>
-      <c r="H25" s="241" t="s">
+      <c r="B25" s="259"/>
+      <c r="C25" s="259"/>
+      <c r="D25" s="259"/>
+      <c r="E25" s="259"/>
+      <c r="F25" s="259"/>
+      <c r="G25" s="259"/>
+      <c r="H25" s="271" t="s">
         <v>51</v>
       </c>
-      <c r="I25" s="240"/>
-      <c r="J25" s="72" t="s">
+      <c r="I25" s="270"/>
+      <c r="J25" s="185" t="s">
         <v>15</v>
       </c>
-      <c r="K25" s="229"/>
-      <c r="L25" s="229"/>
-      <c r="M25" s="229"/>
-      <c r="N25" s="229" t="s">
+      <c r="K25" s="260"/>
+      <c r="L25" s="260"/>
+      <c r="M25" s="260"/>
+      <c r="N25" s="260" t="s">
         <v>16</v>
       </c>
-      <c r="O25" s="229"/>
-      <c r="P25" s="229"/>
-      <c r="Q25" s="229"/>
-      <c r="R25" s="229"/>
-      <c r="S25" s="229"/>
-      <c r="T25" s="229" t="s">
+      <c r="O25" s="260"/>
+      <c r="P25" s="260"/>
+      <c r="Q25" s="260"/>
+      <c r="R25" s="260"/>
+      <c r="S25" s="260"/>
+      <c r="T25" s="260" t="s">
         <v>17</v>
       </c>
-      <c r="U25" s="229"/>
-      <c r="V25" s="229"/>
-      <c r="W25" s="240"/>
+      <c r="U25" s="260"/>
+      <c r="V25" s="260"/>
+      <c r="W25" s="270"/>
     </row>
     <row r="26" spans="1:23" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="230" t="s">
+      <c r="A26" s="261" t="s">
         <v>93</v>
       </c>
-      <c r="B26" s="231"/>
-      <c r="C26" s="231"/>
-      <c r="D26" s="231"/>
-      <c r="E26" s="231"/>
-      <c r="F26" s="231"/>
-      <c r="G26" s="231"/>
-      <c r="H26" s="242" t="s">
+      <c r="B26" s="262"/>
+      <c r="C26" s="262"/>
+      <c r="D26" s="262"/>
+      <c r="E26" s="262"/>
+      <c r="F26" s="262"/>
+      <c r="G26" s="262"/>
+      <c r="H26" s="272" t="s">
         <v>28</v>
       </c>
-      <c r="I26" s="243"/>
-      <c r="J26" s="97"/>
-      <c r="K26" s="98"/>
-      <c r="L26" s="98"/>
-      <c r="M26" s="98"/>
-      <c r="N26" s="98"/>
-      <c r="O26" s="98"/>
-      <c r="P26" s="98"/>
-      <c r="Q26" s="98"/>
-      <c r="R26" s="98"/>
-      <c r="S26" s="98"/>
-      <c r="T26" s="98"/>
-      <c r="U26" s="98"/>
-      <c r="V26" s="98"/>
-      <c r="W26" s="115"/>
+      <c r="I26" s="273"/>
+      <c r="J26" s="148"/>
+      <c r="K26" s="126"/>
+      <c r="L26" s="126"/>
+      <c r="M26" s="126"/>
+      <c r="N26" s="126"/>
+      <c r="O26" s="126"/>
+      <c r="P26" s="126"/>
+      <c r="Q26" s="126"/>
+      <c r="R26" s="126"/>
+      <c r="S26" s="126"/>
+      <c r="T26" s="126"/>
+      <c r="U26" s="126"/>
+      <c r="V26" s="126"/>
+      <c r="W26" s="127"/>
     </row>
     <row r="27" spans="1:23" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="232"/>
-      <c r="B27" s="233"/>
-      <c r="C27" s="233"/>
-      <c r="D27" s="233"/>
-      <c r="E27" s="233"/>
-      <c r="F27" s="233"/>
-      <c r="G27" s="233"/>
-      <c r="H27" s="238" t="s">
+      <c r="A27" s="263"/>
+      <c r="B27" s="264"/>
+      <c r="C27" s="264"/>
+      <c r="D27" s="264"/>
+      <c r="E27" s="264"/>
+      <c r="F27" s="264"/>
+      <c r="G27" s="264"/>
+      <c r="H27" s="268" t="s">
         <v>52</v>
       </c>
-      <c r="I27" s="239"/>
-      <c r="J27" s="87"/>
+      <c r="I27" s="269"/>
+      <c r="J27" s="143"/>
       <c r="K27" s="55"/>
       <c r="L27" s="55"/>
       <c r="M27" s="55"/>
@@ -7851,21 +7831,21 @@
       <c r="T27" s="55"/>
       <c r="U27" s="55"/>
       <c r="V27" s="55"/>
-      <c r="W27" s="90"/>
+      <c r="W27" s="129"/>
     </row>
     <row r="28" spans="1:23" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="232"/>
-      <c r="B28" s="233"/>
-      <c r="C28" s="233"/>
-      <c r="D28" s="233"/>
-      <c r="E28" s="233"/>
-      <c r="F28" s="233"/>
-      <c r="G28" s="233"/>
-      <c r="H28" s="236" t="s">
+      <c r="A28" s="263"/>
+      <c r="B28" s="264"/>
+      <c r="C28" s="264"/>
+      <c r="D28" s="264"/>
+      <c r="E28" s="264"/>
+      <c r="F28" s="264"/>
+      <c r="G28" s="264"/>
+      <c r="H28" s="266" t="s">
         <v>28</v>
       </c>
-      <c r="I28" s="237"/>
-      <c r="J28" s="87"/>
+      <c r="I28" s="267"/>
+      <c r="J28" s="143"/>
       <c r="K28" s="55"/>
       <c r="L28" s="55"/>
       <c r="M28" s="55"/>
@@ -7878,21 +7858,21 @@
       <c r="T28" s="55"/>
       <c r="U28" s="55"/>
       <c r="V28" s="55"/>
-      <c r="W28" s="90"/>
+      <c r="W28" s="129"/>
     </row>
     <row r="29" spans="1:23" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="232"/>
-      <c r="B29" s="233"/>
-      <c r="C29" s="233"/>
-      <c r="D29" s="233"/>
-      <c r="E29" s="233"/>
-      <c r="F29" s="233"/>
-      <c r="G29" s="233"/>
-      <c r="H29" s="238" t="s">
+      <c r="A29" s="263"/>
+      <c r="B29" s="264"/>
+      <c r="C29" s="264"/>
+      <c r="D29" s="264"/>
+      <c r="E29" s="264"/>
+      <c r="F29" s="264"/>
+      <c r="G29" s="264"/>
+      <c r="H29" s="268" t="s">
         <v>53</v>
       </c>
-      <c r="I29" s="239"/>
-      <c r="J29" s="87">
+      <c r="I29" s="269"/>
+      <c r="J29" s="143">
         <f>'Page 01 of 02'!A55</f>
         <v>0</v>
       </c>
@@ -7911,55 +7891,119 @@
       <c r="T29" s="55"/>
       <c r="U29" s="55"/>
       <c r="V29" s="55"/>
-      <c r="W29" s="90"/>
+      <c r="W29" s="129"/>
     </row>
     <row r="30" spans="1:23" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="234"/>
-      <c r="B30" s="235"/>
-      <c r="C30" s="235"/>
-      <c r="D30" s="235"/>
-      <c r="E30" s="235"/>
-      <c r="F30" s="235"/>
-      <c r="G30" s="235"/>
-      <c r="H30" s="244" t="s">
+      <c r="A30" s="265"/>
+      <c r="B30" s="217"/>
+      <c r="C30" s="217"/>
+      <c r="D30" s="217"/>
+      <c r="E30" s="217"/>
+      <c r="F30" s="217"/>
+      <c r="G30" s="217"/>
+      <c r="H30" s="274" t="s">
         <v>28</v>
       </c>
-      <c r="I30" s="245"/>
+      <c r="I30" s="275"/>
       <c r="J30" s="207">
         <f>'Page 01 of 02'!A56</f>
         <v>0</v>
       </c>
-      <c r="K30" s="92"/>
-      <c r="L30" s="92"/>
-      <c r="M30" s="92"/>
-      <c r="N30" s="92">
+      <c r="K30" s="66"/>
+      <c r="L30" s="66"/>
+      <c r="M30" s="66"/>
+      <c r="N30" s="66">
         <f>'Page 01 of 02'!E56</f>
         <v>0</v>
       </c>
-      <c r="O30" s="92"/>
-      <c r="P30" s="92"/>
-      <c r="Q30" s="92"/>
-      <c r="R30" s="92"/>
-      <c r="S30" s="92"/>
-      <c r="T30" s="92"/>
-      <c r="U30" s="92"/>
-      <c r="V30" s="92"/>
-      <c r="W30" s="96"/>
+      <c r="O30" s="66"/>
+      <c r="P30" s="66"/>
+      <c r="Q30" s="66"/>
+      <c r="R30" s="66"/>
+      <c r="S30" s="66"/>
+      <c r="T30" s="66"/>
+      <c r="U30" s="66"/>
+      <c r="V30" s="66"/>
+      <c r="W30" s="67"/>
     </row>
     <row r="31" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A31" s="28" t="s">
         <v>94</v>
       </c>
-      <c r="M31" s="98" t="s">
+      <c r="M31" s="126" t="s">
         <v>95</v>
       </c>
-      <c r="N31" s="98"/>
+      <c r="N31" s="126"/>
       <c r="W31" s="27" t="s">
         <v>96</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="80">
+    <mergeCell ref="J26:M28"/>
+    <mergeCell ref="N26:S28"/>
+    <mergeCell ref="T26:W28"/>
+    <mergeCell ref="J29:M29"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="E23:G23"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="J24:L24"/>
+    <mergeCell ref="J22:L22"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:G21"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="J21:L21"/>
+    <mergeCell ref="J30:M30"/>
+    <mergeCell ref="N29:S29"/>
+    <mergeCell ref="N30:S30"/>
+    <mergeCell ref="T29:W29"/>
+    <mergeCell ref="A25:G25"/>
+    <mergeCell ref="J25:M25"/>
+    <mergeCell ref="A26:G30"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="H29:I29"/>
+    <mergeCell ref="T30:W30"/>
+    <mergeCell ref="T25:W25"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="H30:I30"/>
+    <mergeCell ref="N25:S25"/>
+    <mergeCell ref="J19:L19"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="J20:L20"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E24:G24"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E22:G22"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="J23:L23"/>
+    <mergeCell ref="O5:W5"/>
+    <mergeCell ref="O6:W6"/>
+    <mergeCell ref="O7:T7"/>
+    <mergeCell ref="U7:W7"/>
+    <mergeCell ref="O8:T8"/>
+    <mergeCell ref="E10:R10"/>
+    <mergeCell ref="S10:W10"/>
+    <mergeCell ref="A18:B19"/>
+    <mergeCell ref="C10:D11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="A17:W17"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="T18:W18"/>
+    <mergeCell ref="T19:W24"/>
+    <mergeCell ref="M18:S18"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="C18:L18"/>
     <mergeCell ref="D1:W2"/>
     <mergeCell ref="D3:W3"/>
     <mergeCell ref="M31:N31"/>
@@ -7976,70 +8020,6 @@
     <mergeCell ref="D4:T4"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="B10:B11"/>
-    <mergeCell ref="E10:R10"/>
-    <mergeCell ref="S10:W10"/>
-    <mergeCell ref="A18:B19"/>
-    <mergeCell ref="C10:D11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="A17:W17"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="T18:W18"/>
-    <mergeCell ref="T19:W24"/>
-    <mergeCell ref="M18:S18"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="C18:L18"/>
-    <mergeCell ref="O5:W5"/>
-    <mergeCell ref="O6:W6"/>
-    <mergeCell ref="O7:T7"/>
-    <mergeCell ref="U7:W7"/>
-    <mergeCell ref="O8:T8"/>
-    <mergeCell ref="J19:L19"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="J20:L20"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E24:G24"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="E22:G22"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="J23:L23"/>
-    <mergeCell ref="J30:M30"/>
-    <mergeCell ref="N29:S29"/>
-    <mergeCell ref="N30:S30"/>
-    <mergeCell ref="T29:W29"/>
-    <mergeCell ref="A25:G25"/>
-    <mergeCell ref="J25:M25"/>
-    <mergeCell ref="A26:G30"/>
-    <mergeCell ref="H28:I28"/>
-    <mergeCell ref="H29:I29"/>
-    <mergeCell ref="T30:W30"/>
-    <mergeCell ref="T25:W25"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="H27:I27"/>
-    <mergeCell ref="H30:I30"/>
-    <mergeCell ref="N25:S25"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E21:G21"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="J21:L21"/>
-    <mergeCell ref="J26:M28"/>
-    <mergeCell ref="N26:S28"/>
-    <mergeCell ref="T26:W28"/>
-    <mergeCell ref="J29:M29"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="E23:G23"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="J24:L24"/>
-    <mergeCell ref="J22:L22"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.68" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.37"/>
@@ -8075,628 +8055,628 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="144"/>
-      <c r="B1" s="145"/>
-      <c r="C1" s="61" t="s">
+      <c r="A1" s="74"/>
+      <c r="B1" s="75"/>
+      <c r="C1" s="175" t="s">
         <v>86</v>
       </c>
-      <c r="D1" s="62"/>
-      <c r="E1" s="62"/>
-      <c r="F1" s="62"/>
-      <c r="G1" s="62"/>
-      <c r="H1" s="62"/>
-      <c r="I1" s="62"/>
-      <c r="J1" s="62"/>
-      <c r="K1" s="62"/>
-      <c r="L1" s="211"/>
+      <c r="D1" s="176"/>
+      <c r="E1" s="176"/>
+      <c r="F1" s="176"/>
+      <c r="G1" s="176"/>
+      <c r="H1" s="176"/>
+      <c r="I1" s="176"/>
+      <c r="J1" s="176"/>
+      <c r="K1" s="176"/>
+      <c r="L1" s="189"/>
     </row>
     <row r="2" spans="1:12" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="146"/>
-      <c r="B2" s="147"/>
-      <c r="C2" s="63"/>
-      <c r="D2" s="64"/>
-      <c r="E2" s="64"/>
-      <c r="F2" s="64"/>
-      <c r="G2" s="64"/>
-      <c r="H2" s="64"/>
-      <c r="I2" s="64"/>
-      <c r="J2" s="64"/>
-      <c r="K2" s="64"/>
-      <c r="L2" s="212"/>
+      <c r="A2" s="76"/>
+      <c r="B2" s="77"/>
+      <c r="C2" s="177"/>
+      <c r="D2" s="178"/>
+      <c r="E2" s="178"/>
+      <c r="F2" s="178"/>
+      <c r="G2" s="178"/>
+      <c r="H2" s="178"/>
+      <c r="I2" s="178"/>
+      <c r="J2" s="178"/>
+      <c r="K2" s="178"/>
+      <c r="L2" s="190"/>
     </row>
     <row r="3" spans="1:12" s="1" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="146"/>
-      <c r="B3" s="147"/>
-      <c r="C3" s="65" t="s">
+      <c r="A3" s="76"/>
+      <c r="B3" s="77"/>
+      <c r="C3" s="179" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="66"/>
-      <c r="E3" s="66"/>
-      <c r="F3" s="66"/>
-      <c r="G3" s="66"/>
-      <c r="H3" s="66"/>
-      <c r="I3" s="66"/>
-      <c r="J3" s="66"/>
-      <c r="K3" s="66"/>
-      <c r="L3" s="213"/>
+      <c r="D3" s="180"/>
+      <c r="E3" s="180"/>
+      <c r="F3" s="180"/>
+      <c r="G3" s="180"/>
+      <c r="H3" s="180"/>
+      <c r="I3" s="180"/>
+      <c r="J3" s="180"/>
+      <c r="K3" s="180"/>
+      <c r="L3" s="191"/>
     </row>
     <row r="4" spans="1:12" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="148"/>
-      <c r="B4" s="149"/>
-      <c r="C4" s="141" t="s">
-        <v>115</v>
-      </c>
-      <c r="D4" s="142"/>
-      <c r="E4" s="142"/>
-      <c r="F4" s="142"/>
-      <c r="G4" s="142"/>
-      <c r="H4" s="142"/>
-      <c r="I4" s="142"/>
-      <c r="J4" s="143"/>
-      <c r="K4" s="150" t="s">
+      <c r="A4" s="78"/>
+      <c r="B4" s="79"/>
+      <c r="C4" s="68" t="s">
+        <v>114</v>
+      </c>
+      <c r="D4" s="69"/>
+      <c r="E4" s="69"/>
+      <c r="F4" s="69"/>
+      <c r="G4" s="69"/>
+      <c r="H4" s="69"/>
+      <c r="I4" s="69"/>
+      <c r="J4" s="70"/>
+      <c r="K4" s="80" t="s">
         <v>55</v>
       </c>
-      <c r="L4" s="151"/>
+      <c r="L4" s="81"/>
     </row>
     <row r="5" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="297" t="s">
-        <v>125</v>
-      </c>
-      <c r="B5" s="298"/>
-      <c r="C5" s="298"/>
-      <c r="D5" s="298"/>
-      <c r="E5" s="298"/>
-      <c r="F5" s="298"/>
-      <c r="G5" s="298"/>
-      <c r="H5" s="170" t="s">
+      <c r="A5" s="276" t="s">
+        <v>124</v>
+      </c>
+      <c r="B5" s="277"/>
+      <c r="C5" s="277"/>
+      <c r="D5" s="277"/>
+      <c r="E5" s="277"/>
+      <c r="F5" s="277"/>
+      <c r="G5" s="277"/>
+      <c r="H5" s="102" t="s">
         <v>18</v>
       </c>
-      <c r="I5" s="171"/>
-      <c r="J5" s="171"/>
-      <c r="K5" s="171" t="s">
+      <c r="I5" s="103"/>
+      <c r="J5" s="103"/>
+      <c r="K5" s="103" t="s">
         <v>19</v>
       </c>
-      <c r="L5" s="172"/>
+      <c r="L5" s="104"/>
     </row>
     <row r="6" spans="1:12" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="299"/>
-      <c r="B6" s="300"/>
-      <c r="C6" s="300"/>
-      <c r="D6" s="300"/>
-      <c r="E6" s="300"/>
-      <c r="F6" s="300"/>
-      <c r="G6" s="300"/>
-      <c r="H6" s="165" t="str">
+      <c r="A6" s="278"/>
+      <c r="B6" s="279"/>
+      <c r="C6" s="279"/>
+      <c r="D6" s="279"/>
+      <c r="E6" s="279"/>
+      <c r="F6" s="279"/>
+      <c r="G6" s="279"/>
+      <c r="H6" s="97" t="str">
         <f>'Page 01 of 02'!J8</f>
         <v>MTV2400001-1-1</v>
       </c>
-      <c r="I6" s="166"/>
-      <c r="J6" s="166"/>
-      <c r="K6" s="163">
+      <c r="I6" s="98"/>
+      <c r="J6" s="98"/>
+      <c r="K6" s="95">
         <f>'Page 01 of 02'!M8</f>
         <v>0</v>
       </c>
-      <c r="L6" s="164"/>
+      <c r="L6" s="96"/>
     </row>
     <row r="7" spans="1:12" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="109" t="s">
-        <v>124</v>
-      </c>
-      <c r="B7" s="110"/>
-      <c r="C7" s="110"/>
-      <c r="D7" s="110"/>
-      <c r="E7" s="110"/>
-      <c r="F7" s="110"/>
-      <c r="G7" s="110"/>
-      <c r="H7" s="110"/>
-      <c r="I7" s="110"/>
-      <c r="J7" s="110"/>
-      <c r="K7" s="110"/>
-      <c r="L7" s="111"/>
+      <c r="A7" s="153" t="s">
+        <v>123</v>
+      </c>
+      <c r="B7" s="154"/>
+      <c r="C7" s="154"/>
+      <c r="D7" s="154"/>
+      <c r="E7" s="154"/>
+      <c r="F7" s="154"/>
+      <c r="G7" s="154"/>
+      <c r="H7" s="154"/>
+      <c r="I7" s="154"/>
+      <c r="J7" s="154"/>
+      <c r="K7" s="154"/>
+      <c r="L7" s="155"/>
     </row>
     <row r="8" spans="1:12" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="109" t="s">
+      <c r="A8" s="153" t="s">
         <v>25</v>
       </c>
-      <c r="B8" s="110"/>
-      <c r="C8" s="215" t="s">
+      <c r="B8" s="154"/>
+      <c r="C8" s="197" t="s">
+        <v>121</v>
+      </c>
+      <c r="D8" s="154"/>
+      <c r="E8" s="202" t="s">
+        <v>84</v>
+      </c>
+      <c r="F8" s="203"/>
+      <c r="G8" s="202" t="s">
         <v>122</v>
       </c>
-      <c r="D8" s="110"/>
-      <c r="E8" s="220" t="s">
-        <v>84</v>
-      </c>
-      <c r="F8" s="221"/>
-      <c r="G8" s="220" t="s">
-        <v>123</v>
-      </c>
-      <c r="H8" s="280"/>
-      <c r="I8" s="280"/>
-      <c r="J8" s="280"/>
-      <c r="K8" s="280"/>
-      <c r="L8" s="281"/>
+      <c r="H8" s="220"/>
+      <c r="I8" s="220"/>
+      <c r="J8" s="220"/>
+      <c r="K8" s="220"/>
+      <c r="L8" s="221"/>
     </row>
     <row r="9" spans="1:12" s="8" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="293"/>
-      <c r="B9" s="294"/>
-      <c r="C9" s="220" t="s">
+      <c r="A9" s="282"/>
+      <c r="B9" s="283"/>
+      <c r="C9" s="202" t="s">
         <v>29</v>
       </c>
-      <c r="D9" s="221"/>
-      <c r="E9" s="287"/>
-      <c r="F9" s="288"/>
-      <c r="G9" s="287"/>
-      <c r="H9" s="291"/>
-      <c r="I9" s="291"/>
-      <c r="J9" s="291"/>
-      <c r="K9" s="291"/>
-      <c r="L9" s="292"/>
+      <c r="D9" s="203"/>
+      <c r="E9" s="280"/>
+      <c r="F9" s="281"/>
+      <c r="G9" s="280"/>
+      <c r="H9" s="286"/>
+      <c r="I9" s="286"/>
+      <c r="J9" s="286"/>
+      <c r="K9" s="286"/>
+      <c r="L9" s="287"/>
     </row>
     <row r="10" spans="1:12" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="214"/>
-      <c r="B10" s="210"/>
-      <c r="C10" s="220" t="s">
+      <c r="A10" s="192"/>
+      <c r="B10" s="193"/>
+      <c r="C10" s="202" t="s">
         <v>62</v>
       </c>
-      <c r="D10" s="221"/>
-      <c r="E10" s="287"/>
-      <c r="F10" s="288"/>
-      <c r="G10" s="202"/>
-      <c r="H10" s="289"/>
-      <c r="I10" s="289"/>
-      <c r="J10" s="289"/>
-      <c r="K10" s="289"/>
-      <c r="L10" s="290"/>
+      <c r="D10" s="203"/>
+      <c r="E10" s="280"/>
+      <c r="F10" s="281"/>
+      <c r="G10" s="204"/>
+      <c r="H10" s="288"/>
+      <c r="I10" s="288"/>
+      <c r="J10" s="288"/>
+      <c r="K10" s="288"/>
+      <c r="L10" s="289"/>
     </row>
     <row r="11" spans="1:12" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="214"/>
-      <c r="B11" s="210"/>
-      <c r="C11" s="220" t="s">
+      <c r="A11" s="192"/>
+      <c r="B11" s="193"/>
+      <c r="C11" s="202" t="s">
         <v>61</v>
       </c>
-      <c r="D11" s="221"/>
-      <c r="E11" s="287"/>
-      <c r="F11" s="288"/>
-      <c r="G11" s="202"/>
-      <c r="H11" s="289"/>
-      <c r="I11" s="289"/>
-      <c r="J11" s="289"/>
-      <c r="K11" s="289"/>
-      <c r="L11" s="290"/>
+      <c r="D11" s="203"/>
+      <c r="E11" s="280"/>
+      <c r="F11" s="281"/>
+      <c r="G11" s="204"/>
+      <c r="H11" s="288"/>
+      <c r="I11" s="288"/>
+      <c r="J11" s="288"/>
+      <c r="K11" s="288"/>
+      <c r="L11" s="289"/>
     </row>
     <row r="12" spans="1:12" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="214"/>
-      <c r="B12" s="210"/>
-      <c r="C12" s="220" t="s">
+      <c r="A12" s="192"/>
+      <c r="B12" s="193"/>
+      <c r="C12" s="202" t="s">
         <v>76</v>
       </c>
-      <c r="D12" s="221"/>
-      <c r="E12" s="287"/>
-      <c r="F12" s="288"/>
-      <c r="G12" s="287"/>
-      <c r="H12" s="291"/>
-      <c r="I12" s="291"/>
-      <c r="J12" s="291"/>
-      <c r="K12" s="291"/>
-      <c r="L12" s="292"/>
+      <c r="D12" s="203"/>
+      <c r="E12" s="280"/>
+      <c r="F12" s="281"/>
+      <c r="G12" s="280"/>
+      <c r="H12" s="286"/>
+      <c r="I12" s="286"/>
+      <c r="J12" s="286"/>
+      <c r="K12" s="286"/>
+      <c r="L12" s="287"/>
     </row>
     <row r="13" spans="1:12" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="295"/>
-      <c r="B13" s="296"/>
-      <c r="C13" s="220" t="s">
+      <c r="A13" s="284"/>
+      <c r="B13" s="285"/>
+      <c r="C13" s="202" t="s">
         <v>33</v>
       </c>
-      <c r="D13" s="221"/>
-      <c r="E13" s="287"/>
-      <c r="F13" s="288"/>
-      <c r="G13" s="202"/>
-      <c r="H13" s="289"/>
-      <c r="I13" s="289"/>
-      <c r="J13" s="289"/>
-      <c r="K13" s="289"/>
-      <c r="L13" s="290"/>
+      <c r="D13" s="203"/>
+      <c r="E13" s="280"/>
+      <c r="F13" s="281"/>
+      <c r="G13" s="204"/>
+      <c r="H13" s="288"/>
+      <c r="I13" s="288"/>
+      <c r="J13" s="288"/>
+      <c r="K13" s="288"/>
+      <c r="L13" s="289"/>
     </row>
     <row r="14" spans="1:12" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="293"/>
-      <c r="B14" s="294"/>
-      <c r="C14" s="220" t="s">
+      <c r="A14" s="282"/>
+      <c r="B14" s="283"/>
+      <c r="C14" s="202" t="s">
         <v>29</v>
       </c>
-      <c r="D14" s="221"/>
-      <c r="E14" s="287"/>
-      <c r="F14" s="288"/>
-      <c r="G14" s="202"/>
-      <c r="H14" s="289"/>
-      <c r="I14" s="289"/>
-      <c r="J14" s="289"/>
-      <c r="K14" s="289"/>
-      <c r="L14" s="290"/>
+      <c r="D14" s="203"/>
+      <c r="E14" s="280"/>
+      <c r="F14" s="281"/>
+      <c r="G14" s="204"/>
+      <c r="H14" s="288"/>
+      <c r="I14" s="288"/>
+      <c r="J14" s="288"/>
+      <c r="K14" s="288"/>
+      <c r="L14" s="289"/>
     </row>
     <row r="15" spans="1:12" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="214"/>
-      <c r="B15" s="210"/>
-      <c r="C15" s="220" t="s">
+      <c r="A15" s="192"/>
+      <c r="B15" s="193"/>
+      <c r="C15" s="202" t="s">
         <v>62</v>
       </c>
-      <c r="D15" s="221"/>
-      <c r="E15" s="287"/>
-      <c r="F15" s="288"/>
-      <c r="G15" s="202"/>
-      <c r="H15" s="289"/>
-      <c r="I15" s="289"/>
-      <c r="J15" s="289"/>
-      <c r="K15" s="289"/>
-      <c r="L15" s="290"/>
+      <c r="D15" s="203"/>
+      <c r="E15" s="280"/>
+      <c r="F15" s="281"/>
+      <c r="G15" s="204"/>
+      <c r="H15" s="288"/>
+      <c r="I15" s="288"/>
+      <c r="J15" s="288"/>
+      <c r="K15" s="288"/>
+      <c r="L15" s="289"/>
     </row>
     <row r="16" spans="1:12" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="214"/>
-      <c r="B16" s="210"/>
-      <c r="C16" s="220" t="s">
+      <c r="A16" s="192"/>
+      <c r="B16" s="193"/>
+      <c r="C16" s="202" t="s">
         <v>61</v>
       </c>
-      <c r="D16" s="221"/>
-      <c r="E16" s="287"/>
-      <c r="F16" s="288"/>
-      <c r="G16" s="202"/>
-      <c r="H16" s="289"/>
-      <c r="I16" s="289"/>
-      <c r="J16" s="289"/>
-      <c r="K16" s="289"/>
-      <c r="L16" s="290"/>
+      <c r="D16" s="203"/>
+      <c r="E16" s="280"/>
+      <c r="F16" s="281"/>
+      <c r="G16" s="204"/>
+      <c r="H16" s="288"/>
+      <c r="I16" s="288"/>
+      <c r="J16" s="288"/>
+      <c r="K16" s="288"/>
+      <c r="L16" s="289"/>
     </row>
     <row r="17" spans="1:12" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="214"/>
-      <c r="B17" s="210"/>
-      <c r="C17" s="220" t="s">
+      <c r="A17" s="192"/>
+      <c r="B17" s="193"/>
+      <c r="C17" s="202" t="s">
         <v>76</v>
       </c>
-      <c r="D17" s="221"/>
-      <c r="E17" s="287"/>
-      <c r="F17" s="288"/>
-      <c r="G17" s="202"/>
-      <c r="H17" s="289"/>
-      <c r="I17" s="289"/>
-      <c r="J17" s="289"/>
-      <c r="K17" s="289"/>
-      <c r="L17" s="290"/>
+      <c r="D17" s="203"/>
+      <c r="E17" s="280"/>
+      <c r="F17" s="281"/>
+      <c r="G17" s="204"/>
+      <c r="H17" s="288"/>
+      <c r="I17" s="288"/>
+      <c r="J17" s="288"/>
+      <c r="K17" s="288"/>
+      <c r="L17" s="289"/>
     </row>
     <row r="18" spans="1:12" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="295"/>
-      <c r="B18" s="296"/>
-      <c r="C18" s="220" t="s">
+      <c r="A18" s="284"/>
+      <c r="B18" s="285"/>
+      <c r="C18" s="202" t="s">
         <v>33</v>
       </c>
-      <c r="D18" s="221"/>
-      <c r="E18" s="287"/>
-      <c r="F18" s="288"/>
-      <c r="G18" s="202"/>
-      <c r="H18" s="289"/>
-      <c r="I18" s="289"/>
-      <c r="J18" s="289"/>
-      <c r="K18" s="289"/>
-      <c r="L18" s="290"/>
+      <c r="D18" s="203"/>
+      <c r="E18" s="280"/>
+      <c r="F18" s="281"/>
+      <c r="G18" s="204"/>
+      <c r="H18" s="288"/>
+      <c r="I18" s="288"/>
+      <c r="J18" s="288"/>
+      <c r="K18" s="288"/>
+      <c r="L18" s="289"/>
     </row>
     <row r="19" spans="1:12" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="293"/>
-      <c r="B19" s="294"/>
-      <c r="C19" s="220" t="s">
+      <c r="A19" s="282"/>
+      <c r="B19" s="283"/>
+      <c r="C19" s="202" t="s">
         <v>29</v>
       </c>
-      <c r="D19" s="221"/>
-      <c r="E19" s="287"/>
-      <c r="F19" s="288"/>
-      <c r="G19" s="202"/>
-      <c r="H19" s="289"/>
-      <c r="I19" s="289"/>
-      <c r="J19" s="289"/>
-      <c r="K19" s="289"/>
-      <c r="L19" s="290"/>
+      <c r="D19" s="203"/>
+      <c r="E19" s="280"/>
+      <c r="F19" s="281"/>
+      <c r="G19" s="204"/>
+      <c r="H19" s="288"/>
+      <c r="I19" s="288"/>
+      <c r="J19" s="288"/>
+      <c r="K19" s="288"/>
+      <c r="L19" s="289"/>
     </row>
     <row r="20" spans="1:12" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="214"/>
-      <c r="B20" s="210"/>
-      <c r="C20" s="220" t="s">
+      <c r="A20" s="192"/>
+      <c r="B20" s="193"/>
+      <c r="C20" s="202" t="s">
         <v>62</v>
       </c>
-      <c r="D20" s="221"/>
-      <c r="E20" s="287"/>
-      <c r="F20" s="288"/>
-      <c r="G20" s="287"/>
-      <c r="H20" s="291"/>
-      <c r="I20" s="291"/>
-      <c r="J20" s="291"/>
-      <c r="K20" s="291"/>
-      <c r="L20" s="292"/>
+      <c r="D20" s="203"/>
+      <c r="E20" s="280"/>
+      <c r="F20" s="281"/>
+      <c r="G20" s="280"/>
+      <c r="H20" s="286"/>
+      <c r="I20" s="286"/>
+      <c r="J20" s="286"/>
+      <c r="K20" s="286"/>
+      <c r="L20" s="287"/>
     </row>
     <row r="21" spans="1:12" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="214"/>
-      <c r="B21" s="210"/>
-      <c r="C21" s="220" t="s">
+      <c r="A21" s="192"/>
+      <c r="B21" s="193"/>
+      <c r="C21" s="202" t="s">
         <v>61</v>
       </c>
-      <c r="D21" s="221"/>
-      <c r="E21" s="287"/>
-      <c r="F21" s="288"/>
-      <c r="G21" s="202"/>
-      <c r="H21" s="289"/>
-      <c r="I21" s="289"/>
-      <c r="J21" s="289"/>
-      <c r="K21" s="289"/>
-      <c r="L21" s="290"/>
+      <c r="D21" s="203"/>
+      <c r="E21" s="280"/>
+      <c r="F21" s="281"/>
+      <c r="G21" s="204"/>
+      <c r="H21" s="288"/>
+      <c r="I21" s="288"/>
+      <c r="J21" s="288"/>
+      <c r="K21" s="288"/>
+      <c r="L21" s="289"/>
     </row>
     <row r="22" spans="1:12" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="214"/>
-      <c r="B22" s="210"/>
-      <c r="C22" s="220" t="s">
+      <c r="A22" s="192"/>
+      <c r="B22" s="193"/>
+      <c r="C22" s="202" t="s">
         <v>76</v>
       </c>
-      <c r="D22" s="221"/>
-      <c r="E22" s="287"/>
-      <c r="F22" s="288"/>
-      <c r="G22" s="202"/>
-      <c r="H22" s="289"/>
-      <c r="I22" s="289"/>
-      <c r="J22" s="289"/>
-      <c r="K22" s="289"/>
-      <c r="L22" s="290"/>
+      <c r="D22" s="203"/>
+      <c r="E22" s="280"/>
+      <c r="F22" s="281"/>
+      <c r="G22" s="204"/>
+      <c r="H22" s="288"/>
+      <c r="I22" s="288"/>
+      <c r="J22" s="288"/>
+      <c r="K22" s="288"/>
+      <c r="L22" s="289"/>
     </row>
     <row r="23" spans="1:12" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="295"/>
-      <c r="B23" s="296"/>
-      <c r="C23" s="220" t="s">
+      <c r="A23" s="284"/>
+      <c r="B23" s="285"/>
+      <c r="C23" s="202" t="s">
         <v>33</v>
       </c>
-      <c r="D23" s="221"/>
-      <c r="E23" s="287"/>
-      <c r="F23" s="288"/>
-      <c r="G23" s="202"/>
-      <c r="H23" s="289"/>
-      <c r="I23" s="289"/>
-      <c r="J23" s="289"/>
-      <c r="K23" s="289"/>
-      <c r="L23" s="290"/>
+      <c r="D23" s="203"/>
+      <c r="E23" s="280"/>
+      <c r="F23" s="281"/>
+      <c r="G23" s="204"/>
+      <c r="H23" s="288"/>
+      <c r="I23" s="288"/>
+      <c r="J23" s="288"/>
+      <c r="K23" s="288"/>
+      <c r="L23" s="289"/>
     </row>
     <row r="24" spans="1:12" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="293"/>
-      <c r="B24" s="294"/>
-      <c r="C24" s="220" t="s">
+      <c r="A24" s="282"/>
+      <c r="B24" s="283"/>
+      <c r="C24" s="202" t="s">
         <v>29</v>
       </c>
-      <c r="D24" s="221"/>
-      <c r="E24" s="287"/>
-      <c r="F24" s="288"/>
-      <c r="G24" s="202"/>
-      <c r="H24" s="289"/>
-      <c r="I24" s="289"/>
-      <c r="J24" s="289"/>
-      <c r="K24" s="289"/>
-      <c r="L24" s="290"/>
+      <c r="D24" s="203"/>
+      <c r="E24" s="280"/>
+      <c r="F24" s="281"/>
+      <c r="G24" s="204"/>
+      <c r="H24" s="288"/>
+      <c r="I24" s="288"/>
+      <c r="J24" s="288"/>
+      <c r="K24" s="288"/>
+      <c r="L24" s="289"/>
     </row>
     <row r="25" spans="1:12" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="214"/>
-      <c r="B25" s="210"/>
-      <c r="C25" s="220" t="s">
+      <c r="A25" s="192"/>
+      <c r="B25" s="193"/>
+      <c r="C25" s="202" t="s">
         <v>62</v>
       </c>
-      <c r="D25" s="221"/>
-      <c r="E25" s="287"/>
-      <c r="F25" s="288"/>
-      <c r="G25" s="287"/>
-      <c r="H25" s="291"/>
-      <c r="I25" s="291"/>
-      <c r="J25" s="291"/>
-      <c r="K25" s="291"/>
-      <c r="L25" s="292"/>
+      <c r="D25" s="203"/>
+      <c r="E25" s="280"/>
+      <c r="F25" s="281"/>
+      <c r="G25" s="280"/>
+      <c r="H25" s="286"/>
+      <c r="I25" s="286"/>
+      <c r="J25" s="286"/>
+      <c r="K25" s="286"/>
+      <c r="L25" s="287"/>
     </row>
     <row r="26" spans="1:12" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="214"/>
-      <c r="B26" s="210"/>
-      <c r="C26" s="220" t="s">
+      <c r="A26" s="192"/>
+      <c r="B26" s="193"/>
+      <c r="C26" s="202" t="s">
         <v>61</v>
       </c>
-      <c r="D26" s="221"/>
-      <c r="E26" s="287"/>
-      <c r="F26" s="288"/>
-      <c r="G26" s="202"/>
-      <c r="H26" s="289"/>
-      <c r="I26" s="289"/>
-      <c r="J26" s="289"/>
-      <c r="K26" s="289"/>
-      <c r="L26" s="290"/>
+      <c r="D26" s="203"/>
+      <c r="E26" s="280"/>
+      <c r="F26" s="281"/>
+      <c r="G26" s="204"/>
+      <c r="H26" s="288"/>
+      <c r="I26" s="288"/>
+      <c r="J26" s="288"/>
+      <c r="K26" s="288"/>
+      <c r="L26" s="289"/>
     </row>
     <row r="27" spans="1:12" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="214"/>
-      <c r="B27" s="210"/>
-      <c r="C27" s="220" t="s">
+      <c r="A27" s="192"/>
+      <c r="B27" s="193"/>
+      <c r="C27" s="202" t="s">
         <v>76</v>
       </c>
-      <c r="D27" s="221"/>
-      <c r="E27" s="287"/>
-      <c r="F27" s="288"/>
-      <c r="G27" s="202"/>
-      <c r="H27" s="289"/>
-      <c r="I27" s="289"/>
-      <c r="J27" s="289"/>
-      <c r="K27" s="289"/>
-      <c r="L27" s="290"/>
+      <c r="D27" s="203"/>
+      <c r="E27" s="280"/>
+      <c r="F27" s="281"/>
+      <c r="G27" s="204"/>
+      <c r="H27" s="288"/>
+      <c r="I27" s="288"/>
+      <c r="J27" s="288"/>
+      <c r="K27" s="288"/>
+      <c r="L27" s="289"/>
     </row>
     <row r="28" spans="1:12" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="295"/>
-      <c r="B28" s="296"/>
-      <c r="C28" s="220" t="s">
+      <c r="A28" s="284"/>
+      <c r="B28" s="285"/>
+      <c r="C28" s="202" t="s">
         <v>33</v>
       </c>
-      <c r="D28" s="221"/>
-      <c r="E28" s="287"/>
-      <c r="F28" s="288"/>
-      <c r="G28" s="202"/>
-      <c r="H28" s="289"/>
-      <c r="I28" s="289"/>
-      <c r="J28" s="289"/>
-      <c r="K28" s="289"/>
-      <c r="L28" s="290"/>
+      <c r="D28" s="203"/>
+      <c r="E28" s="280"/>
+      <c r="F28" s="281"/>
+      <c r="G28" s="204"/>
+      <c r="H28" s="288"/>
+      <c r="I28" s="288"/>
+      <c r="J28" s="288"/>
+      <c r="K28" s="288"/>
+      <c r="L28" s="289"/>
     </row>
     <row r="29" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="125" t="s">
+      <c r="A29" s="71" t="s">
         <v>2</v>
       </c>
-      <c r="B29" s="126"/>
-      <c r="C29" s="126"/>
-      <c r="D29" s="126"/>
-      <c r="E29" s="126"/>
-      <c r="F29" s="126"/>
-      <c r="G29" s="126"/>
-      <c r="H29" s="126"/>
-      <c r="I29" s="126"/>
-      <c r="J29" s="126"/>
-      <c r="K29" s="126"/>
-      <c r="L29" s="127"/>
+      <c r="B29" s="72"/>
+      <c r="C29" s="72"/>
+      <c r="D29" s="72"/>
+      <c r="E29" s="72"/>
+      <c r="F29" s="72"/>
+      <c r="G29" s="72"/>
+      <c r="H29" s="72"/>
+      <c r="I29" s="72"/>
+      <c r="J29" s="72"/>
+      <c r="K29" s="72"/>
+      <c r="L29" s="73"/>
     </row>
     <row r="30" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="116" t="s">
+      <c r="A30" s="131" t="s">
         <v>98</v>
       </c>
-      <c r="B30" s="117"/>
-      <c r="C30" s="117"/>
-      <c r="D30" s="117"/>
-      <c r="E30" s="117"/>
-      <c r="F30" s="117"/>
-      <c r="G30" s="117"/>
-      <c r="H30" s="117"/>
-      <c r="I30" s="117"/>
-      <c r="J30" s="117"/>
-      <c r="K30" s="117"/>
-      <c r="L30" s="118"/>
+      <c r="B30" s="132"/>
+      <c r="C30" s="132"/>
+      <c r="D30" s="132"/>
+      <c r="E30" s="132"/>
+      <c r="F30" s="132"/>
+      <c r="G30" s="132"/>
+      <c r="H30" s="132"/>
+      <c r="I30" s="132"/>
+      <c r="J30" s="132"/>
+      <c r="K30" s="132"/>
+      <c r="L30" s="133"/>
     </row>
     <row r="31" spans="1:12" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="119"/>
-      <c r="B31" s="120"/>
-      <c r="C31" s="120"/>
-      <c r="D31" s="120"/>
-      <c r="E31" s="120"/>
-      <c r="F31" s="120"/>
-      <c r="G31" s="120"/>
-      <c r="H31" s="120"/>
-      <c r="I31" s="120"/>
-      <c r="J31" s="120"/>
-      <c r="K31" s="120"/>
-      <c r="L31" s="121"/>
+      <c r="A31" s="134"/>
+      <c r="B31" s="135"/>
+      <c r="C31" s="135"/>
+      <c r="D31" s="135"/>
+      <c r="E31" s="135"/>
+      <c r="F31" s="135"/>
+      <c r="G31" s="135"/>
+      <c r="H31" s="135"/>
+      <c r="I31" s="135"/>
+      <c r="J31" s="135"/>
+      <c r="K31" s="135"/>
+      <c r="L31" s="136"/>
     </row>
     <row r="32" spans="1:12" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="104" t="s">
+      <c r="A32" s="150" t="s">
         <v>15</v>
       </c>
-      <c r="B32" s="105"/>
-      <c r="C32" s="105"/>
-      <c r="D32" s="105"/>
-      <c r="E32" s="105" t="s">
+      <c r="B32" s="151"/>
+      <c r="C32" s="151"/>
+      <c r="D32" s="151"/>
+      <c r="E32" s="151" t="s">
         <v>16</v>
       </c>
-      <c r="F32" s="105"/>
-      <c r="G32" s="105"/>
-      <c r="H32" s="105"/>
-      <c r="I32" s="105" t="s">
+      <c r="F32" s="151"/>
+      <c r="G32" s="151"/>
+      <c r="H32" s="151"/>
+      <c r="I32" s="151" t="s">
         <v>17</v>
       </c>
-      <c r="J32" s="105"/>
-      <c r="K32" s="105"/>
-      <c r="L32" s="106"/>
+      <c r="J32" s="151"/>
+      <c r="K32" s="151"/>
+      <c r="L32" s="152"/>
     </row>
     <row r="33" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="97"/>
-      <c r="B33" s="98"/>
-      <c r="C33" s="98"/>
-      <c r="D33" s="99"/>
-      <c r="E33" s="100"/>
-      <c r="F33" s="98"/>
-      <c r="G33" s="98"/>
-      <c r="H33" s="99"/>
-      <c r="I33" s="100"/>
-      <c r="J33" s="98"/>
-      <c r="K33" s="98"/>
-      <c r="L33" s="115"/>
+      <c r="A33" s="148"/>
+      <c r="B33" s="126"/>
+      <c r="C33" s="126"/>
+      <c r="D33" s="149"/>
+      <c r="E33" s="125"/>
+      <c r="F33" s="126"/>
+      <c r="G33" s="126"/>
+      <c r="H33" s="149"/>
+      <c r="I33" s="125"/>
+      <c r="J33" s="126"/>
+      <c r="K33" s="126"/>
+      <c r="L33" s="127"/>
     </row>
     <row r="34" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="87"/>
+      <c r="A34" s="143"/>
       <c r="B34" s="55"/>
       <c r="C34" s="55"/>
-      <c r="D34" s="88"/>
-      <c r="E34" s="89"/>
+      <c r="D34" s="144"/>
+      <c r="E34" s="128"/>
       <c r="F34" s="55"/>
       <c r="G34" s="55"/>
-      <c r="H34" s="88"/>
-      <c r="I34" s="89"/>
+      <c r="H34" s="144"/>
+      <c r="I34" s="128"/>
       <c r="J34" s="55"/>
       <c r="K34" s="55"/>
-      <c r="L34" s="90"/>
+      <c r="L34" s="129"/>
     </row>
     <row r="35" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="87"/>
+      <c r="A35" s="143"/>
       <c r="B35" s="55"/>
       <c r="C35" s="55"/>
-      <c r="D35" s="88"/>
-      <c r="E35" s="89"/>
+      <c r="D35" s="144"/>
+      <c r="E35" s="128"/>
       <c r="F35" s="55"/>
       <c r="G35" s="55"/>
-      <c r="H35" s="88"/>
-      <c r="I35" s="89"/>
+      <c r="H35" s="144"/>
+      <c r="I35" s="128"/>
       <c r="J35" s="55"/>
       <c r="K35" s="55"/>
-      <c r="L35" s="90"/>
+      <c r="L35" s="129"/>
     </row>
     <row r="36" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="87"/>
+      <c r="A36" s="143"/>
       <c r="B36" s="55"/>
       <c r="C36" s="55"/>
-      <c r="D36" s="88"/>
-      <c r="E36" s="89"/>
+      <c r="D36" s="144"/>
+      <c r="E36" s="128"/>
       <c r="F36" s="55"/>
       <c r="G36" s="55"/>
-      <c r="H36" s="88"/>
-      <c r="I36" s="89"/>
+      <c r="H36" s="144"/>
+      <c r="I36" s="128"/>
       <c r="J36" s="55"/>
       <c r="K36" s="55"/>
-      <c r="L36" s="90"/>
+      <c r="L36" s="129"/>
     </row>
     <row r="37" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="87">
+      <c r="A37" s="143">
         <f>'Page 01 of 02'!A55</f>
         <v>0</v>
       </c>
       <c r="B37" s="55"/>
       <c r="C37" s="55"/>
-      <c r="D37" s="88"/>
-      <c r="E37" s="89">
+      <c r="D37" s="144"/>
+      <c r="E37" s="128">
         <f>'Page 01 of 02'!E55</f>
         <v>0</v>
       </c>
       <c r="F37" s="55"/>
       <c r="G37" s="55"/>
-      <c r="H37" s="88"/>
-      <c r="I37" s="89"/>
+      <c r="H37" s="144"/>
+      <c r="I37" s="128"/>
       <c r="J37" s="55"/>
       <c r="K37" s="55"/>
-      <c r="L37" s="90"/>
+      <c r="L37" s="129"/>
     </row>
     <row r="38" spans="1:12" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A38" s="207">
         <f>'Page 01 of 02'!A56</f>
         <v>0</v>
       </c>
-      <c r="B38" s="92"/>
-      <c r="C38" s="92"/>
-      <c r="D38" s="93"/>
-      <c r="E38" s="95">
+      <c r="B38" s="66"/>
+      <c r="C38" s="66"/>
+      <c r="D38" s="146"/>
+      <c r="E38" s="65">
         <f>'Page 01 of 02'!E56</f>
         <v>0</v>
       </c>
-      <c r="F38" s="92"/>
-      <c r="G38" s="92"/>
-      <c r="H38" s="93"/>
-      <c r="I38" s="95"/>
-      <c r="J38" s="92"/>
-      <c r="K38" s="92"/>
-      <c r="L38" s="96"/>
+      <c r="F38" s="66"/>
+      <c r="G38" s="66"/>
+      <c r="H38" s="146"/>
+      <c r="I38" s="65"/>
+      <c r="J38" s="66"/>
+      <c r="K38" s="66"/>
+      <c r="L38" s="67"/>
     </row>
     <row r="39" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A39" s="28" t="s">
@@ -8708,32 +8688,57 @@
     </row>
   </sheetData>
   <mergeCells count="93">
-    <mergeCell ref="A1:B4"/>
-    <mergeCell ref="C1:L2"/>
-    <mergeCell ref="C3:L3"/>
-    <mergeCell ref="C4:J4"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="A5:G6"/>
-    <mergeCell ref="H5:J5"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="H6:J6"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="A7:L7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="G8:L8"/>
-    <mergeCell ref="A9:B13"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="G28:L28"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="G24:L24"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="G25:L25"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="G26:L26"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="A19:B23"/>
+    <mergeCell ref="G19:L19"/>
+    <mergeCell ref="G20:L20"/>
+    <mergeCell ref="G21:L21"/>
+    <mergeCell ref="G22:L22"/>
+    <mergeCell ref="G23:L23"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="G18:L18"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="G9:L9"/>
+    <mergeCell ref="G10:L10"/>
+    <mergeCell ref="G11:L11"/>
+    <mergeCell ref="G15:L15"/>
+    <mergeCell ref="A14:B18"/>
+    <mergeCell ref="G12:L12"/>
+    <mergeCell ref="G13:L13"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="G14:L14"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="G16:L16"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="G17:L17"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="A37:D37"/>
+    <mergeCell ref="E37:H37"/>
+    <mergeCell ref="I37:L37"/>
+    <mergeCell ref="A38:D38"/>
+    <mergeCell ref="E38:H38"/>
+    <mergeCell ref="I38:L38"/>
     <mergeCell ref="A33:D36"/>
     <mergeCell ref="E33:H36"/>
     <mergeCell ref="I33:L36"/>
@@ -8750,57 +8755,32 @@
     <mergeCell ref="I32:L32"/>
     <mergeCell ref="E27:F27"/>
     <mergeCell ref="G27:L27"/>
-    <mergeCell ref="A37:D37"/>
-    <mergeCell ref="E37:H37"/>
-    <mergeCell ref="I37:L37"/>
-    <mergeCell ref="A38:D38"/>
-    <mergeCell ref="E38:H38"/>
-    <mergeCell ref="I38:L38"/>
-    <mergeCell ref="A14:B18"/>
-    <mergeCell ref="G12:L12"/>
-    <mergeCell ref="G13:L13"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="G14:L14"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="G16:L16"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="G17:L17"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="G18:L18"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="G9:L9"/>
-    <mergeCell ref="G10:L10"/>
-    <mergeCell ref="G11:L11"/>
-    <mergeCell ref="G15:L15"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="A19:B23"/>
-    <mergeCell ref="G19:L19"/>
-    <mergeCell ref="G20:L20"/>
-    <mergeCell ref="G21:L21"/>
-    <mergeCell ref="G22:L22"/>
-    <mergeCell ref="G23:L23"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="G28:L28"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="G24:L24"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="G25:L25"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="G26:L26"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="A7:L7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="G8:L8"/>
+    <mergeCell ref="A9:B13"/>
+    <mergeCell ref="A5:G6"/>
+    <mergeCell ref="H5:J5"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="H6:J6"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="A1:B4"/>
+    <mergeCell ref="C1:L2"/>
+    <mergeCell ref="C3:L3"/>
+    <mergeCell ref="C4:J4"/>
+    <mergeCell ref="K4:L4"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.31496062992125984" right="0.23622047244094491" top="0.82677165354330717" bottom="0.35433070866141736" header="0.19685039370078741" footer="0.19685039370078741"/>
